--- a/tests/fixtures/test_broken_kb.xlsx
+++ b/tests/fixtures/test_broken_kb.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="135" yWindow="555" windowWidth="28470" windowHeight="12105" firstSheet="7" activeTab="13"/>
+    <workbookView xWindow="132" yWindow="552" windowWidth="28476" windowHeight="12108" firstSheet="7" activeTab="12"/>
   </bookViews>
   <sheets>
     <sheet name="Knowledge base" sheetId="1" r:id="rId1"/>
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1061" uniqueCount="516">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1061" uniqueCount="515">
   <si>
     <t>Id</t>
   </si>
@@ -1147,9 +1147,6 @@
   </si>
   <si>
     <t>process_RibosomeAssembly</t>
-  </si>
-  <si>
-    <t>[c]: prot_gene_1_1</t>
   </si>
   <si>
     <t>Species</t>
@@ -1973,7 +1970,7 @@
       <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData>
     <row r="1" spans="1:2" ht="15" customHeight="1">
       <c r="A1" s="1" t="s">
@@ -2056,12 +2053,12 @@
       <selection pane="bottomRight" activeCell="K29" sqref="K29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="2" max="2" width="20.28515625" customWidth="1"/>
-    <col min="4" max="4" width="16.85546875" customWidth="1"/>
-    <col min="7" max="7" width="16.5703125" customWidth="1"/>
-    <col min="10" max="10" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.33203125" customWidth="1"/>
+    <col min="4" max="4" width="16.88671875" customWidth="1"/>
+    <col min="7" max="7" width="16.5546875" customWidth="1"/>
+    <col min="10" max="10" width="18.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15" customHeight="1">
@@ -2093,7 +2090,7 @@
         <v>15</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="15" customHeight="1">
@@ -2908,12 +2905,12 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="K1" sqref="K1"/>
+      <selection pane="bottomRight" activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="11" max="11" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="18.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="15" customHeight="1">
@@ -2948,7 +2945,7 @@
         <v>15</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="15" customHeight="1">
@@ -2960,7 +2957,7 @@
         <v>365</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>366</v>
+        <v>327</v>
       </c>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
@@ -2986,20 +2983,20 @@
       <selection pane="bottomRight" activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="6" max="6" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="15" customHeight="1">
       <c r="A1" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>367</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>368</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>369</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>11</v>
@@ -3008,1227 +3005,1227 @@
         <v>15</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="15" customHeight="1">
       <c r="A2" s="1" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B2" s="2">
         <v>8.2299999999999995E-4</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
     </row>
     <row r="3" spans="1:6" ht="15" customHeight="1">
       <c r="A3" s="1" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B3" s="2">
         <v>2.5999999999999999E-3</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
     </row>
     <row r="4" spans="1:6" ht="15" customHeight="1">
       <c r="A4" s="1" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B4" s="2">
         <v>1.5100000000000001E-4</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
     </row>
     <row r="5" spans="1:6" ht="15" customHeight="1">
       <c r="A5" s="1" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B5" s="2">
         <v>5.6999999999999998E-4</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
     </row>
     <row r="6" spans="1:6" ht="15" customHeight="1">
       <c r="A6" s="1" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B6" s="2">
         <v>5.1000000000000004E-4</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
     </row>
     <row r="7" spans="1:6" ht="15" customHeight="1">
       <c r="A7" s="1" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B7" s="2">
         <v>4.1999999999999997E-3</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
     </row>
     <row r="8" spans="1:6" ht="15" customHeight="1">
       <c r="A8" s="1" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B8" s="2">
         <v>3.5000000000000001E-3</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
     </row>
     <row r="9" spans="1:6" ht="15" customHeight="1">
       <c r="A9" s="1" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B9" s="2">
         <v>3.6000000000000002E-4</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
     </row>
     <row r="10" spans="1:6" ht="15" customHeight="1">
       <c r="A10" s="1" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="B10" s="2">
         <v>1.1999999999999999E-3</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
     </row>
     <row r="11" spans="1:6" ht="15" customHeight="1">
       <c r="A11" s="1" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B11" s="2">
         <v>3.6999999999999999E-4</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
     </row>
     <row r="12" spans="1:6" ht="15" customHeight="1">
       <c r="A12" s="1" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="B12" s="2">
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
     </row>
     <row r="13" spans="1:6" ht="15" customHeight="1">
       <c r="A13" s="1" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B13" s="2">
         <v>3.8E-3</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
     </row>
     <row r="14" spans="1:6" ht="15" customHeight="1">
       <c r="A14" s="1" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="B14" s="2">
         <v>9.6000000000000002E-2</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
     </row>
     <row r="15" spans="1:6" ht="15" customHeight="1">
       <c r="A15" s="1" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B15" s="2">
         <v>3.0999999999999999E-3</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
     </row>
     <row r="16" spans="1:6" ht="15" customHeight="1">
       <c r="A16" s="1" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B16" s="2">
         <v>2.4000000000000001E-5</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
     </row>
     <row r="17" spans="1:5" ht="15" customHeight="1">
       <c r="A17" s="1" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B17" s="2">
         <v>1.9E-3</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
     </row>
     <row r="18" spans="1:5" ht="15" customHeight="1">
       <c r="A18" s="1" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B18" s="2">
         <v>55.5</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
     </row>
     <row r="19" spans="1:5" ht="15" customHeight="1">
       <c r="A19" s="1" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B19" s="2">
         <v>2.8200000000000001E-8</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
     </row>
     <row r="20" spans="1:5" ht="15" customHeight="1">
       <c r="A20" s="1" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B20" s="2">
         <v>6.7999999999999999E-5</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
     </row>
     <row r="21" spans="1:5" ht="15" customHeight="1">
       <c r="A21" s="1" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B21" s="2">
         <v>2.9999999999999997E-4</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="D21" s="2"/>
       <c r="E21" s="2"/>
     </row>
     <row r="22" spans="1:5" ht="15" customHeight="1">
       <c r="A22" s="1" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B22" s="2">
         <v>2.9999999999999997E-4</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="D22" s="2"/>
       <c r="E22" s="2"/>
     </row>
     <row r="23" spans="1:5" ht="15" customHeight="1">
       <c r="A23" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B23" s="2">
         <v>4.0999999999999999E-4</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="D23" s="2"/>
       <c r="E23" s="2"/>
     </row>
     <row r="24" spans="1:5" ht="15" customHeight="1">
       <c r="A24" s="1" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B24" s="2">
         <v>1.4999999999999999E-4</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="D24" s="2"/>
       <c r="E24" s="2"/>
     </row>
     <row r="25" spans="1:5" ht="15" customHeight="1">
       <c r="A25" s="1" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B25" s="2">
         <v>1.8E-5</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="D25" s="2"/>
       <c r="E25" s="2"/>
     </row>
     <row r="26" spans="1:5" ht="15" customHeight="1">
       <c r="A26" s="1" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="B26" s="2">
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="D26" s="2"/>
       <c r="E26" s="2"/>
     </row>
     <row r="27" spans="1:5" ht="15" customHeight="1">
       <c r="A27" s="1" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="B27" s="2">
         <v>5.0000000000000001E-4</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="D27" s="2"/>
       <c r="E27" s="2"/>
     </row>
     <row r="28" spans="1:5" ht="15" customHeight="1">
       <c r="A28" s="1" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B28" s="2">
         <v>3.8999999999999999E-4</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="D28" s="2"/>
       <c r="E28" s="2"/>
     </row>
     <row r="29" spans="1:5" ht="15" customHeight="1">
       <c r="A29" s="1" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B29" s="2">
         <v>1.690428743154853E-6</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="D29" s="2"/>
       <c r="E29" s="2"/>
     </row>
     <row r="30" spans="1:5" ht="15" customHeight="1">
       <c r="A30" s="1" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="B30" s="2">
         <v>1.6705022746697271E-6</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="D30" s="2"/>
       <c r="E30" s="2"/>
     </row>
     <row r="31" spans="1:5" ht="15" customHeight="1">
       <c r="A31" s="1" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B31" s="2">
         <v>1.6821260479527169E-6</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="D31" s="2"/>
       <c r="E31" s="2"/>
     </row>
     <row r="32" spans="1:5" ht="15" customHeight="1">
       <c r="A32" s="1" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B32" s="2">
         <v>1.7103552116399789E-6</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="D32" s="2"/>
       <c r="E32" s="2"/>
     </row>
     <row r="33" spans="1:5" ht="15" customHeight="1">
       <c r="A33" s="1" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B33" s="2">
         <v>1.6705022746697271E-6</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="D33" s="2"/>
       <c r="E33" s="2"/>
     </row>
     <row r="34" spans="1:5" ht="15" customHeight="1">
       <c r="A34" s="1" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B34" s="2">
         <v>1.6489152671441739E-6</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="D34" s="2"/>
       <c r="E34" s="2"/>
     </row>
     <row r="35" spans="1:5" ht="15" customHeight="1">
       <c r="A35" s="1" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B35" s="2">
         <v>1.6788049698718629E-6</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="D35" s="2"/>
       <c r="E35" s="2"/>
     </row>
     <row r="36" spans="1:5" ht="15" customHeight="1">
       <c r="A36" s="1" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="B36" s="2">
         <v>1.6821260479527169E-6</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="D36" s="2"/>
       <c r="E36" s="2"/>
     </row>
     <row r="37" spans="1:5" ht="15" customHeight="1">
       <c r="A37" s="1" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="B37" s="2">
         <v>1.6705022746697271E-6</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="D37" s="2"/>
       <c r="E37" s="2"/>
     </row>
     <row r="38" spans="1:5" ht="15" customHeight="1">
       <c r="A38" s="1" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="B38" s="2">
         <v>1.638952032901611E-6</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="D38" s="2"/>
       <c r="E38" s="2"/>
     </row>
     <row r="39" spans="1:5" ht="15" customHeight="1">
       <c r="A39" s="1" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="B39" s="2">
         <v>1.6688417356293001E-6</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="D39" s="2"/>
       <c r="E39" s="2"/>
     </row>
     <row r="40" spans="1:5" ht="15" customHeight="1">
       <c r="A40" s="1" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="B40" s="2">
         <v>1.662199579467591E-6</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="D40" s="2"/>
       <c r="E40" s="2"/>
     </row>
     <row r="41" spans="1:5" ht="15" customHeight="1">
       <c r="A41" s="1" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="B41" s="2">
         <v>1.662199579467591E-6</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="D41" s="2"/>
       <c r="E41" s="2"/>
     </row>
     <row r="42" spans="1:5" ht="15" customHeight="1">
       <c r="A42" s="1" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B42" s="2">
         <v>1.65721796234631E-6</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="D42" s="2"/>
       <c r="E42" s="2"/>
     </row>
     <row r="43" spans="1:5" ht="15" customHeight="1">
       <c r="A43" s="1" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B43" s="2">
         <v>1.7319422191655321E-6</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="D43" s="2"/>
       <c r="E43" s="2"/>
     </row>
     <row r="44" spans="1:5" ht="15" customHeight="1">
       <c r="A44" s="1" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B44" s="2">
         <v>1.660539040427164E-6</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="D44" s="2"/>
       <c r="E44" s="2"/>
     </row>
     <row r="45" spans="1:5" ht="15" customHeight="1">
       <c r="A45" s="1" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="B45" s="2">
         <v>1.6538968842654549E-6</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="D45" s="2"/>
       <c r="E45" s="2"/>
     </row>
     <row r="46" spans="1:5" ht="15" customHeight="1">
       <c r="A46" s="1" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="B46" s="2">
         <v>1.627328259618621E-6</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="D46" s="2"/>
       <c r="E46" s="2"/>
     </row>
     <row r="47" spans="1:5" ht="15" customHeight="1">
       <c r="A47" s="1" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B47" s="2">
         <v>1.6522363452250279E-6</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="D47" s="2"/>
       <c r="E47" s="2"/>
     </row>
     <row r="48" spans="1:5" ht="15" customHeight="1">
       <c r="A48" s="1" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B48" s="2">
         <v>1.65721796234631E-6</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="D48" s="2"/>
       <c r="E48" s="2"/>
     </row>
     <row r="49" spans="1:5" ht="15" customHeight="1">
       <c r="A49" s="1" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="B49" s="2">
         <v>1.69208928219528E-6</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="D49" s="2"/>
       <c r="E49" s="2"/>
     </row>
     <row r="50" spans="1:5" ht="15" customHeight="1">
       <c r="A50" s="1" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B50" s="2">
         <v>1.614043947295203E-6</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="D50" s="2"/>
       <c r="E50" s="2"/>
     </row>
     <row r="51" spans="1:5" ht="15" customHeight="1">
       <c r="A51" s="1" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="B51" s="2">
         <v>1.695410360276134E-6</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="D51" s="2"/>
       <c r="E51" s="2"/>
     </row>
     <row r="52" spans="1:5" ht="15" customHeight="1">
       <c r="A52" s="1" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="B52" s="2">
         <v>1.6455941890633191E-6</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="D52" s="2"/>
       <c r="E52" s="2"/>
     </row>
     <row r="53" spans="1:5" ht="15" customHeight="1">
       <c r="A53" s="1" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="B53" s="2">
         <v>1.7020525164378431E-6</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="D53" s="2"/>
       <c r="E53" s="2"/>
     </row>
     <row r="54" spans="1:5" ht="15" customHeight="1">
       <c r="A54" s="1" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B54" s="2">
         <v>1.65721796234631E-6</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="D54" s="2"/>
       <c r="E54" s="2"/>
     </row>
     <row r="55" spans="1:5" ht="15" customHeight="1">
       <c r="A55" s="1" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B55" s="2">
         <v>1.630649337699475E-6</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="D55" s="2"/>
       <c r="E55" s="2"/>
     </row>
     <row r="56" spans="1:5" ht="15" customHeight="1">
       <c r="A56" s="1" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B56" s="2">
         <v>1.6455941890633191E-6</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="D56" s="2"/>
       <c r="E56" s="2"/>
     </row>
     <row r="57" spans="1:5" ht="15" customHeight="1">
       <c r="A57" s="1" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="B57" s="2">
         <v>1.660539040427164E-6</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="D57" s="2"/>
       <c r="E57" s="2"/>
     </row>
     <row r="58" spans="1:5" ht="15" customHeight="1">
       <c r="A58" s="1" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="B58" s="2">
         <v>1.6671811965888731E-6</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="D58" s="2"/>
       <c r="E58" s="2"/>
     </row>
     <row r="59" spans="1:5" ht="15" customHeight="1">
       <c r="A59" s="1" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="B59" s="2">
         <v>1.6854471260335709E-6</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="D59" s="2"/>
       <c r="E59" s="2"/>
     </row>
     <row r="60" spans="1:5" ht="15" customHeight="1">
       <c r="A60" s="1" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B60" s="2">
         <v>1.6788049698718629E-6</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="D60" s="2"/>
       <c r="E60" s="2"/>
     </row>
     <row r="61" spans="1:5" ht="15" customHeight="1">
       <c r="A61" s="1" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="B61" s="2">
         <v>1.6605390404271641E-7</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="D61" s="2"/>
       <c r="E61" s="2"/>
     </row>
     <row r="62" spans="1:5" ht="15" customHeight="1">
       <c r="A62" s="1" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="B62" s="2">
         <v>1.893014506086967E-7</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="D62" s="2"/>
       <c r="E62" s="2"/>
     </row>
     <row r="63" spans="1:5" ht="15" customHeight="1">
       <c r="A63" s="1" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B63" s="2">
         <v>1.4114581843630891E-7</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="D63" s="2"/>
       <c r="E63" s="2"/>
     </row>
     <row r="64" spans="1:5" ht="15" customHeight="1">
       <c r="A64" s="1" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B64" s="2">
         <v>1.9262252868955099E-7</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="D64" s="2"/>
       <c r="E64" s="2"/>
     </row>
     <row r="65" spans="1:5" ht="15" customHeight="1">
       <c r="A65" s="1" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B65" s="2">
         <v>1.859803725278424E-7</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="D65" s="2"/>
       <c r="E65" s="2"/>
     </row>
     <row r="66" spans="1:5" ht="15" customHeight="1">
       <c r="A66" s="1" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B66" s="2">
         <v>1.3118258419374599E-7</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="D66" s="2"/>
       <c r="E66" s="2"/>
     </row>
     <row r="67" spans="1:5" ht="15" customHeight="1">
       <c r="A67" s="1" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B67" s="2">
         <v>1.6273282596186211E-7</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="D67" s="2"/>
       <c r="E67" s="2"/>
     </row>
     <row r="68" spans="1:5" ht="15" customHeight="1">
       <c r="A68" s="1" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B68" s="2">
         <v>2.0922791909382271E-7</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="D68" s="2"/>
       <c r="E68" s="2"/>
     </row>
     <row r="69" spans="1:5" ht="15" customHeight="1">
       <c r="A69" s="1" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B69" s="2">
         <v>1.7103552116399789E-7</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="D69" s="2"/>
       <c r="E69" s="2"/>
     </row>
     <row r="70" spans="1:5" ht="15" customHeight="1">
       <c r="A70" s="1" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B70" s="2">
         <v>1.5276959171929909E-7</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="D70" s="2"/>
       <c r="E70" s="2"/>
     </row>
     <row r="71" spans="1:5" ht="15" customHeight="1">
       <c r="A71" s="1" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B71" s="2">
         <v>1.5443013075972631E-7</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="D71" s="2"/>
       <c r="E71" s="2"/>
     </row>
     <row r="72" spans="1:5" ht="15" customHeight="1">
       <c r="A72" s="1" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B72" s="2">
         <v>1.5941174788100771E-7</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="D72" s="2"/>
       <c r="E72" s="2"/>
     </row>
     <row r="73" spans="1:5" ht="15" customHeight="1">
       <c r="A73" s="1" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B73" s="2">
         <v>1.859803725278424E-7</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="D73" s="2"/>
       <c r="E73" s="2"/>
     </row>
     <row r="74" spans="1:5" ht="15" customHeight="1">
       <c r="A74" s="1" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B74" s="2">
         <v>1.7103552116399789E-7</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="D74" s="2"/>
       <c r="E74" s="2"/>
     </row>
     <row r="75" spans="1:5" ht="15" customHeight="1">
       <c r="A75" s="1" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="B75" s="2">
         <v>1.8099875540656089E-7</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="D75" s="2"/>
       <c r="E75" s="2"/>
     </row>
     <row r="76" spans="1:5" ht="15" customHeight="1">
       <c r="A76" s="1" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="B76" s="2">
         <v>1.9926468485125969E-7</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="D76" s="2"/>
       <c r="E76" s="2"/>
     </row>
     <row r="77" spans="1:5" ht="15" customHeight="1">
       <c r="A77" s="1" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="B77" s="2">
         <v>1.428063574767361E-7</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="D77" s="2"/>
       <c r="E77" s="2"/>
     </row>
     <row r="78" spans="1:5" ht="15" customHeight="1">
       <c r="A78" s="1" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="B78" s="2">
         <v>1.760171382852794E-7</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="D78" s="2"/>
       <c r="E78" s="2"/>
     </row>
     <row r="79" spans="1:5" ht="15" customHeight="1">
       <c r="A79" s="1" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="B79" s="2">
         <v>1.826592944469881E-7</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="D79" s="2"/>
       <c r="E79" s="2"/>
     </row>
     <row r="80" spans="1:5" ht="15" customHeight="1">
       <c r="A80" s="1" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="B80" s="2">
         <v>1.9096198964912391E-7</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="D80" s="2"/>
       <c r="E80" s="2"/>
     </row>
     <row r="81" spans="1:5" ht="15" customHeight="1">
       <c r="A81" s="1" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B81" s="2">
         <v>1.6937498212357071E-7</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="D81" s="2"/>
       <c r="E81" s="2"/>
     </row>
     <row r="82" spans="1:5" ht="15" customHeight="1">
       <c r="A82" s="1" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="B82" s="2">
         <v>1.5443013075972631E-7</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="D82" s="2"/>
       <c r="E82" s="2"/>
     </row>
     <row r="83" spans="1:5" ht="15" customHeight="1">
       <c r="A83" s="1" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B83" s="2">
         <v>1.7269606020442511E-7</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="D83" s="2"/>
       <c r="E83" s="2"/>
     </row>
     <row r="84" spans="1:5" ht="15" customHeight="1">
       <c r="A84" s="1" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="B84" s="2">
         <v>1.7103552116399789E-7</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="D84" s="2"/>
       <c r="E84" s="2"/>
     </row>
     <row r="85" spans="1:5" ht="15" customHeight="1">
       <c r="A85" s="1" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="B85" s="2">
         <v>1.5276959171929909E-7</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="D85" s="2"/>
       <c r="E85" s="2"/>
     </row>
     <row r="86" spans="1:5" ht="15" customHeight="1">
       <c r="A86" s="1" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="B86" s="2">
         <v>1.7767767732570659E-7</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="D86" s="2"/>
       <c r="E86" s="2"/>
     </row>
     <row r="87" spans="1:5" ht="15" customHeight="1">
       <c r="A87" s="1" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="B87" s="2">
         <v>1.6937498212357071E-7</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="D87" s="2"/>
       <c r="E87" s="2"/>
     </row>
     <row r="88" spans="1:5" ht="15" customHeight="1">
       <c r="A88" s="1" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B88" s="2">
         <v>1.5443013075972631E-7</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="D88" s="2"/>
       <c r="E88" s="2"/>
     </row>
     <row r="89" spans="1:5" ht="15" customHeight="1">
       <c r="A89" s="1" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="B89" s="2">
         <v>6.7999999999999999E-5</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="D89" s="2"/>
       <c r="E89" s="2"/>
     </row>
     <row r="90" spans="1:5" ht="15" customHeight="1">
       <c r="A90" s="1" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="B90" s="2">
         <v>1.8000000000000001E-4</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="D90" s="2"/>
       <c r="E90" s="2"/>
     </row>
     <row r="91" spans="1:5" ht="15" customHeight="1">
       <c r="A91" s="1" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="B91" s="2">
         <v>1.2E-5</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="D91" s="2"/>
       <c r="E91" s="2"/>
     </row>
     <row r="92" spans="1:5" ht="15" customHeight="1">
       <c r="A92" s="1" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="B92" s="2">
         <v>2.9E-5</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="D92" s="2"/>
       <c r="E92" s="2"/>
     </row>
     <row r="93" spans="1:5" ht="15" customHeight="1">
       <c r="A93" s="1" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="B93" s="2">
         <v>1.84E-4</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="D93" s="2"/>
       <c r="E93" s="2"/>
     </row>
     <row r="94" spans="1:5" ht="15" customHeight="1">
       <c r="A94" s="1" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="B94" s="2">
         <v>2E-3</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="D94" s="2"/>
       <c r="E94" s="2"/>
     </row>
     <row r="95" spans="1:5" ht="15" customHeight="1">
       <c r="A95" s="1" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="B95" s="2">
         <v>4.0000000000000001E-3</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="D95" s="2"/>
       <c r="E95" s="2"/>
@@ -4243,21 +4240,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
       <selection pane="bottomRight" activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="21.85546875" customWidth="1"/>
-    <col min="3" max="3" width="19.7109375" customWidth="1"/>
+    <col min="1" max="1" width="21.88671875" customWidth="1"/>
+    <col min="3" max="3" width="19.6640625" customWidth="1"/>
     <col min="4" max="4" width="32" customWidth="1"/>
-    <col min="5" max="5" width="15.5703125" customWidth="1"/>
-    <col min="7" max="7" width="12.7109375" customWidth="1"/>
-    <col min="8" max="8" width="27.28515625" customWidth="1"/>
+    <col min="5" max="5" width="15.5546875" customWidth="1"/>
+    <col min="7" max="7" width="12.6640625" customWidth="1"/>
+    <col min="8" max="8" width="27.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15" customHeight="1">
@@ -4268,13 +4265,13 @@
         <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>464</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>465</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>466</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>11</v>
@@ -4283,19 +4280,19 @@
         <v>15</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="15" customHeight="1">
       <c r="A2" s="1" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" s="2" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="E2" s="2" t="b">
         <v>0</v>
@@ -4307,14 +4304,14 @@
     </row>
     <row r="3" spans="1:9" ht="15" customHeight="1">
       <c r="A3" s="1" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" s="2" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="E3" s="2" t="b">
         <v>0</v>
@@ -4334,35 +4331,35 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
       <selection pane="bottomRight" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="44.28515625" customWidth="1"/>
-    <col min="3" max="3" width="67.140625" customWidth="1"/>
-    <col min="8" max="8" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="44.33203125" customWidth="1"/>
+    <col min="3" max="3" width="67.109375" customWidth="1"/>
+    <col min="8" max="8" width="18.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="15" customHeight="1">
       <c r="A1" s="1" t="s">
+        <v>466</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>467</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>468</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>469</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>470</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>471</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>11</v>
@@ -4371,29 +4368,29 @@
         <v>15</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="B2" t="s">
+        <v>508</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>509</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>510</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="B3" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="C3" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="D3">
         <v>0.05</v>
@@ -4419,9 +4416,9 @@
       <selection pane="bottomRight" activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="7" max="7" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="15" customHeight="1">
@@ -4432,10 +4429,10 @@
         <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>368</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>369</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>11</v>
@@ -4444,61 +4441,61 @@
         <v>15</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="15" customHeight="1">
       <c r="A2" s="1" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" s="2">
         <v>100</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
     </row>
     <row r="3" spans="1:7" ht="15" customHeight="1">
       <c r="A3" s="1" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" s="2">
         <v>1000000</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
     </row>
     <row r="4" spans="1:7" ht="15" customHeight="1">
       <c r="A4" s="1" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" s="2">
         <v>0.3</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
     </row>
     <row r="5" spans="1:7" ht="15" customHeight="1">
       <c r="A5" s="1" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" s="2">
         <v>1.0000000000000001E-15</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
@@ -4520,9 +4517,9 @@
       <selection pane="bottomRight" activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="8" max="8" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="15" customHeight="1">
@@ -4533,13 +4530,13 @@
         <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>479</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>480</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>367</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>481</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>11</v>
@@ -4548,21 +4545,21 @@
         <v>15</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="15" customHeight="1">
       <c r="A2" s="1" t="s">
+        <v>481</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>482</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>483</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
@@ -4570,16 +4567,16 @@
     </row>
     <row r="3" spans="1:8" ht="15" customHeight="1">
       <c r="A3" s="1" t="s">
+        <v>483</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>484</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>485</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
@@ -4587,16 +4584,16 @@
     </row>
     <row r="4" spans="1:8" ht="15" customHeight="1">
       <c r="A4" s="1" t="s">
+        <v>485</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>486</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>487</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
@@ -4604,7 +4601,7 @@
     </row>
     <row r="5" spans="1:8" ht="15" customHeight="1">
       <c r="A5" s="1" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>364</v>
@@ -4613,7 +4610,7 @@
         <v>12</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
@@ -4621,16 +4618,16 @@
     </row>
     <row r="6" spans="1:8" ht="15" customHeight="1">
       <c r="A6" s="1" t="s">
+        <v>488</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>489</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>490</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
@@ -4638,16 +4635,16 @@
     </row>
     <row r="7" spans="1:8" ht="15" customHeight="1">
       <c r="A7" s="1" t="s">
+        <v>490</v>
+      </c>
+      <c r="B7" s="2" t="s">
         <v>491</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>492</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
@@ -4655,16 +4652,16 @@
     </row>
     <row r="8" spans="1:8" ht="15" customHeight="1">
       <c r="A8" s="1" t="s">
+        <v>492</v>
+      </c>
+      <c r="B8" s="2" t="s">
         <v>493</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>494</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
@@ -4672,16 +4669,16 @@
     </row>
     <row r="9" spans="1:8" ht="15" customHeight="1">
       <c r="A9" s="1" t="s">
+        <v>494</v>
+      </c>
+      <c r="B9" s="2" t="s">
         <v>495</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>496</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
@@ -4689,16 +4686,16 @@
     </row>
     <row r="10" spans="1:8" ht="15" customHeight="1">
       <c r="A10" s="1" t="s">
+        <v>496</v>
+      </c>
+      <c r="B10" s="2" t="s">
         <v>497</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>498</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
@@ -4706,16 +4703,16 @@
     </row>
     <row r="11" spans="1:8" ht="15" customHeight="1">
       <c r="A11" s="1" t="s">
+        <v>498</v>
+      </c>
+      <c r="B11" s="2" t="s">
         <v>499</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>500</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
@@ -4723,16 +4720,16 @@
     </row>
     <row r="12" spans="1:8" ht="15" customHeight="1">
       <c r="A12" s="1" t="s">
+        <v>500</v>
+      </c>
+      <c r="B12" s="2" t="s">
         <v>501</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>502</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
@@ -4740,16 +4737,16 @@
     </row>
     <row r="13" spans="1:8" ht="15" customHeight="1">
       <c r="A13" s="1" t="s">
+        <v>502</v>
+      </c>
+      <c r="B13" s="2" t="s">
         <v>503</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>504</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
@@ -4772,14 +4769,14 @@
       <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData>
     <row r="1" spans="1:2" ht="15" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
     </row>
   </sheetData>
@@ -4799,7 +4796,7 @@
       <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData>
     <row r="1" spans="1:2" ht="15" customHeight="1">
       <c r="A1" s="1" t="s">
@@ -4844,9 +4841,9 @@
       <selection pane="bottomRight" activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="6" max="6" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="15" customHeight="1">
@@ -4866,7 +4863,7 @@
         <v>15</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="15" customHeight="1">
@@ -4909,9 +4906,9 @@
       <selection pane="bottomRight" activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="7" max="7" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="15" customHeight="1">
@@ -4934,7 +4931,7 @@
         <v>15</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="15" customHeight="1">
@@ -5430,7 +5427,7 @@
       <selection pane="bottomRight" activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData>
     <row r="1" spans="1:9" ht="15" customHeight="1">
       <c r="A1" s="1" t="s">
@@ -5458,7 +5455,7 @@
         <v>15</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="15" customHeight="1">
@@ -5496,7 +5493,7 @@
       <selection pane="bottomRight" activeCell="K1" sqref="K1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData>
     <row r="1" spans="1:11" ht="15" customHeight="1">
       <c r="A1" s="1" t="s">
@@ -5530,7 +5527,7 @@
         <v>15</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
     </row>
   </sheetData>
@@ -5550,7 +5547,7 @@
       <selection pane="bottomRight" activeCell="K1" sqref="K1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData>
     <row r="1" spans="1:11" ht="15" customHeight="1">
       <c r="A1" s="1" t="s">
@@ -5584,7 +5581,7 @@
         <v>15</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="15" customHeight="1">
@@ -6306,9 +6303,9 @@
       <selection pane="bottomRight" activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="33.7109375" customWidth="1"/>
+    <col min="1" max="1" width="33.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15" customHeight="1">
@@ -6340,7 +6337,7 @@
         <v>15</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="15" customHeight="1">
@@ -7033,7 +7030,7 @@
       <selection pane="bottomRight" activeCell="K1" sqref="K1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData>
     <row r="1" spans="1:11" ht="15" customHeight="1">
       <c r="A1" s="1" t="s">
@@ -7067,7 +7064,7 @@
         <v>15</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="15" customHeight="1">

--- a/tests/fixtures/test_broken_kb.xlsx
+++ b/tests/fixtures/test_broken_kb.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="132" yWindow="552" windowWidth="28476" windowHeight="12108" firstSheet="7" activeTab="12"/>
+    <workbookView xWindow="132" yWindow="552" windowWidth="28476" windowHeight="12108" firstSheet="7" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="Knowledge base" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Cell!$A$1:$B$4</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Compartments!$A$1:$E$3</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="10" hidden="1">'Complex species types'!$A$1:$J$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="10" hidden="1">'Complex species types'!$A$1:$K$2</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="11" hidden="1">Concentrations!$A$1:$E$95</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'DNA species types'!$A$1:$H$2</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">'Gene loci'!$A$1:$J$37</definedName>
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1061" uniqueCount="515">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1062" uniqueCount="516">
   <si>
     <t>Id</t>
   </si>
@@ -1594,6 +1594,9 @@
   </si>
   <si>
     <t>mock_transfer_2amp</t>
+  </si>
+  <si>
+    <t>Composition in Uniprot</t>
   </si>
 </sst>
 </file>
@@ -2899,21 +2902,21 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K2"/>
+  <dimension ref="A1:L2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="D3" sqref="D3"/>
+      <selection pane="bottomRight" activeCell="L13" sqref="L13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="11" max="11" width="18.6640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="18.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="15" customHeight="1">
+    <row r="1" spans="1:12" ht="15" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2927,28 +2930,31 @@
         <v>360</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>515</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>361</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>362</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>363</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="L1" s="3" t="s">
         <v>505</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="15" customHeight="1">
+    <row r="2" spans="1:12" ht="15" customHeight="1">
       <c r="A2" s="1" t="s">
         <v>364</v>
       </c>
@@ -2965,9 +2971,10 @@
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
       <c r="J2" s="2"/>
+      <c r="K2" s="2"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:J2"/>
+  <autoFilter ref="A1:K2"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
@@ -4240,7 +4247,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>

--- a/tests/fixtures/test_broken_kb.xlsx
+++ b/tests/fixtures/test_broken_kb.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="132" yWindow="552" windowWidth="28476" windowHeight="12108" firstSheet="7" activeTab="10"/>
+    <workbookView xWindow="135" yWindow="555" windowWidth="28470" windowHeight="12105" firstSheet="8" activeTab="14"/>
   </bookViews>
   <sheets>
     <sheet name="Knowledge base" sheetId="1" r:id="rId1"/>
@@ -21,9 +21,10 @@
     <sheet name="Concentrations" sheetId="12" r:id="rId12"/>
     <sheet name="Reactions" sheetId="13" r:id="rId13"/>
     <sheet name="Rate laws" sheetId="14" r:id="rId14"/>
-    <sheet name="Properties" sheetId="15" r:id="rId15"/>
-    <sheet name="Observables" sheetId="16" r:id="rId16"/>
-    <sheet name="References" sheetId="17" r:id="rId17"/>
+    <sheet name="Parameters" sheetId="18" r:id="rId15"/>
+    <sheet name="Properties" sheetId="15" r:id="rId16"/>
+    <sheet name="Observables" sheetId="16" r:id="rId17"/>
+    <sheet name="References" sheetId="17" r:id="rId18"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Cell!$A$1:$B$4</definedName>
@@ -34,13 +35,13 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">'Gene loci'!$A$1:$J$37</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Knowledge base'!$A$1:$B$9</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'Metabolite species types'!$A$1:$F$35</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="15" hidden="1">Observables!$A$1:$G$13</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="16" hidden="1">Observables!$A$1:$G$13</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'Promoter loci'!$A$1:$J$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="14" hidden="1">Properties!$A$1:$F$5</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="15" hidden="1">Properties!$A$1:$F$5</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="9" hidden="1">'Protein species types'!$A$1:$I$33</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="13" hidden="1">'Rate laws'!$A$1:$G$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="12" hidden="1">Reactions!$A$1:$G$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="16" hidden="1">References!$A$1:$B$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="17" hidden="1">References!$A$1:$B$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">'Rna species types'!$A$1:$I$28</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">'Transcription unit loci'!$A$1:$J$28</definedName>
   </definedNames>
@@ -49,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1062" uniqueCount="516">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1070" uniqueCount="517">
   <si>
     <t>Id</t>
   </si>
@@ -1597,13 +1598,16 @@
   </si>
   <si>
     <t>Composition in Uniprot</t>
+  </si>
+  <si>
+    <t>Error</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1624,8 +1628,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1643,6 +1655,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCCCCCC"/>
+        <bgColor rgb="FFD9D9D9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD9D9D9"/>
+        <bgColor rgb="FFCCCCCC"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -1656,7 +1680,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -1665,6 +1689,12 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1973,7 +2003,7 @@
       <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:2" ht="15" customHeight="1">
       <c r="A1" s="1" t="s">
@@ -2056,12 +2086,12 @@
       <selection pane="bottomRight" activeCell="K29" sqref="K29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="20.33203125" customWidth="1"/>
-    <col min="4" max="4" width="16.88671875" customWidth="1"/>
-    <col min="7" max="7" width="16.5546875" customWidth="1"/>
-    <col min="10" max="10" width="18.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.28515625" customWidth="1"/>
+    <col min="4" max="4" width="16.85546875" customWidth="1"/>
+    <col min="7" max="7" width="16.5703125" customWidth="1"/>
+    <col min="10" max="10" width="18.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15" customHeight="1">
@@ -2904,16 +2934,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
       <selection pane="bottomRight" activeCell="L13" sqref="L13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="12" max="12" width="18.6640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="18.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="15" customHeight="1">
@@ -2990,9 +3020,9 @@
       <selection pane="bottomRight" activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="6" max="6" width="18.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="15" customHeight="1">
@@ -4254,14 +4284,14 @@
       <selection pane="bottomRight" activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="21.88671875" customWidth="1"/>
-    <col min="3" max="3" width="19.6640625" customWidth="1"/>
+    <col min="1" max="1" width="21.85546875" customWidth="1"/>
+    <col min="3" max="3" width="19.7109375" customWidth="1"/>
     <col min="4" max="4" width="32" customWidth="1"/>
-    <col min="5" max="5" width="15.5546875" customWidth="1"/>
-    <col min="7" max="7" width="12.6640625" customWidth="1"/>
-    <col min="8" max="8" width="27.33203125" customWidth="1"/>
+    <col min="5" max="5" width="15.5703125" customWidth="1"/>
+    <col min="7" max="7" width="12.7109375" customWidth="1"/>
+    <col min="8" max="8" width="27.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15" customHeight="1">
@@ -4345,11 +4375,11 @@
       <selection pane="bottomRight" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="44.33203125" customWidth="1"/>
-    <col min="3" max="3" width="67.109375" customWidth="1"/>
-    <col min="8" max="8" width="18.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="44.28515625" customWidth="1"/>
+    <col min="3" max="3" width="67.140625" customWidth="1"/>
+    <col min="8" max="8" width="18.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="15" customHeight="1">
@@ -4413,6 +4443,47 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K10" sqref="K10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>367</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>516</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>368</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>505</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G5"/>
   <sheetViews>
@@ -4423,9 +4494,9 @@
       <selection pane="bottomRight" activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="7" max="7" width="18.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="15" customHeight="1">
@@ -4513,7 +4584,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H13"/>
   <sheetViews>
@@ -4524,9 +4595,9 @@
       <selection pane="bottomRight" activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="8" max="8" width="18.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="15" customHeight="1">
@@ -4765,7 +4836,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B1"/>
   <sheetViews>
@@ -4776,7 +4847,7 @@
       <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:2" ht="15" customHeight="1">
       <c r="A1" s="1" t="s">
@@ -4803,7 +4874,7 @@
       <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:2" ht="15" customHeight="1">
       <c r="A1" s="1" t="s">
@@ -4848,9 +4919,9 @@
       <selection pane="bottomRight" activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="6" max="6" width="18.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="15" customHeight="1">
@@ -4913,9 +4984,9 @@
       <selection pane="bottomRight" activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="7" max="7" width="18.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="15" customHeight="1">
@@ -5434,7 +5505,7 @@
       <selection pane="bottomRight" activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:9" ht="15" customHeight="1">
       <c r="A1" s="1" t="s">
@@ -5500,7 +5571,7 @@
       <selection pane="bottomRight" activeCell="K1" sqref="K1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:11" ht="15" customHeight="1">
       <c r="A1" s="1" t="s">
@@ -5554,7 +5625,7 @@
       <selection pane="bottomRight" activeCell="K1" sqref="K1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:11" ht="15" customHeight="1">
       <c r="A1" s="1" t="s">
@@ -6310,9 +6381,9 @@
       <selection pane="bottomRight" activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="33.6640625" customWidth="1"/>
+    <col min="1" max="1" width="33.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15" customHeight="1">
@@ -7037,7 +7108,7 @@
       <selection pane="bottomRight" activeCell="K1" sqref="K1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:11" ht="15" customHeight="1">
       <c r="A1" s="1" t="s">

--- a/tests/fixtures/test_broken_kb.xlsx
+++ b/tests/fixtures/test_broken_kb.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="135" yWindow="555" windowWidth="28470" windowHeight="12105" firstSheet="8" activeTab="14"/>
+    <workbookView xWindow="135" yWindow="555" windowWidth="20730" windowHeight="11760" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Knowledge base" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Compartments!$A$1:$E$3</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="10" hidden="1">'Complex species types'!$A$1:$K$2</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="11" hidden="1">Concentrations!$A$1:$E$95</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'DNA species types'!$A$1:$H$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'DNA species types'!$A$1:$I$2</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">'Gene loci'!$A$1:$J$37</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Knowledge base'!$A$1:$B$9</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'Metabolite species types'!$A$1:$F$35</definedName>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1070" uniqueCount="517">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1071" uniqueCount="518">
   <si>
     <t>Id</t>
   </si>
@@ -1601,6 +1601,9 @@
   </si>
   <si>
     <t>Error</t>
+  </si>
+  <si>
+    <t>Ploidy</t>
   </si>
 </sst>
 </file>
@@ -4446,7 +4449,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
@@ -5496,18 +5499,18 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I2"/>
+  <dimension ref="A1:J2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="I1" sqref="I1"/>
+      <selection pane="bottomRight" activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9" ht="15" customHeight="1">
+    <row r="1" spans="1:10" ht="15" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -5524,19 +5527,22 @@
         <v>123</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>517</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="J1" s="3" t="s">
         <v>505</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="15" customHeight="1">
+    <row r="2" spans="1:10" ht="15" customHeight="1">
       <c r="A2" s="1" t="s">
         <v>124</v>
       </c>
@@ -5550,12 +5556,15 @@
       <c r="E2" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="F2" s="2"/>
+      <c r="F2" s="2">
+        <v>1</v>
+      </c>
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:H2"/>
+  <autoFilter ref="A1:I2"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>

--- a/tests/fixtures/test_broken_kb.xlsx
+++ b/tests/fixtures/test_broken_kb.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="135" yWindow="555" windowWidth="20730" windowHeight="11760" activeTab="4"/>
+    <workbookView xWindow="132" yWindow="552" windowWidth="20736" windowHeight="11760" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Knowledge base" sheetId="1" r:id="rId1"/>
@@ -415,9 +415,6 @@
     <t>InChI=1S/C5H11NO2/c1-3(2)4(6)5(7)8/h3-4H,6H2,1-2H3,(H,7,8)/t4-/m0/s1</t>
   </si>
   <si>
-    <t>Sequence</t>
-  </si>
-  <si>
     <t>Circular</t>
   </si>
   <si>
@@ -1604,6 +1601,9 @@
   </si>
   <si>
     <t>Ploidy</t>
+  </si>
+  <si>
+    <t>Sequence Path</t>
   </si>
 </sst>
 </file>
@@ -2006,7 +2006,7 @@
       <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData>
     <row r="1" spans="1:2" ht="15" customHeight="1">
       <c r="A1" s="1" t="s">
@@ -2089,12 +2089,12 @@
       <selection pane="bottomRight" activeCell="K29" sqref="K29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="2" max="2" width="20.28515625" customWidth="1"/>
-    <col min="4" max="4" width="16.85546875" customWidth="1"/>
-    <col min="7" max="7" width="16.5703125" customWidth="1"/>
-    <col min="10" max="10" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.33203125" customWidth="1"/>
+    <col min="4" max="4" width="16.88671875" customWidth="1"/>
+    <col min="7" max="7" width="16.5546875" customWidth="1"/>
+    <col min="10" max="10" width="18.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15" customHeight="1">
@@ -2105,16 +2105,16 @@
         <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>325</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>326</v>
-      </c>
       <c r="E1" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>122</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>123</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>21</v>
@@ -2126,21 +2126,21 @@
         <v>15</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="15" customHeight="1">
       <c r="A2" s="1" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="E2" s="2" t="b">
         <v>0</v>
@@ -2156,16 +2156,16 @@
     </row>
     <row r="3" spans="1:10" ht="15" customHeight="1">
       <c r="A3" s="1" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="E3" s="2" t="b">
         <v>0</v>
@@ -2181,16 +2181,16 @@
     </row>
     <row r="4" spans="1:10" ht="15" customHeight="1">
       <c r="A4" s="1" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="E4" s="2" t="b">
         <v>0</v>
@@ -2206,16 +2206,16 @@
     </row>
     <row r="5" spans="1:10" ht="15" customHeight="1">
       <c r="A5" s="1" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="E5" s="2" t="b">
         <v>0</v>
@@ -2231,16 +2231,16 @@
     </row>
     <row r="6" spans="1:10" ht="15" customHeight="1">
       <c r="A6" s="1" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="E6" s="2" t="b">
         <v>0</v>
@@ -2256,16 +2256,16 @@
     </row>
     <row r="7" spans="1:10" ht="15" customHeight="1">
       <c r="A7" s="1" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="E7" s="2" t="b">
         <v>0</v>
@@ -2281,16 +2281,16 @@
     </row>
     <row r="8" spans="1:10" ht="15" customHeight="1">
       <c r="A8" s="1" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E8" s="2" t="b">
         <v>0</v>
@@ -2306,16 +2306,16 @@
     </row>
     <row r="9" spans="1:10" ht="15" customHeight="1">
       <c r="A9" s="1" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E9" s="2" t="b">
         <v>0</v>
@@ -2331,16 +2331,16 @@
     </row>
     <row r="10" spans="1:10" ht="15" customHeight="1">
       <c r="A10" s="1" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E10" s="2" t="b">
         <v>0</v>
@@ -2356,16 +2356,16 @@
     </row>
     <row r="11" spans="1:10" ht="15" customHeight="1">
       <c r="A11" s="1" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E11" s="2" t="b">
         <v>0</v>
@@ -2381,16 +2381,16 @@
     </row>
     <row r="12" spans="1:10" ht="15" customHeight="1">
       <c r="A12" s="1" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E12" s="2" t="b">
         <v>0</v>
@@ -2406,16 +2406,16 @@
     </row>
     <row r="13" spans="1:10" ht="15" customHeight="1">
       <c r="A13" s="1" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="E13" s="2" t="b">
         <v>0</v>
@@ -2429,16 +2429,16 @@
     </row>
     <row r="14" spans="1:10" ht="15" customHeight="1">
       <c r="A14" s="1" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="E14" s="2" t="b">
         <v>0</v>
@@ -2454,16 +2454,16 @@
     </row>
     <row r="15" spans="1:10" ht="15" customHeight="1">
       <c r="A15" s="1" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="E15" s="2" t="b">
         <v>0</v>
@@ -2479,16 +2479,16 @@
     </row>
     <row r="16" spans="1:10" ht="15" customHeight="1">
       <c r="A16" s="1" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E16" s="2" t="b">
         <v>0</v>
@@ -2504,16 +2504,16 @@
     </row>
     <row r="17" spans="1:9" ht="15" customHeight="1">
       <c r="A17" s="1" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="E17" s="2" t="b">
         <v>0</v>
@@ -2529,16 +2529,16 @@
     </row>
     <row r="18" spans="1:9" ht="15" customHeight="1">
       <c r="A18" s="1" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="E18" s="2" t="b">
         <v>0</v>
@@ -2554,16 +2554,16 @@
     </row>
     <row r="19" spans="1:9" ht="15" customHeight="1">
       <c r="A19" s="1" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="E19" s="2" t="b">
         <v>0</v>
@@ -2579,16 +2579,16 @@
     </row>
     <row r="20" spans="1:9" ht="15" customHeight="1">
       <c r="A20" s="1" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="E20" s="2" t="b">
         <v>0</v>
@@ -2604,16 +2604,16 @@
     </row>
     <row r="21" spans="1:9" ht="15" customHeight="1">
       <c r="A21" s="1" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="E21" s="2" t="b">
         <v>0</v>
@@ -2629,16 +2629,16 @@
     </row>
     <row r="22" spans="1:9" ht="15" customHeight="1">
       <c r="A22" s="1" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="E22" s="2" t="b">
         <v>0</v>
@@ -2654,16 +2654,16 @@
     </row>
     <row r="23" spans="1:9" ht="15" customHeight="1">
       <c r="A23" s="1" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E23" s="2" t="b">
         <v>0</v>
@@ -2679,16 +2679,16 @@
     </row>
     <row r="24" spans="1:9" ht="15" customHeight="1">
       <c r="A24" s="1" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="E24" s="2" t="b">
         <v>0</v>
@@ -2704,16 +2704,16 @@
     </row>
     <row r="25" spans="1:9" ht="15" customHeight="1">
       <c r="A25" s="1" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="E25" s="2" t="b">
         <v>0</v>
@@ -2729,16 +2729,16 @@
     </row>
     <row r="26" spans="1:9" ht="15" customHeight="1">
       <c r="A26" s="1" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="E26" s="2" t="b">
         <v>0</v>
@@ -2754,16 +2754,16 @@
     </row>
     <row r="27" spans="1:9" ht="15" customHeight="1">
       <c r="A27" s="1" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="E27" s="2" t="b">
         <v>0</v>
@@ -2779,16 +2779,16 @@
     </row>
     <row r="28" spans="1:9" ht="15" customHeight="1">
       <c r="A28" s="1" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="E28" s="2" t="b">
         <v>0</v>
@@ -2804,16 +2804,16 @@
     </row>
     <row r="29" spans="1:9" ht="15" customHeight="1">
       <c r="A29" s="1" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="E29" s="2" t="b">
         <v>0</v>
@@ -2829,16 +2829,16 @@
     </row>
     <row r="30" spans="1:9" ht="15" customHeight="1">
       <c r="A30" s="1" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="E30" s="2" t="b">
         <v>0</v>
@@ -2854,16 +2854,16 @@
     </row>
     <row r="31" spans="1:9" ht="15" customHeight="1">
       <c r="A31" s="1" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="E31" s="2" t="b">
         <v>0</v>
@@ -2879,16 +2879,16 @@
     </row>
     <row r="32" spans="1:9" ht="15" customHeight="1">
       <c r="A32" s="1" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="E32" s="2" t="b">
         <v>0</v>
@@ -2904,16 +2904,16 @@
     </row>
     <row r="33" spans="1:9" ht="15" customHeight="1">
       <c r="A33" s="1" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="E33" s="2" t="b">
         <v>0</v>
@@ -2944,9 +2944,9 @@
       <selection pane="bottomRight" activeCell="L13" sqref="L13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="12" max="12" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="18.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="15" customHeight="1">
@@ -2957,22 +2957,22 @@
         <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>359</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
+        <v>514</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>360</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>515</v>
-      </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>361</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>362</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>363</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>21</v>
@@ -2984,19 +2984,19 @@
         <v>15</v>
       </c>
       <c r="L1" s="3" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="15" customHeight="1">
       <c r="A2" s="1" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" s="2" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
@@ -3023,20 +3023,20 @@
       <selection pane="bottomRight" activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="6" max="6" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="15" customHeight="1">
       <c r="A1" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>366</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>367</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>368</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>11</v>
@@ -3045,1227 +3045,1227 @@
         <v>15</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="15" customHeight="1">
       <c r="A2" s="1" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B2" s="2">
         <v>8.2299999999999995E-4</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
     </row>
     <row r="3" spans="1:6" ht="15" customHeight="1">
       <c r="A3" s="1" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B3" s="2">
         <v>2.5999999999999999E-3</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
     </row>
     <row r="4" spans="1:6" ht="15" customHeight="1">
       <c r="A4" s="1" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B4" s="2">
         <v>1.5100000000000001E-4</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
     </row>
     <row r="5" spans="1:6" ht="15" customHeight="1">
       <c r="A5" s="1" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B5" s="2">
         <v>5.6999999999999998E-4</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
     </row>
     <row r="6" spans="1:6" ht="15" customHeight="1">
       <c r="A6" s="1" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B6" s="2">
         <v>5.1000000000000004E-4</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
     </row>
     <row r="7" spans="1:6" ht="15" customHeight="1">
       <c r="A7" s="1" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B7" s="2">
         <v>4.1999999999999997E-3</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
     </row>
     <row r="8" spans="1:6" ht="15" customHeight="1">
       <c r="A8" s="1" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B8" s="2">
         <v>3.5000000000000001E-3</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
     </row>
     <row r="9" spans="1:6" ht="15" customHeight="1">
       <c r="A9" s="1" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B9" s="2">
         <v>3.6000000000000002E-4</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
     </row>
     <row r="10" spans="1:6" ht="15" customHeight="1">
       <c r="A10" s="1" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B10" s="2">
         <v>1.1999999999999999E-3</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
     </row>
     <row r="11" spans="1:6" ht="15" customHeight="1">
       <c r="A11" s="1" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="B11" s="2">
         <v>3.6999999999999999E-4</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
     </row>
     <row r="12" spans="1:6" ht="15" customHeight="1">
       <c r="A12" s="1" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B12" s="2">
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
     </row>
     <row r="13" spans="1:6" ht="15" customHeight="1">
       <c r="A13" s="1" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="B13" s="2">
         <v>3.8E-3</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
     </row>
     <row r="14" spans="1:6" ht="15" customHeight="1">
       <c r="A14" s="1" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B14" s="2">
         <v>9.6000000000000002E-2</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
     </row>
     <row r="15" spans="1:6" ht="15" customHeight="1">
       <c r="A15" s="1" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="B15" s="2">
         <v>3.0999999999999999E-3</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
     </row>
     <row r="16" spans="1:6" ht="15" customHeight="1">
       <c r="A16" s="1" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B16" s="2">
         <v>2.4000000000000001E-5</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
     </row>
     <row r="17" spans="1:5" ht="15" customHeight="1">
       <c r="A17" s="1" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B17" s="2">
         <v>1.9E-3</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
     </row>
     <row r="18" spans="1:5" ht="15" customHeight="1">
       <c r="A18" s="1" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B18" s="2">
         <v>55.5</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
     </row>
     <row r="19" spans="1:5" ht="15" customHeight="1">
       <c r="A19" s="1" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B19" s="2">
         <v>2.8200000000000001E-8</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
     </row>
     <row r="20" spans="1:5" ht="15" customHeight="1">
       <c r="A20" s="1" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B20" s="2">
         <v>6.7999999999999999E-5</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
     </row>
     <row r="21" spans="1:5" ht="15" customHeight="1">
       <c r="A21" s="1" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B21" s="2">
         <v>2.9999999999999997E-4</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="D21" s="2"/>
       <c r="E21" s="2"/>
     </row>
     <row r="22" spans="1:5" ht="15" customHeight="1">
       <c r="A22" s="1" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B22" s="2">
         <v>2.9999999999999997E-4</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="D22" s="2"/>
       <c r="E22" s="2"/>
     </row>
     <row r="23" spans="1:5" ht="15" customHeight="1">
       <c r="A23" s="1" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B23" s="2">
         <v>4.0999999999999999E-4</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="D23" s="2"/>
       <c r="E23" s="2"/>
     </row>
     <row r="24" spans="1:5" ht="15" customHeight="1">
       <c r="A24" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B24" s="2">
         <v>1.4999999999999999E-4</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="D24" s="2"/>
       <c r="E24" s="2"/>
     </row>
     <row r="25" spans="1:5" ht="15" customHeight="1">
       <c r="A25" s="1" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B25" s="2">
         <v>1.8E-5</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="D25" s="2"/>
       <c r="E25" s="2"/>
     </row>
     <row r="26" spans="1:5" ht="15" customHeight="1">
       <c r="A26" s="1" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B26" s="2">
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="D26" s="2"/>
       <c r="E26" s="2"/>
     </row>
     <row r="27" spans="1:5" ht="15" customHeight="1">
       <c r="A27" s="1" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="B27" s="2">
         <v>5.0000000000000001E-4</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="D27" s="2"/>
       <c r="E27" s="2"/>
     </row>
     <row r="28" spans="1:5" ht="15" customHeight="1">
       <c r="A28" s="1" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="B28" s="2">
         <v>3.8999999999999999E-4</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="D28" s="2"/>
       <c r="E28" s="2"/>
     </row>
     <row r="29" spans="1:5" ht="15" customHeight="1">
       <c r="A29" s="1" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B29" s="2">
         <v>1.690428743154853E-6</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="D29" s="2"/>
       <c r="E29" s="2"/>
     </row>
     <row r="30" spans="1:5" ht="15" customHeight="1">
       <c r="A30" s="1" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B30" s="2">
         <v>1.6705022746697271E-6</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="D30" s="2"/>
       <c r="E30" s="2"/>
     </row>
     <row r="31" spans="1:5" ht="15" customHeight="1">
       <c r="A31" s="1" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="B31" s="2">
         <v>1.6821260479527169E-6</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="D31" s="2"/>
       <c r="E31" s="2"/>
     </row>
     <row r="32" spans="1:5" ht="15" customHeight="1">
       <c r="A32" s="1" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B32" s="2">
         <v>1.7103552116399789E-6</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="D32" s="2"/>
       <c r="E32" s="2"/>
     </row>
     <row r="33" spans="1:5" ht="15" customHeight="1">
       <c r="A33" s="1" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B33" s="2">
         <v>1.6705022746697271E-6</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="D33" s="2"/>
       <c r="E33" s="2"/>
     </row>
     <row r="34" spans="1:5" ht="15" customHeight="1">
       <c r="A34" s="1" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B34" s="2">
         <v>1.6489152671441739E-6</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="D34" s="2"/>
       <c r="E34" s="2"/>
     </row>
     <row r="35" spans="1:5" ht="15" customHeight="1">
       <c r="A35" s="1" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B35" s="2">
         <v>1.6788049698718629E-6</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="D35" s="2"/>
       <c r="E35" s="2"/>
     </row>
     <row r="36" spans="1:5" ht="15" customHeight="1">
       <c r="A36" s="1" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B36" s="2">
         <v>1.6821260479527169E-6</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="D36" s="2"/>
       <c r="E36" s="2"/>
     </row>
     <row r="37" spans="1:5" ht="15" customHeight="1">
       <c r="A37" s="1" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="B37" s="2">
         <v>1.6705022746697271E-6</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="D37" s="2"/>
       <c r="E37" s="2"/>
     </row>
     <row r="38" spans="1:5" ht="15" customHeight="1">
       <c r="A38" s="1" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="B38" s="2">
         <v>1.638952032901611E-6</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="D38" s="2"/>
       <c r="E38" s="2"/>
     </row>
     <row r="39" spans="1:5" ht="15" customHeight="1">
       <c r="A39" s="1" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="B39" s="2">
         <v>1.6688417356293001E-6</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="D39" s="2"/>
       <c r="E39" s="2"/>
     </row>
     <row r="40" spans="1:5" ht="15" customHeight="1">
       <c r="A40" s="1" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="B40" s="2">
         <v>1.662199579467591E-6</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="D40" s="2"/>
       <c r="E40" s="2"/>
     </row>
     <row r="41" spans="1:5" ht="15" customHeight="1">
       <c r="A41" s="1" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="B41" s="2">
         <v>1.662199579467591E-6</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="D41" s="2"/>
       <c r="E41" s="2"/>
     </row>
     <row r="42" spans="1:5" ht="15" customHeight="1">
       <c r="A42" s="1" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="B42" s="2">
         <v>1.65721796234631E-6</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="D42" s="2"/>
       <c r="E42" s="2"/>
     </row>
     <row r="43" spans="1:5" ht="15" customHeight="1">
       <c r="A43" s="1" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B43" s="2">
         <v>1.7319422191655321E-6</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="D43" s="2"/>
       <c r="E43" s="2"/>
     </row>
     <row r="44" spans="1:5" ht="15" customHeight="1">
       <c r="A44" s="1" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B44" s="2">
         <v>1.660539040427164E-6</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="D44" s="2"/>
       <c r="E44" s="2"/>
     </row>
     <row r="45" spans="1:5" ht="15" customHeight="1">
       <c r="A45" s="1" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B45" s="2">
         <v>1.6538968842654549E-6</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="D45" s="2"/>
       <c r="E45" s="2"/>
     </row>
     <row r="46" spans="1:5" ht="15" customHeight="1">
       <c r="A46" s="1" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="B46" s="2">
         <v>1.627328259618621E-6</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="D46" s="2"/>
       <c r="E46" s="2"/>
     </row>
     <row r="47" spans="1:5" ht="15" customHeight="1">
       <c r="A47" s="1" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="B47" s="2">
         <v>1.6522363452250279E-6</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="D47" s="2"/>
       <c r="E47" s="2"/>
     </row>
     <row r="48" spans="1:5" ht="15" customHeight="1">
       <c r="A48" s="1" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B48" s="2">
         <v>1.65721796234631E-6</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="D48" s="2"/>
       <c r="E48" s="2"/>
     </row>
     <row r="49" spans="1:5" ht="15" customHeight="1">
       <c r="A49" s="1" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B49" s="2">
         <v>1.69208928219528E-6</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="D49" s="2"/>
       <c r="E49" s="2"/>
     </row>
     <row r="50" spans="1:5" ht="15" customHeight="1">
       <c r="A50" s="1" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="B50" s="2">
         <v>1.614043947295203E-6</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="D50" s="2"/>
       <c r="E50" s="2"/>
     </row>
     <row r="51" spans="1:5" ht="15" customHeight="1">
       <c r="A51" s="1" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B51" s="2">
         <v>1.695410360276134E-6</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="D51" s="2"/>
       <c r="E51" s="2"/>
     </row>
     <row r="52" spans="1:5" ht="15" customHeight="1">
       <c r="A52" s="1" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="B52" s="2">
         <v>1.6455941890633191E-6</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="D52" s="2"/>
       <c r="E52" s="2"/>
     </row>
     <row r="53" spans="1:5" ht="15" customHeight="1">
       <c r="A53" s="1" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="B53" s="2">
         <v>1.7020525164378431E-6</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="D53" s="2"/>
       <c r="E53" s="2"/>
     </row>
     <row r="54" spans="1:5" ht="15" customHeight="1">
       <c r="A54" s="1" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="B54" s="2">
         <v>1.65721796234631E-6</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="D54" s="2"/>
       <c r="E54" s="2"/>
     </row>
     <row r="55" spans="1:5" ht="15" customHeight="1">
       <c r="A55" s="1" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B55" s="2">
         <v>1.630649337699475E-6</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="D55" s="2"/>
       <c r="E55" s="2"/>
     </row>
     <row r="56" spans="1:5" ht="15" customHeight="1">
       <c r="A56" s="1" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B56" s="2">
         <v>1.6455941890633191E-6</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="D56" s="2"/>
       <c r="E56" s="2"/>
     </row>
     <row r="57" spans="1:5" ht="15" customHeight="1">
       <c r="A57" s="1" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B57" s="2">
         <v>1.660539040427164E-6</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="D57" s="2"/>
       <c r="E57" s="2"/>
     </row>
     <row r="58" spans="1:5" ht="15" customHeight="1">
       <c r="A58" s="1" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="B58" s="2">
         <v>1.6671811965888731E-6</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="D58" s="2"/>
       <c r="E58" s="2"/>
     </row>
     <row r="59" spans="1:5" ht="15" customHeight="1">
       <c r="A59" s="1" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="B59" s="2">
         <v>1.6854471260335709E-6</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="D59" s="2"/>
       <c r="E59" s="2"/>
     </row>
     <row r="60" spans="1:5" ht="15" customHeight="1">
       <c r="A60" s="1" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="B60" s="2">
         <v>1.6788049698718629E-6</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="D60" s="2"/>
       <c r="E60" s="2"/>
     </row>
     <row r="61" spans="1:5" ht="15" customHeight="1">
       <c r="A61" s="1" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B61" s="2">
         <v>1.6605390404271641E-7</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="D61" s="2"/>
       <c r="E61" s="2"/>
     </row>
     <row r="62" spans="1:5" ht="15" customHeight="1">
       <c r="A62" s="1" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="B62" s="2">
         <v>1.893014506086967E-7</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="D62" s="2"/>
       <c r="E62" s="2"/>
     </row>
     <row r="63" spans="1:5" ht="15" customHeight="1">
       <c r="A63" s="1" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="B63" s="2">
         <v>1.4114581843630891E-7</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="D63" s="2"/>
       <c r="E63" s="2"/>
     </row>
     <row r="64" spans="1:5" ht="15" customHeight="1">
       <c r="A64" s="1" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B64" s="2">
         <v>1.9262252868955099E-7</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="D64" s="2"/>
       <c r="E64" s="2"/>
     </row>
     <row r="65" spans="1:5" ht="15" customHeight="1">
       <c r="A65" s="1" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B65" s="2">
         <v>1.859803725278424E-7</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="D65" s="2"/>
       <c r="E65" s="2"/>
     </row>
     <row r="66" spans="1:5" ht="15" customHeight="1">
       <c r="A66" s="1" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B66" s="2">
         <v>1.3118258419374599E-7</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="D66" s="2"/>
       <c r="E66" s="2"/>
     </row>
     <row r="67" spans="1:5" ht="15" customHeight="1">
       <c r="A67" s="1" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B67" s="2">
         <v>1.6273282596186211E-7</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="D67" s="2"/>
       <c r="E67" s="2"/>
     </row>
     <row r="68" spans="1:5" ht="15" customHeight="1">
       <c r="A68" s="1" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B68" s="2">
         <v>2.0922791909382271E-7</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="D68" s="2"/>
       <c r="E68" s="2"/>
     </row>
     <row r="69" spans="1:5" ht="15" customHeight="1">
       <c r="A69" s="1" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B69" s="2">
         <v>1.7103552116399789E-7</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="D69" s="2"/>
       <c r="E69" s="2"/>
     </row>
     <row r="70" spans="1:5" ht="15" customHeight="1">
       <c r="A70" s="1" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B70" s="2">
         <v>1.5276959171929909E-7</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="D70" s="2"/>
       <c r="E70" s="2"/>
     </row>
     <row r="71" spans="1:5" ht="15" customHeight="1">
       <c r="A71" s="1" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B71" s="2">
         <v>1.5443013075972631E-7</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="D71" s="2"/>
       <c r="E71" s="2"/>
     </row>
     <row r="72" spans="1:5" ht="15" customHeight="1">
       <c r="A72" s="1" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B72" s="2">
         <v>1.5941174788100771E-7</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="D72" s="2"/>
       <c r="E72" s="2"/>
     </row>
     <row r="73" spans="1:5" ht="15" customHeight="1">
       <c r="A73" s="1" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B73" s="2">
         <v>1.859803725278424E-7</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="D73" s="2"/>
       <c r="E73" s="2"/>
     </row>
     <row r="74" spans="1:5" ht="15" customHeight="1">
       <c r="A74" s="1" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B74" s="2">
         <v>1.7103552116399789E-7</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="D74" s="2"/>
       <c r="E74" s="2"/>
     </row>
     <row r="75" spans="1:5" ht="15" customHeight="1">
       <c r="A75" s="1" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B75" s="2">
         <v>1.8099875540656089E-7</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="D75" s="2"/>
       <c r="E75" s="2"/>
     </row>
     <row r="76" spans="1:5" ht="15" customHeight="1">
       <c r="A76" s="1" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="B76" s="2">
         <v>1.9926468485125969E-7</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="D76" s="2"/>
       <c r="E76" s="2"/>
     </row>
     <row r="77" spans="1:5" ht="15" customHeight="1">
       <c r="A77" s="1" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="B77" s="2">
         <v>1.428063574767361E-7</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="D77" s="2"/>
       <c r="E77" s="2"/>
     </row>
     <row r="78" spans="1:5" ht="15" customHeight="1">
       <c r="A78" s="1" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="B78" s="2">
         <v>1.760171382852794E-7</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="D78" s="2"/>
       <c r="E78" s="2"/>
     </row>
     <row r="79" spans="1:5" ht="15" customHeight="1">
       <c r="A79" s="1" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="B79" s="2">
         <v>1.826592944469881E-7</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="D79" s="2"/>
       <c r="E79" s="2"/>
     </row>
     <row r="80" spans="1:5" ht="15" customHeight="1">
       <c r="A80" s="1" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="B80" s="2">
         <v>1.9096198964912391E-7</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="D80" s="2"/>
       <c r="E80" s="2"/>
     </row>
     <row r="81" spans="1:5" ht="15" customHeight="1">
       <c r="A81" s="1" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="B81" s="2">
         <v>1.6937498212357071E-7</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="D81" s="2"/>
       <c r="E81" s="2"/>
     </row>
     <row r="82" spans="1:5" ht="15" customHeight="1">
       <c r="A82" s="1" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B82" s="2">
         <v>1.5443013075972631E-7</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="D82" s="2"/>
       <c r="E82" s="2"/>
     </row>
     <row r="83" spans="1:5" ht="15" customHeight="1">
       <c r="A83" s="1" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="B83" s="2">
         <v>1.7269606020442511E-7</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="D83" s="2"/>
       <c r="E83" s="2"/>
     </row>
     <row r="84" spans="1:5" ht="15" customHeight="1">
       <c r="A84" s="1" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B84" s="2">
         <v>1.7103552116399789E-7</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="D84" s="2"/>
       <c r="E84" s="2"/>
     </row>
     <row r="85" spans="1:5" ht="15" customHeight="1">
       <c r="A85" s="1" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="B85" s="2">
         <v>1.5276959171929909E-7</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="D85" s="2"/>
       <c r="E85" s="2"/>
     </row>
     <row r="86" spans="1:5" ht="15" customHeight="1">
       <c r="A86" s="1" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="B86" s="2">
         <v>1.7767767732570659E-7</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="D86" s="2"/>
       <c r="E86" s="2"/>
     </row>
     <row r="87" spans="1:5" ht="15" customHeight="1">
       <c r="A87" s="1" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="B87" s="2">
         <v>1.6937498212357071E-7</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="D87" s="2"/>
       <c r="E87" s="2"/>
     </row>
     <row r="88" spans="1:5" ht="15" customHeight="1">
       <c r="A88" s="1" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="B88" s="2">
         <v>1.5443013075972631E-7</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="D88" s="2"/>
       <c r="E88" s="2"/>
     </row>
     <row r="89" spans="1:5" ht="15" customHeight="1">
       <c r="A89" s="1" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B89" s="2">
         <v>6.7999999999999999E-5</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="D89" s="2"/>
       <c r="E89" s="2"/>
     </row>
     <row r="90" spans="1:5" ht="15" customHeight="1">
       <c r="A90" s="1" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="B90" s="2">
         <v>1.8000000000000001E-4</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="D90" s="2"/>
       <c r="E90" s="2"/>
     </row>
     <row r="91" spans="1:5" ht="15" customHeight="1">
       <c r="A91" s="1" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="B91" s="2">
         <v>1.2E-5</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="D91" s="2"/>
       <c r="E91" s="2"/>
     </row>
     <row r="92" spans="1:5" ht="15" customHeight="1">
       <c r="A92" s="1" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="B92" s="2">
         <v>2.9E-5</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="D92" s="2"/>
       <c r="E92" s="2"/>
     </row>
     <row r="93" spans="1:5" ht="15" customHeight="1">
       <c r="A93" s="1" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="B93" s="2">
         <v>1.84E-4</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="D93" s="2"/>
       <c r="E93" s="2"/>
     </row>
     <row r="94" spans="1:5" ht="15" customHeight="1">
       <c r="A94" s="1" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="B94" s="2">
         <v>2E-3</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="D94" s="2"/>
       <c r="E94" s="2"/>
     </row>
     <row r="95" spans="1:5" ht="15" customHeight="1">
       <c r="A95" s="1" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="B95" s="2">
         <v>4.0000000000000001E-3</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="D95" s="2"/>
       <c r="E95" s="2"/>
@@ -4287,14 +4287,14 @@
       <selection pane="bottomRight" activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="21.85546875" customWidth="1"/>
-    <col min="3" max="3" width="19.7109375" customWidth="1"/>
+    <col min="1" max="1" width="21.88671875" customWidth="1"/>
+    <col min="3" max="3" width="19.6640625" customWidth="1"/>
     <col min="4" max="4" width="32" customWidth="1"/>
-    <col min="5" max="5" width="15.5703125" customWidth="1"/>
-    <col min="7" max="7" width="12.7109375" customWidth="1"/>
-    <col min="8" max="8" width="27.28515625" customWidth="1"/>
+    <col min="5" max="5" width="15.5546875" customWidth="1"/>
+    <col min="7" max="7" width="12.6640625" customWidth="1"/>
+    <col min="8" max="8" width="27.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15" customHeight="1">
@@ -4305,13 +4305,13 @@
         <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>463</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>464</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>465</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>11</v>
@@ -4320,19 +4320,19 @@
         <v>15</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="15" customHeight="1">
       <c r="A2" s="1" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" s="2" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="E2" s="2" t="b">
         <v>0</v>
@@ -4344,14 +4344,14 @@
     </row>
     <row r="3" spans="1:9" ht="15" customHeight="1">
       <c r="A3" s="1" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" s="2" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="E3" s="2" t="b">
         <v>0</v>
@@ -4378,28 +4378,28 @@
       <selection pane="bottomRight" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="44.28515625" customWidth="1"/>
-    <col min="3" max="3" width="67.140625" customWidth="1"/>
-    <col min="8" max="8" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="44.33203125" customWidth="1"/>
+    <col min="3" max="3" width="67.109375" customWidth="1"/>
+    <col min="8" max="8" width="18.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="15" customHeight="1">
       <c r="A1" s="1" t="s">
+        <v>465</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>466</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>467</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>468</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>469</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>470</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>11</v>
@@ -4408,29 +4408,29 @@
         <v>15</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="B2" t="s">
+        <v>507</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>508</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>509</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="B3" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="C3" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="D3">
         <v>0.05</v>
@@ -4453,7 +4453,7 @@
       <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" s="4" t="s">
@@ -4463,13 +4463,13 @@
         <v>2</v>
       </c>
       <c r="C1" s="4" t="s">
+        <v>366</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>515</v>
+      </c>
+      <c r="E1" s="4" t="s">
         <v>367</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>516</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>368</v>
       </c>
       <c r="F1" s="5" t="s">
         <v>11</v>
@@ -4478,7 +4478,7 @@
         <v>15</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
     </row>
   </sheetData>
@@ -4497,9 +4497,9 @@
       <selection pane="bottomRight" activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="7" max="7" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="15" customHeight="1">
@@ -4510,10 +4510,10 @@
         <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>367</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>368</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>11</v>
@@ -4522,61 +4522,61 @@
         <v>15</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="15" customHeight="1">
       <c r="A2" s="1" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" s="2">
         <v>100</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
     </row>
     <row r="3" spans="1:7" ht="15" customHeight="1">
       <c r="A3" s="1" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" s="2">
         <v>1000000</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
     </row>
     <row r="4" spans="1:7" ht="15" customHeight="1">
       <c r="A4" s="1" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" s="2">
         <v>0.3</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
     </row>
     <row r="5" spans="1:7" ht="15" customHeight="1">
       <c r="A5" s="1" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" s="2">
         <v>1.0000000000000001E-15</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
@@ -4598,9 +4598,9 @@
       <selection pane="bottomRight" activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="8" max="8" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="15" customHeight="1">
@@ -4611,13 +4611,13 @@
         <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>478</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>479</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>366</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>480</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>11</v>
@@ -4626,21 +4626,21 @@
         <v>15</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="15" customHeight="1">
       <c r="A2" s="1" t="s">
+        <v>480</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>481</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>482</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
@@ -4648,16 +4648,16 @@
     </row>
     <row r="3" spans="1:8" ht="15" customHeight="1">
       <c r="A3" s="1" t="s">
+        <v>482</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>483</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>484</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
@@ -4665,16 +4665,16 @@
     </row>
     <row r="4" spans="1:8" ht="15" customHeight="1">
       <c r="A4" s="1" t="s">
+        <v>484</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>485</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>486</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
@@ -4682,16 +4682,16 @@
     </row>
     <row r="5" spans="1:8" ht="15" customHeight="1">
       <c r="A5" s="1" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
@@ -4699,16 +4699,16 @@
     </row>
     <row r="6" spans="1:8" ht="15" customHeight="1">
       <c r="A6" s="1" t="s">
+        <v>487</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>488</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>489</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
@@ -4716,16 +4716,16 @@
     </row>
     <row r="7" spans="1:8" ht="15" customHeight="1">
       <c r="A7" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="B7" s="2" t="s">
         <v>490</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>491</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
@@ -4733,16 +4733,16 @@
     </row>
     <row r="8" spans="1:8" ht="15" customHeight="1">
       <c r="A8" s="1" t="s">
+        <v>491</v>
+      </c>
+      <c r="B8" s="2" t="s">
         <v>492</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>493</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
@@ -4750,16 +4750,16 @@
     </row>
     <row r="9" spans="1:8" ht="15" customHeight="1">
       <c r="A9" s="1" t="s">
+        <v>493</v>
+      </c>
+      <c r="B9" s="2" t="s">
         <v>494</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>495</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
@@ -4767,16 +4767,16 @@
     </row>
     <row r="10" spans="1:8" ht="15" customHeight="1">
       <c r="A10" s="1" t="s">
+        <v>495</v>
+      </c>
+      <c r="B10" s="2" t="s">
         <v>496</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>497</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
@@ -4784,16 +4784,16 @@
     </row>
     <row r="11" spans="1:8" ht="15" customHeight="1">
       <c r="A11" s="1" t="s">
+        <v>497</v>
+      </c>
+      <c r="B11" s="2" t="s">
         <v>498</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>499</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
@@ -4801,16 +4801,16 @@
     </row>
     <row r="12" spans="1:8" ht="15" customHeight="1">
       <c r="A12" s="1" t="s">
+        <v>499</v>
+      </c>
+      <c r="B12" s="2" t="s">
         <v>500</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>501</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
@@ -4818,16 +4818,16 @@
     </row>
     <row r="13" spans="1:8" ht="15" customHeight="1">
       <c r="A13" s="1" t="s">
+        <v>501</v>
+      </c>
+      <c r="B13" s="2" t="s">
         <v>502</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>503</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
@@ -4850,14 +4850,14 @@
       <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData>
     <row r="1" spans="1:2" ht="15" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
     </row>
   </sheetData>
@@ -4877,7 +4877,7 @@
       <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData>
     <row r="1" spans="1:2" ht="15" customHeight="1">
       <c r="A1" s="1" t="s">
@@ -4922,9 +4922,9 @@
       <selection pane="bottomRight" activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="6" max="6" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="15" customHeight="1">
@@ -4944,7 +4944,7 @@
         <v>15</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="15" customHeight="1">
@@ -4987,9 +4987,9 @@
       <selection pane="bottomRight" activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="7" max="7" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="15" customHeight="1">
@@ -5012,7 +5012,7 @@
         <v>15</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="15" customHeight="1">
@@ -5505,10 +5505,10 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="F3" sqref="F3"/>
+      <selection pane="bottomRight" activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData>
     <row r="1" spans="1:10" ht="15" customHeight="1">
       <c r="A1" s="1" t="s">
@@ -5518,16 +5518,16 @@
         <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>517</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>123</v>
-      </c>
       <c r="F1" s="1" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>21</v>
@@ -5539,15 +5539,15 @@
         <v>15</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="15" customHeight="1">
       <c r="A2" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>124</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>125</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="2" t="b">
@@ -5580,32 +5580,32 @@
       <selection pane="bottomRight" activeCell="K1" sqref="K1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData>
     <row r="1" spans="1:11" ht="15" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>130</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>131</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>11</v>
@@ -5614,7 +5614,7 @@
         <v>15</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
     </row>
   </sheetData>
@@ -5634,32 +5634,32 @@
       <selection pane="bottomRight" activeCell="K1" sqref="K1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData>
     <row r="1" spans="1:11" ht="15" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="G1" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>132</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>133</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>11</v>
@@ -5668,21 +5668,21 @@
         <v>15</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="15" customHeight="1">
       <c r="A2" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="C2" s="2" t="s">
+      <c r="D2" s="2" t="s">
         <v>135</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>136</v>
       </c>
       <c r="E2" s="2"/>
       <c r="F2" s="2">
@@ -5692,23 +5692,23 @@
         <v>175</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="I2" s="2"/>
       <c r="J2" s="2"/>
     </row>
     <row r="3" spans="1:11" ht="15" customHeight="1">
       <c r="A3" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>139</v>
-      </c>
       <c r="D3" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E3" s="2"/>
       <c r="F3" s="2">
@@ -5718,23 +5718,23 @@
         <v>872</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
     </row>
     <row r="4" spans="1:11" ht="15" customHeight="1">
       <c r="A4" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>142</v>
-      </c>
       <c r="D4" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E4" s="2"/>
       <c r="F4" s="2">
@@ -5744,23 +5744,23 @@
         <v>1366</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="I4" s="2"/>
       <c r="J4" s="2"/>
     </row>
     <row r="5" spans="1:11" ht="15" customHeight="1">
       <c r="A5" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>145</v>
-      </c>
       <c r="D5" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E5" s="2"/>
       <c r="F5" s="2">
@@ -5770,23 +5770,23 @@
         <v>1611</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="I5" s="2"/>
       <c r="J5" s="2"/>
     </row>
     <row r="6" spans="1:11" ht="15" customHeight="1">
       <c r="A6" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="C6" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="B6" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>148</v>
-      </c>
       <c r="D6" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" s="2">
@@ -5796,23 +5796,23 @@
         <v>1854</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="I6" s="2"/>
       <c r="J6" s="2"/>
     </row>
     <row r="7" spans="1:11" ht="15" customHeight="1">
       <c r="A7" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="C7" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="B7" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>151</v>
-      </c>
       <c r="D7" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" s="2">
@@ -5822,23 +5822,23 @@
         <v>2127</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="I7" s="2"/>
       <c r="J7" s="2"/>
     </row>
     <row r="8" spans="1:11" ht="15" customHeight="1">
       <c r="A8" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="C8" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="B8" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>154</v>
-      </c>
       <c r="D8" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" s="2">
@@ -5848,23 +5848,23 @@
         <v>2383</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="I8" s="2"/>
       <c r="J8" s="2"/>
     </row>
     <row r="9" spans="1:11" ht="15" customHeight="1">
       <c r="A9" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="C9" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="B9" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>157</v>
-      </c>
       <c r="D9" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" s="2">
@@ -5874,23 +5874,23 @@
         <v>2626</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="I9" s="2"/>
       <c r="J9" s="2"/>
     </row>
     <row r="10" spans="1:11" ht="15" customHeight="1">
       <c r="A10" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="C10" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="B10" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>160</v>
-      </c>
       <c r="D10" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" s="2">
@@ -5900,23 +5900,23 @@
         <v>2875</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="I10" s="2"/>
       <c r="J10" s="2"/>
     </row>
     <row r="11" spans="1:11" ht="15" customHeight="1">
       <c r="A11" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="C11" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="B11" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>163</v>
-      </c>
       <c r="D11" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E11" s="2"/>
       <c r="F11" s="2">
@@ -5926,23 +5926,23 @@
         <v>3859</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="I11" s="2"/>
       <c r="J11" s="2"/>
     </row>
     <row r="12" spans="1:11" ht="15" customHeight="1">
       <c r="A12" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="C12" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="B12" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>166</v>
-      </c>
       <c r="D12" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E12" s="2"/>
       <c r="F12" s="2">
@@ -5952,23 +5952,23 @@
         <v>3859</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="I12" s="2"/>
       <c r="J12" s="2"/>
     </row>
     <row r="13" spans="1:11" ht="15" customHeight="1">
       <c r="A13" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="C13" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="B13" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>169</v>
-      </c>
       <c r="D13" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13" s="2">
@@ -5978,23 +5978,23 @@
         <v>4091</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="I13" s="2"/>
       <c r="J13" s="2"/>
     </row>
     <row r="14" spans="1:11" ht="15" customHeight="1">
       <c r="A14" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="C14" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="B14" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>172</v>
-      </c>
       <c r="D14" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E14" s="2"/>
       <c r="F14" s="2">
@@ -6004,23 +6004,23 @@
         <v>5039</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="I14" s="2"/>
       <c r="J14" s="2"/>
     </row>
     <row r="15" spans="1:11" ht="15" customHeight="1">
       <c r="A15" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="C15" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="B15" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>175</v>
-      </c>
       <c r="D15" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" s="2">
@@ -6030,23 +6030,23 @@
         <v>5039</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="I15" s="2"/>
       <c r="J15" s="2"/>
     </row>
     <row r="16" spans="1:11" ht="15" customHeight="1">
       <c r="A16" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="C16" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="B16" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>178</v>
-      </c>
       <c r="D16" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" s="2">
@@ -6056,23 +6056,23 @@
         <v>5254</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="I16" s="2"/>
       <c r="J16" s="2"/>
     </row>
     <row r="17" spans="1:10" ht="15" customHeight="1">
       <c r="A17" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="C17" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="B17" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>181</v>
-      </c>
       <c r="D17" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E17" s="2"/>
       <c r="F17" s="2">
@@ -6082,23 +6082,23 @@
         <v>5481</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="I17" s="2"/>
       <c r="J17" s="2"/>
     </row>
     <row r="18" spans="1:10" ht="15" customHeight="1">
       <c r="A18" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="C18" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="B18" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>184</v>
-      </c>
       <c r="D18" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E18" s="2"/>
       <c r="F18" s="2">
@@ -6108,23 +6108,23 @@
         <v>5736</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="I18" s="2"/>
       <c r="J18" s="2"/>
     </row>
     <row r="19" spans="1:10" ht="15" customHeight="1">
       <c r="A19" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="C19" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="B19" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>187</v>
-      </c>
       <c r="D19" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E19" s="2"/>
       <c r="F19" s="2">
@@ -6134,23 +6134,23 @@
         <v>5920</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="I19" s="2"/>
       <c r="J19" s="2"/>
     </row>
     <row r="20" spans="1:10" ht="15" customHeight="1">
       <c r="A20" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="C20" s="2" t="s">
         <v>189</v>
       </c>
-      <c r="B20" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>190</v>
-      </c>
       <c r="D20" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E20" s="2"/>
       <c r="F20" s="2">
@@ -6160,23 +6160,23 @@
         <v>6156</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="I20" s="2"/>
       <c r="J20" s="2"/>
     </row>
     <row r="21" spans="1:10" ht="15" customHeight="1">
       <c r="A21" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="C21" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="B21" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>193</v>
-      </c>
       <c r="D21" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E21" s="2"/>
       <c r="F21" s="2">
@@ -6186,23 +6186,23 @@
         <v>6411</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="I21" s="2"/>
       <c r="J21" s="2"/>
     </row>
     <row r="22" spans="1:10" ht="15" customHeight="1">
       <c r="A22" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="C22" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="B22" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>196</v>
-      </c>
       <c r="D22" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E22" s="2"/>
       <c r="F22" s="2">
@@ -6212,23 +6212,23 @@
         <v>6642</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="I22" s="2"/>
       <c r="J22" s="2"/>
     </row>
     <row r="23" spans="1:10" ht="15" customHeight="1">
       <c r="A23" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="C23" s="2" t="s">
         <v>198</v>
       </c>
-      <c r="B23" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>199</v>
-      </c>
       <c r="D23" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E23" s="2"/>
       <c r="F23" s="2">
@@ -6238,23 +6238,23 @@
         <v>6877</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="I23" s="2"/>
       <c r="J23" s="2"/>
     </row>
     <row r="24" spans="1:10" ht="15" customHeight="1">
       <c r="A24" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="C24" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="B24" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>202</v>
-      </c>
       <c r="D24" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E24" s="2"/>
       <c r="F24" s="2">
@@ -6264,23 +6264,23 @@
         <v>7094</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="I24" s="2"/>
       <c r="J24" s="2"/>
     </row>
     <row r="25" spans="1:10" ht="15" customHeight="1">
       <c r="A25" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="C25" s="2" t="s">
         <v>204</v>
       </c>
-      <c r="B25" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>205</v>
-      </c>
       <c r="D25" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E25" s="2"/>
       <c r="F25" s="2">
@@ -6290,23 +6290,23 @@
         <v>7317</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="I25" s="2"/>
       <c r="J25" s="2"/>
     </row>
     <row r="26" spans="1:10" ht="15" customHeight="1">
       <c r="A26" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="C26" s="2" t="s">
         <v>207</v>
       </c>
-      <c r="B26" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>208</v>
-      </c>
       <c r="D26" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E26" s="2"/>
       <c r="F26" s="2">
@@ -6316,23 +6316,23 @@
         <v>7571</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="I26" s="2"/>
       <c r="J26" s="2"/>
     </row>
     <row r="27" spans="1:10" ht="15" customHeight="1">
       <c r="A27" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="C27" s="2" t="s">
         <v>210</v>
       </c>
-      <c r="B27" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>211</v>
-      </c>
       <c r="D27" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E27" s="2"/>
       <c r="F27" s="2">
@@ -6342,23 +6342,23 @@
         <v>7773</v>
       </c>
       <c r="H27" s="2" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="I27" s="2"/>
       <c r="J27" s="2"/>
     </row>
     <row r="28" spans="1:10" ht="15" customHeight="1">
       <c r="A28" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="C28" s="2" t="s">
         <v>213</v>
       </c>
-      <c r="B28" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>214</v>
-      </c>
       <c r="D28" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E28" s="2"/>
       <c r="F28" s="2">
@@ -6368,7 +6368,7 @@
         <v>8382</v>
       </c>
       <c r="H28" s="2" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="I28" s="2"/>
       <c r="J28" s="2"/>
@@ -6390,9 +6390,9 @@
       <selection pane="bottomRight" activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="33.7109375" customWidth="1"/>
+    <col min="1" max="1" width="33.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15" customHeight="1">
@@ -6403,16 +6403,16 @@
         <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>217</v>
-      </c>
       <c r="E1" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>122</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>123</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>21</v>
@@ -6424,21 +6424,21 @@
         <v>15</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="15" customHeight="1">
       <c r="A2" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>218</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="C2" s="2" t="s">
         <v>219</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>220</v>
-      </c>
       <c r="D2" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E2" s="2" t="b">
         <v>0</v>
@@ -6454,16 +6454,16 @@
     </row>
     <row r="3" spans="1:10" ht="15" customHeight="1">
       <c r="A3" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>221</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>222</v>
-      </c>
       <c r="C3" s="2" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E3" s="2" t="b">
         <v>0</v>
@@ -6479,16 +6479,16 @@
     </row>
     <row r="4" spans="1:10" ht="15" customHeight="1">
       <c r="A4" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>223</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>224</v>
-      </c>
       <c r="C4" s="2" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E4" s="2" t="b">
         <v>0</v>
@@ -6504,16 +6504,16 @@
     </row>
     <row r="5" spans="1:10" ht="15" customHeight="1">
       <c r="A5" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>225</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="C5" s="2" t="s">
         <v>226</v>
       </c>
-      <c r="C5" s="2" t="s">
-        <v>227</v>
-      </c>
       <c r="D5" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E5" s="2" t="b">
         <v>0</v>
@@ -6529,16 +6529,16 @@
     </row>
     <row r="6" spans="1:10" ht="15" customHeight="1">
       <c r="A6" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>228</v>
       </c>
-      <c r="B6" s="2" t="s">
-        <v>229</v>
-      </c>
       <c r="C6" s="2" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E6" s="2" t="b">
         <v>0</v>
@@ -6554,16 +6554,16 @@
     </row>
     <row r="7" spans="1:10" ht="15" customHeight="1">
       <c r="A7" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="B7" s="2" t="s">
         <v>230</v>
       </c>
-      <c r="B7" s="2" t="s">
-        <v>231</v>
-      </c>
       <c r="C7" s="2" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E7" s="2" t="b">
         <v>0</v>
@@ -6579,16 +6579,16 @@
     </row>
     <row r="8" spans="1:10" ht="15" customHeight="1">
       <c r="A8" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="B8" s="2" t="s">
         <v>232</v>
       </c>
-      <c r="B8" s="2" t="s">
-        <v>233</v>
-      </c>
       <c r="C8" s="2" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E8" s="2" t="b">
         <v>0</v>
@@ -6604,16 +6604,16 @@
     </row>
     <row r="9" spans="1:10" ht="15" customHeight="1">
       <c r="A9" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="B9" s="2" t="s">
         <v>234</v>
       </c>
-      <c r="B9" s="2" t="s">
-        <v>235</v>
-      </c>
       <c r="C9" s="2" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E9" s="2" t="b">
         <v>0</v>
@@ -6629,16 +6629,16 @@
     </row>
     <row r="10" spans="1:10" ht="15" customHeight="1">
       <c r="A10" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="B10" s="2" t="s">
         <v>236</v>
       </c>
-      <c r="B10" s="2" t="s">
-        <v>237</v>
-      </c>
       <c r="C10" s="2" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E10" s="2" t="b">
         <v>0</v>
@@ -6654,16 +6654,16 @@
     </row>
     <row r="11" spans="1:10" ht="15" customHeight="1">
       <c r="A11" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="B11" s="2" t="s">
         <v>238</v>
       </c>
-      <c r="B11" s="2" t="s">
-        <v>239</v>
-      </c>
       <c r="C11" s="2" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E11" s="2" t="b">
         <v>0</v>
@@ -6677,16 +6677,16 @@
     </row>
     <row r="12" spans="1:10" ht="15" customHeight="1">
       <c r="A12" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="B12" s="2" t="s">
         <v>240</v>
       </c>
-      <c r="B12" s="2" t="s">
-        <v>241</v>
-      </c>
       <c r="C12" s="2" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E12" s="2" t="b">
         <v>0</v>
@@ -6702,16 +6702,16 @@
     </row>
     <row r="13" spans="1:10" ht="15" customHeight="1">
       <c r="A13" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="B13" s="2" t="s">
         <v>242</v>
       </c>
-      <c r="B13" s="2" t="s">
-        <v>243</v>
-      </c>
       <c r="C13" s="2" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E13" s="2" t="b">
         <v>0</v>
@@ -6727,16 +6727,16 @@
     </row>
     <row r="14" spans="1:10" ht="15" customHeight="1">
       <c r="A14" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="B14" s="2" t="s">
         <v>244</v>
       </c>
-      <c r="B14" s="2" t="s">
-        <v>245</v>
-      </c>
       <c r="C14" s="2" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E14" s="2" t="b">
         <v>0</v>
@@ -6752,16 +6752,16 @@
     </row>
     <row r="15" spans="1:10" ht="15" customHeight="1">
       <c r="A15" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="B15" s="2" t="s">
         <v>246</v>
       </c>
-      <c r="B15" s="2" t="s">
-        <v>247</v>
-      </c>
       <c r="C15" s="2" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E15" s="2" t="b">
         <v>0</v>
@@ -6777,16 +6777,16 @@
     </row>
     <row r="16" spans="1:10" ht="15" customHeight="1">
       <c r="A16" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="B16" s="2" t="s">
         <v>248</v>
       </c>
-      <c r="B16" s="2" t="s">
-        <v>249</v>
-      </c>
       <c r="C16" s="2" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E16" s="2" t="b">
         <v>0</v>
@@ -6802,16 +6802,16 @@
     </row>
     <row r="17" spans="1:9" ht="15" customHeight="1">
       <c r="A17" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="B17" s="2" t="s">
         <v>250</v>
       </c>
-      <c r="B17" s="2" t="s">
-        <v>251</v>
-      </c>
       <c r="C17" s="2" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E17" s="2" t="b">
         <v>0</v>
@@ -6827,16 +6827,16 @@
     </row>
     <row r="18" spans="1:9" ht="15" customHeight="1">
       <c r="A18" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="B18" s="2" t="s">
         <v>252</v>
       </c>
-      <c r="B18" s="2" t="s">
-        <v>253</v>
-      </c>
       <c r="C18" s="2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E18" s="2" t="b">
         <v>0</v>
@@ -6852,16 +6852,16 @@
     </row>
     <row r="19" spans="1:9" ht="15" customHeight="1">
       <c r="A19" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="B19" s="2" t="s">
         <v>254</v>
       </c>
-      <c r="B19" s="2" t="s">
-        <v>255</v>
-      </c>
       <c r="C19" s="2" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E19" s="2" t="b">
         <v>0</v>
@@ -6877,16 +6877,16 @@
     </row>
     <row r="20" spans="1:9" ht="15" customHeight="1">
       <c r="A20" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="B20" s="2" t="s">
         <v>256</v>
       </c>
-      <c r="B20" s="2" t="s">
-        <v>257</v>
-      </c>
       <c r="C20" s="2" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E20" s="2" t="b">
         <v>0</v>
@@ -6902,16 +6902,16 @@
     </row>
     <row r="21" spans="1:9" ht="15" customHeight="1">
       <c r="A21" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="B21" s="2" t="s">
         <v>258</v>
       </c>
-      <c r="B21" s="2" t="s">
-        <v>259</v>
-      </c>
       <c r="C21" s="2" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="E21" s="2" t="b">
         <v>0</v>
@@ -6927,16 +6927,16 @@
     </row>
     <row r="22" spans="1:9" ht="15" customHeight="1">
       <c r="A22" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="B22" s="2" t="s">
         <v>260</v>
       </c>
-      <c r="B22" s="2" t="s">
-        <v>261</v>
-      </c>
       <c r="C22" s="2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E22" s="2" t="b">
         <v>0</v>
@@ -6952,16 +6952,16 @@
     </row>
     <row r="23" spans="1:9" ht="15" customHeight="1">
       <c r="A23" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="B23" s="2" t="s">
         <v>262</v>
       </c>
-      <c r="B23" s="2" t="s">
-        <v>263</v>
-      </c>
       <c r="C23" s="2" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E23" s="2" t="b">
         <v>0</v>
@@ -6977,16 +6977,16 @@
     </row>
     <row r="24" spans="1:9" ht="15" customHeight="1">
       <c r="A24" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="B24" s="2" t="s">
         <v>264</v>
       </c>
-      <c r="B24" s="2" t="s">
-        <v>265</v>
-      </c>
       <c r="C24" s="2" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="E24" s="2" t="b">
         <v>0</v>
@@ -7002,16 +7002,16 @@
     </row>
     <row r="25" spans="1:9" ht="15" customHeight="1">
       <c r="A25" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="B25" s="2" t="s">
         <v>266</v>
       </c>
-      <c r="B25" s="2" t="s">
-        <v>267</v>
-      </c>
       <c r="C25" s="2" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="E25" s="2" t="b">
         <v>0</v>
@@ -7027,16 +7027,16 @@
     </row>
     <row r="26" spans="1:9" ht="15" customHeight="1">
       <c r="A26" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="B26" s="2" t="s">
         <v>268</v>
       </c>
-      <c r="B26" s="2" t="s">
-        <v>269</v>
-      </c>
       <c r="C26" s="2" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E26" s="2" t="b">
         <v>0</v>
@@ -7052,16 +7052,16 @@
     </row>
     <row r="27" spans="1:9" ht="15" customHeight="1">
       <c r="A27" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="B27" s="2" t="s">
         <v>270</v>
       </c>
-      <c r="B27" s="2" t="s">
-        <v>271</v>
-      </c>
       <c r="C27" s="2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E27" s="2" t="b">
         <v>0</v>
@@ -7077,16 +7077,16 @@
     </row>
     <row r="28" spans="1:9" ht="15" customHeight="1">
       <c r="A28" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="B28" s="2" t="s">
         <v>272</v>
       </c>
-      <c r="B28" s="2" t="s">
-        <v>273</v>
-      </c>
       <c r="C28" s="2" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="E28" s="2" t="b">
         <v>0</v>
@@ -7117,32 +7117,32 @@
       <selection pane="bottomRight" activeCell="K1" sqref="K1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData>
     <row r="1" spans="1:11" ht="15" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>130</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>131</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>11</v>
@@ -7151,25 +7151,25 @@
         <v>15</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="15" customHeight="1">
       <c r="A2" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" s="2" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="G2" s="2">
         <v>19</v>
@@ -7182,20 +7182,20 @@
     </row>
     <row r="3" spans="1:11" ht="15" customHeight="1">
       <c r="A3" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>276</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>277</v>
       </c>
       <c r="D3" s="2"/>
       <c r="E3" s="2" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="G3" s="2">
         <v>190</v>
@@ -7208,20 +7208,20 @@
     </row>
     <row r="4" spans="1:11" ht="15" customHeight="1">
       <c r="A4" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>278</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>279</v>
       </c>
       <c r="D4" s="2"/>
       <c r="E4" s="2" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="G4" s="2">
         <v>430</v>
@@ -7234,20 +7234,20 @@
     </row>
     <row r="5" spans="1:11" ht="15" customHeight="1">
       <c r="A5" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>280</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>281</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" s="2" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="G5" s="2">
         <v>703</v>
@@ -7260,20 +7260,20 @@
     </row>
     <row r="6" spans="1:11" ht="15" customHeight="1">
       <c r="A6" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="C6" s="2" t="s">
         <v>282</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>283</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="G6" s="2">
         <v>907</v>
@@ -7286,20 +7286,20 @@
     </row>
     <row r="7" spans="1:11" ht="15" customHeight="1">
       <c r="A7" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="C7" s="2" t="s">
         <v>284</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>285</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" s="2" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="G7" s="2">
         <v>1093</v>
@@ -7312,20 +7312,20 @@
     </row>
     <row r="8" spans="1:11" ht="15" customHeight="1">
       <c r="A8" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" s="2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="G8" s="2">
         <v>1381</v>
@@ -7338,20 +7338,20 @@
     </row>
     <row r="9" spans="1:11" ht="15" customHeight="1">
       <c r="A9" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" s="2" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="G9" s="2">
         <v>1651</v>
@@ -7364,20 +7364,20 @@
     </row>
     <row r="10" spans="1:11" ht="15" customHeight="1">
       <c r="A10" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="G10" s="2">
         <v>1885</v>
@@ -7390,20 +7390,20 @@
     </row>
     <row r="11" spans="1:11" ht="15" customHeight="1">
       <c r="A11" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="D11" s="2"/>
       <c r="E11" s="2" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="G11" s="2">
         <v>2134</v>
@@ -7416,20 +7416,20 @@
     </row>
     <row r="12" spans="1:11" ht="15" customHeight="1">
       <c r="A12" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="D12" s="2"/>
       <c r="E12" s="2" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="G12" s="2">
         <v>2395</v>
@@ -7442,20 +7442,20 @@
     </row>
     <row r="13" spans="1:11" ht="15" customHeight="1">
       <c r="A13" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="D13" s="2"/>
       <c r="E13" s="2" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="G13" s="2">
         <v>2638</v>
@@ -7468,20 +7468,20 @@
     </row>
     <row r="14" spans="1:11" ht="15" customHeight="1">
       <c r="A14" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="C14" s="2" t="s">
         <v>292</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>293</v>
       </c>
       <c r="D14" s="2"/>
       <c r="E14" s="2" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="G14" s="2">
         <v>2890</v>
@@ -7494,20 +7494,20 @@
     </row>
     <row r="15" spans="1:11" ht="15" customHeight="1">
       <c r="A15" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="C15" s="2" t="s">
         <v>294</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>295</v>
       </c>
       <c r="D15" s="2"/>
       <c r="E15" s="2" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="G15" s="2">
         <v>3130</v>
@@ -7520,20 +7520,20 @@
     </row>
     <row r="16" spans="1:11" ht="15" customHeight="1">
       <c r="A16" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="C16" s="2" t="s">
         <v>296</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>297</v>
       </c>
       <c r="D16" s="2"/>
       <c r="E16" s="2" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="G16" s="2">
         <v>3433</v>
@@ -7546,20 +7546,20 @@
     </row>
     <row r="17" spans="1:10" ht="15" customHeight="1">
       <c r="A17" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="D17" s="2"/>
       <c r="E17" s="2" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="G17" s="2">
         <v>3652</v>
@@ -7572,20 +7572,20 @@
     </row>
     <row r="18" spans="1:10" ht="15" customHeight="1">
       <c r="A18" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="D18" s="2"/>
       <c r="E18" s="2" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="G18" s="2">
         <v>3895</v>
@@ -7598,20 +7598,20 @@
     </row>
     <row r="19" spans="1:10" ht="15" customHeight="1">
       <c r="A19" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="C19" s="2" t="s">
         <v>300</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>301</v>
       </c>
       <c r="D19" s="2"/>
       <c r="E19" s="2" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="G19" s="2">
         <v>4129</v>
@@ -7624,20 +7624,20 @@
     </row>
     <row r="20" spans="1:10" ht="15" customHeight="1">
       <c r="A20" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="C20" s="2" t="s">
         <v>302</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>303</v>
       </c>
       <c r="D20" s="2"/>
       <c r="E20" s="2" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="G20" s="2">
         <v>4351</v>
@@ -7650,20 +7650,20 @@
     </row>
     <row r="21" spans="1:10" ht="15" customHeight="1">
       <c r="A21" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="C21" s="2" t="s">
         <v>304</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>305</v>
       </c>
       <c r="D21" s="2"/>
       <c r="E21" s="2" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="G21" s="2">
         <v>4570</v>
@@ -7676,20 +7676,20 @@
     </row>
     <row r="22" spans="1:10" ht="15" customHeight="1">
       <c r="A22" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D22" s="2"/>
       <c r="E22" s="2" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="G22" s="2">
         <v>4819</v>
@@ -7702,20 +7702,20 @@
     </row>
     <row r="23" spans="1:10" ht="15" customHeight="1">
       <c r="A23" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="D23" s="2"/>
       <c r="E23" s="2" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="G23" s="2">
         <v>5056</v>
@@ -7728,20 +7728,20 @@
     </row>
     <row r="24" spans="1:10" ht="15" customHeight="1">
       <c r="A24" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="D24" s="2"/>
       <c r="E24" s="2" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="G24" s="2">
         <v>5266</v>
@@ -7754,20 +7754,20 @@
     </row>
     <row r="25" spans="1:10" ht="15" customHeight="1">
       <c r="A25" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="D25" s="2"/>
       <c r="E25" s="2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="G25" s="2">
         <v>5506</v>
@@ -7780,20 +7780,20 @@
     </row>
     <row r="26" spans="1:10" ht="15" customHeight="1">
       <c r="A26" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="D26" s="2"/>
       <c r="E26" s="2" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="G26" s="2">
         <v>5758</v>
@@ -7806,20 +7806,20 @@
     </row>
     <row r="27" spans="1:10" ht="15" customHeight="1">
       <c r="A27" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D27" s="2"/>
       <c r="E27" s="2" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="G27" s="2">
         <v>5953</v>
@@ -7832,20 +7832,20 @@
     </row>
     <row r="28" spans="1:10" ht="15" customHeight="1">
       <c r="A28" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="D28" s="2"/>
       <c r="E28" s="2" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="G28" s="2">
         <v>6184</v>
@@ -7858,20 +7858,20 @@
     </row>
     <row r="29" spans="1:10" ht="15" customHeight="1">
       <c r="A29" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="D29" s="2"/>
       <c r="E29" s="2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="G29" s="2">
         <v>6424</v>
@@ -7884,20 +7884,20 @@
     </row>
     <row r="30" spans="1:10" ht="15" customHeight="1">
       <c r="A30" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="D30" s="2"/>
       <c r="E30" s="2" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="G30" s="2">
         <v>6679</v>
@@ -7910,20 +7910,20 @@
     </row>
     <row r="31" spans="1:10" ht="15" customHeight="1">
       <c r="A31" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="D31" s="2"/>
       <c r="E31" s="2" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="G31" s="2">
         <v>6892</v>
@@ -7936,20 +7936,20 @@
     </row>
     <row r="32" spans="1:10" ht="15" customHeight="1">
       <c r="A32" s="1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="D32" s="2"/>
       <c r="E32" s="2" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="G32" s="2">
         <v>7114</v>
@@ -7962,20 +7962,20 @@
     </row>
     <row r="33" spans="1:10" ht="15" customHeight="1">
       <c r="A33" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="D33" s="2"/>
       <c r="E33" s="2" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="G33" s="2">
         <v>7348</v>
@@ -7988,20 +7988,20 @@
     </row>
     <row r="34" spans="1:10" ht="15" customHeight="1">
       <c r="A34" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="D34" s="2"/>
       <c r="E34" s="2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="G34" s="2">
         <v>7594</v>
@@ -8014,20 +8014,20 @@
     </row>
     <row r="35" spans="1:10" ht="15" customHeight="1">
       <c r="A35" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="C35" s="2" t="s">
         <v>319</v>
-      </c>
-      <c r="B35" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="C35" s="2" t="s">
-        <v>320</v>
       </c>
       <c r="D35" s="2"/>
       <c r="E35" s="2" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="G35" s="2">
         <v>7804</v>
@@ -8040,20 +8040,20 @@
     </row>
     <row r="36" spans="1:10" ht="15" customHeight="1">
       <c r="A36" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="C36" s="2" t="s">
         <v>321</v>
-      </c>
-      <c r="B36" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="C36" s="2" t="s">
-        <v>322</v>
       </c>
       <c r="D36" s="2"/>
       <c r="E36" s="2" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="G36" s="2">
         <v>7981</v>
@@ -8066,20 +8066,20 @@
     </row>
     <row r="37" spans="1:10" ht="15" customHeight="1">
       <c r="A37" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="C37" s="2" t="s">
         <v>323</v>
-      </c>
-      <c r="B37" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="C37" s="2" t="s">
-        <v>324</v>
       </c>
       <c r="D37" s="2"/>
       <c r="E37" s="2" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="G37" s="2">
         <v>8185</v>

--- a/tests/fixtures/test_broken_kb.xlsx
+++ b/tests/fixtures/test_broken_kb.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="132" yWindow="552" windowWidth="20736" windowHeight="11760" activeTab="4"/>
+    <workbookView windowWidth="19800" windowHeight="6840" firstSheet="12" activeTab="15"/>
   </bookViews>
   <sheets>
     <sheet name="Knowledge base" sheetId="1" r:id="rId1"/>
@@ -27,25 +27,25 @@
     <sheet name="References" sheetId="17" r:id="rId18"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Knowledge base'!$A$1:$B$9</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Cell!$A$1:$B$4</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Compartments!$A$1:$E$3</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'Metabolite species types'!$A$1:$F$35</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'DNA species types'!$A$1:$I$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'Promoter loci'!$A$1:$J$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">'Transcription unit loci'!$A$1:$J$28</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">'Rna species types'!$A$1:$I$28</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">'Gene loci'!$A$1:$J$37</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="9" hidden="1">'Protein species types'!$A$1:$I$33</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="10" hidden="1">'Complex species types'!$A$1:$K$2</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="11" hidden="1">Concentrations!$A$1:$E$95</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'DNA species types'!$A$1:$I$2</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">'Gene loci'!$A$1:$J$37</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Knowledge base'!$A$1:$B$9</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'Metabolite species types'!$A$1:$F$35</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="12" hidden="1">Reactions!$A$1:$G$3</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="13" hidden="1">'Rate laws'!$A$1:$G$3</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="15" hidden="1">Properties!$A$1:$F$5</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="16" hidden="1">Observables!$A$1:$G$13</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'Promoter loci'!$A$1:$J$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="15" hidden="1">Properties!$A$1:$F$5</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="9" hidden="1">'Protein species types'!$A$1:$I$33</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="13" hidden="1">'Rate laws'!$A$1:$G$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="12" hidden="1">Reactions!$A$1:$G$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="17" hidden="1">References!$A$1:$B$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">'Rna species types'!$A$1:$I$28</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">'Transcription unit loci'!$A$1:$J$28</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
@@ -100,6 +100,9 @@
     <t>References</t>
   </si>
   <si>
+    <t>Database References</t>
+  </si>
+  <si>
     <t>c</t>
   </si>
   <si>
@@ -415,12 +418,18 @@
     <t>InChI=1S/C5H11NO2/c1-3(2)4(6)5(7)8/h3-4H,6H2,1-2H3,(H,7,8)/t4-/m0/s1</t>
   </si>
   <si>
+    <t>Sequence Path</t>
+  </si>
+  <si>
     <t>Circular</t>
   </si>
   <si>
     <t>Double stranded</t>
   </si>
   <si>
+    <t>Ploidy</t>
+  </si>
+  <si>
     <t>chr_1</t>
   </si>
   <si>
@@ -1132,6 +1141,9 @@
     <t>Subunits</t>
   </si>
   <si>
+    <t>Composition in Uniprot</t>
+  </si>
+  <si>
     <t>Complex type</t>
   </si>
   <si>
@@ -1441,12 +1453,30 @@
     <t>val[c]</t>
   </si>
   <si>
+    <t>Submodel</t>
+  </si>
+  <si>
     <t>Participants</t>
   </si>
   <si>
     <t>Reversible</t>
   </si>
   <si>
+    <t>mock_conversion_2amp_2atp</t>
+  </si>
+  <si>
+    <t>metabolism</t>
+  </si>
+  <si>
+    <t>[c]: (2) amp ==&gt; (2) atp</t>
+  </si>
+  <si>
+    <t>mock_transfer_2amp</t>
+  </si>
+  <si>
+    <t>(2) amp[e] ==&gt; (2) amp[c]</t>
+  </si>
+  <si>
     <t>Reaction</t>
   </si>
   <si>
@@ -1462,7 +1492,19 @@
     <t>K m</t>
   </si>
   <si>
-    <t>cell_cycle_length</t>
+    <t>forward</t>
+  </si>
+  <si>
+    <t>0.000000007312742167607660744</t>
+  </si>
+  <si>
+    <t>0.001*k_cat+k_m</t>
+  </si>
+  <si>
+    <t>Error</t>
+  </si>
+  <si>
+    <t>cell_cycle_len</t>
   </si>
   <si>
     <t>s</t>
@@ -1562,73 +1604,38 @@
   </si>
   <si>
     <t>Standard id</t>
-  </si>
-  <si>
-    <t>Database References</t>
-  </si>
-  <si>
-    <t>Submodel</t>
-  </si>
-  <si>
-    <t>metabolism</t>
-  </si>
-  <si>
-    <t>forward</t>
-  </si>
-  <si>
-    <t>0.000000007312742167607660744</t>
-  </si>
-  <si>
-    <t>0.001*k_cat+k_m</t>
-  </si>
-  <si>
-    <t>[c]: (2) amp ==&gt; (2) atp</t>
-  </si>
-  <si>
-    <t>(2) amp[e] ==&gt; (2) amp[c]</t>
-  </si>
-  <si>
-    <t>mock_conversion_2amp_2atp</t>
-  </si>
-  <si>
-    <t>mock_transfer_2amp</t>
-  </si>
-  <si>
-    <t>Composition in Uniprot</t>
-  </si>
-  <si>
-    <t>Error</t>
-  </si>
-  <si>
-    <t>Ploidy</t>
-  </si>
-  <si>
-    <t>Sequence Path</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
+      <charset val="134"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1636,11 +1643,161 @@
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="arial"/>
-      <family val="2"/>
       <charset val="1"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="37">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1650,11 +1807,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFCCCCCC"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <fgColor theme="0" tint="-0.149998474074526"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1670,8 +1828,194 @@
         <bgColor rgb="FFCCCCCC"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -1679,9 +2023,251 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="8" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="33" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -1699,10 +2285,57 @@
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="60% - Accent6" xfId="1" builtinId="52"/>
+    <cellStyle name="40% - Accent6" xfId="2" builtinId="51"/>
+    <cellStyle name="60% - Accent5" xfId="3" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="4" builtinId="49"/>
+    <cellStyle name="40% - Accent5" xfId="5" builtinId="47"/>
+    <cellStyle name="20% - Accent5" xfId="6" builtinId="46"/>
+    <cellStyle name="60% - Accent4" xfId="7" builtinId="44"/>
+    <cellStyle name="Accent5" xfId="8" builtinId="45"/>
+    <cellStyle name="40% - Accent4" xfId="9" builtinId="43"/>
+    <cellStyle name="Accent4" xfId="10" builtinId="41"/>
+    <cellStyle name="Linked Cell" xfId="11" builtinId="24"/>
+    <cellStyle name="40% - Accent3" xfId="12" builtinId="39"/>
+    <cellStyle name="60% - Accent2" xfId="13" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="14" builtinId="37"/>
+    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
+    <cellStyle name="20% - Accent2" xfId="16" builtinId="34"/>
+    <cellStyle name="Accent2" xfId="17" builtinId="33"/>
+    <cellStyle name="40% - Accent1" xfId="18" builtinId="31"/>
+    <cellStyle name="20% - Accent1" xfId="19" builtinId="30"/>
+    <cellStyle name="Accent1" xfId="20" builtinId="29"/>
+    <cellStyle name="Neutral" xfId="21" builtinId="28"/>
+    <cellStyle name="60% - Accent1" xfId="22" builtinId="32"/>
+    <cellStyle name="Bad" xfId="23" builtinId="27"/>
+    <cellStyle name="20% - Accent4" xfId="24" builtinId="42"/>
+    <cellStyle name="Total" xfId="25" builtinId="25"/>
+    <cellStyle name="Output" xfId="26" builtinId="21"/>
+    <cellStyle name="Currency" xfId="27" builtinId="4"/>
+    <cellStyle name="20% - Accent3" xfId="28" builtinId="38"/>
+    <cellStyle name="Note" xfId="29" builtinId="10"/>
+    <cellStyle name="Input" xfId="30" builtinId="20"/>
+    <cellStyle name="Heading 4" xfId="31" builtinId="19"/>
+    <cellStyle name="Calculation" xfId="32" builtinId="22"/>
+    <cellStyle name="Good" xfId="33" builtinId="26"/>
+    <cellStyle name="Heading 3" xfId="34" builtinId="18"/>
+    <cellStyle name="CExplanatory Text" xfId="35" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="36" builtinId="16"/>
+    <cellStyle name="Comma [0]" xfId="37" builtinId="6"/>
+    <cellStyle name="20% - Accent6" xfId="38" builtinId="50"/>
+    <cellStyle name="Title" xfId="39" builtinId="15"/>
+    <cellStyle name="Currency [0]" xfId="40" builtinId="7"/>
+    <cellStyle name="Warning Text" xfId="41" builtinId="11"/>
+    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9"/>
+    <cellStyle name="Heading 2" xfId="43" builtinId="17"/>
+    <cellStyle name="Comma" xfId="44" builtinId="3"/>
+    <cellStyle name="Check Cell" xfId="45" builtinId="23"/>
+    <cellStyle name="60% - Accent3" xfId="46" builtinId="40"/>
+    <cellStyle name="Percent" xfId="47" builtinId="5"/>
+    <cellStyle name="Hyperlink" xfId="48" builtinId="8"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1717,10 +2350,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr val="windowText" lastClr="212121"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr val="window" lastClr="F3F3F3"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -1991,24 +2624,25 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="1"/>
   <sheetData>
-    <row r="1" spans="1:2" ht="15" customHeight="1">
+    <row r="1" ht="15" customHeight="1" spans="1:2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2016,7 +2650,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="15" customHeight="1">
+    <row r="2" ht="15" customHeight="1" spans="1:2">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -2024,7 +2658,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="15" customHeight="1">
+    <row r="3" ht="15" customHeight="1" spans="1:2">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -2032,7 +2666,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="15" customHeight="1">
+    <row r="4" ht="15" customHeight="1" spans="1:2">
       <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
@@ -2040,25 +2674,25 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="15" customHeight="1">
+    <row r="5" ht="15" customHeight="1" spans="1:2">
       <c r="A5" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B5" s="2"/>
     </row>
-    <row r="6" spans="1:2" ht="15" customHeight="1">
+    <row r="6" ht="15" customHeight="1" spans="1:2">
       <c r="A6" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B6" s="2"/>
     </row>
-    <row r="7" spans="1:2" ht="15" customHeight="1">
+    <row r="7" ht="15" customHeight="1" spans="1:2">
       <c r="A7" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B7" s="2"/>
     </row>
-    <row r="8" spans="1:2" ht="15" customHeight="1">
+    <row r="8" ht="15" customHeight="1" spans="1:2">
       <c r="A8" s="1" t="s">
         <v>10</v>
       </c>
@@ -2066,38 +2700,43 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="15" customHeight="1">
+    <row r="9" ht="15" customHeight="1" spans="1:2">
       <c r="A9" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B9" s="2"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:B9"/>
+  <autoFilter ref="A1:B9">
+    <extLst/>
+  </autoFilter>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:J33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
       <selection pane="bottomRight" activeCell="K29" sqref="K29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="2" max="2" width="20.33203125" customWidth="1"/>
-    <col min="4" max="4" width="16.88671875" customWidth="1"/>
-    <col min="7" max="7" width="16.5546875" customWidth="1"/>
-    <col min="10" max="10" width="18.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.3333333333333" customWidth="1"/>
+    <col min="4" max="4" width="16.8833333333333" customWidth="1"/>
+    <col min="7" max="7" width="16.5583333333333" customWidth="1"/>
+    <col min="10" max="10" width="18.6666666666667" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15" customHeight="1">
+    <row r="1" ht="15" customHeight="1" spans="1:10">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2105,19 +2744,19 @@
         <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>11</v>
@@ -2126,21 +2765,21 @@
         <v>15</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>504</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" ht="15" customHeight="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" ht="15" customHeight="1" spans="1:9">
       <c r="A2" s="1" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="E2" s="2" t="b">
         <v>0</v>
@@ -2154,18 +2793,18 @@
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
     </row>
-    <row r="3" spans="1:10" ht="15" customHeight="1">
+    <row r="3" ht="15" customHeight="1" spans="1:9">
       <c r="A3" s="1" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="E3" s="2" t="b">
         <v>0</v>
@@ -2179,18 +2818,18 @@
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
     </row>
-    <row r="4" spans="1:10" ht="15" customHeight="1">
+    <row r="4" ht="15" customHeight="1" spans="1:9">
       <c r="A4" s="1" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="E4" s="2" t="b">
         <v>0</v>
@@ -2204,18 +2843,18 @@
       <c r="H4" s="2"/>
       <c r="I4" s="2"/>
     </row>
-    <row r="5" spans="1:10" ht="15" customHeight="1">
+    <row r="5" ht="15" customHeight="1" spans="1:9">
       <c r="A5" s="1" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="E5" s="2" t="b">
         <v>0</v>
@@ -2229,18 +2868,18 @@
       <c r="H5" s="2"/>
       <c r="I5" s="2"/>
     </row>
-    <row r="6" spans="1:10" ht="15" customHeight="1">
+    <row r="6" ht="15" customHeight="1" spans="1:9">
       <c r="A6" s="1" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="E6" s="2" t="b">
         <v>0</v>
@@ -2254,18 +2893,18 @@
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
     </row>
-    <row r="7" spans="1:10" ht="15" customHeight="1">
+    <row r="7" ht="15" customHeight="1" spans="1:9">
       <c r="A7" s="1" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="E7" s="2" t="b">
         <v>0</v>
@@ -2279,18 +2918,18 @@
       <c r="H7" s="2"/>
       <c r="I7" s="2"/>
     </row>
-    <row r="8" spans="1:10" ht="15" customHeight="1">
+    <row r="8" ht="15" customHeight="1" spans="1:9">
       <c r="A8" s="1" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="E8" s="2" t="b">
         <v>0</v>
@@ -2304,18 +2943,18 @@
       <c r="H8" s="2"/>
       <c r="I8" s="2"/>
     </row>
-    <row r="9" spans="1:10" ht="15" customHeight="1">
+    <row r="9" ht="15" customHeight="1" spans="1:9">
       <c r="A9" s="1" t="s">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="E9" s="2" t="b">
         <v>0</v>
@@ -2329,18 +2968,18 @@
       <c r="H9" s="2"/>
       <c r="I9" s="2"/>
     </row>
-    <row r="10" spans="1:10" ht="15" customHeight="1">
+    <row r="10" ht="15" customHeight="1" spans="1:9">
       <c r="A10" s="1" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="E10" s="2" t="b">
         <v>0</v>
@@ -2354,18 +2993,18 @@
       <c r="H10" s="2"/>
       <c r="I10" s="2"/>
     </row>
-    <row r="11" spans="1:10" ht="15" customHeight="1">
+    <row r="11" ht="15" customHeight="1" spans="1:9">
       <c r="A11" s="1" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="E11" s="2" t="b">
         <v>0</v>
@@ -2379,18 +3018,18 @@
       <c r="H11" s="2"/>
       <c r="I11" s="2"/>
     </row>
-    <row r="12" spans="1:10" ht="15" customHeight="1">
+    <row r="12" ht="15" customHeight="1" spans="1:9">
       <c r="A12" s="1" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="E12" s="2" t="b">
         <v>0</v>
@@ -2404,18 +3043,18 @@
       <c r="H12" s="2"/>
       <c r="I12" s="2"/>
     </row>
-    <row r="13" spans="1:10" ht="15" customHeight="1">
+    <row r="13" ht="15" customHeight="1" spans="1:9">
       <c r="A13" s="1" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="E13" s="2" t="b">
         <v>0</v>
@@ -2427,18 +3066,18 @@
       <c r="H13" s="2"/>
       <c r="I13" s="2"/>
     </row>
-    <row r="14" spans="1:10" ht="15" customHeight="1">
+    <row r="14" ht="15" customHeight="1" spans="1:9">
       <c r="A14" s="1" t="s">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="E14" s="2" t="b">
         <v>0</v>
@@ -2452,18 +3091,18 @@
       <c r="H14" s="2"/>
       <c r="I14" s="2"/>
     </row>
-    <row r="15" spans="1:10" ht="15" customHeight="1">
+    <row r="15" ht="15" customHeight="1" spans="1:9">
       <c r="A15" s="1" t="s">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="E15" s="2" t="b">
         <v>0</v>
@@ -2477,18 +3116,18 @@
       <c r="H15" s="2"/>
       <c r="I15" s="2"/>
     </row>
-    <row r="16" spans="1:10" ht="15" customHeight="1">
+    <row r="16" ht="15" customHeight="1" spans="1:9">
       <c r="A16" s="1" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="E16" s="2" t="b">
         <v>0</v>
@@ -2502,18 +3141,18 @@
       <c r="H16" s="2"/>
       <c r="I16" s="2"/>
     </row>
-    <row r="17" spans="1:9" ht="15" customHeight="1">
+    <row r="17" ht="15" customHeight="1" spans="1:9">
       <c r="A17" s="1" t="s">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="E17" s="2" t="b">
         <v>0</v>
@@ -2527,18 +3166,18 @@
       <c r="H17" s="2"/>
       <c r="I17" s="2"/>
     </row>
-    <row r="18" spans="1:9" ht="15" customHeight="1">
+    <row r="18" ht="15" customHeight="1" spans="1:9">
       <c r="A18" s="1" t="s">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="E18" s="2" t="b">
         <v>0</v>
@@ -2552,18 +3191,18 @@
       <c r="H18" s="2"/>
       <c r="I18" s="2"/>
     </row>
-    <row r="19" spans="1:9" ht="15" customHeight="1">
+    <row r="19" ht="15" customHeight="1" spans="1:9">
       <c r="A19" s="1" t="s">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="E19" s="2" t="b">
         <v>0</v>
@@ -2577,18 +3216,18 @@
       <c r="H19" s="2"/>
       <c r="I19" s="2"/>
     </row>
-    <row r="20" spans="1:9" ht="15" customHeight="1">
+    <row r="20" ht="15" customHeight="1" spans="1:9">
       <c r="A20" s="1" t="s">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="E20" s="2" t="b">
         <v>0</v>
@@ -2602,18 +3241,18 @@
       <c r="H20" s="2"/>
       <c r="I20" s="2"/>
     </row>
-    <row r="21" spans="1:9" ht="15" customHeight="1">
+    <row r="21" ht="15" customHeight="1" spans="1:9">
       <c r="A21" s="1" t="s">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="E21" s="2" t="b">
         <v>0</v>
@@ -2627,18 +3266,18 @@
       <c r="H21" s="2"/>
       <c r="I21" s="2"/>
     </row>
-    <row r="22" spans="1:9" ht="15" customHeight="1">
+    <row r="22" ht="15" customHeight="1" spans="1:9">
       <c r="A22" s="1" t="s">
-        <v>346</v>
+        <v>349</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>346</v>
+        <v>349</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="E22" s="2" t="b">
         <v>0</v>
@@ -2652,18 +3291,18 @@
       <c r="H22" s="2"/>
       <c r="I22" s="2"/>
     </row>
-    <row r="23" spans="1:9" ht="15" customHeight="1">
+    <row r="23" ht="15" customHeight="1" spans="1:9">
       <c r="A23" s="1" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="E23" s="2" t="b">
         <v>0</v>
@@ -2677,18 +3316,18 @@
       <c r="H23" s="2"/>
       <c r="I23" s="2"/>
     </row>
-    <row r="24" spans="1:9" ht="15" customHeight="1">
+    <row r="24" ht="15" customHeight="1" spans="1:9">
       <c r="A24" s="1" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="E24" s="2" t="b">
         <v>0</v>
@@ -2702,18 +3341,18 @@
       <c r="H24" s="2"/>
       <c r="I24" s="2"/>
     </row>
-    <row r="25" spans="1:9" ht="15" customHeight="1">
+    <row r="25" ht="15" customHeight="1" spans="1:9">
       <c r="A25" s="1" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="E25" s="2" t="b">
         <v>0</v>
@@ -2727,18 +3366,18 @@
       <c r="H25" s="2"/>
       <c r="I25" s="2"/>
     </row>
-    <row r="26" spans="1:9" ht="15" customHeight="1">
+    <row r="26" ht="15" customHeight="1" spans="1:9">
       <c r="A26" s="1" t="s">
-        <v>350</v>
+        <v>353</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>350</v>
+        <v>353</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="E26" s="2" t="b">
         <v>0</v>
@@ -2752,18 +3391,18 @@
       <c r="H26" s="2"/>
       <c r="I26" s="2"/>
     </row>
-    <row r="27" spans="1:9" ht="15" customHeight="1">
+    <row r="27" ht="15" customHeight="1" spans="1:9">
       <c r="A27" s="1" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="E27" s="2" t="b">
         <v>0</v>
@@ -2777,18 +3416,18 @@
       <c r="H27" s="2"/>
       <c r="I27" s="2"/>
     </row>
-    <row r="28" spans="1:9" ht="15" customHeight="1">
+    <row r="28" ht="15" customHeight="1" spans="1:9">
       <c r="A28" s="1" t="s">
-        <v>352</v>
+        <v>355</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>352</v>
+        <v>355</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="E28" s="2" t="b">
         <v>0</v>
@@ -2802,18 +3441,18 @@
       <c r="H28" s="2"/>
       <c r="I28" s="2"/>
     </row>
-    <row r="29" spans="1:9" ht="15" customHeight="1">
+    <row r="29" ht="15" customHeight="1" spans="1:9">
       <c r="A29" s="1" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="E29" s="2" t="b">
         <v>0</v>
@@ -2827,18 +3466,18 @@
       <c r="H29" s="2"/>
       <c r="I29" s="2"/>
     </row>
-    <row r="30" spans="1:9" ht="15" customHeight="1">
+    <row r="30" ht="15" customHeight="1" spans="1:9">
       <c r="A30" s="1" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="E30" s="2" t="b">
         <v>0</v>
@@ -2852,18 +3491,18 @@
       <c r="H30" s="2"/>
       <c r="I30" s="2"/>
     </row>
-    <row r="31" spans="1:9" ht="15" customHeight="1">
+    <row r="31" ht="15" customHeight="1" spans="1:9">
       <c r="A31" s="1" t="s">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="E31" s="2" t="b">
         <v>0</v>
@@ -2877,18 +3516,18 @@
       <c r="H31" s="2"/>
       <c r="I31" s="2"/>
     </row>
-    <row r="32" spans="1:9" ht="15" customHeight="1">
+    <row r="32" ht="15" customHeight="1" spans="1:9">
       <c r="A32" s="1" t="s">
-        <v>356</v>
+        <v>359</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>356</v>
+        <v>359</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="E32" s="2" t="b">
         <v>0</v>
@@ -2902,18 +3541,18 @@
       <c r="H32" s="2"/>
       <c r="I32" s="2"/>
     </row>
-    <row r="33" spans="1:9" ht="15" customHeight="1">
+    <row r="33" ht="15" customHeight="1" spans="1:9">
       <c r="A33" s="1" t="s">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="E33" s="2" t="b">
         <v>0</v>
@@ -2928,28 +3567,33 @@
       <c r="I33" s="2"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:I33"/>
+  <autoFilter ref="A1:I33">
+    <extLst/>
+  </autoFilter>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:L2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
       <selection pane="bottomRight" activeCell="L13" sqref="L13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1"/>
   <cols>
-    <col min="12" max="12" width="18.6640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="18.6666666666667" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15" customHeight="1">
+    <row r="1" ht="15" customHeight="1" spans="1:12">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2957,25 +3601,25 @@
         <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>358</v>
+        <v>361</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>359</v>
+        <v>362</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>514</v>
+        <v>363</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>362</v>
+        <v>366</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>11</v>
@@ -2984,19 +3628,19 @@
         <v>15</v>
       </c>
       <c r="L1" s="3" t="s">
-        <v>504</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" ht="15" customHeight="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" ht="15" customHeight="1" spans="1:11">
       <c r="A2" s="1" t="s">
-        <v>363</v>
+        <v>367</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" s="2" t="s">
-        <v>364</v>
+        <v>368</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
@@ -3007,36 +3651,41 @@
       <c r="K2" s="2"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:K2"/>
+  <autoFilter ref="A1:K2">
+    <extLst/>
+  </autoFilter>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:F95"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
       <selection pane="bottomRight" activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
   <cols>
-    <col min="6" max="6" width="18.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.6666666666667" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15" customHeight="1">
+    <row r="1" ht="15" customHeight="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>365</v>
+        <v>369</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>366</v>
+        <v>370</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>367</v>
+        <v>371</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>11</v>
@@ -3045,1259 +3694,1264 @@
         <v>15</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>504</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="15" customHeight="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" ht="15" customHeight="1" spans="1:5">
       <c r="A2" s="1" t="s">
-        <v>368</v>
+        <v>372</v>
       </c>
       <c r="B2" s="2">
-        <v>8.2299999999999995E-4</v>
+        <v>0.000823</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>369</v>
+        <v>373</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
     </row>
-    <row r="3" spans="1:6" ht="15" customHeight="1">
+    <row r="3" ht="15" customHeight="1" spans="1:5">
       <c r="A3" s="1" t="s">
-        <v>370</v>
+        <v>374</v>
       </c>
       <c r="B3" s="2">
-        <v>2.5999999999999999E-3</v>
+        <v>0.0026</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>369</v>
+        <v>373</v>
       </c>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
     </row>
-    <row r="4" spans="1:6" ht="15" customHeight="1">
+    <row r="4" ht="15" customHeight="1" spans="1:5">
       <c r="A4" s="1" t="s">
-        <v>371</v>
+        <v>375</v>
       </c>
       <c r="B4" s="2">
-        <v>1.5100000000000001E-4</v>
+        <v>0.000151</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>369</v>
+        <v>373</v>
       </c>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
     </row>
-    <row r="5" spans="1:6" ht="15" customHeight="1">
+    <row r="5" ht="15" customHeight="1" spans="1:5">
       <c r="A5" s="1" t="s">
-        <v>372</v>
+        <v>376</v>
       </c>
       <c r="B5" s="2">
-        <v>5.6999999999999998E-4</v>
+        <v>0.00057</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>369</v>
+        <v>373</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
     </row>
-    <row r="6" spans="1:6" ht="15" customHeight="1">
+    <row r="6" ht="15" customHeight="1" spans="1:5">
       <c r="A6" s="1" t="s">
-        <v>373</v>
+        <v>377</v>
       </c>
       <c r="B6" s="2">
-        <v>5.1000000000000004E-4</v>
+        <v>0.00051</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>369</v>
+        <v>373</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
     </row>
-    <row r="7" spans="1:6" ht="15" customHeight="1">
+    <row r="7" ht="15" customHeight="1" spans="1:5">
       <c r="A7" s="1" t="s">
-        <v>374</v>
+        <v>378</v>
       </c>
       <c r="B7" s="2">
-        <v>4.1999999999999997E-3</v>
+        <v>0.0042</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>369</v>
+        <v>373</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
     </row>
-    <row r="8" spans="1:6" ht="15" customHeight="1">
+    <row r="8" ht="15" customHeight="1" spans="1:5">
       <c r="A8" s="1" t="s">
-        <v>375</v>
+        <v>379</v>
       </c>
       <c r="B8" s="2">
-        <v>3.5000000000000001E-3</v>
+        <v>0.0035</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>369</v>
+        <v>373</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
     </row>
-    <row r="9" spans="1:6" ht="15" customHeight="1">
+    <row r="9" ht="15" customHeight="1" spans="1:5">
       <c r="A9" s="1" t="s">
-        <v>376</v>
+        <v>380</v>
       </c>
       <c r="B9" s="2">
-        <v>3.6000000000000002E-4</v>
+        <v>0.00036</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>369</v>
+        <v>373</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
     </row>
-    <row r="10" spans="1:6" ht="15" customHeight="1">
+    <row r="10" ht="15" customHeight="1" spans="1:5">
       <c r="A10" s="1" t="s">
-        <v>377</v>
+        <v>381</v>
       </c>
       <c r="B10" s="2">
-        <v>1.1999999999999999E-3</v>
+        <v>0.0012</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>369</v>
+        <v>373</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
     </row>
-    <row r="11" spans="1:6" ht="15" customHeight="1">
+    <row r="11" ht="15" customHeight="1" spans="1:5">
       <c r="A11" s="1" t="s">
-        <v>378</v>
+        <v>382</v>
       </c>
       <c r="B11" s="2">
-        <v>3.6999999999999999E-4</v>
+        <v>0.00037</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>369</v>
+        <v>373</v>
       </c>
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
     </row>
-    <row r="12" spans="1:6" ht="15" customHeight="1">
+    <row r="12" ht="15" customHeight="1" spans="1:5">
       <c r="A12" s="1" t="s">
-        <v>379</v>
+        <v>383</v>
       </c>
       <c r="B12" s="2">
-        <v>5.0000000000000001E-3</v>
+        <v>0.005</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>369</v>
+        <v>373</v>
       </c>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
     </row>
-    <row r="13" spans="1:6" ht="15" customHeight="1">
+    <row r="13" ht="15" customHeight="1" spans="1:5">
       <c r="A13" s="1" t="s">
-        <v>380</v>
+        <v>384</v>
       </c>
       <c r="B13" s="2">
-        <v>3.8E-3</v>
+        <v>0.0038</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>369</v>
+        <v>373</v>
       </c>
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
     </row>
-    <row r="14" spans="1:6" ht="15" customHeight="1">
+    <row r="14" ht="15" customHeight="1" spans="1:5">
       <c r="A14" s="1" t="s">
-        <v>381</v>
+        <v>385</v>
       </c>
       <c r="B14" s="2">
-        <v>9.6000000000000002E-2</v>
+        <v>0.096</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>369</v>
+        <v>373</v>
       </c>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
     </row>
-    <row r="15" spans="1:6" ht="15" customHeight="1">
+    <row r="15" ht="15" customHeight="1" spans="1:5">
       <c r="A15" s="1" t="s">
-        <v>382</v>
+        <v>386</v>
       </c>
       <c r="B15" s="2">
-        <v>3.0999999999999999E-3</v>
+        <v>0.0031</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>369</v>
+        <v>373</v>
       </c>
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
     </row>
-    <row r="16" spans="1:6" ht="15" customHeight="1">
+    <row r="16" ht="15" customHeight="1" spans="1:5">
       <c r="A16" s="1" t="s">
-        <v>383</v>
+        <v>387</v>
       </c>
       <c r="B16" s="2">
-        <v>2.4000000000000001E-5</v>
+        <v>2.4e-5</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>369</v>
+        <v>373</v>
       </c>
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
     </row>
-    <row r="17" spans="1:5" ht="15" customHeight="1">
+    <row r="17" ht="15" customHeight="1" spans="1:5">
       <c r="A17" s="1" t="s">
-        <v>384</v>
+        <v>388</v>
       </c>
       <c r="B17" s="2">
-        <v>1.9E-3</v>
+        <v>0.0019</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>369</v>
+        <v>373</v>
       </c>
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
     </row>
-    <row r="18" spans="1:5" ht="15" customHeight="1">
+    <row r="18" ht="15" customHeight="1" spans="1:5">
       <c r="A18" s="1" t="s">
-        <v>385</v>
+        <v>389</v>
       </c>
       <c r="B18" s="2">
         <v>55.5</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>369</v>
+        <v>373</v>
       </c>
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
     </row>
-    <row r="19" spans="1:5" ht="15" customHeight="1">
+    <row r="19" ht="15" customHeight="1" spans="1:5">
       <c r="A19" s="1" t="s">
-        <v>386</v>
+        <v>390</v>
       </c>
       <c r="B19" s="2">
-        <v>2.8200000000000001E-8</v>
+        <v>2.82e-8</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>369</v>
+        <v>373</v>
       </c>
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
     </row>
-    <row r="20" spans="1:5" ht="15" customHeight="1">
+    <row r="20" ht="15" customHeight="1" spans="1:5">
       <c r="A20" s="1" t="s">
-        <v>387</v>
+        <v>391</v>
       </c>
       <c r="B20" s="2">
-        <v>6.7999999999999999E-5</v>
+        <v>6.8e-5</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>369</v>
+        <v>373</v>
       </c>
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
     </row>
-    <row r="21" spans="1:5" ht="15" customHeight="1">
+    <row r="21" ht="15" customHeight="1" spans="1:5">
       <c r="A21" s="1" t="s">
-        <v>388</v>
+        <v>392</v>
       </c>
       <c r="B21" s="2">
-        <v>2.9999999999999997E-4</v>
+        <v>0.0003</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>369</v>
+        <v>373</v>
       </c>
       <c r="D21" s="2"/>
       <c r="E21" s="2"/>
     </row>
-    <row r="22" spans="1:5" ht="15" customHeight="1">
+    <row r="22" ht="15" customHeight="1" spans="1:5">
       <c r="A22" s="1" t="s">
-        <v>389</v>
+        <v>393</v>
       </c>
       <c r="B22" s="2">
-        <v>2.9999999999999997E-4</v>
+        <v>0.0003</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>369</v>
+        <v>373</v>
       </c>
       <c r="D22" s="2"/>
       <c r="E22" s="2"/>
     </row>
-    <row r="23" spans="1:5" ht="15" customHeight="1">
+    <row r="23" ht="15" customHeight="1" spans="1:5">
       <c r="A23" s="1" t="s">
-        <v>390</v>
+        <v>394</v>
       </c>
       <c r="B23" s="2">
-        <v>4.0999999999999999E-4</v>
+        <v>0.00041</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>369</v>
+        <v>373</v>
       </c>
       <c r="D23" s="2"/>
       <c r="E23" s="2"/>
     </row>
-    <row r="24" spans="1:5" ht="15" customHeight="1">
+    <row r="24" ht="15" customHeight="1" spans="1:5">
       <c r="A24" s="1" t="s">
-        <v>391</v>
+        <v>395</v>
       </c>
       <c r="B24" s="2">
-        <v>1.4999999999999999E-4</v>
+        <v>0.00015</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>369</v>
+        <v>373</v>
       </c>
       <c r="D24" s="2"/>
       <c r="E24" s="2"/>
     </row>
-    <row r="25" spans="1:5" ht="15" customHeight="1">
+    <row r="25" ht="15" customHeight="1" spans="1:5">
       <c r="A25" s="1" t="s">
-        <v>392</v>
+        <v>396</v>
       </c>
       <c r="B25" s="2">
-        <v>1.8E-5</v>
+        <v>1.8e-5</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>369</v>
+        <v>373</v>
       </c>
       <c r="D25" s="2"/>
       <c r="E25" s="2"/>
     </row>
-    <row r="26" spans="1:5" ht="15" customHeight="1">
+    <row r="26" ht="15" customHeight="1" spans="1:5">
       <c r="A26" s="1" t="s">
-        <v>393</v>
+        <v>397</v>
       </c>
       <c r="B26" s="2">
-        <v>5.0000000000000001E-3</v>
+        <v>0.005</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>369</v>
+        <v>373</v>
       </c>
       <c r="D26" s="2"/>
       <c r="E26" s="2"/>
     </row>
-    <row r="27" spans="1:5" ht="15" customHeight="1">
+    <row r="27" ht="15" customHeight="1" spans="1:5">
       <c r="A27" s="1" t="s">
-        <v>394</v>
+        <v>398</v>
       </c>
       <c r="B27" s="2">
-        <v>5.0000000000000001E-4</v>
+        <v>0.0005</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>369</v>
+        <v>373</v>
       </c>
       <c r="D27" s="2"/>
       <c r="E27" s="2"/>
     </row>
-    <row r="28" spans="1:5" ht="15" customHeight="1">
+    <row r="28" ht="15" customHeight="1" spans="1:5">
       <c r="A28" s="1" t="s">
-        <v>395</v>
+        <v>399</v>
       </c>
       <c r="B28" s="2">
-        <v>3.8999999999999999E-4</v>
+        <v>0.00039</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>369</v>
+        <v>373</v>
       </c>
       <c r="D28" s="2"/>
       <c r="E28" s="2"/>
     </row>
-    <row r="29" spans="1:5" ht="15" customHeight="1">
+    <row r="29" ht="15" customHeight="1" spans="1:5">
       <c r="A29" s="1" t="s">
-        <v>396</v>
+        <v>400</v>
       </c>
       <c r="B29" s="2">
-        <v>1.690428743154853E-6</v>
+        <v>1.69042874315485e-6</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>369</v>
+        <v>373</v>
       </c>
       <c r="D29" s="2"/>
       <c r="E29" s="2"/>
     </row>
-    <row r="30" spans="1:5" ht="15" customHeight="1">
+    <row r="30" ht="15" customHeight="1" spans="1:5">
       <c r="A30" s="1" t="s">
-        <v>397</v>
+        <v>401</v>
       </c>
       <c r="B30" s="2">
-        <v>1.6705022746697271E-6</v>
+        <v>1.67050227466973e-6</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>369</v>
+        <v>373</v>
       </c>
       <c r="D30" s="2"/>
       <c r="E30" s="2"/>
     </row>
-    <row r="31" spans="1:5" ht="15" customHeight="1">
+    <row r="31" ht="15" customHeight="1" spans="1:5">
       <c r="A31" s="1" t="s">
-        <v>398</v>
+        <v>402</v>
       </c>
       <c r="B31" s="2">
-        <v>1.6821260479527169E-6</v>
+        <v>1.68212604795272e-6</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>369</v>
+        <v>373</v>
       </c>
       <c r="D31" s="2"/>
       <c r="E31" s="2"/>
     </row>
-    <row r="32" spans="1:5" ht="15" customHeight="1">
+    <row r="32" ht="15" customHeight="1" spans="1:5">
       <c r="A32" s="1" t="s">
-        <v>399</v>
+        <v>403</v>
       </c>
       <c r="B32" s="2">
-        <v>1.7103552116399789E-6</v>
+        <v>1.71035521163998e-6</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>369</v>
+        <v>373</v>
       </c>
       <c r="D32" s="2"/>
       <c r="E32" s="2"/>
     </row>
-    <row r="33" spans="1:5" ht="15" customHeight="1">
+    <row r="33" ht="15" customHeight="1" spans="1:5">
       <c r="A33" s="1" t="s">
-        <v>400</v>
+        <v>404</v>
       </c>
       <c r="B33" s="2">
-        <v>1.6705022746697271E-6</v>
+        <v>1.67050227466973e-6</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>369</v>
+        <v>373</v>
       </c>
       <c r="D33" s="2"/>
       <c r="E33" s="2"/>
     </row>
-    <row r="34" spans="1:5" ht="15" customHeight="1">
+    <row r="34" ht="15" customHeight="1" spans="1:5">
       <c r="A34" s="1" t="s">
-        <v>401</v>
+        <v>405</v>
       </c>
       <c r="B34" s="2">
-        <v>1.6489152671441739E-6</v>
+        <v>1.64891526714417e-6</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>369</v>
+        <v>373</v>
       </c>
       <c r="D34" s="2"/>
       <c r="E34" s="2"/>
     </row>
-    <row r="35" spans="1:5" ht="15" customHeight="1">
+    <row r="35" ht="15" customHeight="1" spans="1:5">
       <c r="A35" s="1" t="s">
-        <v>402</v>
+        <v>406</v>
       </c>
       <c r="B35" s="2">
-        <v>1.6788049698718629E-6</v>
+        <v>1.67880496987186e-6</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>369</v>
+        <v>373</v>
       </c>
       <c r="D35" s="2"/>
       <c r="E35" s="2"/>
     </row>
-    <row r="36" spans="1:5" ht="15" customHeight="1">
+    <row r="36" ht="15" customHeight="1" spans="1:5">
       <c r="A36" s="1" t="s">
-        <v>403</v>
+        <v>407</v>
       </c>
       <c r="B36" s="2">
-        <v>1.6821260479527169E-6</v>
+        <v>1.68212604795272e-6</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>369</v>
+        <v>373</v>
       </c>
       <c r="D36" s="2"/>
       <c r="E36" s="2"/>
     </row>
-    <row r="37" spans="1:5" ht="15" customHeight="1">
+    <row r="37" ht="15" customHeight="1" spans="1:5">
       <c r="A37" s="1" t="s">
-        <v>404</v>
+        <v>408</v>
       </c>
       <c r="B37" s="2">
-        <v>1.6705022746697271E-6</v>
+        <v>1.67050227466973e-6</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>369</v>
+        <v>373</v>
       </c>
       <c r="D37" s="2"/>
       <c r="E37" s="2"/>
     </row>
-    <row r="38" spans="1:5" ht="15" customHeight="1">
+    <row r="38" ht="15" customHeight="1" spans="1:5">
       <c r="A38" s="1" t="s">
-        <v>405</v>
+        <v>409</v>
       </c>
       <c r="B38" s="2">
-        <v>1.638952032901611E-6</v>
+        <v>1.63895203290161e-6</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>369</v>
+        <v>373</v>
       </c>
       <c r="D38" s="2"/>
       <c r="E38" s="2"/>
     </row>
-    <row r="39" spans="1:5" ht="15" customHeight="1">
+    <row r="39" ht="15" customHeight="1" spans="1:5">
       <c r="A39" s="1" t="s">
-        <v>406</v>
+        <v>410</v>
       </c>
       <c r="B39" s="2">
-        <v>1.6688417356293001E-6</v>
+        <v>1.6688417356293e-6</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>369</v>
+        <v>373</v>
       </c>
       <c r="D39" s="2"/>
       <c r="E39" s="2"/>
     </row>
-    <row r="40" spans="1:5" ht="15" customHeight="1">
+    <row r="40" ht="15" customHeight="1" spans="1:5">
       <c r="A40" s="1" t="s">
-        <v>407</v>
+        <v>411</v>
       </c>
       <c r="B40" s="2">
-        <v>1.662199579467591E-6</v>
+        <v>1.66219957946759e-6</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>369</v>
+        <v>373</v>
       </c>
       <c r="D40" s="2"/>
       <c r="E40" s="2"/>
     </row>
-    <row r="41" spans="1:5" ht="15" customHeight="1">
+    <row r="41" ht="15" customHeight="1" spans="1:5">
       <c r="A41" s="1" t="s">
-        <v>408</v>
+        <v>412</v>
       </c>
       <c r="B41" s="2">
-        <v>1.662199579467591E-6</v>
+        <v>1.66219957946759e-6</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>369</v>
+        <v>373</v>
       </c>
       <c r="D41" s="2"/>
       <c r="E41" s="2"/>
     </row>
-    <row r="42" spans="1:5" ht="15" customHeight="1">
+    <row r="42" ht="15" customHeight="1" spans="1:5">
       <c r="A42" s="1" t="s">
-        <v>409</v>
+        <v>413</v>
       </c>
       <c r="B42" s="2">
-        <v>1.65721796234631E-6</v>
+        <v>1.65721796234631e-6</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>369</v>
+        <v>373</v>
       </c>
       <c r="D42" s="2"/>
       <c r="E42" s="2"/>
     </row>
-    <row r="43" spans="1:5" ht="15" customHeight="1">
+    <row r="43" ht="15" customHeight="1" spans="1:5">
       <c r="A43" s="1" t="s">
-        <v>410</v>
+        <v>414</v>
       </c>
       <c r="B43" s="2">
-        <v>1.7319422191655321E-6</v>
+        <v>1.73194221916553e-6</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>369</v>
+        <v>373</v>
       </c>
       <c r="D43" s="2"/>
       <c r="E43" s="2"/>
     </row>
-    <row r="44" spans="1:5" ht="15" customHeight="1">
+    <row r="44" ht="15" customHeight="1" spans="1:5">
       <c r="A44" s="1" t="s">
-        <v>411</v>
+        <v>415</v>
       </c>
       <c r="B44" s="2">
-        <v>1.660539040427164E-6</v>
+        <v>1.66053904042716e-6</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>369</v>
+        <v>373</v>
       </c>
       <c r="D44" s="2"/>
       <c r="E44" s="2"/>
     </row>
-    <row r="45" spans="1:5" ht="15" customHeight="1">
+    <row r="45" ht="15" customHeight="1" spans="1:5">
       <c r="A45" s="1" t="s">
-        <v>412</v>
+        <v>416</v>
       </c>
       <c r="B45" s="2">
-        <v>1.6538968842654549E-6</v>
+        <v>1.65389688426545e-6</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>369</v>
+        <v>373</v>
       </c>
       <c r="D45" s="2"/>
       <c r="E45" s="2"/>
     </row>
-    <row r="46" spans="1:5" ht="15" customHeight="1">
+    <row r="46" ht="15" customHeight="1" spans="1:5">
       <c r="A46" s="1" t="s">
-        <v>413</v>
+        <v>417</v>
       </c>
       <c r="B46" s="2">
-        <v>1.627328259618621E-6</v>
+        <v>1.62732825961862e-6</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>369</v>
+        <v>373</v>
       </c>
       <c r="D46" s="2"/>
       <c r="E46" s="2"/>
     </row>
-    <row r="47" spans="1:5" ht="15" customHeight="1">
+    <row r="47" ht="15" customHeight="1" spans="1:5">
       <c r="A47" s="1" t="s">
-        <v>414</v>
+        <v>418</v>
       </c>
       <c r="B47" s="2">
-        <v>1.6522363452250279E-6</v>
+        <v>1.65223634522503e-6</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>369</v>
+        <v>373</v>
       </c>
       <c r="D47" s="2"/>
       <c r="E47" s="2"/>
     </row>
-    <row r="48" spans="1:5" ht="15" customHeight="1">
+    <row r="48" ht="15" customHeight="1" spans="1:5">
       <c r="A48" s="1" t="s">
-        <v>415</v>
+        <v>419</v>
       </c>
       <c r="B48" s="2">
-        <v>1.65721796234631E-6</v>
+        <v>1.65721796234631e-6</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>369</v>
+        <v>373</v>
       </c>
       <c r="D48" s="2"/>
       <c r="E48" s="2"/>
     </row>
-    <row r="49" spans="1:5" ht="15" customHeight="1">
+    <row r="49" ht="15" customHeight="1" spans="1:5">
       <c r="A49" s="1" t="s">
-        <v>416</v>
+        <v>420</v>
       </c>
       <c r="B49" s="2">
-        <v>1.69208928219528E-6</v>
+        <v>1.69208928219528e-6</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>369</v>
+        <v>373</v>
       </c>
       <c r="D49" s="2"/>
       <c r="E49" s="2"/>
     </row>
-    <row r="50" spans="1:5" ht="15" customHeight="1">
+    <row r="50" ht="15" customHeight="1" spans="1:5">
       <c r="A50" s="1" t="s">
-        <v>417</v>
+        <v>421</v>
       </c>
       <c r="B50" s="2">
-        <v>1.614043947295203E-6</v>
+        <v>1.6140439472952e-6</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>369</v>
+        <v>373</v>
       </c>
       <c r="D50" s="2"/>
       <c r="E50" s="2"/>
     </row>
-    <row r="51" spans="1:5" ht="15" customHeight="1">
+    <row r="51" ht="15" customHeight="1" spans="1:5">
       <c r="A51" s="1" t="s">
-        <v>418</v>
+        <v>422</v>
       </c>
       <c r="B51" s="2">
-        <v>1.695410360276134E-6</v>
+        <v>1.69541036027613e-6</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>369</v>
+        <v>373</v>
       </c>
       <c r="D51" s="2"/>
       <c r="E51" s="2"/>
     </row>
-    <row r="52" spans="1:5" ht="15" customHeight="1">
+    <row r="52" ht="15" customHeight="1" spans="1:5">
       <c r="A52" s="1" t="s">
-        <v>419</v>
+        <v>423</v>
       </c>
       <c r="B52" s="2">
-        <v>1.6455941890633191E-6</v>
+        <v>1.64559418906332e-6</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>369</v>
+        <v>373</v>
       </c>
       <c r="D52" s="2"/>
       <c r="E52" s="2"/>
     </row>
-    <row r="53" spans="1:5" ht="15" customHeight="1">
+    <row r="53" ht="15" customHeight="1" spans="1:5">
       <c r="A53" s="1" t="s">
-        <v>420</v>
+        <v>424</v>
       </c>
       <c r="B53" s="2">
-        <v>1.7020525164378431E-6</v>
+        <v>1.70205251643784e-6</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>369</v>
+        <v>373</v>
       </c>
       <c r="D53" s="2"/>
       <c r="E53" s="2"/>
     </row>
-    <row r="54" spans="1:5" ht="15" customHeight="1">
+    <row r="54" ht="15" customHeight="1" spans="1:5">
       <c r="A54" s="1" t="s">
-        <v>421</v>
+        <v>425</v>
       </c>
       <c r="B54" s="2">
-        <v>1.65721796234631E-6</v>
+        <v>1.65721796234631e-6</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>369</v>
+        <v>373</v>
       </c>
       <c r="D54" s="2"/>
       <c r="E54" s="2"/>
     </row>
-    <row r="55" spans="1:5" ht="15" customHeight="1">
+    <row r="55" ht="15" customHeight="1" spans="1:5">
       <c r="A55" s="1" t="s">
-        <v>422</v>
+        <v>426</v>
       </c>
       <c r="B55" s="2">
-        <v>1.630649337699475E-6</v>
+        <v>1.63064933769947e-6</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>369</v>
+        <v>373</v>
       </c>
       <c r="D55" s="2"/>
       <c r="E55" s="2"/>
     </row>
-    <row r="56" spans="1:5" ht="15" customHeight="1">
+    <row r="56" ht="15" customHeight="1" spans="1:5">
       <c r="A56" s="1" t="s">
-        <v>423</v>
+        <v>427</v>
       </c>
       <c r="B56" s="2">
-        <v>1.6455941890633191E-6</v>
+        <v>1.64559418906332e-6</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>369</v>
+        <v>373</v>
       </c>
       <c r="D56" s="2"/>
       <c r="E56" s="2"/>
     </row>
-    <row r="57" spans="1:5" ht="15" customHeight="1">
+    <row r="57" ht="15" customHeight="1" spans="1:5">
       <c r="A57" s="1" t="s">
-        <v>424</v>
+        <v>428</v>
       </c>
       <c r="B57" s="2">
-        <v>1.660539040427164E-6</v>
+        <v>1.66053904042716e-6</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>369</v>
+        <v>373</v>
       </c>
       <c r="D57" s="2"/>
       <c r="E57" s="2"/>
     </row>
-    <row r="58" spans="1:5" ht="15" customHeight="1">
+    <row r="58" ht="15" customHeight="1" spans="1:5">
       <c r="A58" s="1" t="s">
-        <v>425</v>
+        <v>429</v>
       </c>
       <c r="B58" s="2">
-        <v>1.6671811965888731E-6</v>
+        <v>1.66718119658887e-6</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>369</v>
+        <v>373</v>
       </c>
       <c r="D58" s="2"/>
       <c r="E58" s="2"/>
     </row>
-    <row r="59" spans="1:5" ht="15" customHeight="1">
+    <row r="59" ht="15" customHeight="1" spans="1:5">
       <c r="A59" s="1" t="s">
-        <v>426</v>
+        <v>430</v>
       </c>
       <c r="B59" s="2">
-        <v>1.6854471260335709E-6</v>
+        <v>1.68544712603357e-6</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>369</v>
+        <v>373</v>
       </c>
       <c r="D59" s="2"/>
       <c r="E59" s="2"/>
     </row>
-    <row r="60" spans="1:5" ht="15" customHeight="1">
+    <row r="60" ht="15" customHeight="1" spans="1:5">
       <c r="A60" s="1" t="s">
-        <v>427</v>
+        <v>431</v>
       </c>
       <c r="B60" s="2">
-        <v>1.6788049698718629E-6</v>
+        <v>1.67880496987186e-6</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>369</v>
+        <v>373</v>
       </c>
       <c r="D60" s="2"/>
       <c r="E60" s="2"/>
     </row>
-    <row r="61" spans="1:5" ht="15" customHeight="1">
+    <row r="61" ht="15" customHeight="1" spans="1:5">
       <c r="A61" s="1" t="s">
-        <v>428</v>
+        <v>432</v>
       </c>
       <c r="B61" s="2">
-        <v>1.6605390404271641E-7</v>
+        <v>1.66053904042716e-7</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>369</v>
+        <v>373</v>
       </c>
       <c r="D61" s="2"/>
       <c r="E61" s="2"/>
     </row>
-    <row r="62" spans="1:5" ht="15" customHeight="1">
+    <row r="62" ht="15" customHeight="1" spans="1:5">
       <c r="A62" s="1" t="s">
-        <v>429</v>
+        <v>433</v>
       </c>
       <c r="B62" s="2">
-        <v>1.893014506086967E-7</v>
+        <v>1.89301450608697e-7</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>369</v>
+        <v>373</v>
       </c>
       <c r="D62" s="2"/>
       <c r="E62" s="2"/>
     </row>
-    <row r="63" spans="1:5" ht="15" customHeight="1">
+    <row r="63" ht="15" customHeight="1" spans="1:5">
       <c r="A63" s="1" t="s">
-        <v>430</v>
+        <v>434</v>
       </c>
       <c r="B63" s="2">
-        <v>1.4114581843630891E-7</v>
+        <v>1.41145818436309e-7</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>369</v>
+        <v>373</v>
       </c>
       <c r="D63" s="2"/>
       <c r="E63" s="2"/>
     </row>
-    <row r="64" spans="1:5" ht="15" customHeight="1">
+    <row r="64" ht="15" customHeight="1" spans="1:5">
       <c r="A64" s="1" t="s">
-        <v>431</v>
+        <v>435</v>
       </c>
       <c r="B64" s="2">
-        <v>1.9262252868955099E-7</v>
+        <v>1.92622528689551e-7</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>369</v>
+        <v>373</v>
       </c>
       <c r="D64" s="2"/>
       <c r="E64" s="2"/>
     </row>
-    <row r="65" spans="1:5" ht="15" customHeight="1">
+    <row r="65" ht="15" customHeight="1" spans="1:5">
       <c r="A65" s="1" t="s">
-        <v>432</v>
+        <v>436</v>
       </c>
       <c r="B65" s="2">
-        <v>1.859803725278424E-7</v>
+        <v>1.85980372527842e-7</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>369</v>
+        <v>373</v>
       </c>
       <c r="D65" s="2"/>
       <c r="E65" s="2"/>
     </row>
-    <row r="66" spans="1:5" ht="15" customHeight="1">
+    <row r="66" ht="15" customHeight="1" spans="1:5">
       <c r="A66" s="1" t="s">
-        <v>433</v>
+        <v>437</v>
       </c>
       <c r="B66" s="2">
-        <v>1.3118258419374599E-7</v>
+        <v>1.31182584193746e-7</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>369</v>
+        <v>373</v>
       </c>
       <c r="D66" s="2"/>
       <c r="E66" s="2"/>
     </row>
-    <row r="67" spans="1:5" ht="15" customHeight="1">
+    <row r="67" ht="15" customHeight="1" spans="1:5">
       <c r="A67" s="1" t="s">
-        <v>434</v>
+        <v>438</v>
       </c>
       <c r="B67" s="2">
-        <v>1.6273282596186211E-7</v>
+        <v>1.62732825961862e-7</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>369</v>
+        <v>373</v>
       </c>
       <c r="D67" s="2"/>
       <c r="E67" s="2"/>
     </row>
-    <row r="68" spans="1:5" ht="15" customHeight="1">
+    <row r="68" ht="15" customHeight="1" spans="1:5">
       <c r="A68" s="1" t="s">
-        <v>435</v>
+        <v>439</v>
       </c>
       <c r="B68" s="2">
-        <v>2.0922791909382271E-7</v>
+        <v>2.09227919093823e-7</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>369</v>
+        <v>373</v>
       </c>
       <c r="D68" s="2"/>
       <c r="E68" s="2"/>
     </row>
-    <row r="69" spans="1:5" ht="15" customHeight="1">
+    <row r="69" ht="15" customHeight="1" spans="1:5">
       <c r="A69" s="1" t="s">
-        <v>436</v>
+        <v>440</v>
       </c>
       <c r="B69" s="2">
-        <v>1.7103552116399789E-7</v>
+        <v>1.71035521163998e-7</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>369</v>
+        <v>373</v>
       </c>
       <c r="D69" s="2"/>
       <c r="E69" s="2"/>
     </row>
-    <row r="70" spans="1:5" ht="15" customHeight="1">
+    <row r="70" ht="15" customHeight="1" spans="1:5">
       <c r="A70" s="1" t="s">
-        <v>437</v>
+        <v>441</v>
       </c>
       <c r="B70" s="2">
-        <v>1.5276959171929909E-7</v>
+        <v>1.52769591719299e-7</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>369</v>
+        <v>373</v>
       </c>
       <c r="D70" s="2"/>
       <c r="E70" s="2"/>
     </row>
-    <row r="71" spans="1:5" ht="15" customHeight="1">
+    <row r="71" ht="15" customHeight="1" spans="1:5">
       <c r="A71" s="1" t="s">
-        <v>438</v>
+        <v>442</v>
       </c>
       <c r="B71" s="2">
-        <v>1.5443013075972631E-7</v>
+        <v>1.54430130759726e-7</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>369</v>
+        <v>373</v>
       </c>
       <c r="D71" s="2"/>
       <c r="E71" s="2"/>
     </row>
-    <row r="72" spans="1:5" ht="15" customHeight="1">
+    <row r="72" ht="15" customHeight="1" spans="1:5">
       <c r="A72" s="1" t="s">
-        <v>439</v>
+        <v>443</v>
       </c>
       <c r="B72" s="2">
-        <v>1.5941174788100771E-7</v>
+        <v>1.59411747881008e-7</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>369</v>
+        <v>373</v>
       </c>
       <c r="D72" s="2"/>
       <c r="E72" s="2"/>
     </row>
-    <row r="73" spans="1:5" ht="15" customHeight="1">
+    <row r="73" ht="15" customHeight="1" spans="1:5">
       <c r="A73" s="1" t="s">
-        <v>440</v>
+        <v>444</v>
       </c>
       <c r="B73" s="2">
-        <v>1.859803725278424E-7</v>
+        <v>1.85980372527842e-7</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>369</v>
+        <v>373</v>
       </c>
       <c r="D73" s="2"/>
       <c r="E73" s="2"/>
     </row>
-    <row r="74" spans="1:5" ht="15" customHeight="1">
+    <row r="74" ht="15" customHeight="1" spans="1:5">
       <c r="A74" s="1" t="s">
-        <v>441</v>
+        <v>445</v>
       </c>
       <c r="B74" s="2">
-        <v>1.7103552116399789E-7</v>
+        <v>1.71035521163998e-7</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>369</v>
+        <v>373</v>
       </c>
       <c r="D74" s="2"/>
       <c r="E74" s="2"/>
     </row>
-    <row r="75" spans="1:5" ht="15" customHeight="1">
+    <row r="75" ht="15" customHeight="1" spans="1:5">
       <c r="A75" s="1" t="s">
-        <v>442</v>
+        <v>446</v>
       </c>
       <c r="B75" s="2">
-        <v>1.8099875540656089E-7</v>
+        <v>1.80998755406561e-7</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>369</v>
+        <v>373</v>
       </c>
       <c r="D75" s="2"/>
       <c r="E75" s="2"/>
     </row>
-    <row r="76" spans="1:5" ht="15" customHeight="1">
+    <row r="76" ht="15" customHeight="1" spans="1:5">
       <c r="A76" s="1" t="s">
-        <v>443</v>
+        <v>447</v>
       </c>
       <c r="B76" s="2">
-        <v>1.9926468485125969E-7</v>
+        <v>1.9926468485126e-7</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>369</v>
+        <v>373</v>
       </c>
       <c r="D76" s="2"/>
       <c r="E76" s="2"/>
     </row>
-    <row r="77" spans="1:5" ht="15" customHeight="1">
+    <row r="77" ht="15" customHeight="1" spans="1:5">
       <c r="A77" s="1" t="s">
-        <v>444</v>
+        <v>448</v>
       </c>
       <c r="B77" s="2">
-        <v>1.428063574767361E-7</v>
+        <v>1.42806357476736e-7</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>369</v>
+        <v>373</v>
       </c>
       <c r="D77" s="2"/>
       <c r="E77" s="2"/>
     </row>
-    <row r="78" spans="1:5" ht="15" customHeight="1">
+    <row r="78" ht="15" customHeight="1" spans="1:5">
       <c r="A78" s="1" t="s">
-        <v>445</v>
+        <v>449</v>
       </c>
       <c r="B78" s="2">
-        <v>1.760171382852794E-7</v>
+        <v>1.76017138285279e-7</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>369</v>
+        <v>373</v>
       </c>
       <c r="D78" s="2"/>
       <c r="E78" s="2"/>
     </row>
-    <row r="79" spans="1:5" ht="15" customHeight="1">
+    <row r="79" ht="15" customHeight="1" spans="1:5">
       <c r="A79" s="1" t="s">
-        <v>446</v>
+        <v>450</v>
       </c>
       <c r="B79" s="2">
-        <v>1.826592944469881E-7</v>
+        <v>1.82659294446988e-7</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>369</v>
+        <v>373</v>
       </c>
       <c r="D79" s="2"/>
       <c r="E79" s="2"/>
     </row>
-    <row r="80" spans="1:5" ht="15" customHeight="1">
+    <row r="80" ht="15" customHeight="1" spans="1:5">
       <c r="A80" s="1" t="s">
-        <v>447</v>
+        <v>451</v>
       </c>
       <c r="B80" s="2">
-        <v>1.9096198964912391E-7</v>
+        <v>1.90961989649124e-7</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>369</v>
+        <v>373</v>
       </c>
       <c r="D80" s="2"/>
       <c r="E80" s="2"/>
     </row>
-    <row r="81" spans="1:5" ht="15" customHeight="1">
+    <row r="81" ht="15" customHeight="1" spans="1:5">
       <c r="A81" s="1" t="s">
-        <v>448</v>
+        <v>452</v>
       </c>
       <c r="B81" s="2">
-        <v>1.6937498212357071E-7</v>
+        <v>1.69374982123571e-7</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>369</v>
+        <v>373</v>
       </c>
       <c r="D81" s="2"/>
       <c r="E81" s="2"/>
     </row>
-    <row r="82" spans="1:5" ht="15" customHeight="1">
+    <row r="82" ht="15" customHeight="1" spans="1:5">
       <c r="A82" s="1" t="s">
-        <v>449</v>
+        <v>453</v>
       </c>
       <c r="B82" s="2">
-        <v>1.5443013075972631E-7</v>
+        <v>1.54430130759726e-7</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>369</v>
+        <v>373</v>
       </c>
       <c r="D82" s="2"/>
       <c r="E82" s="2"/>
     </row>
-    <row r="83" spans="1:5" ht="15" customHeight="1">
+    <row r="83" ht="15" customHeight="1" spans="1:5">
       <c r="A83" s="1" t="s">
-        <v>450</v>
+        <v>454</v>
       </c>
       <c r="B83" s="2">
-        <v>1.7269606020442511E-7</v>
+        <v>1.72696060204425e-7</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>369</v>
+        <v>373</v>
       </c>
       <c r="D83" s="2"/>
       <c r="E83" s="2"/>
     </row>
-    <row r="84" spans="1:5" ht="15" customHeight="1">
+    <row r="84" ht="15" customHeight="1" spans="1:5">
       <c r="A84" s="1" t="s">
-        <v>451</v>
+        <v>455</v>
       </c>
       <c r="B84" s="2">
-        <v>1.7103552116399789E-7</v>
+        <v>1.71035521163998e-7</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>369</v>
+        <v>373</v>
       </c>
       <c r="D84" s="2"/>
       <c r="E84" s="2"/>
     </row>
-    <row r="85" spans="1:5" ht="15" customHeight="1">
+    <row r="85" ht="15" customHeight="1" spans="1:5">
       <c r="A85" s="1" t="s">
-        <v>452</v>
+        <v>456</v>
       </c>
       <c r="B85" s="2">
-        <v>1.5276959171929909E-7</v>
+        <v>1.52769591719299e-7</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>369</v>
+        <v>373</v>
       </c>
       <c r="D85" s="2"/>
       <c r="E85" s="2"/>
     </row>
-    <row r="86" spans="1:5" ht="15" customHeight="1">
+    <row r="86" ht="15" customHeight="1" spans="1:5">
       <c r="A86" s="1" t="s">
-        <v>453</v>
+        <v>457</v>
       </c>
       <c r="B86" s="2">
-        <v>1.7767767732570659E-7</v>
+        <v>1.77677677325707e-7</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>369</v>
+        <v>373</v>
       </c>
       <c r="D86" s="2"/>
       <c r="E86" s="2"/>
     </row>
-    <row r="87" spans="1:5" ht="15" customHeight="1">
+    <row r="87" ht="15" customHeight="1" spans="1:5">
       <c r="A87" s="1" t="s">
-        <v>454</v>
+        <v>458</v>
       </c>
       <c r="B87" s="2">
-        <v>1.6937498212357071E-7</v>
+        <v>1.69374982123571e-7</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>369</v>
+        <v>373</v>
       </c>
       <c r="D87" s="2"/>
       <c r="E87" s="2"/>
     </row>
-    <row r="88" spans="1:5" ht="15" customHeight="1">
+    <row r="88" ht="15" customHeight="1" spans="1:5">
       <c r="A88" s="1" t="s">
-        <v>455</v>
+        <v>459</v>
       </c>
       <c r="B88" s="2">
-        <v>1.5443013075972631E-7</v>
+        <v>1.54430130759726e-7</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>369</v>
+        <v>373</v>
       </c>
       <c r="D88" s="2"/>
       <c r="E88" s="2"/>
     </row>
-    <row r="89" spans="1:5" ht="15" customHeight="1">
+    <row r="89" ht="15" customHeight="1" spans="1:5">
       <c r="A89" s="1" t="s">
-        <v>456</v>
+        <v>460</v>
       </c>
       <c r="B89" s="2">
-        <v>6.7999999999999999E-5</v>
+        <v>6.8e-5</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>369</v>
+        <v>373</v>
       </c>
       <c r="D89" s="2"/>
       <c r="E89" s="2"/>
     </row>
-    <row r="90" spans="1:5" ht="15" customHeight="1">
+    <row r="90" ht="15" customHeight="1" spans="1:5">
       <c r="A90" s="1" t="s">
-        <v>457</v>
+        <v>461</v>
       </c>
       <c r="B90" s="2">
-        <v>1.8000000000000001E-4</v>
+        <v>0.00018</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>369</v>
+        <v>373</v>
       </c>
       <c r="D90" s="2"/>
       <c r="E90" s="2"/>
     </row>
-    <row r="91" spans="1:5" ht="15" customHeight="1">
+    <row r="91" ht="15" customHeight="1" spans="1:5">
       <c r="A91" s="1" t="s">
-        <v>458</v>
+        <v>462</v>
       </c>
       <c r="B91" s="2">
-        <v>1.2E-5</v>
+        <v>1.2e-5</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>369</v>
+        <v>373</v>
       </c>
       <c r="D91" s="2"/>
       <c r="E91" s="2"/>
     </row>
-    <row r="92" spans="1:5" ht="15" customHeight="1">
+    <row r="92" ht="15" customHeight="1" spans="1:5">
       <c r="A92" s="1" t="s">
-        <v>459</v>
+        <v>463</v>
       </c>
       <c r="B92" s="2">
-        <v>2.9E-5</v>
+        <v>2.9e-5</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>369</v>
+        <v>373</v>
       </c>
       <c r="D92" s="2"/>
       <c r="E92" s="2"/>
     </row>
-    <row r="93" spans="1:5" ht="15" customHeight="1">
+    <row r="93" ht="15" customHeight="1" spans="1:5">
       <c r="A93" s="1" t="s">
-        <v>460</v>
+        <v>464</v>
       </c>
       <c r="B93" s="2">
-        <v>1.84E-4</v>
+        <v>0.000184</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>369</v>
+        <v>373</v>
       </c>
       <c r="D93" s="2"/>
       <c r="E93" s="2"/>
     </row>
-    <row r="94" spans="1:5" ht="15" customHeight="1">
+    <row r="94" ht="15" customHeight="1" spans="1:5">
       <c r="A94" s="1" t="s">
-        <v>461</v>
+        <v>465</v>
       </c>
       <c r="B94" s="2">
-        <v>2E-3</v>
+        <v>0.002</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>369</v>
+        <v>373</v>
       </c>
       <c r="D94" s="2"/>
       <c r="E94" s="2"/>
     </row>
-    <row r="95" spans="1:5" ht="15" customHeight="1">
+    <row r="95" ht="15" customHeight="1" spans="1:5">
       <c r="A95" s="1" t="s">
-        <v>462</v>
+        <v>466</v>
       </c>
       <c r="B95" s="2">
-        <v>4.0000000000000001E-3</v>
+        <v>0.004</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>369</v>
+        <v>373</v>
       </c>
       <c r="D95" s="2"/>
       <c r="E95" s="2"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:E95"/>
+  <autoFilter ref="A1:E95">
+    <extLst/>
+  </autoFilter>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
       <selection pane="bottomRight" activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2"/>
   <cols>
-    <col min="1" max="1" width="21.88671875" customWidth="1"/>
-    <col min="3" max="3" width="19.6640625" customWidth="1"/>
+    <col min="1" max="1" width="21.8833333333333" customWidth="1"/>
+    <col min="3" max="3" width="19.6666666666667" customWidth="1"/>
     <col min="4" max="4" width="32" customWidth="1"/>
-    <col min="5" max="5" width="15.5546875" customWidth="1"/>
-    <col min="7" max="7" width="12.6640625" customWidth="1"/>
-    <col min="8" max="8" width="27.33203125" customWidth="1"/>
+    <col min="5" max="5" width="15.5583333333333" customWidth="1"/>
+    <col min="7" max="7" width="12.6666666666667" customWidth="1"/>
+    <col min="8" max="8" width="27.3333333333333" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15" customHeight="1">
+    <row r="1" ht="15" customHeight="1" spans="1:8">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4305,13 +4959,13 @@
         <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>505</v>
+        <v>467</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>463</v>
+        <v>468</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>464</v>
+        <v>469</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>11</v>
@@ -4320,19 +4974,19 @@
         <v>15</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>504</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" ht="15" customHeight="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" ht="15" customHeight="1" spans="1:9">
       <c r="A2" s="1" t="s">
-        <v>512</v>
+        <v>470</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" s="2" t="s">
-        <v>506</v>
+        <v>471</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>510</v>
+        <v>472</v>
       </c>
       <c r="E2" s="2" t="b">
         <v>0</v>
@@ -4342,16 +4996,16 @@
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
     </row>
-    <row r="3" spans="1:9" ht="15" customHeight="1">
+    <row r="3" ht="15" customHeight="1" spans="1:9">
       <c r="A3" s="1" t="s">
-        <v>513</v>
+        <v>473</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" s="2" t="s">
-        <v>506</v>
+        <v>471</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>511</v>
+        <v>474</v>
       </c>
       <c r="E3" s="2" t="b">
         <v>0</v>
@@ -4362,44 +5016,49 @@
       <c r="I3" s="2"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:G1"/>
+  <autoFilter ref="A1:G3">
+    <extLst/>
+  </autoFilter>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
       <selection pane="bottomRight" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="44.33203125" customWidth="1"/>
-    <col min="3" max="3" width="67.109375" customWidth="1"/>
-    <col min="8" max="8" width="18.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="44.3333333333333" customWidth="1"/>
+    <col min="3" max="3" width="67.1083333333333" customWidth="1"/>
+    <col min="8" max="8" width="18.6666666666667" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15" customHeight="1">
+    <row r="1" ht="15" customHeight="1" spans="1:8">
       <c r="A1" s="1" t="s">
-        <v>465</v>
+        <v>475</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>466</v>
+        <v>476</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>467</v>
+        <v>477</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>468</v>
+        <v>478</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>469</v>
+        <v>479</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>11</v>
@@ -4408,52 +5067,56 @@
         <v>15</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>504</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
-        <v>512</v>
+        <v>470</v>
       </c>
       <c r="B2" t="s">
-        <v>507</v>
+        <v>480</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>508</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3" s="1" t="s">
-        <v>513</v>
+        <v>473</v>
       </c>
       <c r="B3" t="s">
-        <v>507</v>
+        <v>480</v>
       </c>
       <c r="C3" t="s">
-        <v>509</v>
+        <v>482</v>
       </c>
       <c r="D3">
         <v>0.05</v>
       </c>
       <c r="E3">
-        <v>7.4999999999999997E-2</v>
+        <v>0.075</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:G1"/>
+  <autoFilter ref="A1:G3">
+    <extLst/>
+  </autoFilter>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:H1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" s="4" t="s">
@@ -4463,13 +5126,13 @@
         <v>2</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>366</v>
+        <v>370</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>515</v>
+        <v>483</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>367</v>
+        <v>371</v>
       </c>
       <c r="F1" s="5" t="s">
         <v>11</v>
@@ -4478,31 +5141,34 @@
         <v>15</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>504</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:G5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="G1" sqref="G1"/>
+      <selection pane="bottomRight" activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4" outlineLevelCol="6"/>
   <cols>
-    <col min="7" max="7" width="18.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.6666666666667" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15" customHeight="1">
+    <row r="1" ht="15" customHeight="1" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4510,10 +5176,10 @@
         <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>366</v>
+        <v>370</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>367</v>
+        <v>371</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>11</v>
@@ -4522,88 +5188,93 @@
         <v>15</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>504</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="15" customHeight="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" ht="15" customHeight="1" spans="1:6">
       <c r="A2" s="1" t="s">
-        <v>470</v>
+        <v>484</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" s="2">
         <v>100</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>471</v>
+        <v>485</v>
       </c>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
     </row>
-    <row r="3" spans="1:7" ht="15" customHeight="1">
+    <row r="3" ht="15" customHeight="1" spans="1:6">
       <c r="A3" s="1" t="s">
-        <v>472</v>
+        <v>486</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" s="2">
         <v>1000000</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>473</v>
+        <v>487</v>
       </c>
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
     </row>
-    <row r="4" spans="1:7" ht="15" customHeight="1">
+    <row r="4" ht="15" customHeight="1" spans="1:6">
       <c r="A4" s="1" t="s">
-        <v>474</v>
+        <v>488</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" s="2">
         <v>0.3</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>475</v>
+        <v>489</v>
       </c>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
     </row>
-    <row r="5" spans="1:7" ht="15" customHeight="1">
+    <row r="5" ht="15" customHeight="1" spans="1:6">
       <c r="A5" s="1" t="s">
-        <v>476</v>
+        <v>490</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" s="2">
-        <v>1.0000000000000001E-15</v>
+        <v>1e-15</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>477</v>
+        <v>491</v>
       </c>
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:F5"/>
+  <autoFilter ref="A1:F5">
+    <extLst/>
+  </autoFilter>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
       <selection pane="bottomRight" activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
   <cols>
-    <col min="8" max="8" width="18.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.6666666666667" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15" customHeight="1">
+    <row r="1" ht="15" customHeight="1" spans="1:8">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4611,13 +5282,13 @@
         <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>478</v>
+        <v>492</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>365</v>
+        <v>369</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>479</v>
+        <v>493</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>11</v>
@@ -4626,260 +5297,270 @@
         <v>15</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>504</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" ht="15" customHeight="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" ht="15" customHeight="1" spans="1:7">
       <c r="A2" s="1" t="s">
-        <v>480</v>
+        <v>494</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>481</v>
+        <v>495</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>419</v>
+        <v>423</v>
       </c>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
     </row>
-    <row r="3" spans="1:8" ht="15" customHeight="1">
+    <row r="3" ht="15" customHeight="1" spans="1:7">
       <c r="A3" s="1" t="s">
-        <v>482</v>
+        <v>496</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>483</v>
+        <v>497</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>425</v>
+        <v>429</v>
       </c>
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
       <c r="G3" s="2"/>
     </row>
-    <row r="4" spans="1:8" ht="15" customHeight="1">
+    <row r="4" ht="15" customHeight="1" spans="1:7">
       <c r="A4" s="1" t="s">
-        <v>484</v>
+        <v>498</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>485</v>
+        <v>499</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>405</v>
+        <v>409</v>
       </c>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
     </row>
-    <row r="5" spans="1:8" ht="15" customHeight="1">
+    <row r="5" ht="15" customHeight="1" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>486</v>
+        <v>500</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>363</v>
+        <v>367</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>428</v>
+        <v>432</v>
       </c>
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
     </row>
-    <row r="6" spans="1:8" ht="15" customHeight="1">
+    <row r="6" ht="15" customHeight="1" spans="1:7">
       <c r="A6" s="1" t="s">
-        <v>487</v>
+        <v>501</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>488</v>
+        <v>502</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>423</v>
+        <v>427</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
     </row>
-    <row r="7" spans="1:8" ht="15" customHeight="1">
+    <row r="7" ht="15" customHeight="1" spans="1:7">
       <c r="A7" s="1" t="s">
-        <v>489</v>
+        <v>503</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>490</v>
+        <v>504</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>407</v>
+        <v>411</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
     </row>
-    <row r="8" spans="1:8" ht="15" customHeight="1">
+    <row r="8" ht="15" customHeight="1" spans="1:7">
       <c r="A8" s="1" t="s">
-        <v>491</v>
+        <v>505</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>492</v>
+        <v>506</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>421</v>
+        <v>425</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
     </row>
-    <row r="9" spans="1:8" ht="15" customHeight="1">
+    <row r="9" ht="15" customHeight="1" spans="1:7">
       <c r="A9" s="1" t="s">
-        <v>493</v>
+        <v>507</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>494</v>
+        <v>508</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>404</v>
+        <v>408</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
     </row>
-    <row r="10" spans="1:8" ht="15" customHeight="1">
+    <row r="10" ht="15" customHeight="1" spans="1:7">
       <c r="A10" s="1" t="s">
-        <v>495</v>
+        <v>509</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>496</v>
+        <v>510</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>454</v>
+        <v>458</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
     </row>
-    <row r="11" spans="1:8" ht="15" customHeight="1">
+    <row r="11" ht="15" customHeight="1" spans="1:7">
       <c r="A11" s="1" t="s">
-        <v>497</v>
+        <v>511</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>498</v>
+        <v>512</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>449</v>
+        <v>453</v>
       </c>
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
     </row>
-    <row r="12" spans="1:8" ht="15" customHeight="1">
+    <row r="12" ht="15" customHeight="1" spans="1:7">
       <c r="A12" s="1" t="s">
-        <v>499</v>
+        <v>513</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>500</v>
+        <v>514</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>445</v>
+        <v>449</v>
       </c>
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
     </row>
-    <row r="13" spans="1:8" ht="15" customHeight="1">
+    <row r="13" ht="15" customHeight="1" spans="1:7">
       <c r="A13" s="1" t="s">
-        <v>501</v>
+        <v>515</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>502</v>
+        <v>516</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>432</v>
+        <v>436</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:G13"/>
+  <autoFilter ref="A1:G13">
+    <extLst/>
+  </autoFilter>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:B1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="1"/>
   <sheetData>
-    <row r="1" spans="1:2" ht="15" customHeight="1">
+    <row r="1" ht="15" customHeight="1" spans="1:2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>503</v>
+        <v>517</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:B1"/>
+  <autoFilter ref="A1:B1">
+    <extLst/>
+  </autoFilter>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="1"/>
   <sheetData>
-    <row r="1" spans="1:2" ht="15" customHeight="1">
+    <row r="1" ht="15" customHeight="1" spans="1:2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4887,47 +5568,52 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="15" customHeight="1">
+    <row r="2" ht="15" customHeight="1" spans="1:2">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="2"/>
     </row>
-    <row r="3" spans="1:2" ht="15" customHeight="1">
+    <row r="3" ht="15" customHeight="1" spans="1:2">
       <c r="A3" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B3" s="2"/>
     </row>
-    <row r="4" spans="1:2" ht="15" customHeight="1">
+    <row r="4" ht="15" customHeight="1" spans="1:2">
       <c r="A4" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B4" s="2"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:B4"/>
+  <autoFilter ref="A1:B4">
+    <extLst/>
+  </autoFilter>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
       <selection pane="bottomRight" activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2" outlineLevelCol="5"/>
   <cols>
-    <col min="6" max="6" width="18.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.6666666666667" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15" customHeight="1">
+    <row r="1" ht="15" customHeight="1" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4944,55 +5630,60 @@
         <v>15</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>504</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="15" customHeight="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" ht="15" customHeight="1" spans="1:5">
       <c r="A2" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
     </row>
-    <row r="3" spans="1:6" ht="15" customHeight="1">
+    <row r="3" ht="15" customHeight="1" spans="1:5">
       <c r="A3" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:E3"/>
+  <autoFilter ref="A1:E3">
+    <extLst/>
+  </autoFilter>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="1" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:G35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
       <selection pane="bottomRight" activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
   <cols>
-    <col min="7" max="7" width="18.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.6666666666667" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15" customHeight="1">
+    <row r="1" ht="15" customHeight="1" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -5000,10 +5691,10 @@
         <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>11</v>
@@ -5012,505 +5703,510 @@
         <v>15</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>504</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="15" customHeight="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" ht="15" customHeight="1" spans="1:6">
       <c r="A2" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
     </row>
-    <row r="3" spans="1:7" ht="15" customHeight="1">
+    <row r="3" ht="15" customHeight="1" spans="1:6">
       <c r="A3" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
     </row>
-    <row r="4" spans="1:7" ht="15" customHeight="1">
+    <row r="4" ht="15" customHeight="1" spans="1:6">
       <c r="A4" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
     </row>
-    <row r="5" spans="1:7" ht="15" customHeight="1">
+    <row r="5" ht="15" customHeight="1" spans="1:6">
       <c r="A5" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
     </row>
-    <row r="6" spans="1:7" ht="15" customHeight="1">
+    <row r="6" ht="15" customHeight="1" spans="1:6">
       <c r="A6" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
     </row>
-    <row r="7" spans="1:7" ht="15" customHeight="1">
+    <row r="7" ht="15" customHeight="1" spans="1:6">
       <c r="A7" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
     </row>
-    <row r="8" spans="1:7" ht="15" customHeight="1">
+    <row r="8" ht="15" customHeight="1" spans="1:6">
       <c r="A8" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
     </row>
-    <row r="9" spans="1:7" ht="15" customHeight="1">
+    <row r="9" ht="15" customHeight="1" spans="1:6">
       <c r="A9" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
     </row>
-    <row r="10" spans="1:7" ht="15" customHeight="1">
+    <row r="10" ht="15" customHeight="1" spans="1:6">
       <c r="A10" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
     </row>
-    <row r="11" spans="1:7" ht="15" customHeight="1">
+    <row r="11" ht="15" customHeight="1" spans="1:6">
       <c r="A11" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
     </row>
-    <row r="12" spans="1:7" ht="15" customHeight="1">
+    <row r="12" ht="15" customHeight="1" spans="1:6">
       <c r="A12" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
     </row>
-    <row r="13" spans="1:7" ht="15" customHeight="1">
+    <row r="13" ht="15" customHeight="1" spans="1:6">
       <c r="A13" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
     </row>
-    <row r="14" spans="1:7" ht="15" customHeight="1">
+    <row r="14" ht="15" customHeight="1" spans="1:6">
       <c r="A14" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
     </row>
-    <row r="15" spans="1:7" ht="15" customHeight="1">
+    <row r="15" ht="15" customHeight="1" spans="1:6">
       <c r="A15" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
     </row>
-    <row r="16" spans="1:7" ht="15" customHeight="1">
+    <row r="16" ht="15" customHeight="1" spans="1:6">
       <c r="A16" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
     </row>
-    <row r="17" spans="1:6" ht="15" customHeight="1">
+    <row r="17" ht="15" customHeight="1" spans="1:6">
       <c r="A17" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
       <c r="F17" s="2"/>
     </row>
-    <row r="18" spans="1:6" ht="15" customHeight="1">
+    <row r="18" ht="15" customHeight="1" spans="1:6">
       <c r="A18" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
       <c r="F18" s="2"/>
     </row>
-    <row r="19" spans="1:6" ht="15" customHeight="1">
+    <row r="19" ht="15" customHeight="1" spans="1:6">
       <c r="A19" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
       <c r="F19" s="2"/>
     </row>
-    <row r="20" spans="1:6" ht="15" customHeight="1">
+    <row r="20" ht="15" customHeight="1" spans="1:6">
       <c r="A20" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
       <c r="F20" s="2"/>
     </row>
-    <row r="21" spans="1:6" ht="15" customHeight="1">
+    <row r="21" ht="15" customHeight="1" spans="1:6">
       <c r="A21" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D21" s="2"/>
       <c r="E21" s="2"/>
       <c r="F21" s="2"/>
     </row>
-    <row r="22" spans="1:6" ht="15" customHeight="1">
+    <row r="22" ht="15" customHeight="1" spans="1:6">
       <c r="A22" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D22" s="2"/>
       <c r="E22" s="2"/>
       <c r="F22" s="2"/>
     </row>
-    <row r="23" spans="1:6" ht="15" customHeight="1">
+    <row r="23" ht="15" customHeight="1" spans="1:6">
       <c r="A23" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D23" s="2"/>
       <c r="E23" s="2"/>
       <c r="F23" s="2"/>
     </row>
-    <row r="24" spans="1:6" ht="15" customHeight="1">
+    <row r="24" ht="15" customHeight="1" spans="1:6">
       <c r="A24" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D24" s="2"/>
       <c r="E24" s="2"/>
       <c r="F24" s="2"/>
     </row>
-    <row r="25" spans="1:6" ht="15" customHeight="1">
+    <row r="25" ht="15" customHeight="1" spans="1:6">
       <c r="A25" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D25" s="2"/>
       <c r="E25" s="2"/>
       <c r="F25" s="2"/>
     </row>
-    <row r="26" spans="1:6" ht="15" customHeight="1">
+    <row r="26" ht="15" customHeight="1" spans="1:6">
       <c r="A26" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D26" s="2"/>
       <c r="E26" s="2"/>
       <c r="F26" s="2"/>
     </row>
-    <row r="27" spans="1:6" ht="15" customHeight="1">
+    <row r="27" ht="15" customHeight="1" spans="1:6">
       <c r="A27" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D27" s="2"/>
       <c r="E27" s="2"/>
       <c r="F27" s="2"/>
     </row>
-    <row r="28" spans="1:6" ht="15" customHeight="1">
+    <row r="28" ht="15" customHeight="1" spans="1:6">
       <c r="A28" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D28" s="2"/>
       <c r="E28" s="2"/>
       <c r="F28" s="2"/>
     </row>
-    <row r="29" spans="1:6" ht="15" customHeight="1">
+    <row r="29" ht="15" customHeight="1" spans="1:6">
       <c r="A29" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D29" s="2"/>
       <c r="E29" s="2"/>
       <c r="F29" s="2"/>
     </row>
-    <row r="30" spans="1:6" ht="15" customHeight="1">
+    <row r="30" ht="15" customHeight="1" spans="1:6">
       <c r="A30" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D30" s="2"/>
       <c r="E30" s="2"/>
       <c r="F30" s="2"/>
     </row>
-    <row r="31" spans="1:6" ht="15" customHeight="1">
+    <row r="31" ht="15" customHeight="1" spans="1:6">
       <c r="A31" s="1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D31" s="2"/>
       <c r="E31" s="2"/>
       <c r="F31" s="2"/>
     </row>
-    <row r="32" spans="1:6" ht="15" customHeight="1">
+    <row r="32" ht="15" customHeight="1" spans="1:6">
       <c r="A32" s="1" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D32" s="2"/>
       <c r="E32" s="2"/>
       <c r="F32" s="2"/>
     </row>
-    <row r="33" spans="1:6" ht="15" customHeight="1">
+    <row r="33" ht="15" customHeight="1" spans="1:6">
       <c r="A33" s="1" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D33" s="2"/>
       <c r="E33" s="2"/>
       <c r="F33" s="2"/>
     </row>
-    <row r="34" spans="1:6" ht="15" customHeight="1">
+    <row r="34" ht="15" customHeight="1" spans="1:6">
       <c r="A34" s="1" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D34" s="2"/>
       <c r="E34" s="2"/>
       <c r="F34" s="2"/>
     </row>
-    <row r="35" spans="1:6" ht="15" customHeight="1">
+    <row r="35" ht="15" customHeight="1" spans="1:6">
       <c r="A35" s="1" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D35" s="2"/>
       <c r="E35" s="2"/>
       <c r="F35" s="2"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:F35"/>
+  <autoFilter ref="A1:F35">
+    <extLst/>
+  </autoFilter>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:J2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
       <selection pane="bottomRight" activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1"/>
   <sheetData>
-    <row r="1" spans="1:10" ht="15" customHeight="1">
+    <row r="1" ht="15" customHeight="1" spans="1:10">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -5518,19 +6214,19 @@
         <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>517</v>
+        <v>122</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>516</v>
+        <v>125</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>11</v>
@@ -5539,15 +6235,15 @@
         <v>15</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>504</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" ht="15" customHeight="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" ht="15" customHeight="1" spans="1:9">
       <c r="A2" s="1" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="2" t="b">
@@ -5564,48 +6260,53 @@
       <c r="I2" s="2"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:I2"/>
+  <autoFilter ref="A1:I2">
+    <extLst/>
+  </autoFilter>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:K1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
       <selection pane="bottomRight" activeCell="K1" sqref="K1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData>
-    <row r="1" spans="1:11" ht="15" customHeight="1">
+    <row r="1" ht="15" customHeight="1" spans="1:11">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>11</v>
@@ -5614,52 +6315,57 @@
         <v>15</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>504</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:J1"/>
+  <autoFilter ref="A1:J1">
+    <extLst/>
+  </autoFilter>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:K28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
       <selection pane="bottomRight" activeCell="K1" sqref="K1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData>
-    <row r="1" spans="1:11" ht="15" customHeight="1">
+    <row r="1" ht="15" customHeight="1" spans="1:11">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>11</v>
@@ -5668,21 +6374,21 @@
         <v>15</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>504</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" ht="15" customHeight="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" ht="15" customHeight="1" spans="1:10">
       <c r="A2" s="1" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="E2" s="2"/>
       <c r="F2" s="2">
@@ -5692,23 +6398,23 @@
         <v>175</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="I2" s="2"/>
       <c r="J2" s="2"/>
     </row>
-    <row r="3" spans="1:11" ht="15" customHeight="1">
+    <row r="3" ht="15" customHeight="1" spans="1:10">
       <c r="A3" s="1" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="C3" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>138</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>135</v>
       </c>
       <c r="E3" s="2"/>
       <c r="F3" s="2">
@@ -5718,23 +6424,23 @@
         <v>872</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
     </row>
-    <row r="4" spans="1:11" ht="15" customHeight="1">
+    <row r="4" ht="15" customHeight="1" spans="1:10">
       <c r="A4" s="1" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="E4" s="2"/>
       <c r="F4" s="2">
@@ -5744,23 +6450,23 @@
         <v>1366</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="I4" s="2"/>
       <c r="J4" s="2"/>
     </row>
-    <row r="5" spans="1:11" ht="15" customHeight="1">
+    <row r="5" ht="15" customHeight="1" spans="1:10">
       <c r="A5" s="1" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="E5" s="2"/>
       <c r="F5" s="2">
@@ -5770,23 +6476,23 @@
         <v>1611</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="I5" s="2"/>
       <c r="J5" s="2"/>
     </row>
-    <row r="6" spans="1:11" ht="15" customHeight="1">
+    <row r="6" ht="15" customHeight="1" spans="1:10">
       <c r="A6" s="1" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" s="2">
@@ -5796,23 +6502,23 @@
         <v>1854</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="I6" s="2"/>
       <c r="J6" s="2"/>
     </row>
-    <row r="7" spans="1:11" ht="15" customHeight="1">
+    <row r="7" ht="15" customHeight="1" spans="1:10">
       <c r="A7" s="1" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" s="2">
@@ -5822,23 +6528,23 @@
         <v>2127</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="I7" s="2"/>
       <c r="J7" s="2"/>
     </row>
-    <row r="8" spans="1:11" ht="15" customHeight="1">
+    <row r="8" ht="15" customHeight="1" spans="1:10">
       <c r="A8" s="1" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" s="2">
@@ -5848,23 +6554,23 @@
         <v>2383</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="I8" s="2"/>
       <c r="J8" s="2"/>
     </row>
-    <row r="9" spans="1:11" ht="15" customHeight="1">
+    <row r="9" ht="15" customHeight="1" spans="1:10">
       <c r="A9" s="1" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" s="2">
@@ -5874,23 +6580,23 @@
         <v>2626</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="I9" s="2"/>
       <c r="J9" s="2"/>
     </row>
-    <row r="10" spans="1:11" ht="15" customHeight="1">
+    <row r="10" ht="15" customHeight="1" spans="1:10">
       <c r="A10" s="1" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" s="2">
@@ -5900,23 +6606,23 @@
         <v>2875</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="I10" s="2"/>
       <c r="J10" s="2"/>
     </row>
-    <row r="11" spans="1:11" ht="15" customHeight="1">
+    <row r="11" ht="15" customHeight="1" spans="1:10">
       <c r="A11" s="1" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="E11" s="2"/>
       <c r="F11" s="2">
@@ -5926,23 +6632,23 @@
         <v>3859</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="I11" s="2"/>
       <c r="J11" s="2"/>
     </row>
-    <row r="12" spans="1:11" ht="15" customHeight="1">
+    <row r="12" ht="15" customHeight="1" spans="1:10">
       <c r="A12" s="1" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="E12" s="2"/>
       <c r="F12" s="2">
@@ -5952,23 +6658,23 @@
         <v>3859</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="I12" s="2"/>
       <c r="J12" s="2"/>
     </row>
-    <row r="13" spans="1:11" ht="15" customHeight="1">
+    <row r="13" ht="15" customHeight="1" spans="1:10">
       <c r="A13" s="1" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13" s="2">
@@ -5978,23 +6684,23 @@
         <v>4091</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="I13" s="2"/>
       <c r="J13" s="2"/>
     </row>
-    <row r="14" spans="1:11" ht="15" customHeight="1">
+    <row r="14" ht="15" customHeight="1" spans="1:10">
       <c r="A14" s="1" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="E14" s="2"/>
       <c r="F14" s="2">
@@ -6004,23 +6710,23 @@
         <v>5039</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="I14" s="2"/>
       <c r="J14" s="2"/>
     </row>
-    <row r="15" spans="1:11" ht="15" customHeight="1">
+    <row r="15" ht="15" customHeight="1" spans="1:10">
       <c r="A15" s="1" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" s="2">
@@ -6030,23 +6736,23 @@
         <v>5039</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="I15" s="2"/>
       <c r="J15" s="2"/>
     </row>
-    <row r="16" spans="1:11" ht="15" customHeight="1">
+    <row r="16" ht="15" customHeight="1" spans="1:10">
       <c r="A16" s="1" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" s="2">
@@ -6056,23 +6762,23 @@
         <v>5254</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="I16" s="2"/>
       <c r="J16" s="2"/>
     </row>
-    <row r="17" spans="1:10" ht="15" customHeight="1">
+    <row r="17" ht="15" customHeight="1" spans="1:10">
       <c r="A17" s="1" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="E17" s="2"/>
       <c r="F17" s="2">
@@ -6082,23 +6788,23 @@
         <v>5481</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="I17" s="2"/>
       <c r="J17" s="2"/>
     </row>
-    <row r="18" spans="1:10" ht="15" customHeight="1">
+    <row r="18" ht="15" customHeight="1" spans="1:10">
       <c r="A18" s="1" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="E18" s="2"/>
       <c r="F18" s="2">
@@ -6108,23 +6814,23 @@
         <v>5736</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="I18" s="2"/>
       <c r="J18" s="2"/>
     </row>
-    <row r="19" spans="1:10" ht="15" customHeight="1">
+    <row r="19" ht="15" customHeight="1" spans="1:10">
       <c r="A19" s="1" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="E19" s="2"/>
       <c r="F19" s="2">
@@ -6134,23 +6840,23 @@
         <v>5920</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="I19" s="2"/>
       <c r="J19" s="2"/>
     </row>
-    <row r="20" spans="1:10" ht="15" customHeight="1">
+    <row r="20" ht="15" customHeight="1" spans="1:10">
       <c r="A20" s="1" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="E20" s="2"/>
       <c r="F20" s="2">
@@ -6160,23 +6866,23 @@
         <v>6156</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="I20" s="2"/>
       <c r="J20" s="2"/>
     </row>
-    <row r="21" spans="1:10" ht="15" customHeight="1">
+    <row r="21" ht="15" customHeight="1" spans="1:10">
       <c r="A21" s="1" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="E21" s="2"/>
       <c r="F21" s="2">
@@ -6186,23 +6892,23 @@
         <v>6411</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="I21" s="2"/>
       <c r="J21" s="2"/>
     </row>
-    <row r="22" spans="1:10" ht="15" customHeight="1">
+    <row r="22" ht="15" customHeight="1" spans="1:10">
       <c r="A22" s="1" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="E22" s="2"/>
       <c r="F22" s="2">
@@ -6212,23 +6918,23 @@
         <v>6642</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="I22" s="2"/>
       <c r="J22" s="2"/>
     </row>
-    <row r="23" spans="1:10" ht="15" customHeight="1">
+    <row r="23" ht="15" customHeight="1" spans="1:10">
       <c r="A23" s="1" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="E23" s="2"/>
       <c r="F23" s="2">
@@ -6238,23 +6944,23 @@
         <v>6877</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="I23" s="2"/>
       <c r="J23" s="2"/>
     </row>
-    <row r="24" spans="1:10" ht="15" customHeight="1">
+    <row r="24" ht="15" customHeight="1" spans="1:10">
       <c r="A24" s="1" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="E24" s="2"/>
       <c r="F24" s="2">
@@ -6264,23 +6970,23 @@
         <v>7094</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="I24" s="2"/>
       <c r="J24" s="2"/>
     </row>
-    <row r="25" spans="1:10" ht="15" customHeight="1">
+    <row r="25" ht="15" customHeight="1" spans="1:10">
       <c r="A25" s="1" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="E25" s="2"/>
       <c r="F25" s="2">
@@ -6290,23 +6996,23 @@
         <v>7317</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="I25" s="2"/>
       <c r="J25" s="2"/>
     </row>
-    <row r="26" spans="1:10" ht="15" customHeight="1">
+    <row r="26" ht="15" customHeight="1" spans="1:10">
       <c r="A26" s="1" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="E26" s="2"/>
       <c r="F26" s="2">
@@ -6316,23 +7022,23 @@
         <v>7571</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="I26" s="2"/>
       <c r="J26" s="2"/>
     </row>
-    <row r="27" spans="1:10" ht="15" customHeight="1">
+    <row r="27" ht="15" customHeight="1" spans="1:10">
       <c r="A27" s="1" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="E27" s="2"/>
       <c r="F27" s="2">
@@ -6342,23 +7048,23 @@
         <v>7773</v>
       </c>
       <c r="H27" s="2" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="I27" s="2"/>
       <c r="J27" s="2"/>
     </row>
-    <row r="28" spans="1:10" ht="15" customHeight="1">
+    <row r="28" ht="15" customHeight="1" spans="1:10">
       <c r="A28" s="1" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="E28" s="2"/>
       <c r="F28" s="2">
@@ -6368,34 +7074,39 @@
         <v>8382</v>
       </c>
       <c r="H28" s="2" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="I28" s="2"/>
       <c r="J28" s="2"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:J28"/>
+  <autoFilter ref="A1:J28">
+    <extLst/>
+  </autoFilter>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:J28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
       <selection pane="bottomRight" activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="33.6640625" customWidth="1"/>
+    <col min="1" max="1" width="33.6666666666667" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15" customHeight="1">
+    <row r="1" ht="15" customHeight="1" spans="1:10">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -6403,19 +7114,19 @@
         <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>11</v>
@@ -6424,21 +7135,21 @@
         <v>15</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>504</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" ht="15" customHeight="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" ht="15" customHeight="1" spans="1:9">
       <c r="A2" s="1" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="E2" s="2" t="b">
         <v>0</v>
@@ -6452,18 +7163,18 @@
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
     </row>
-    <row r="3" spans="1:10" ht="15" customHeight="1">
+    <row r="3" ht="15" customHeight="1" spans="1:9">
       <c r="A3" s="1" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="E3" s="2" t="b">
         <v>0</v>
@@ -6472,23 +7183,23 @@
         <v>0</v>
       </c>
       <c r="G3" s="2">
-        <v>97.617363675119279</v>
+        <v>97.6173636751193</v>
       </c>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
     </row>
-    <row r="4" spans="1:10" ht="15" customHeight="1">
+    <row r="4" ht="15" customHeight="1" spans="1:9">
       <c r="A4" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>222</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>223</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>219</v>
-      </c>
       <c r="D4" s="2" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="E4" s="2" t="b">
         <v>0</v>
@@ -6497,23 +7208,23 @@
         <v>0</v>
       </c>
       <c r="G4" s="2">
-        <v>88.875836379705319</v>
+        <v>88.8758363797053</v>
       </c>
       <c r="H4" s="2"/>
       <c r="I4" s="2"/>
     </row>
-    <row r="5" spans="1:10" ht="15" customHeight="1">
+    <row r="5" ht="15" customHeight="1" spans="1:9">
       <c r="A5" s="1" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="E5" s="2" t="b">
         <v>0</v>
@@ -6522,23 +7233,23 @@
         <v>0</v>
       </c>
       <c r="G5" s="2">
-        <v>99.173341813547196</v>
+        <v>99.1733418135472</v>
       </c>
       <c r="H5" s="2"/>
       <c r="I5" s="2"/>
     </row>
-    <row r="6" spans="1:10" ht="15" customHeight="1">
+    <row r="6" ht="15" customHeight="1" spans="1:9">
       <c r="A6" s="1" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="E6" s="2" t="b">
         <v>0</v>
@@ -6547,23 +7258,23 @@
         <v>0</v>
       </c>
       <c r="G6" s="2">
-        <v>87.196841765167349</v>
+        <v>87.1968417651673</v>
       </c>
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
     </row>
-    <row r="7" spans="1:10" ht="15" customHeight="1">
+    <row r="7" ht="15" customHeight="1" spans="1:9">
       <c r="A7" s="1" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="E7" s="2" t="b">
         <v>0</v>
@@ -6572,23 +7283,23 @@
         <v>0</v>
       </c>
       <c r="G7" s="2">
-        <v>87.69651456753013</v>
+        <v>87.6965145675301</v>
       </c>
       <c r="H7" s="2"/>
       <c r="I7" s="2"/>
     </row>
-    <row r="8" spans="1:10" ht="15" customHeight="1">
+    <row r="8" ht="15" customHeight="1" spans="1:9">
       <c r="A8" s="1" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="E8" s="2" t="b">
         <v>0</v>
@@ -6597,23 +7308,23 @@
         <v>0</v>
       </c>
       <c r="G8" s="2">
-        <v>90.413510836733181</v>
+        <v>90.4135108367332</v>
       </c>
       <c r="H8" s="2"/>
       <c r="I8" s="2"/>
     </row>
-    <row r="9" spans="1:10" ht="15" customHeight="1">
+    <row r="9" ht="15" customHeight="1" spans="1:9">
       <c r="A9" s="1" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="E9" s="2" t="b">
         <v>0</v>
@@ -6622,23 +7333,23 @@
         <v>0</v>
       </c>
       <c r="G9" s="2">
-        <v>101.7303872101625</v>
+        <v>101.730387210163</v>
       </c>
       <c r="H9" s="2"/>
       <c r="I9" s="2"/>
     </row>
-    <row r="10" spans="1:10" ht="15" customHeight="1">
+    <row r="10" ht="15" customHeight="1" spans="1:9">
       <c r="A10" s="1" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="E10" s="2" t="b">
         <v>0</v>
@@ -6647,23 +7358,23 @@
         <v>0</v>
       </c>
       <c r="G10" s="2">
-        <v>111.95532588384521</v>
+        <v>111.955325883845</v>
       </c>
       <c r="H10" s="2"/>
       <c r="I10" s="2"/>
     </row>
-    <row r="11" spans="1:10" ht="15" customHeight="1">
+    <row r="11" ht="15" customHeight="1" spans="1:9">
       <c r="A11" s="1" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="E11" s="2" t="b">
         <v>0</v>
@@ -6675,18 +7386,18 @@
       <c r="H11" s="2"/>
       <c r="I11" s="2"/>
     </row>
-    <row r="12" spans="1:10" ht="15" customHeight="1">
+    <row r="12" ht="15" customHeight="1" spans="1:9">
       <c r="A12" s="1" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="E12" s="2" t="b">
         <v>0</v>
@@ -6695,23 +7406,23 @@
         <v>0</v>
       </c>
       <c r="G12" s="2">
-        <v>115.6517687035908</v>
+        <v>115.651768703591</v>
       </c>
       <c r="H12" s="2"/>
       <c r="I12" s="2"/>
     </row>
-    <row r="13" spans="1:10" ht="15" customHeight="1">
+    <row r="13" ht="15" customHeight="1" spans="1:9">
       <c r="A13" s="1" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="E13" s="2" t="b">
         <v>0</v>
@@ -6720,23 +7431,23 @@
         <v>0</v>
       </c>
       <c r="G13" s="2">
-        <v>95.455481041343177</v>
+        <v>95.4554810413432</v>
       </c>
       <c r="H13" s="2"/>
       <c r="I13" s="2"/>
     </row>
-    <row r="14" spans="1:10" ht="15" customHeight="1">
+    <row r="14" ht="15" customHeight="1" spans="1:9">
       <c r="A14" s="1" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="E14" s="2" t="b">
         <v>0</v>
@@ -6745,23 +7456,23 @@
         <v>0</v>
       </c>
       <c r="G14" s="2">
-        <v>80.791082995262272</v>
+        <v>80.7910829952623</v>
       </c>
       <c r="H14" s="2"/>
       <c r="I14" s="2"/>
     </row>
-    <row r="15" spans="1:10" ht="15" customHeight="1">
+    <row r="15" ht="15" customHeight="1" spans="1:9">
       <c r="A15" s="1" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="E15" s="2" t="b">
         <v>0</v>
@@ -6770,23 +7481,23 @@
         <v>0</v>
       </c>
       <c r="G15" s="2">
-        <v>87.189685192771847</v>
+        <v>87.1896851927718</v>
       </c>
       <c r="H15" s="2"/>
       <c r="I15" s="2"/>
     </row>
-    <row r="16" spans="1:10" ht="15" customHeight="1">
+    <row r="16" ht="15" customHeight="1" spans="1:9">
       <c r="A16" s="1" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="E16" s="2" t="b">
         <v>0</v>
@@ -6795,23 +7506,23 @@
         <v>0</v>
       </c>
       <c r="G16" s="2">
-        <v>88.559032767303293</v>
+        <v>88.5590327673033</v>
       </c>
       <c r="H16" s="2"/>
       <c r="I16" s="2"/>
     </row>
-    <row r="17" spans="1:9" ht="15" customHeight="1">
+    <row r="17" ht="15" customHeight="1" spans="1:9">
       <c r="A17" s="1" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="E17" s="2" t="b">
         <v>0</v>
@@ -6820,23 +7531,23 @@
         <v>0</v>
       </c>
       <c r="G17" s="2">
-        <v>95.212069979852913</v>
+        <v>95.2120699798529</v>
       </c>
       <c r="H17" s="2"/>
       <c r="I17" s="2"/>
     </row>
-    <row r="18" spans="1:9" ht="15" customHeight="1">
+    <row r="18" ht="15" customHeight="1" spans="1:9">
       <c r="A18" s="1" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="E18" s="2" t="b">
         <v>0</v>
@@ -6850,18 +7561,18 @@
       <c r="H18" s="2"/>
       <c r="I18" s="2"/>
     </row>
-    <row r="19" spans="1:9" ht="15" customHeight="1">
+    <row r="19" ht="15" customHeight="1" spans="1:9">
       <c r="A19" s="1" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="E19" s="2" t="b">
         <v>0</v>
@@ -6870,23 +7581,23 @@
         <v>0</v>
       </c>
       <c r="G19" s="2">
-        <v>91.816527141102611</v>
+        <v>91.8165271411026</v>
       </c>
       <c r="H19" s="2"/>
       <c r="I19" s="2"/>
     </row>
-    <row r="20" spans="1:9" ht="15" customHeight="1">
+    <row r="20" ht="15" customHeight="1" spans="1:9">
       <c r="A20" s="1" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="E20" s="2" t="b">
         <v>0</v>
@@ -6895,23 +7606,23 @@
         <v>0</v>
       </c>
       <c r="G20" s="2">
-        <v>101.53687000948879</v>
+        <v>101.536870009489</v>
       </c>
       <c r="H20" s="2"/>
       <c r="I20" s="2"/>
     </row>
-    <row r="21" spans="1:9" ht="15" customHeight="1">
+    <row r="21" ht="15" customHeight="1" spans="1:9">
       <c r="A21" s="1" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="E21" s="2" t="b">
         <v>0</v>
@@ -6920,23 +7631,23 @@
         <v>0</v>
       </c>
       <c r="G21" s="2">
-        <v>96.278328877270013</v>
+        <v>96.27832887727</v>
       </c>
       <c r="H21" s="2"/>
       <c r="I21" s="2"/>
     </row>
-    <row r="22" spans="1:9" ht="15" customHeight="1">
+    <row r="22" ht="15" customHeight="1" spans="1:9">
       <c r="A22" s="1" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="E22" s="2" t="b">
         <v>0</v>
@@ -6945,23 +7656,23 @@
         <v>0</v>
       </c>
       <c r="G22" s="2">
-        <v>99.975013781743058</v>
+        <v>99.9750137817431</v>
       </c>
       <c r="H22" s="2"/>
       <c r="I22" s="2"/>
     </row>
-    <row r="23" spans="1:9" ht="15" customHeight="1">
+    <row r="23" ht="15" customHeight="1" spans="1:9">
       <c r="A23" s="1" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="E23" s="2" t="b">
         <v>0</v>
@@ -6975,18 +7686,18 @@
       <c r="H23" s="2"/>
       <c r="I23" s="2"/>
     </row>
-    <row r="24" spans="1:9" ht="15" customHeight="1">
+    <row r="24" ht="15" customHeight="1" spans="1:9">
       <c r="A24" s="1" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="E24" s="2" t="b">
         <v>0</v>
@@ -6995,23 +7706,23 @@
         <v>0</v>
       </c>
       <c r="G24" s="2">
-        <v>101.99099013802309</v>
+        <v>101.990990138023</v>
       </c>
       <c r="H24" s="2"/>
       <c r="I24" s="2"/>
     </row>
-    <row r="25" spans="1:9" ht="15" customHeight="1">
+    <row r="25" ht="15" customHeight="1" spans="1:9">
       <c r="A25" s="1" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="E25" s="2" t="b">
         <v>0</v>
@@ -7020,23 +7731,23 @@
         <v>0</v>
       </c>
       <c r="G25" s="2">
-        <v>99.092334678967035</v>
+        <v>99.092334678967</v>
       </c>
       <c r="H25" s="2"/>
       <c r="I25" s="2"/>
     </row>
-    <row r="26" spans="1:9" ht="15" customHeight="1">
+    <row r="26" ht="15" customHeight="1" spans="1:9">
       <c r="A26" s="1" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="E26" s="2" t="b">
         <v>0</v>
@@ -7045,23 +7756,23 @@
         <v>0</v>
       </c>
       <c r="G26" s="2">
-        <v>93.134445499370997</v>
+        <v>93.134445499371</v>
       </c>
       <c r="H26" s="2"/>
       <c r="I26" s="2"/>
     </row>
-    <row r="27" spans="1:9" ht="15" customHeight="1">
+    <row r="27" ht="15" customHeight="1" spans="1:9">
       <c r="A27" s="1" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="E27" s="2" t="b">
         <v>0</v>
@@ -7070,23 +7781,23 @@
         <v>0</v>
       </c>
       <c r="G27" s="2">
-        <v>109.48423677007639</v>
+        <v>109.484236770076</v>
       </c>
       <c r="H27" s="2"/>
       <c r="I27" s="2"/>
     </row>
-    <row r="28" spans="1:9" ht="15" customHeight="1">
+    <row r="28" ht="15" customHeight="1" spans="1:9">
       <c r="A28" s="1" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="E28" s="2" t="b">
         <v>0</v>
@@ -7095,54 +7806,59 @@
         <v>0</v>
       </c>
       <c r="G28" s="2">
-        <v>110.8512890323267</v>
+        <v>110.851289032327</v>
       </c>
       <c r="H28" s="2"/>
       <c r="I28" s="2"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:I28"/>
+  <autoFilter ref="A1:I28">
+    <extLst/>
+  </autoFilter>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:K37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
       <selection pane="bottomRight" activeCell="K1" sqref="K1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData>
-    <row r="1" spans="1:11" ht="15" customHeight="1">
+    <row r="1" ht="15" customHeight="1" spans="1:11">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>11</v>
@@ -7151,25 +7867,25 @@
         <v>15</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>504</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" ht="15" customHeight="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" ht="15" customHeight="1" spans="1:10">
       <c r="A2" s="1" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" s="2" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="G2" s="2">
         <v>19</v>
@@ -7180,22 +7896,22 @@
       <c r="I2" s="2"/>
       <c r="J2" s="2"/>
     </row>
-    <row r="3" spans="1:11" ht="15" customHeight="1">
+    <row r="3" ht="15" customHeight="1" spans="1:10">
       <c r="A3" s="1" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="D3" s="2"/>
       <c r="E3" s="2" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="G3" s="2">
         <v>190</v>
@@ -7206,22 +7922,22 @@
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
     </row>
-    <row r="4" spans="1:11" ht="15" customHeight="1">
+    <row r="4" ht="15" customHeight="1" spans="1:10">
       <c r="A4" s="1" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="D4" s="2"/>
       <c r="E4" s="2" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="G4" s="2">
         <v>430</v>
@@ -7232,22 +7948,22 @@
       <c r="I4" s="2"/>
       <c r="J4" s="2"/>
     </row>
-    <row r="5" spans="1:11" ht="15" customHeight="1">
+    <row r="5" ht="15" customHeight="1" spans="1:10">
       <c r="A5" s="1" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" s="2" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="G5" s="2">
         <v>703</v>
@@ -7258,22 +7974,22 @@
       <c r="I5" s="2"/>
       <c r="J5" s="2"/>
     </row>
-    <row r="6" spans="1:11" ht="15" customHeight="1">
+    <row r="6" ht="15" customHeight="1" spans="1:10">
       <c r="A6" s="1" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="G6" s="2">
         <v>907</v>
@@ -7284,22 +8000,22 @@
       <c r="I6" s="2"/>
       <c r="J6" s="2"/>
     </row>
-    <row r="7" spans="1:11" ht="15" customHeight="1">
+    <row r="7" ht="15" customHeight="1" spans="1:10">
       <c r="A7" s="1" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" s="2" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="G7" s="2">
         <v>1093</v>
@@ -7310,22 +8026,22 @@
       <c r="I7" s="2"/>
       <c r="J7" s="2"/>
     </row>
-    <row r="8" spans="1:11" ht="15" customHeight="1">
+    <row r="8" ht="15" customHeight="1" spans="1:10">
       <c r="A8" s="1" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" s="2" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="G8" s="2">
         <v>1381</v>
@@ -7336,22 +8052,22 @@
       <c r="I8" s="2"/>
       <c r="J8" s="2"/>
     </row>
-    <row r="9" spans="1:11" ht="15" customHeight="1">
+    <row r="9" ht="15" customHeight="1" spans="1:10">
       <c r="A9" s="1" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" s="2" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="G9" s="2">
         <v>1651</v>
@@ -7362,22 +8078,22 @@
       <c r="I9" s="2"/>
       <c r="J9" s="2"/>
     </row>
-    <row r="10" spans="1:11" ht="15" customHeight="1">
+    <row r="10" ht="15" customHeight="1" spans="1:10">
       <c r="A10" s="1" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="G10" s="2">
         <v>1885</v>
@@ -7388,22 +8104,22 @@
       <c r="I10" s="2"/>
       <c r="J10" s="2"/>
     </row>
-    <row r="11" spans="1:11" ht="15" customHeight="1">
+    <row r="11" ht="15" customHeight="1" spans="1:10">
       <c r="A11" s="1" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="D11" s="2"/>
       <c r="E11" s="2" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="G11" s="2">
         <v>2134</v>
@@ -7414,22 +8130,22 @@
       <c r="I11" s="2"/>
       <c r="J11" s="2"/>
     </row>
-    <row r="12" spans="1:11" ht="15" customHeight="1">
+    <row r="12" ht="15" customHeight="1" spans="1:10">
       <c r="A12" s="1" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="D12" s="2"/>
       <c r="E12" s="2" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="G12" s="2">
         <v>2395</v>
@@ -7440,22 +8156,22 @@
       <c r="I12" s="2"/>
       <c r="J12" s="2"/>
     </row>
-    <row r="13" spans="1:11" ht="15" customHeight="1">
+    <row r="13" ht="15" customHeight="1" spans="1:10">
       <c r="A13" s="1" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="D13" s="2"/>
       <c r="E13" s="2" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="G13" s="2">
         <v>2638</v>
@@ -7466,22 +8182,22 @@
       <c r="I13" s="2"/>
       <c r="J13" s="2"/>
     </row>
-    <row r="14" spans="1:11" ht="15" customHeight="1">
+    <row r="14" ht="15" customHeight="1" spans="1:10">
       <c r="A14" s="1" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="D14" s="2"/>
       <c r="E14" s="2" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="G14" s="2">
         <v>2890</v>
@@ -7492,22 +8208,22 @@
       <c r="I14" s="2"/>
       <c r="J14" s="2"/>
     </row>
-    <row r="15" spans="1:11" ht="15" customHeight="1">
+    <row r="15" ht="15" customHeight="1" spans="1:10">
       <c r="A15" s="1" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="D15" s="2"/>
       <c r="E15" s="2" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="G15" s="2">
         <v>3130</v>
@@ -7518,22 +8234,22 @@
       <c r="I15" s="2"/>
       <c r="J15" s="2"/>
     </row>
-    <row r="16" spans="1:11" ht="15" customHeight="1">
+    <row r="16" ht="15" customHeight="1" spans="1:10">
       <c r="A16" s="1" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="D16" s="2"/>
       <c r="E16" s="2" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="G16" s="2">
         <v>3433</v>
@@ -7544,22 +8260,22 @@
       <c r="I16" s="2"/>
       <c r="J16" s="2"/>
     </row>
-    <row r="17" spans="1:10" ht="15" customHeight="1">
+    <row r="17" ht="15" customHeight="1" spans="1:10">
       <c r="A17" s="1" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="D17" s="2"/>
       <c r="E17" s="2" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="G17" s="2">
         <v>3652</v>
@@ -7570,22 +8286,22 @@
       <c r="I17" s="2"/>
       <c r="J17" s="2"/>
     </row>
-    <row r="18" spans="1:10" ht="15" customHeight="1">
+    <row r="18" ht="15" customHeight="1" spans="1:10">
       <c r="A18" s="1" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="D18" s="2"/>
       <c r="E18" s="2" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="G18" s="2">
         <v>3895</v>
@@ -7596,22 +8312,22 @@
       <c r="I18" s="2"/>
       <c r="J18" s="2"/>
     </row>
-    <row r="19" spans="1:10" ht="15" customHeight="1">
+    <row r="19" ht="15" customHeight="1" spans="1:10">
       <c r="A19" s="1" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="D19" s="2"/>
       <c r="E19" s="2" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="G19" s="2">
         <v>4129</v>
@@ -7622,22 +8338,22 @@
       <c r="I19" s="2"/>
       <c r="J19" s="2"/>
     </row>
-    <row r="20" spans="1:10" ht="15" customHeight="1">
+    <row r="20" ht="15" customHeight="1" spans="1:10">
       <c r="A20" s="1" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="D20" s="2"/>
       <c r="E20" s="2" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="G20" s="2">
         <v>4351</v>
@@ -7648,22 +8364,22 @@
       <c r="I20" s="2"/>
       <c r="J20" s="2"/>
     </row>
-    <row r="21" spans="1:10" ht="15" customHeight="1">
+    <row r="21" ht="15" customHeight="1" spans="1:10">
       <c r="A21" s="1" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="D21" s="2"/>
       <c r="E21" s="2" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="G21" s="2">
         <v>4570</v>
@@ -7674,22 +8390,22 @@
       <c r="I21" s="2"/>
       <c r="J21" s="2"/>
     </row>
-    <row r="22" spans="1:10" ht="15" customHeight="1">
+    <row r="22" ht="15" customHeight="1" spans="1:10">
       <c r="A22" s="1" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="D22" s="2"/>
       <c r="E22" s="2" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="G22" s="2">
         <v>4819</v>
@@ -7700,22 +8416,22 @@
       <c r="I22" s="2"/>
       <c r="J22" s="2"/>
     </row>
-    <row r="23" spans="1:10" ht="15" customHeight="1">
+    <row r="23" ht="15" customHeight="1" spans="1:10">
       <c r="A23" s="1" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="D23" s="2"/>
       <c r="E23" s="2" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="G23" s="2">
         <v>5056</v>
@@ -7726,22 +8442,22 @@
       <c r="I23" s="2"/>
       <c r="J23" s="2"/>
     </row>
-    <row r="24" spans="1:10" ht="15" customHeight="1">
+    <row r="24" ht="15" customHeight="1" spans="1:10">
       <c r="A24" s="1" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="D24" s="2"/>
       <c r="E24" s="2" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="G24" s="2">
         <v>5266</v>
@@ -7752,22 +8468,22 @@
       <c r="I24" s="2"/>
       <c r="J24" s="2"/>
     </row>
-    <row r="25" spans="1:10" ht="15" customHeight="1">
+    <row r="25" ht="15" customHeight="1" spans="1:10">
       <c r="A25" s="1" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="D25" s="2"/>
       <c r="E25" s="2" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="G25" s="2">
         <v>5506</v>
@@ -7778,22 +8494,22 @@
       <c r="I25" s="2"/>
       <c r="J25" s="2"/>
     </row>
-    <row r="26" spans="1:10" ht="15" customHeight="1">
+    <row r="26" ht="15" customHeight="1" spans="1:10">
       <c r="A26" s="1" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="D26" s="2"/>
       <c r="E26" s="2" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="G26" s="2">
         <v>5758</v>
@@ -7804,22 +8520,22 @@
       <c r="I26" s="2"/>
       <c r="J26" s="2"/>
     </row>
-    <row r="27" spans="1:10" ht="15" customHeight="1">
+    <row r="27" ht="15" customHeight="1" spans="1:10">
       <c r="A27" s="1" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="D27" s="2"/>
       <c r="E27" s="2" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="G27" s="2">
         <v>5953</v>
@@ -7830,22 +8546,22 @@
       <c r="I27" s="2"/>
       <c r="J27" s="2"/>
     </row>
-    <row r="28" spans="1:10" ht="15" customHeight="1">
+    <row r="28" ht="15" customHeight="1" spans="1:10">
       <c r="A28" s="1" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="D28" s="2"/>
       <c r="E28" s="2" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="G28" s="2">
         <v>6184</v>
@@ -7856,22 +8572,22 @@
       <c r="I28" s="2"/>
       <c r="J28" s="2"/>
     </row>
-    <row r="29" spans="1:10" ht="15" customHeight="1">
+    <row r="29" ht="15" customHeight="1" spans="1:10">
       <c r="A29" s="1" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="D29" s="2"/>
       <c r="E29" s="2" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="G29" s="2">
         <v>6424</v>
@@ -7882,22 +8598,22 @@
       <c r="I29" s="2"/>
       <c r="J29" s="2"/>
     </row>
-    <row r="30" spans="1:10" ht="15" customHeight="1">
+    <row r="30" ht="15" customHeight="1" spans="1:10">
       <c r="A30" s="1" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="D30" s="2"/>
       <c r="E30" s="2" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="G30" s="2">
         <v>6679</v>
@@ -7908,22 +8624,22 @@
       <c r="I30" s="2"/>
       <c r="J30" s="2"/>
     </row>
-    <row r="31" spans="1:10" ht="15" customHeight="1">
+    <row r="31" ht="15" customHeight="1" spans="1:10">
       <c r="A31" s="1" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="D31" s="2"/>
       <c r="E31" s="2" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="G31" s="2">
         <v>6892</v>
@@ -7934,22 +8650,22 @@
       <c r="I31" s="2"/>
       <c r="J31" s="2"/>
     </row>
-    <row r="32" spans="1:10" ht="15" customHeight="1">
+    <row r="32" ht="15" customHeight="1" spans="1:10">
       <c r="A32" s="1" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="D32" s="2"/>
       <c r="E32" s="2" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="G32" s="2">
         <v>7114</v>
@@ -7960,22 +8676,22 @@
       <c r="I32" s="2"/>
       <c r="J32" s="2"/>
     </row>
-    <row r="33" spans="1:10" ht="15" customHeight="1">
+    <row r="33" ht="15" customHeight="1" spans="1:10">
       <c r="A33" s="1" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="D33" s="2"/>
       <c r="E33" s="2" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="G33" s="2">
         <v>7348</v>
@@ -7986,22 +8702,22 @@
       <c r="I33" s="2"/>
       <c r="J33" s="2"/>
     </row>
-    <row r="34" spans="1:10" ht="15" customHeight="1">
+    <row r="34" ht="15" customHeight="1" spans="1:10">
       <c r="A34" s="1" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="D34" s="2"/>
       <c r="E34" s="2" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="G34" s="2">
         <v>7594</v>
@@ -8012,22 +8728,22 @@
       <c r="I34" s="2"/>
       <c r="J34" s="2"/>
     </row>
-    <row r="35" spans="1:10" ht="15" customHeight="1">
+    <row r="35" ht="15" customHeight="1" spans="1:10">
       <c r="A35" s="1" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="D35" s="2"/>
       <c r="E35" s="2" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="G35" s="2">
         <v>7804</v>
@@ -8038,22 +8754,22 @@
       <c r="I35" s="2"/>
       <c r="J35" s="2"/>
     </row>
-    <row r="36" spans="1:10" ht="15" customHeight="1">
+    <row r="36" ht="15" customHeight="1" spans="1:10">
       <c r="A36" s="1" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="D36" s="2"/>
       <c r="E36" s="2" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="G36" s="2">
         <v>7981</v>
@@ -8064,22 +8780,22 @@
       <c r="I36" s="2"/>
       <c r="J36" s="2"/>
     </row>
-    <row r="37" spans="1:10" ht="15" customHeight="1">
+    <row r="37" ht="15" customHeight="1" spans="1:10">
       <c r="A37" s="1" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="D37" s="2"/>
       <c r="E37" s="2" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="G37" s="2">
         <v>8185</v>
@@ -8091,7 +8807,10 @@
       <c r="J37" s="2"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:J37"/>
+  <autoFilter ref="A1:J37">
+    <extLst/>
+  </autoFilter>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/tests/fixtures/test_broken_kb.xlsx
+++ b/tests/fixtures/test_broken_kb.xlsx
@@ -1504,7 +1504,7 @@
     <t>Error</t>
   </si>
   <si>
-    <t>cell_cycle_len</t>
+    <t>mean_doubling_time</t>
   </si>
   <si>
     <t>s</t>
@@ -1522,7 +1522,7 @@
     <t>dimensionless</t>
   </si>
   <si>
-    <t>initial_volume</t>
+    <t>mean_volume</t>
   </si>
   <si>
     <t>L</t>
@@ -1611,12 +1611,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="24">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1654,15 +1654,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1670,6 +1664,59 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1684,37 +1731,13 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -1729,14 +1752,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="Calibri"/>
@@ -1744,9 +1759,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1762,36 +1785,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1830,13 +1823,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1848,13 +1853,133 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1866,61 +1991,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1932,85 +2003,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2021,6 +2014,45 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -2041,39 +2073,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -2086,23 +2085,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2121,148 +2105,157 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="8" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="33" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -5160,7 +5153,7 @@
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomRight" activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4" outlineLevelCol="6"/>

--- a/tests/fixtures/test_broken_kb.xlsx
+++ b/tests/fixtures/test_broken_kb.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19800" windowHeight="6840" firstSheet="12" activeTab="15"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19800" windowHeight="6840" firstSheet="12" activeTab="16"/>
   </bookViews>
   <sheets>
     <sheet name="Knowledge base" sheetId="1" r:id="rId1"/>
@@ -27,30 +27,30 @@
     <sheet name="References" sheetId="17" r:id="rId18"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Knowledge base'!$A$1:$B$9</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Cell!$A$1:$B$4</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Compartments!$A$1:$E$3</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'Metabolite species types'!$A$1:$F$35</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'DNA species types'!$A$1:$I$2</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'Promoter loci'!$A$1:$J$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">'Transcription unit loci'!$A$1:$J$28</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">'Rna species types'!$A$1:$I$28</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">'Gene loci'!$A$1:$J$37</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="9" hidden="1">'Protein species types'!$A$1:$I$33</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="10" hidden="1">'Complex species types'!$A$1:$K$2</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="11" hidden="1">Concentrations!$A$1:$E$95</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'DNA species types'!$A$1:$I$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">'Gene loci'!$A$1:$J$37</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Knowledge base'!$A$1:$B$9</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'Metabolite species types'!$A$1:$F$35</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="16" hidden="1">Observables!$A$1:$F$13</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'Promoter loci'!$A$1:$J$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="15" hidden="1">Properties!$A$1:$F$5</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="9" hidden="1">'Protein species types'!$A$1:$I$33</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="13" hidden="1">'Rate laws'!$A$1:$G$3</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="12" hidden="1">Reactions!$A$1:$G$3</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="13" hidden="1">'Rate laws'!$A$1:$G$3</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="15" hidden="1">Properties!$A$1:$F$5</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="16" hidden="1">Observables!$A$1:$G$13</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="17" hidden="1">References!$A$1:$B$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">'Rna species types'!$A$1:$I$28</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">'Transcription unit loci'!$A$1:$J$28</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1071" uniqueCount="518">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1058" uniqueCount="517">
   <si>
     <t>Id</t>
   </si>
@@ -1528,12 +1528,6 @@
     <t>L</t>
   </si>
   <si>
-    <t>Cell</t>
-  </si>
-  <si>
-    <t>Observables</t>
-  </si>
-  <si>
     <t>aminoacyl_synthetase_obs</t>
   </si>
   <si>
@@ -1604,19 +1598,16 @@
   </si>
   <si>
     <t>Standard id</t>
+  </si>
+  <si>
+    <t>Expression</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-  </numFmts>
-  <fonts count="23">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1645,152 +1636,8 @@
       <name val="arial"/>
       <charset val="1"/>
     </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="37">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1805,7 +1652,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.149998474074526"/>
+        <fgColor theme="0" tint="-0.14996795556505021"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1821,194 +1668,8 @@
         <bgColor rgb="FFCCCCCC"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -2016,251 +1677,9 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
   <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -2278,57 +1697,10 @@
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="60% - Accent6" xfId="1" builtinId="52"/>
-    <cellStyle name="40% - Accent6" xfId="2" builtinId="51"/>
-    <cellStyle name="60% - Accent5" xfId="3" builtinId="48"/>
-    <cellStyle name="Accent6" xfId="4" builtinId="49"/>
-    <cellStyle name="40% - Accent5" xfId="5" builtinId="47"/>
-    <cellStyle name="20% - Accent5" xfId="6" builtinId="46"/>
-    <cellStyle name="60% - Accent4" xfId="7" builtinId="44"/>
-    <cellStyle name="Accent5" xfId="8" builtinId="45"/>
-    <cellStyle name="40% - Accent4" xfId="9" builtinId="43"/>
-    <cellStyle name="Accent4" xfId="10" builtinId="41"/>
-    <cellStyle name="Linked Cell" xfId="11" builtinId="24"/>
-    <cellStyle name="40% - Accent3" xfId="12" builtinId="39"/>
-    <cellStyle name="60% - Accent2" xfId="13" builtinId="36"/>
-    <cellStyle name="Accent3" xfId="14" builtinId="37"/>
-    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
-    <cellStyle name="20% - Accent2" xfId="16" builtinId="34"/>
-    <cellStyle name="Accent2" xfId="17" builtinId="33"/>
-    <cellStyle name="40% - Accent1" xfId="18" builtinId="31"/>
-    <cellStyle name="20% - Accent1" xfId="19" builtinId="30"/>
-    <cellStyle name="Accent1" xfId="20" builtinId="29"/>
-    <cellStyle name="Neutral" xfId="21" builtinId="28"/>
-    <cellStyle name="60% - Accent1" xfId="22" builtinId="32"/>
-    <cellStyle name="Bad" xfId="23" builtinId="27"/>
-    <cellStyle name="20% - Accent4" xfId="24" builtinId="42"/>
-    <cellStyle name="Total" xfId="25" builtinId="25"/>
-    <cellStyle name="Output" xfId="26" builtinId="21"/>
-    <cellStyle name="Currency" xfId="27" builtinId="4"/>
-    <cellStyle name="20% - Accent3" xfId="28" builtinId="38"/>
-    <cellStyle name="Note" xfId="29" builtinId="10"/>
-    <cellStyle name="Input" xfId="30" builtinId="20"/>
-    <cellStyle name="Heading 4" xfId="31" builtinId="19"/>
-    <cellStyle name="Calculation" xfId="32" builtinId="22"/>
-    <cellStyle name="Good" xfId="33" builtinId="26"/>
-    <cellStyle name="Heading 3" xfId="34" builtinId="18"/>
-    <cellStyle name="CExplanatory Text" xfId="35" builtinId="53"/>
-    <cellStyle name="Heading 1" xfId="36" builtinId="16"/>
-    <cellStyle name="Comma [0]" xfId="37" builtinId="6"/>
-    <cellStyle name="20% - Accent6" xfId="38" builtinId="50"/>
-    <cellStyle name="Title" xfId="39" builtinId="15"/>
-    <cellStyle name="Currency [0]" xfId="40" builtinId="7"/>
-    <cellStyle name="Warning Text" xfId="41" builtinId="11"/>
-    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9"/>
-    <cellStyle name="Heading 2" xfId="43" builtinId="17"/>
-    <cellStyle name="Comma" xfId="44" builtinId="3"/>
-    <cellStyle name="Check Cell" xfId="45" builtinId="23"/>
-    <cellStyle name="60% - Accent3" xfId="46" builtinId="40"/>
-    <cellStyle name="Percent" xfId="47" builtinId="5"/>
-    <cellStyle name="Hyperlink" xfId="48" builtinId="8"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -2343,10 +1715,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="212121"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="F3F3F3"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -2617,25 +1989,24 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
-      <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+      <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" ht="15" customHeight="1" spans="1:2">
+    <row r="1" spans="1:2" ht="15" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2643,7 +2014,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" ht="15" customHeight="1" spans="1:2">
+    <row r="2" spans="1:2" ht="15" customHeight="1">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -2651,7 +2022,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" ht="15" customHeight="1" spans="1:2">
+    <row r="3" spans="1:2" ht="15" customHeight="1">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -2659,7 +2030,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" ht="15" customHeight="1" spans="1:2">
+    <row r="4" spans="1:2" ht="15" customHeight="1">
       <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
@@ -2667,25 +2038,25 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" ht="15" customHeight="1" spans="1:2">
+    <row r="5" spans="1:2" ht="15" customHeight="1">
       <c r="A5" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B5" s="2"/>
     </row>
-    <row r="6" ht="15" customHeight="1" spans="1:2">
+    <row r="6" spans="1:2" ht="15" customHeight="1">
       <c r="A6" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B6" s="2"/>
     </row>
-    <row r="7" ht="15" customHeight="1" spans="1:2">
+    <row r="7" spans="1:2" ht="15" customHeight="1">
       <c r="A7" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B7" s="2"/>
     </row>
-    <row r="8" ht="15" customHeight="1" spans="1:2">
+    <row r="8" spans="1:2" ht="15" customHeight="1">
       <c r="A8" s="1" t="s">
         <v>10</v>
       </c>
@@ -2693,43 +2064,38 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" ht="15" customHeight="1" spans="1:2">
+    <row r="9" spans="1:2" ht="15" customHeight="1">
       <c r="A9" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B9" s="2"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:B9">
-    <extLst/>
-  </autoFilter>
+  <autoFilter ref="A1:B9"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
-      <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
       <selection pane="bottomRight" activeCell="K29" sqref="K29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="20.3333333333333" customWidth="1"/>
-    <col min="4" max="4" width="16.8833333333333" customWidth="1"/>
-    <col min="7" max="7" width="16.5583333333333" customWidth="1"/>
-    <col min="10" max="10" width="18.6666666666667" customWidth="1"/>
+    <col min="2" max="2" width="20.28515625" customWidth="1"/>
+    <col min="4" max="4" width="16.85546875" customWidth="1"/>
+    <col min="7" max="7" width="16.5703125" customWidth="1"/>
+    <col min="10" max="10" width="18.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15" customHeight="1" spans="1:10">
+    <row r="1" spans="1:10" ht="15" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2761,7 +2127,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" ht="15" customHeight="1" spans="1:9">
+    <row r="2" spans="1:10" ht="15" customHeight="1">
       <c r="A2" s="1" t="s">
         <v>329</v>
       </c>
@@ -2786,7 +2152,7 @@
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
     </row>
-    <row r="3" ht="15" customHeight="1" spans="1:9">
+    <row r="3" spans="1:10" ht="15" customHeight="1">
       <c r="A3" s="1" t="s">
         <v>330</v>
       </c>
@@ -2811,7 +2177,7 @@
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
     </row>
-    <row r="4" ht="15" customHeight="1" spans="1:9">
+    <row r="4" spans="1:10" ht="15" customHeight="1">
       <c r="A4" s="1" t="s">
         <v>331</v>
       </c>
@@ -2836,7 +2202,7 @@
       <c r="H4" s="2"/>
       <c r="I4" s="2"/>
     </row>
-    <row r="5" ht="15" customHeight="1" spans="1:9">
+    <row r="5" spans="1:10" ht="15" customHeight="1">
       <c r="A5" s="1" t="s">
         <v>332</v>
       </c>
@@ -2861,7 +2227,7 @@
       <c r="H5" s="2"/>
       <c r="I5" s="2"/>
     </row>
-    <row r="6" ht="15" customHeight="1" spans="1:9">
+    <row r="6" spans="1:10" ht="15" customHeight="1">
       <c r="A6" s="1" t="s">
         <v>333</v>
       </c>
@@ -2886,7 +2252,7 @@
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
     </row>
-    <row r="7" ht="15" customHeight="1" spans="1:9">
+    <row r="7" spans="1:10" ht="15" customHeight="1">
       <c r="A7" s="1" t="s">
         <v>334</v>
       </c>
@@ -2911,7 +2277,7 @@
       <c r="H7" s="2"/>
       <c r="I7" s="2"/>
     </row>
-    <row r="8" ht="15" customHeight="1" spans="1:9">
+    <row r="8" spans="1:10" ht="15" customHeight="1">
       <c r="A8" s="1" t="s">
         <v>335</v>
       </c>
@@ -2936,7 +2302,7 @@
       <c r="H8" s="2"/>
       <c r="I8" s="2"/>
     </row>
-    <row r="9" ht="15" customHeight="1" spans="1:9">
+    <row r="9" spans="1:10" ht="15" customHeight="1">
       <c r="A9" s="1" t="s">
         <v>336</v>
       </c>
@@ -2961,7 +2327,7 @@
       <c r="H9" s="2"/>
       <c r="I9" s="2"/>
     </row>
-    <row r="10" ht="15" customHeight="1" spans="1:9">
+    <row r="10" spans="1:10" ht="15" customHeight="1">
       <c r="A10" s="1" t="s">
         <v>337</v>
       </c>
@@ -2986,7 +2352,7 @@
       <c r="H10" s="2"/>
       <c r="I10" s="2"/>
     </row>
-    <row r="11" ht="15" customHeight="1" spans="1:9">
+    <row r="11" spans="1:10" ht="15" customHeight="1">
       <c r="A11" s="1" t="s">
         <v>338</v>
       </c>
@@ -3011,7 +2377,7 @@
       <c r="H11" s="2"/>
       <c r="I11" s="2"/>
     </row>
-    <row r="12" ht="15" customHeight="1" spans="1:9">
+    <row r="12" spans="1:10" ht="15" customHeight="1">
       <c r="A12" s="1" t="s">
         <v>339</v>
       </c>
@@ -3036,7 +2402,7 @@
       <c r="H12" s="2"/>
       <c r="I12" s="2"/>
     </row>
-    <row r="13" ht="15" customHeight="1" spans="1:9">
+    <row r="13" spans="1:10" ht="15" customHeight="1">
       <c r="A13" s="1" t="s">
         <v>340</v>
       </c>
@@ -3059,7 +2425,7 @@
       <c r="H13" s="2"/>
       <c r="I13" s="2"/>
     </row>
-    <row r="14" ht="15" customHeight="1" spans="1:9">
+    <row r="14" spans="1:10" ht="15" customHeight="1">
       <c r="A14" s="1" t="s">
         <v>341</v>
       </c>
@@ -3084,7 +2450,7 @@
       <c r="H14" s="2"/>
       <c r="I14" s="2"/>
     </row>
-    <row r="15" ht="15" customHeight="1" spans="1:9">
+    <row r="15" spans="1:10" ht="15" customHeight="1">
       <c r="A15" s="1" t="s">
         <v>342</v>
       </c>
@@ -3109,7 +2475,7 @@
       <c r="H15" s="2"/>
       <c r="I15" s="2"/>
     </row>
-    <row r="16" ht="15" customHeight="1" spans="1:9">
+    <row r="16" spans="1:10" ht="15" customHeight="1">
       <c r="A16" s="1" t="s">
         <v>343</v>
       </c>
@@ -3134,7 +2500,7 @@
       <c r="H16" s="2"/>
       <c r="I16" s="2"/>
     </row>
-    <row r="17" ht="15" customHeight="1" spans="1:9">
+    <row r="17" spans="1:9" ht="15" customHeight="1">
       <c r="A17" s="1" t="s">
         <v>344</v>
       </c>
@@ -3159,7 +2525,7 @@
       <c r="H17" s="2"/>
       <c r="I17" s="2"/>
     </row>
-    <row r="18" ht="15" customHeight="1" spans="1:9">
+    <row r="18" spans="1:9" ht="15" customHeight="1">
       <c r="A18" s="1" t="s">
         <v>345</v>
       </c>
@@ -3184,7 +2550,7 @@
       <c r="H18" s="2"/>
       <c r="I18" s="2"/>
     </row>
-    <row r="19" ht="15" customHeight="1" spans="1:9">
+    <row r="19" spans="1:9" ht="15" customHeight="1">
       <c r="A19" s="1" t="s">
         <v>346</v>
       </c>
@@ -3209,7 +2575,7 @@
       <c r="H19" s="2"/>
       <c r="I19" s="2"/>
     </row>
-    <row r="20" ht="15" customHeight="1" spans="1:9">
+    <row r="20" spans="1:9" ht="15" customHeight="1">
       <c r="A20" s="1" t="s">
         <v>347</v>
       </c>
@@ -3234,7 +2600,7 @@
       <c r="H20" s="2"/>
       <c r="I20" s="2"/>
     </row>
-    <row r="21" ht="15" customHeight="1" spans="1:9">
+    <row r="21" spans="1:9" ht="15" customHeight="1">
       <c r="A21" s="1" t="s">
         <v>348</v>
       </c>
@@ -3259,7 +2625,7 @@
       <c r="H21" s="2"/>
       <c r="I21" s="2"/>
     </row>
-    <row r="22" ht="15" customHeight="1" spans="1:9">
+    <row r="22" spans="1:9" ht="15" customHeight="1">
       <c r="A22" s="1" t="s">
         <v>349</v>
       </c>
@@ -3284,7 +2650,7 @@
       <c r="H22" s="2"/>
       <c r="I22" s="2"/>
     </row>
-    <row r="23" ht="15" customHeight="1" spans="1:9">
+    <row r="23" spans="1:9" ht="15" customHeight="1">
       <c r="A23" s="1" t="s">
         <v>350</v>
       </c>
@@ -3309,7 +2675,7 @@
       <c r="H23" s="2"/>
       <c r="I23" s="2"/>
     </row>
-    <row r="24" ht="15" customHeight="1" spans="1:9">
+    <row r="24" spans="1:9" ht="15" customHeight="1">
       <c r="A24" s="1" t="s">
         <v>351</v>
       </c>
@@ -3334,7 +2700,7 @@
       <c r="H24" s="2"/>
       <c r="I24" s="2"/>
     </row>
-    <row r="25" ht="15" customHeight="1" spans="1:9">
+    <row r="25" spans="1:9" ht="15" customHeight="1">
       <c r="A25" s="1" t="s">
         <v>352</v>
       </c>
@@ -3359,7 +2725,7 @@
       <c r="H25" s="2"/>
       <c r="I25" s="2"/>
     </row>
-    <row r="26" ht="15" customHeight="1" spans="1:9">
+    <row r="26" spans="1:9" ht="15" customHeight="1">
       <c r="A26" s="1" t="s">
         <v>353</v>
       </c>
@@ -3384,7 +2750,7 @@
       <c r="H26" s="2"/>
       <c r="I26" s="2"/>
     </row>
-    <row r="27" ht="15" customHeight="1" spans="1:9">
+    <row r="27" spans="1:9" ht="15" customHeight="1">
       <c r="A27" s="1" t="s">
         <v>354</v>
       </c>
@@ -3409,7 +2775,7 @@
       <c r="H27" s="2"/>
       <c r="I27" s="2"/>
     </row>
-    <row r="28" ht="15" customHeight="1" spans="1:9">
+    <row r="28" spans="1:9" ht="15" customHeight="1">
       <c r="A28" s="1" t="s">
         <v>355</v>
       </c>
@@ -3434,7 +2800,7 @@
       <c r="H28" s="2"/>
       <c r="I28" s="2"/>
     </row>
-    <row r="29" ht="15" customHeight="1" spans="1:9">
+    <row r="29" spans="1:9" ht="15" customHeight="1">
       <c r="A29" s="1" t="s">
         <v>356</v>
       </c>
@@ -3459,7 +2825,7 @@
       <c r="H29" s="2"/>
       <c r="I29" s="2"/>
     </row>
-    <row r="30" ht="15" customHeight="1" spans="1:9">
+    <row r="30" spans="1:9" ht="15" customHeight="1">
       <c r="A30" s="1" t="s">
         <v>357</v>
       </c>
@@ -3484,7 +2850,7 @@
       <c r="H30" s="2"/>
       <c r="I30" s="2"/>
     </row>
-    <row r="31" ht="15" customHeight="1" spans="1:9">
+    <row r="31" spans="1:9" ht="15" customHeight="1">
       <c r="A31" s="1" t="s">
         <v>358</v>
       </c>
@@ -3509,7 +2875,7 @@
       <c r="H31" s="2"/>
       <c r="I31" s="2"/>
     </row>
-    <row r="32" ht="15" customHeight="1" spans="1:9">
+    <row r="32" spans="1:9" ht="15" customHeight="1">
       <c r="A32" s="1" t="s">
         <v>359</v>
       </c>
@@ -3534,7 +2900,7 @@
       <c r="H32" s="2"/>
       <c r="I32" s="2"/>
     </row>
-    <row r="33" ht="15" customHeight="1" spans="1:9">
+    <row r="33" spans="1:9" ht="15" customHeight="1">
       <c r="A33" s="1" t="s">
         <v>360</v>
       </c>
@@ -3560,33 +2926,28 @@
       <c r="I33" s="2"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:I33">
-    <extLst/>
-  </autoFilter>
+  <autoFilter ref="A1:I33"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
-      <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
       <selection pane="bottomRight" activeCell="L13" sqref="L13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="12" max="12" width="18.6666666666667" customWidth="1"/>
+    <col min="12" max="12" width="18.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15" customHeight="1" spans="1:12">
+    <row r="1" spans="1:12" ht="15" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3624,7 +2985,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" ht="15" customHeight="1" spans="1:11">
+    <row r="2" spans="1:12" ht="15" customHeight="1">
       <c r="A2" s="1" t="s">
         <v>367</v>
       </c>
@@ -3644,33 +3005,28 @@
       <c r="K2" s="2"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:K2">
-    <extLst/>
-  </autoFilter>
+  <autoFilter ref="A1:K2"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F95"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
-      <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
       <selection pane="bottomRight" activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="6" max="6" width="18.6666666666667" customWidth="1"/>
+    <col min="6" max="6" width="18.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15" customHeight="1" spans="1:6">
+    <row r="1" spans="1:6" ht="15" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>369</v>
       </c>
@@ -3690,12 +3046,12 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" ht="15" customHeight="1" spans="1:5">
+    <row r="2" spans="1:6" ht="15" customHeight="1">
       <c r="A2" s="1" t="s">
         <v>372</v>
       </c>
       <c r="B2" s="2">
-        <v>0.000823</v>
+        <v>8.2299999999999995E-4</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>373</v>
@@ -3703,12 +3059,12 @@
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
     </row>
-    <row r="3" ht="15" customHeight="1" spans="1:5">
+    <row r="3" spans="1:6" ht="15" customHeight="1">
       <c r="A3" s="1" t="s">
         <v>374</v>
       </c>
       <c r="B3" s="2">
-        <v>0.0026</v>
+        <v>2.5999999999999999E-3</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>373</v>
@@ -3716,12 +3072,12 @@
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
     </row>
-    <row r="4" ht="15" customHeight="1" spans="1:5">
+    <row r="4" spans="1:6" ht="15" customHeight="1">
       <c r="A4" s="1" t="s">
         <v>375</v>
       </c>
       <c r="B4" s="2">
-        <v>0.000151</v>
+        <v>1.5100000000000001E-4</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>373</v>
@@ -3729,12 +3085,12 @@
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
     </row>
-    <row r="5" ht="15" customHeight="1" spans="1:5">
+    <row r="5" spans="1:6" ht="15" customHeight="1">
       <c r="A5" s="1" t="s">
         <v>376</v>
       </c>
       <c r="B5" s="2">
-        <v>0.00057</v>
+        <v>5.6999999999999998E-4</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>373</v>
@@ -3742,12 +3098,12 @@
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
     </row>
-    <row r="6" ht="15" customHeight="1" spans="1:5">
+    <row r="6" spans="1:6" ht="15" customHeight="1">
       <c r="A6" s="1" t="s">
         <v>377</v>
       </c>
       <c r="B6" s="2">
-        <v>0.00051</v>
+        <v>5.1000000000000004E-4</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>373</v>
@@ -3755,12 +3111,12 @@
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
     </row>
-    <row r="7" ht="15" customHeight="1" spans="1:5">
+    <row r="7" spans="1:6" ht="15" customHeight="1">
       <c r="A7" s="1" t="s">
         <v>378</v>
       </c>
       <c r="B7" s="2">
-        <v>0.0042</v>
+        <v>4.1999999999999997E-3</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>373</v>
@@ -3768,12 +3124,12 @@
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
     </row>
-    <row r="8" ht="15" customHeight="1" spans="1:5">
+    <row r="8" spans="1:6" ht="15" customHeight="1">
       <c r="A8" s="1" t="s">
         <v>379</v>
       </c>
       <c r="B8" s="2">
-        <v>0.0035</v>
+        <v>3.5000000000000001E-3</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>373</v>
@@ -3781,12 +3137,12 @@
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
     </row>
-    <row r="9" ht="15" customHeight="1" spans="1:5">
+    <row r="9" spans="1:6" ht="15" customHeight="1">
       <c r="A9" s="1" t="s">
         <v>380</v>
       </c>
       <c r="B9" s="2">
-        <v>0.00036</v>
+        <v>3.6000000000000002E-4</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>373</v>
@@ -3794,12 +3150,12 @@
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
     </row>
-    <row r="10" ht="15" customHeight="1" spans="1:5">
+    <row r="10" spans="1:6" ht="15" customHeight="1">
       <c r="A10" s="1" t="s">
         <v>381</v>
       </c>
       <c r="B10" s="2">
-        <v>0.0012</v>
+        <v>1.1999999999999999E-3</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>373</v>
@@ -3807,12 +3163,12 @@
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
     </row>
-    <row r="11" ht="15" customHeight="1" spans="1:5">
+    <row r="11" spans="1:6" ht="15" customHeight="1">
       <c r="A11" s="1" t="s">
         <v>382</v>
       </c>
       <c r="B11" s="2">
-        <v>0.00037</v>
+        <v>3.6999999999999999E-4</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>373</v>
@@ -3820,12 +3176,12 @@
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
     </row>
-    <row r="12" ht="15" customHeight="1" spans="1:5">
+    <row r="12" spans="1:6" ht="15" customHeight="1">
       <c r="A12" s="1" t="s">
         <v>383</v>
       </c>
       <c r="B12" s="2">
-        <v>0.005</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>373</v>
@@ -3833,12 +3189,12 @@
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
     </row>
-    <row r="13" ht="15" customHeight="1" spans="1:5">
+    <row r="13" spans="1:6" ht="15" customHeight="1">
       <c r="A13" s="1" t="s">
         <v>384</v>
       </c>
       <c r="B13" s="2">
-        <v>0.0038</v>
+        <v>3.8E-3</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>373</v>
@@ -3846,12 +3202,12 @@
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
     </row>
-    <row r="14" ht="15" customHeight="1" spans="1:5">
+    <row r="14" spans="1:6" ht="15" customHeight="1">
       <c r="A14" s="1" t="s">
         <v>385</v>
       </c>
       <c r="B14" s="2">
-        <v>0.096</v>
+        <v>9.6000000000000002E-2</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>373</v>
@@ -3859,12 +3215,12 @@
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
     </row>
-    <row r="15" ht="15" customHeight="1" spans="1:5">
+    <row r="15" spans="1:6" ht="15" customHeight="1">
       <c r="A15" s="1" t="s">
         <v>386</v>
       </c>
       <c r="B15" s="2">
-        <v>0.0031</v>
+        <v>3.0999999999999999E-3</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>373</v>
@@ -3872,12 +3228,12 @@
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
     </row>
-    <row r="16" ht="15" customHeight="1" spans="1:5">
+    <row r="16" spans="1:6" ht="15" customHeight="1">
       <c r="A16" s="1" t="s">
         <v>387</v>
       </c>
       <c r="B16" s="2">
-        <v>2.4e-5</v>
+        <v>2.4000000000000001E-5</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>373</v>
@@ -3885,12 +3241,12 @@
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
     </row>
-    <row r="17" ht="15" customHeight="1" spans="1:5">
+    <row r="17" spans="1:5" ht="15" customHeight="1">
       <c r="A17" s="1" t="s">
         <v>388</v>
       </c>
       <c r="B17" s="2">
-        <v>0.0019</v>
+        <v>1.9E-3</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>373</v>
@@ -3898,7 +3254,7 @@
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
     </row>
-    <row r="18" ht="15" customHeight="1" spans="1:5">
+    <row r="18" spans="1:5" ht="15" customHeight="1">
       <c r="A18" s="1" t="s">
         <v>389</v>
       </c>
@@ -3911,12 +3267,12 @@
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
     </row>
-    <row r="19" ht="15" customHeight="1" spans="1:5">
+    <row r="19" spans="1:5" ht="15" customHeight="1">
       <c r="A19" s="1" t="s">
         <v>390</v>
       </c>
       <c r="B19" s="2">
-        <v>2.82e-8</v>
+        <v>2.8200000000000001E-8</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>373</v>
@@ -3924,12 +3280,12 @@
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
     </row>
-    <row r="20" ht="15" customHeight="1" spans="1:5">
+    <row r="20" spans="1:5" ht="15" customHeight="1">
       <c r="A20" s="1" t="s">
         <v>391</v>
       </c>
       <c r="B20" s="2">
-        <v>6.8e-5</v>
+        <v>6.7999999999999999E-5</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>373</v>
@@ -3937,12 +3293,12 @@
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
     </row>
-    <row r="21" ht="15" customHeight="1" spans="1:5">
+    <row r="21" spans="1:5" ht="15" customHeight="1">
       <c r="A21" s="1" t="s">
         <v>392</v>
       </c>
       <c r="B21" s="2">
-        <v>0.0003</v>
+        <v>2.9999999999999997E-4</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>373</v>
@@ -3950,12 +3306,12 @@
       <c r="D21" s="2"/>
       <c r="E21" s="2"/>
     </row>
-    <row r="22" ht="15" customHeight="1" spans="1:5">
+    <row r="22" spans="1:5" ht="15" customHeight="1">
       <c r="A22" s="1" t="s">
         <v>393</v>
       </c>
       <c r="B22" s="2">
-        <v>0.0003</v>
+        <v>2.9999999999999997E-4</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>373</v>
@@ -3963,12 +3319,12 @@
       <c r="D22" s="2"/>
       <c r="E22" s="2"/>
     </row>
-    <row r="23" ht="15" customHeight="1" spans="1:5">
+    <row r="23" spans="1:5" ht="15" customHeight="1">
       <c r="A23" s="1" t="s">
         <v>394</v>
       </c>
       <c r="B23" s="2">
-        <v>0.00041</v>
+        <v>4.0999999999999999E-4</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>373</v>
@@ -3976,12 +3332,12 @@
       <c r="D23" s="2"/>
       <c r="E23" s="2"/>
     </row>
-    <row r="24" ht="15" customHeight="1" spans="1:5">
+    <row r="24" spans="1:5" ht="15" customHeight="1">
       <c r="A24" s="1" t="s">
         <v>395</v>
       </c>
       <c r="B24" s="2">
-        <v>0.00015</v>
+        <v>1.4999999999999999E-4</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>373</v>
@@ -3989,12 +3345,12 @@
       <c r="D24" s="2"/>
       <c r="E24" s="2"/>
     </row>
-    <row r="25" ht="15" customHeight="1" spans="1:5">
+    <row r="25" spans="1:5" ht="15" customHeight="1">
       <c r="A25" s="1" t="s">
         <v>396</v>
       </c>
       <c r="B25" s="2">
-        <v>1.8e-5</v>
+        <v>1.8E-5</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>373</v>
@@ -4002,12 +3358,12 @@
       <c r="D25" s="2"/>
       <c r="E25" s="2"/>
     </row>
-    <row r="26" ht="15" customHeight="1" spans="1:5">
+    <row r="26" spans="1:5" ht="15" customHeight="1">
       <c r="A26" s="1" t="s">
         <v>397</v>
       </c>
       <c r="B26" s="2">
-        <v>0.005</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>373</v>
@@ -4015,12 +3371,12 @@
       <c r="D26" s="2"/>
       <c r="E26" s="2"/>
     </row>
-    <row r="27" ht="15" customHeight="1" spans="1:5">
+    <row r="27" spans="1:5" ht="15" customHeight="1">
       <c r="A27" s="1" t="s">
         <v>398</v>
       </c>
       <c r="B27" s="2">
-        <v>0.0005</v>
+        <v>5.0000000000000001E-4</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>373</v>
@@ -4028,12 +3384,12 @@
       <c r="D27" s="2"/>
       <c r="E27" s="2"/>
     </row>
-    <row r="28" ht="15" customHeight="1" spans="1:5">
+    <row r="28" spans="1:5" ht="15" customHeight="1">
       <c r="A28" s="1" t="s">
         <v>399</v>
       </c>
       <c r="B28" s="2">
-        <v>0.00039</v>
+        <v>3.8999999999999999E-4</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>373</v>
@@ -4041,12 +3397,12 @@
       <c r="D28" s="2"/>
       <c r="E28" s="2"/>
     </row>
-    <row r="29" ht="15" customHeight="1" spans="1:5">
+    <row r="29" spans="1:5" ht="15" customHeight="1">
       <c r="A29" s="1" t="s">
         <v>400</v>
       </c>
       <c r="B29" s="2">
-        <v>1.69042874315485e-6</v>
+        <v>1.69042874315485E-6</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>373</v>
@@ -4054,12 +3410,12 @@
       <c r="D29" s="2"/>
       <c r="E29" s="2"/>
     </row>
-    <row r="30" ht="15" customHeight="1" spans="1:5">
+    <row r="30" spans="1:5" ht="15" customHeight="1">
       <c r="A30" s="1" t="s">
         <v>401</v>
       </c>
       <c r="B30" s="2">
-        <v>1.67050227466973e-6</v>
+        <v>1.67050227466973E-6</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>373</v>
@@ -4067,12 +3423,12 @@
       <c r="D30" s="2"/>
       <c r="E30" s="2"/>
     </row>
-    <row r="31" ht="15" customHeight="1" spans="1:5">
+    <row r="31" spans="1:5" ht="15" customHeight="1">
       <c r="A31" s="1" t="s">
         <v>402</v>
       </c>
       <c r="B31" s="2">
-        <v>1.68212604795272e-6</v>
+        <v>1.6821260479527201E-6</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>373</v>
@@ -4080,12 +3436,12 @@
       <c r="D31" s="2"/>
       <c r="E31" s="2"/>
     </row>
-    <row r="32" ht="15" customHeight="1" spans="1:5">
+    <row r="32" spans="1:5" ht="15" customHeight="1">
       <c r="A32" s="1" t="s">
         <v>403</v>
       </c>
       <c r="B32" s="2">
-        <v>1.71035521163998e-6</v>
+        <v>1.71035521163998E-6</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>373</v>
@@ -4093,12 +3449,12 @@
       <c r="D32" s="2"/>
       <c r="E32" s="2"/>
     </row>
-    <row r="33" ht="15" customHeight="1" spans="1:5">
+    <row r="33" spans="1:5" ht="15" customHeight="1">
       <c r="A33" s="1" t="s">
         <v>404</v>
       </c>
       <c r="B33" s="2">
-        <v>1.67050227466973e-6</v>
+        <v>1.67050227466973E-6</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>373</v>
@@ -4106,12 +3462,12 @@
       <c r="D33" s="2"/>
       <c r="E33" s="2"/>
     </row>
-    <row r="34" ht="15" customHeight="1" spans="1:5">
+    <row r="34" spans="1:5" ht="15" customHeight="1">
       <c r="A34" s="1" t="s">
         <v>405</v>
       </c>
       <c r="B34" s="2">
-        <v>1.64891526714417e-6</v>
+        <v>1.6489152671441701E-6</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>373</v>
@@ -4119,12 +3475,12 @@
       <c r="D34" s="2"/>
       <c r="E34" s="2"/>
     </row>
-    <row r="35" ht="15" customHeight="1" spans="1:5">
+    <row r="35" spans="1:5" ht="15" customHeight="1">
       <c r="A35" s="1" t="s">
         <v>406</v>
       </c>
       <c r="B35" s="2">
-        <v>1.67880496987186e-6</v>
+        <v>1.67880496987186E-6</v>
       </c>
       <c r="C35" s="2" t="s">
         <v>373</v>
@@ -4132,12 +3488,12 @@
       <c r="D35" s="2"/>
       <c r="E35" s="2"/>
     </row>
-    <row r="36" ht="15" customHeight="1" spans="1:5">
+    <row r="36" spans="1:5" ht="15" customHeight="1">
       <c r="A36" s="1" t="s">
         <v>407</v>
       </c>
       <c r="B36" s="2">
-        <v>1.68212604795272e-6</v>
+        <v>1.6821260479527201E-6</v>
       </c>
       <c r="C36" s="2" t="s">
         <v>373</v>
@@ -4145,12 +3501,12 @@
       <c r="D36" s="2"/>
       <c r="E36" s="2"/>
     </row>
-    <row r="37" ht="15" customHeight="1" spans="1:5">
+    <row r="37" spans="1:5" ht="15" customHeight="1">
       <c r="A37" s="1" t="s">
         <v>408</v>
       </c>
       <c r="B37" s="2">
-        <v>1.67050227466973e-6</v>
+        <v>1.67050227466973E-6</v>
       </c>
       <c r="C37" s="2" t="s">
         <v>373</v>
@@ -4158,12 +3514,12 @@
       <c r="D37" s="2"/>
       <c r="E37" s="2"/>
     </row>
-    <row r="38" ht="15" customHeight="1" spans="1:5">
+    <row r="38" spans="1:5" ht="15" customHeight="1">
       <c r="A38" s="1" t="s">
         <v>409</v>
       </c>
       <c r="B38" s="2">
-        <v>1.63895203290161e-6</v>
+        <v>1.63895203290161E-6</v>
       </c>
       <c r="C38" s="2" t="s">
         <v>373</v>
@@ -4171,12 +3527,12 @@
       <c r="D38" s="2"/>
       <c r="E38" s="2"/>
     </row>
-    <row r="39" ht="15" customHeight="1" spans="1:5">
+    <row r="39" spans="1:5" ht="15" customHeight="1">
       <c r="A39" s="1" t="s">
         <v>410</v>
       </c>
       <c r="B39" s="2">
-        <v>1.6688417356293e-6</v>
+        <v>1.6688417356293001E-6</v>
       </c>
       <c r="C39" s="2" t="s">
         <v>373</v>
@@ -4184,12 +3540,12 @@
       <c r="D39" s="2"/>
       <c r="E39" s="2"/>
     </row>
-    <row r="40" ht="15" customHeight="1" spans="1:5">
+    <row r="40" spans="1:5" ht="15" customHeight="1">
       <c r="A40" s="1" t="s">
         <v>411</v>
       </c>
       <c r="B40" s="2">
-        <v>1.66219957946759e-6</v>
+        <v>1.6621995794675899E-6</v>
       </c>
       <c r="C40" s="2" t="s">
         <v>373</v>
@@ -4197,12 +3553,12 @@
       <c r="D40" s="2"/>
       <c r="E40" s="2"/>
     </row>
-    <row r="41" ht="15" customHeight="1" spans="1:5">
+    <row r="41" spans="1:5" ht="15" customHeight="1">
       <c r="A41" s="1" t="s">
         <v>412</v>
       </c>
       <c r="B41" s="2">
-        <v>1.66219957946759e-6</v>
+        <v>1.6621995794675899E-6</v>
       </c>
       <c r="C41" s="2" t="s">
         <v>373</v>
@@ -4210,12 +3566,12 @@
       <c r="D41" s="2"/>
       <c r="E41" s="2"/>
     </row>
-    <row r="42" ht="15" customHeight="1" spans="1:5">
+    <row r="42" spans="1:5" ht="15" customHeight="1">
       <c r="A42" s="1" t="s">
         <v>413</v>
       </c>
       <c r="B42" s="2">
-        <v>1.65721796234631e-6</v>
+        <v>1.65721796234631E-6</v>
       </c>
       <c r="C42" s="2" t="s">
         <v>373</v>
@@ -4223,12 +3579,12 @@
       <c r="D42" s="2"/>
       <c r="E42" s="2"/>
     </row>
-    <row r="43" ht="15" customHeight="1" spans="1:5">
+    <row r="43" spans="1:5" ht="15" customHeight="1">
       <c r="A43" s="1" t="s">
         <v>414</v>
       </c>
       <c r="B43" s="2">
-        <v>1.73194221916553e-6</v>
+        <v>1.73194221916553E-6</v>
       </c>
       <c r="C43" s="2" t="s">
         <v>373</v>
@@ -4236,12 +3592,12 @@
       <c r="D43" s="2"/>
       <c r="E43" s="2"/>
     </row>
-    <row r="44" ht="15" customHeight="1" spans="1:5">
+    <row r="44" spans="1:5" ht="15" customHeight="1">
       <c r="A44" s="1" t="s">
         <v>415</v>
       </c>
       <c r="B44" s="2">
-        <v>1.66053904042716e-6</v>
+        <v>1.66053904042716E-6</v>
       </c>
       <c r="C44" s="2" t="s">
         <v>373</v>
@@ -4249,12 +3605,12 @@
       <c r="D44" s="2"/>
       <c r="E44" s="2"/>
     </row>
-    <row r="45" ht="15" customHeight="1" spans="1:5">
+    <row r="45" spans="1:5" ht="15" customHeight="1">
       <c r="A45" s="1" t="s">
         <v>416</v>
       </c>
       <c r="B45" s="2">
-        <v>1.65389688426545e-6</v>
+        <v>1.65389688426545E-6</v>
       </c>
       <c r="C45" s="2" t="s">
         <v>373</v>
@@ -4262,12 +3618,12 @@
       <c r="D45" s="2"/>
       <c r="E45" s="2"/>
     </row>
-    <row r="46" ht="15" customHeight="1" spans="1:5">
+    <row r="46" spans="1:5" ht="15" customHeight="1">
       <c r="A46" s="1" t="s">
         <v>417</v>
       </c>
       <c r="B46" s="2">
-        <v>1.62732825961862e-6</v>
+        <v>1.6273282596186199E-6</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>373</v>
@@ -4275,12 +3631,12 @@
       <c r="D46" s="2"/>
       <c r="E46" s="2"/>
     </row>
-    <row r="47" ht="15" customHeight="1" spans="1:5">
+    <row r="47" spans="1:5" ht="15" customHeight="1">
       <c r="A47" s="1" t="s">
         <v>418</v>
       </c>
       <c r="B47" s="2">
-        <v>1.65223634522503e-6</v>
+        <v>1.65223634522503E-6</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>373</v>
@@ -4288,12 +3644,12 @@
       <c r="D47" s="2"/>
       <c r="E47" s="2"/>
     </row>
-    <row r="48" ht="15" customHeight="1" spans="1:5">
+    <row r="48" spans="1:5" ht="15" customHeight="1">
       <c r="A48" s="1" t="s">
         <v>419</v>
       </c>
       <c r="B48" s="2">
-        <v>1.65721796234631e-6</v>
+        <v>1.65721796234631E-6</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>373</v>
@@ -4301,12 +3657,12 @@
       <c r="D48" s="2"/>
       <c r="E48" s="2"/>
     </row>
-    <row r="49" ht="15" customHeight="1" spans="1:5">
+    <row r="49" spans="1:5" ht="15" customHeight="1">
       <c r="A49" s="1" t="s">
         <v>420</v>
       </c>
       <c r="B49" s="2">
-        <v>1.69208928219528e-6</v>
+        <v>1.69208928219528E-6</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>373</v>
@@ -4314,12 +3670,12 @@
       <c r="D49" s="2"/>
       <c r="E49" s="2"/>
     </row>
-    <row r="50" ht="15" customHeight="1" spans="1:5">
+    <row r="50" spans="1:5" ht="15" customHeight="1">
       <c r="A50" s="1" t="s">
         <v>421</v>
       </c>
       <c r="B50" s="2">
-        <v>1.6140439472952e-6</v>
+        <v>1.6140439472952001E-6</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>373</v>
@@ -4327,12 +3683,12 @@
       <c r="D50" s="2"/>
       <c r="E50" s="2"/>
     </row>
-    <row r="51" ht="15" customHeight="1" spans="1:5">
+    <row r="51" spans="1:5" ht="15" customHeight="1">
       <c r="A51" s="1" t="s">
         <v>422</v>
       </c>
       <c r="B51" s="2">
-        <v>1.69541036027613e-6</v>
+        <v>1.69541036027613E-6</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>373</v>
@@ -4340,12 +3696,12 @@
       <c r="D51" s="2"/>
       <c r="E51" s="2"/>
     </row>
-    <row r="52" ht="15" customHeight="1" spans="1:5">
+    <row r="52" spans="1:5" ht="15" customHeight="1">
       <c r="A52" s="1" t="s">
         <v>423</v>
       </c>
       <c r="B52" s="2">
-        <v>1.64559418906332e-6</v>
+        <v>1.6455941890633199E-6</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>373</v>
@@ -4353,12 +3709,12 @@
       <c r="D52" s="2"/>
       <c r="E52" s="2"/>
     </row>
-    <row r="53" ht="15" customHeight="1" spans="1:5">
+    <row r="53" spans="1:5" ht="15" customHeight="1">
       <c r="A53" s="1" t="s">
         <v>424</v>
       </c>
       <c r="B53" s="2">
-        <v>1.70205251643784e-6</v>
+        <v>1.7020525164378399E-6</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>373</v>
@@ -4366,12 +3722,12 @@
       <c r="D53" s="2"/>
       <c r="E53" s="2"/>
     </row>
-    <row r="54" ht="15" customHeight="1" spans="1:5">
+    <row r="54" spans="1:5" ht="15" customHeight="1">
       <c r="A54" s="1" t="s">
         <v>425</v>
       </c>
       <c r="B54" s="2">
-        <v>1.65721796234631e-6</v>
+        <v>1.65721796234631E-6</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>373</v>
@@ -4379,12 +3735,12 @@
       <c r="D54" s="2"/>
       <c r="E54" s="2"/>
     </row>
-    <row r="55" ht="15" customHeight="1" spans="1:5">
+    <row r="55" spans="1:5" ht="15" customHeight="1">
       <c r="A55" s="1" t="s">
         <v>426</v>
       </c>
       <c r="B55" s="2">
-        <v>1.63064933769947e-6</v>
+        <v>1.6306493376994701E-6</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>373</v>
@@ -4392,12 +3748,12 @@
       <c r="D55" s="2"/>
       <c r="E55" s="2"/>
     </row>
-    <row r="56" ht="15" customHeight="1" spans="1:5">
+    <row r="56" spans="1:5" ht="15" customHeight="1">
       <c r="A56" s="1" t="s">
         <v>427</v>
       </c>
       <c r="B56" s="2">
-        <v>1.64559418906332e-6</v>
+        <v>1.6455941890633199E-6</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>373</v>
@@ -4405,12 +3761,12 @@
       <c r="D56" s="2"/>
       <c r="E56" s="2"/>
     </row>
-    <row r="57" ht="15" customHeight="1" spans="1:5">
+    <row r="57" spans="1:5" ht="15" customHeight="1">
       <c r="A57" s="1" t="s">
         <v>428</v>
       </c>
       <c r="B57" s="2">
-        <v>1.66053904042716e-6</v>
+        <v>1.66053904042716E-6</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>373</v>
@@ -4418,12 +3774,12 @@
       <c r="D57" s="2"/>
       <c r="E57" s="2"/>
     </row>
-    <row r="58" ht="15" customHeight="1" spans="1:5">
+    <row r="58" spans="1:5" ht="15" customHeight="1">
       <c r="A58" s="1" t="s">
         <v>429</v>
       </c>
       <c r="B58" s="2">
-        <v>1.66718119658887e-6</v>
+        <v>1.6671811965888701E-6</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>373</v>
@@ -4431,12 +3787,12 @@
       <c r="D58" s="2"/>
       <c r="E58" s="2"/>
     </row>
-    <row r="59" ht="15" customHeight="1" spans="1:5">
+    <row r="59" spans="1:5" ht="15" customHeight="1">
       <c r="A59" s="1" t="s">
         <v>430</v>
       </c>
       <c r="B59" s="2">
-        <v>1.68544712603357e-6</v>
+        <v>1.6854471260335701E-6</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>373</v>
@@ -4444,12 +3800,12 @@
       <c r="D59" s="2"/>
       <c r="E59" s="2"/>
     </row>
-    <row r="60" ht="15" customHeight="1" spans="1:5">
+    <row r="60" spans="1:5" ht="15" customHeight="1">
       <c r="A60" s="1" t="s">
         <v>431</v>
       </c>
       <c r="B60" s="2">
-        <v>1.67880496987186e-6</v>
+        <v>1.67880496987186E-6</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>373</v>
@@ -4457,12 +3813,12 @@
       <c r="D60" s="2"/>
       <c r="E60" s="2"/>
     </row>
-    <row r="61" ht="15" customHeight="1" spans="1:5">
+    <row r="61" spans="1:5" ht="15" customHeight="1">
       <c r="A61" s="1" t="s">
         <v>432</v>
       </c>
       <c r="B61" s="2">
-        <v>1.66053904042716e-7</v>
+        <v>1.6605390404271601E-7</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>373</v>
@@ -4470,12 +3826,12 @@
       <c r="D61" s="2"/>
       <c r="E61" s="2"/>
     </row>
-    <row r="62" ht="15" customHeight="1" spans="1:5">
+    <row r="62" spans="1:5" ht="15" customHeight="1">
       <c r="A62" s="1" t="s">
         <v>433</v>
       </c>
       <c r="B62" s="2">
-        <v>1.89301450608697e-7</v>
+        <v>1.8930145060869699E-7</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>373</v>
@@ -4483,12 +3839,12 @@
       <c r="D62" s="2"/>
       <c r="E62" s="2"/>
     </row>
-    <row r="63" ht="15" customHeight="1" spans="1:5">
+    <row r="63" spans="1:5" ht="15" customHeight="1">
       <c r="A63" s="1" t="s">
         <v>434</v>
       </c>
       <c r="B63" s="2">
-        <v>1.41145818436309e-7</v>
+        <v>1.4114581843630899E-7</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>373</v>
@@ -4496,12 +3852,12 @@
       <c r="D63" s="2"/>
       <c r="E63" s="2"/>
     </row>
-    <row r="64" ht="15" customHeight="1" spans="1:5">
+    <row r="64" spans="1:5" ht="15" customHeight="1">
       <c r="A64" s="1" t="s">
         <v>435</v>
       </c>
       <c r="B64" s="2">
-        <v>1.92622528689551e-7</v>
+        <v>1.9262252868955099E-7</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>373</v>
@@ -4509,12 +3865,12 @@
       <c r="D64" s="2"/>
       <c r="E64" s="2"/>
     </row>
-    <row r="65" ht="15" customHeight="1" spans="1:5">
+    <row r="65" spans="1:5" ht="15" customHeight="1">
       <c r="A65" s="1" t="s">
         <v>436</v>
       </c>
       <c r="B65" s="2">
-        <v>1.85980372527842e-7</v>
+        <v>1.85980372527842E-7</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>373</v>
@@ -4522,12 +3878,12 @@
       <c r="D65" s="2"/>
       <c r="E65" s="2"/>
     </row>
-    <row r="66" ht="15" customHeight="1" spans="1:5">
+    <row r="66" spans="1:5" ht="15" customHeight="1">
       <c r="A66" s="1" t="s">
         <v>437</v>
       </c>
       <c r="B66" s="2">
-        <v>1.31182584193746e-7</v>
+        <v>1.3118258419374599E-7</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>373</v>
@@ -4535,12 +3891,12 @@
       <c r="D66" s="2"/>
       <c r="E66" s="2"/>
     </row>
-    <row r="67" ht="15" customHeight="1" spans="1:5">
+    <row r="67" spans="1:5" ht="15" customHeight="1">
       <c r="A67" s="1" t="s">
         <v>438</v>
       </c>
       <c r="B67" s="2">
-        <v>1.62732825961862e-7</v>
+        <v>1.6273282596186201E-7</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>373</v>
@@ -4548,12 +3904,12 @@
       <c r="D67" s="2"/>
       <c r="E67" s="2"/>
     </row>
-    <row r="68" ht="15" customHeight="1" spans="1:5">
+    <row r="68" spans="1:5" ht="15" customHeight="1">
       <c r="A68" s="1" t="s">
         <v>439</v>
       </c>
       <c r="B68" s="2">
-        <v>2.09227919093823e-7</v>
+        <v>2.09227919093823E-7</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>373</v>
@@ -4561,12 +3917,12 @@
       <c r="D68" s="2"/>
       <c r="E68" s="2"/>
     </row>
-    <row r="69" ht="15" customHeight="1" spans="1:5">
+    <row r="69" spans="1:5" ht="15" customHeight="1">
       <c r="A69" s="1" t="s">
         <v>440</v>
       </c>
       <c r="B69" s="2">
-        <v>1.71035521163998e-7</v>
+        <v>1.71035521163998E-7</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>373</v>
@@ -4574,12 +3930,12 @@
       <c r="D69" s="2"/>
       <c r="E69" s="2"/>
     </row>
-    <row r="70" ht="15" customHeight="1" spans="1:5">
+    <row r="70" spans="1:5" ht="15" customHeight="1">
       <c r="A70" s="1" t="s">
         <v>441</v>
       </c>
       <c r="B70" s="2">
-        <v>1.52769591719299e-7</v>
+        <v>1.5276959171929901E-7</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>373</v>
@@ -4587,12 +3943,12 @@
       <c r="D70" s="2"/>
       <c r="E70" s="2"/>
     </row>
-    <row r="71" ht="15" customHeight="1" spans="1:5">
+    <row r="71" spans="1:5" ht="15" customHeight="1">
       <c r="A71" s="1" t="s">
         <v>442</v>
       </c>
       <c r="B71" s="2">
-        <v>1.54430130759726e-7</v>
+        <v>1.5443013075972599E-7</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>373</v>
@@ -4600,12 +3956,12 @@
       <c r="D71" s="2"/>
       <c r="E71" s="2"/>
     </row>
-    <row r="72" ht="15" customHeight="1" spans="1:5">
+    <row r="72" spans="1:5" ht="15" customHeight="1">
       <c r="A72" s="1" t="s">
         <v>443</v>
       </c>
       <c r="B72" s="2">
-        <v>1.59411747881008e-7</v>
+        <v>1.59411747881008E-7</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>373</v>
@@ -4613,12 +3969,12 @@
       <c r="D72" s="2"/>
       <c r="E72" s="2"/>
     </row>
-    <row r="73" ht="15" customHeight="1" spans="1:5">
+    <row r="73" spans="1:5" ht="15" customHeight="1">
       <c r="A73" s="1" t="s">
         <v>444</v>
       </c>
       <c r="B73" s="2">
-        <v>1.85980372527842e-7</v>
+        <v>1.85980372527842E-7</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>373</v>
@@ -4626,12 +3982,12 @@
       <c r="D73" s="2"/>
       <c r="E73" s="2"/>
     </row>
-    <row r="74" ht="15" customHeight="1" spans="1:5">
+    <row r="74" spans="1:5" ht="15" customHeight="1">
       <c r="A74" s="1" t="s">
         <v>445</v>
       </c>
       <c r="B74" s="2">
-        <v>1.71035521163998e-7</v>
+        <v>1.71035521163998E-7</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>373</v>
@@ -4639,12 +3995,12 @@
       <c r="D74" s="2"/>
       <c r="E74" s="2"/>
     </row>
-    <row r="75" ht="15" customHeight="1" spans="1:5">
+    <row r="75" spans="1:5" ht="15" customHeight="1">
       <c r="A75" s="1" t="s">
         <v>446</v>
       </c>
       <c r="B75" s="2">
-        <v>1.80998755406561e-7</v>
+        <v>1.8099875540656099E-7</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>373</v>
@@ -4652,12 +4008,12 @@
       <c r="D75" s="2"/>
       <c r="E75" s="2"/>
     </row>
-    <row r="76" ht="15" customHeight="1" spans="1:5">
+    <row r="76" spans="1:5" ht="15" customHeight="1">
       <c r="A76" s="1" t="s">
         <v>447</v>
       </c>
       <c r="B76" s="2">
-        <v>1.9926468485126e-7</v>
+        <v>1.9926468485126001E-7</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>373</v>
@@ -4665,12 +4021,12 @@
       <c r="D76" s="2"/>
       <c r="E76" s="2"/>
     </row>
-    <row r="77" ht="15" customHeight="1" spans="1:5">
+    <row r="77" spans="1:5" ht="15" customHeight="1">
       <c r="A77" s="1" t="s">
         <v>448</v>
       </c>
       <c r="B77" s="2">
-        <v>1.42806357476736e-7</v>
+        <v>1.4280635747673599E-7</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>373</v>
@@ -4678,12 +4034,12 @@
       <c r="D77" s="2"/>
       <c r="E77" s="2"/>
     </row>
-    <row r="78" ht="15" customHeight="1" spans="1:5">
+    <row r="78" spans="1:5" ht="15" customHeight="1">
       <c r="A78" s="1" t="s">
         <v>449</v>
       </c>
       <c r="B78" s="2">
-        <v>1.76017138285279e-7</v>
+        <v>1.7601713828527901E-7</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>373</v>
@@ -4691,12 +4047,12 @@
       <c r="D78" s="2"/>
       <c r="E78" s="2"/>
     </row>
-    <row r="79" ht="15" customHeight="1" spans="1:5">
+    <row r="79" spans="1:5" ht="15" customHeight="1">
       <c r="A79" s="1" t="s">
         <v>450</v>
       </c>
       <c r="B79" s="2">
-        <v>1.82659294446988e-7</v>
+        <v>1.82659294446988E-7</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>373</v>
@@ -4704,12 +4060,12 @@
       <c r="D79" s="2"/>
       <c r="E79" s="2"/>
     </row>
-    <row r="80" ht="15" customHeight="1" spans="1:5">
+    <row r="80" spans="1:5" ht="15" customHeight="1">
       <c r="A80" s="1" t="s">
         <v>451</v>
       </c>
       <c r="B80" s="2">
-        <v>1.90961989649124e-7</v>
+        <v>1.9096198964912399E-7</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>373</v>
@@ -4717,12 +4073,12 @@
       <c r="D80" s="2"/>
       <c r="E80" s="2"/>
     </row>
-    <row r="81" ht="15" customHeight="1" spans="1:5">
+    <row r="81" spans="1:5" ht="15" customHeight="1">
       <c r="A81" s="1" t="s">
         <v>452</v>
       </c>
       <c r="B81" s="2">
-        <v>1.69374982123571e-7</v>
+        <v>1.69374982123571E-7</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>373</v>
@@ -4730,12 +4086,12 @@
       <c r="D81" s="2"/>
       <c r="E81" s="2"/>
     </row>
-    <row r="82" ht="15" customHeight="1" spans="1:5">
+    <row r="82" spans="1:5" ht="15" customHeight="1">
       <c r="A82" s="1" t="s">
         <v>453</v>
       </c>
       <c r="B82" s="2">
-        <v>1.54430130759726e-7</v>
+        <v>1.5443013075972599E-7</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>373</v>
@@ -4743,12 +4099,12 @@
       <c r="D82" s="2"/>
       <c r="E82" s="2"/>
     </row>
-    <row r="83" ht="15" customHeight="1" spans="1:5">
+    <row r="83" spans="1:5" ht="15" customHeight="1">
       <c r="A83" s="1" t="s">
         <v>454</v>
       </c>
       <c r="B83" s="2">
-        <v>1.72696060204425e-7</v>
+        <v>1.72696060204425E-7</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>373</v>
@@ -4756,12 +4112,12 @@
       <c r="D83" s="2"/>
       <c r="E83" s="2"/>
     </row>
-    <row r="84" ht="15" customHeight="1" spans="1:5">
+    <row r="84" spans="1:5" ht="15" customHeight="1">
       <c r="A84" s="1" t="s">
         <v>455</v>
       </c>
       <c r="B84" s="2">
-        <v>1.71035521163998e-7</v>
+        <v>1.71035521163998E-7</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>373</v>
@@ -4769,12 +4125,12 @@
       <c r="D84" s="2"/>
       <c r="E84" s="2"/>
     </row>
-    <row r="85" ht="15" customHeight="1" spans="1:5">
+    <row r="85" spans="1:5" ht="15" customHeight="1">
       <c r="A85" s="1" t="s">
         <v>456</v>
       </c>
       <c r="B85" s="2">
-        <v>1.52769591719299e-7</v>
+        <v>1.5276959171929901E-7</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>373</v>
@@ -4782,12 +4138,12 @@
       <c r="D85" s="2"/>
       <c r="E85" s="2"/>
     </row>
-    <row r="86" ht="15" customHeight="1" spans="1:5">
+    <row r="86" spans="1:5" ht="15" customHeight="1">
       <c r="A86" s="1" t="s">
         <v>457</v>
       </c>
       <c r="B86" s="2">
-        <v>1.77677677325707e-7</v>
+        <v>1.7767767732570699E-7</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>373</v>
@@ -4795,12 +4151,12 @@
       <c r="D86" s="2"/>
       <c r="E86" s="2"/>
     </row>
-    <row r="87" ht="15" customHeight="1" spans="1:5">
+    <row r="87" spans="1:5" ht="15" customHeight="1">
       <c r="A87" s="1" t="s">
         <v>458</v>
       </c>
       <c r="B87" s="2">
-        <v>1.69374982123571e-7</v>
+        <v>1.69374982123571E-7</v>
       </c>
       <c r="C87" s="2" t="s">
         <v>373</v>
@@ -4808,12 +4164,12 @@
       <c r="D87" s="2"/>
       <c r="E87" s="2"/>
     </row>
-    <row r="88" ht="15" customHeight="1" spans="1:5">
+    <row r="88" spans="1:5" ht="15" customHeight="1">
       <c r="A88" s="1" t="s">
         <v>459</v>
       </c>
       <c r="B88" s="2">
-        <v>1.54430130759726e-7</v>
+        <v>1.5443013075972599E-7</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>373</v>
@@ -4821,12 +4177,12 @@
       <c r="D88" s="2"/>
       <c r="E88" s="2"/>
     </row>
-    <row r="89" ht="15" customHeight="1" spans="1:5">
+    <row r="89" spans="1:5" ht="15" customHeight="1">
       <c r="A89" s="1" t="s">
         <v>460</v>
       </c>
       <c r="B89" s="2">
-        <v>6.8e-5</v>
+        <v>6.7999999999999999E-5</v>
       </c>
       <c r="C89" s="2" t="s">
         <v>373</v>
@@ -4834,12 +4190,12 @@
       <c r="D89" s="2"/>
       <c r="E89" s="2"/>
     </row>
-    <row r="90" ht="15" customHeight="1" spans="1:5">
+    <row r="90" spans="1:5" ht="15" customHeight="1">
       <c r="A90" s="1" t="s">
         <v>461</v>
       </c>
       <c r="B90" s="2">
-        <v>0.00018</v>
+        <v>1.8000000000000001E-4</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>373</v>
@@ -4847,12 +4203,12 @@
       <c r="D90" s="2"/>
       <c r="E90" s="2"/>
     </row>
-    <row r="91" ht="15" customHeight="1" spans="1:5">
+    <row r="91" spans="1:5" ht="15" customHeight="1">
       <c r="A91" s="1" t="s">
         <v>462</v>
       </c>
       <c r="B91" s="2">
-        <v>1.2e-5</v>
+        <v>1.2E-5</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>373</v>
@@ -4860,12 +4216,12 @@
       <c r="D91" s="2"/>
       <c r="E91" s="2"/>
     </row>
-    <row r="92" ht="15" customHeight="1" spans="1:5">
+    <row r="92" spans="1:5" ht="15" customHeight="1">
       <c r="A92" s="1" t="s">
         <v>463</v>
       </c>
       <c r="B92" s="2">
-        <v>2.9e-5</v>
+        <v>2.9E-5</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>373</v>
@@ -4873,12 +4229,12 @@
       <c r="D92" s="2"/>
       <c r="E92" s="2"/>
     </row>
-    <row r="93" ht="15" customHeight="1" spans="1:5">
+    <row r="93" spans="1:5" ht="15" customHeight="1">
       <c r="A93" s="1" t="s">
         <v>464</v>
       </c>
       <c r="B93" s="2">
-        <v>0.000184</v>
+        <v>1.84E-4</v>
       </c>
       <c r="C93" s="2" t="s">
         <v>373</v>
@@ -4886,12 +4242,12 @@
       <c r="D93" s="2"/>
       <c r="E93" s="2"/>
     </row>
-    <row r="94" ht="15" customHeight="1" spans="1:5">
+    <row r="94" spans="1:5" ht="15" customHeight="1">
       <c r="A94" s="1" t="s">
         <v>465</v>
       </c>
       <c r="B94" s="2">
-        <v>0.002</v>
+        <v>2E-3</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>373</v>
@@ -4899,12 +4255,12 @@
       <c r="D94" s="2"/>
       <c r="E94" s="2"/>
     </row>
-    <row r="95" ht="15" customHeight="1" spans="1:5">
+    <row r="95" spans="1:5" ht="15" customHeight="1">
       <c r="A95" s="1" t="s">
         <v>466</v>
       </c>
       <c r="B95" s="2">
-        <v>0.004</v>
+        <v>4.0000000000000001E-3</v>
       </c>
       <c r="C95" s="2" t="s">
         <v>373</v>
@@ -4913,38 +4269,33 @@
       <c r="E95" s="2"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:E95">
-    <extLst/>
-  </autoFilter>
+  <autoFilter ref="A1:E95"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
-      <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
       <selection pane="bottomRight" activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="21.8833333333333" customWidth="1"/>
-    <col min="3" max="3" width="19.6666666666667" customWidth="1"/>
+    <col min="1" max="1" width="21.85546875" customWidth="1"/>
+    <col min="3" max="3" width="19.7109375" customWidth="1"/>
     <col min="4" max="4" width="32" customWidth="1"/>
-    <col min="5" max="5" width="15.5583333333333" customWidth="1"/>
-    <col min="7" max="7" width="12.6666666666667" customWidth="1"/>
-    <col min="8" max="8" width="27.3333333333333" customWidth="1"/>
+    <col min="5" max="5" width="15.5703125" customWidth="1"/>
+    <col min="7" max="7" width="12.7109375" customWidth="1"/>
+    <col min="8" max="8" width="27.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15" customHeight="1" spans="1:8">
+    <row r="1" spans="1:9" ht="15" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4970,7 +4321,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" ht="15" customHeight="1" spans="1:9">
+    <row r="2" spans="1:9" ht="15" customHeight="1">
       <c r="A2" s="1" t="s">
         <v>470</v>
       </c>
@@ -4989,7 +4340,7 @@
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
     </row>
-    <row r="3" ht="15" customHeight="1" spans="1:9">
+    <row r="3" spans="1:9" ht="15" customHeight="1">
       <c r="A3" s="1" t="s">
         <v>473</v>
       </c>
@@ -5009,35 +4360,30 @@
       <c r="I3" s="2"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:G3">
-    <extLst/>
-  </autoFilter>
+  <autoFilter ref="A1:G3"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
-      <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
       <selection pane="bottomRight" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="44.3333333333333" customWidth="1"/>
-    <col min="3" max="3" width="67.1083333333333" customWidth="1"/>
-    <col min="8" max="8" width="18.6666666666667" customWidth="1"/>
+    <col min="1" max="1" width="44.28515625" customWidth="1"/>
+    <col min="3" max="3" width="67.140625" customWidth="1"/>
+    <col min="8" max="8" width="18.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15" customHeight="1" spans="1:8">
+    <row r="1" spans="1:8" ht="15" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>475</v>
       </c>
@@ -5063,7 +4409,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
         <v>470</v>
       </c>
@@ -5074,7 +4420,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
         <v>473</v>
       </c>
@@ -5088,28 +4434,24 @@
         <v>0.05</v>
       </c>
       <c r="E3">
-        <v>0.075</v>
+        <v>7.4999999999999997E-2</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:G3">
-    <extLst/>
-  </autoFilter>
+  <autoFilter ref="A1:G3"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" s="4" t="s">
@@ -5139,29 +4481,26 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
-      <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
       <selection pane="bottomRight" activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="7" max="7" width="18.6666666666667" customWidth="1"/>
+    <col min="7" max="7" width="18.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15" customHeight="1" spans="1:7">
+    <row r="1" spans="1:7" ht="15" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -5184,7 +4523,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" ht="15" customHeight="1" spans="1:6">
+    <row r="2" spans="1:7" ht="15" customHeight="1">
       <c r="A2" s="1" t="s">
         <v>484</v>
       </c>
@@ -5198,7 +4537,7 @@
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
     </row>
-    <row r="3" ht="15" customHeight="1" spans="1:6">
+    <row r="3" spans="1:7" ht="15" customHeight="1">
       <c r="A3" s="1" t="s">
         <v>486</v>
       </c>
@@ -5212,7 +4551,7 @@
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
     </row>
-    <row r="4" ht="15" customHeight="1" spans="1:6">
+    <row r="4" spans="1:7" ht="15" customHeight="1">
       <c r="A4" s="1" t="s">
         <v>488</v>
       </c>
@@ -5226,13 +4565,13 @@
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
     </row>
-    <row r="5" ht="15" customHeight="1" spans="1:6">
+    <row r="5" spans="1:7" ht="15" customHeight="1">
       <c r="A5" s="1" t="s">
         <v>490</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" s="2">
-        <v>1e-15</v>
+        <v>1.0000000000000001E-15</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>491</v>
@@ -5241,33 +4580,28 @@
       <c r="F5" s="2"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:F5">
-    <extLst/>
-  </autoFilter>
+  <autoFilter ref="A1:F5"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:H13"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
-      <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="H1" sqref="H1"/>
+      <selection pane="bottomRight" activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="8" max="8" width="18.6666666666667" customWidth="1"/>
+    <col min="7" max="7" width="18.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15" customHeight="1" spans="1:8">
+    <row r="1" spans="1:7" ht="15" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -5275,285 +4609,260 @@
         <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>516</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="15" customHeight="1">
+      <c r="A2" s="1" t="s">
         <v>492</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>369</v>
-      </c>
-      <c r="E1" s="1" t="s">
+      <c r="B2" s="2" t="s">
         <v>493</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="2" ht="15" customHeight="1" spans="1:7">
-      <c r="A2" s="1" t="s">
-        <v>494</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>495</v>
-      </c>
       <c r="C2" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D2" s="2" t="s">
         <v>423</v>
+      </c>
+      <c r="D2" s="2">
+        <v>1</v>
       </c>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-    </row>
-    <row r="3" ht="15" customHeight="1" spans="1:7">
+    </row>
+    <row r="3" spans="1:7" ht="15" customHeight="1">
       <c r="A3" s="1" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D3" s="2" t="s">
         <v>429</v>
+      </c>
+      <c r="D3" s="2">
+        <v>1</v>
       </c>
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-    </row>
-    <row r="4" ht="15" customHeight="1" spans="1:7">
+    </row>
+    <row r="4" spans="1:7" ht="15" customHeight="1">
       <c r="A4" s="1" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D4" s="2" t="s">
         <v>409</v>
+      </c>
+      <c r="D4" s="2">
+        <v>1</v>
       </c>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-    </row>
-    <row r="5" ht="15" customHeight="1" spans="1:7">
+    </row>
+    <row r="5" spans="1:7" ht="15" customHeight="1">
       <c r="A5" s="1" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>367</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D5" s="2" t="s">
         <v>432</v>
+      </c>
+      <c r="D5" s="2">
+        <v>1</v>
       </c>
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
-    </row>
-    <row r="6" ht="15" customHeight="1" spans="1:7">
+    </row>
+    <row r="6" spans="1:7" ht="15" customHeight="1">
       <c r="A6" s="1" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D6" s="2" t="s">
         <v>427</v>
+      </c>
+      <c r="D6" s="2">
+        <v>1</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-    </row>
-    <row r="7" ht="15" customHeight="1" spans="1:7">
+    </row>
+    <row r="7" spans="1:7" ht="15" customHeight="1">
       <c r="A7" s="1" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D7" s="2" t="s">
         <v>411</v>
+      </c>
+      <c r="D7" s="2">
+        <v>1</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
-    </row>
-    <row r="8" ht="15" customHeight="1" spans="1:7">
+    </row>
+    <row r="8" spans="1:7" ht="15" customHeight="1">
       <c r="A8" s="1" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D8" s="2" t="s">
         <v>425</v>
+      </c>
+      <c r="D8" s="2">
+        <v>1</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
-    </row>
-    <row r="9" ht="15" customHeight="1" spans="1:7">
+    </row>
+    <row r="9" spans="1:7" ht="15" customHeight="1">
       <c r="A9" s="1" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D9" s="2" t="s">
         <v>408</v>
+      </c>
+      <c r="D9" s="2">
+        <v>1</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
-    </row>
-    <row r="10" ht="15" customHeight="1" spans="1:7">
+    </row>
+    <row r="10" spans="1:7" ht="15" customHeight="1">
       <c r="A10" s="1" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D10" s="2" t="s">
         <v>458</v>
+      </c>
+      <c r="D10" s="2">
+        <v>1</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
-    </row>
-    <row r="11" ht="15" customHeight="1" spans="1:7">
+    </row>
+    <row r="11" spans="1:7" ht="15" customHeight="1">
       <c r="A11" s="1" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D11" s="2" t="s">
         <v>453</v>
+      </c>
+      <c r="D11" s="2">
+        <v>1</v>
       </c>
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
-      <c r="G11" s="2"/>
-    </row>
-    <row r="12" ht="15" customHeight="1" spans="1:7">
+    </row>
+    <row r="12" spans="1:7" ht="15" customHeight="1">
       <c r="A12" s="1" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D12" s="2" t="s">
         <v>449</v>
+      </c>
+      <c r="D12" s="2">
+        <v>1</v>
       </c>
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
-      <c r="G12" s="2"/>
-    </row>
-    <row r="13" ht="15" customHeight="1" spans="1:7">
+    </row>
+    <row r="13" spans="1:7" ht="15" customHeight="1">
       <c r="A13" s="1" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D13" s="2" t="s">
         <v>436</v>
+      </c>
+      <c r="D13" s="2">
+        <v>1</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
-      <c r="G13" s="2"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:G13">
-    <extLst/>
-  </autoFilter>
+  <autoFilter ref="A1:F13"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
-      <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+      <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" ht="15" customHeight="1" spans="1:2">
+    <row r="1" spans="1:2" ht="15" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:B1">
-    <extLst/>
-  </autoFilter>
+  <autoFilter ref="A1:B1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
-      <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+      <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" ht="15" customHeight="1" spans="1:2">
+    <row r="1" spans="1:2" ht="15" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -5561,52 +4870,47 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" ht="15" customHeight="1" spans="1:2">
+    <row r="2" spans="1:2" ht="15" customHeight="1">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="2"/>
     </row>
-    <row r="3" ht="15" customHeight="1" spans="1:2">
+    <row r="3" spans="1:2" ht="15" customHeight="1">
       <c r="A3" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B3" s="2"/>
     </row>
-    <row r="4" ht="15" customHeight="1" spans="1:2">
+    <row r="4" spans="1:2" ht="15" customHeight="1">
       <c r="A4" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B4" s="2"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:B4">
-    <extLst/>
-  </autoFilter>
+  <autoFilter ref="A1:B4"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
-      <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
       <selection pane="bottomRight" activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="6" max="6" width="18.6666666666667" customWidth="1"/>
+    <col min="6" max="6" width="18.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15" customHeight="1" spans="1:6">
+    <row r="1" spans="1:6" ht="15" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -5626,7 +4930,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" ht="15" customHeight="1" spans="1:5">
+    <row r="2" spans="1:6" ht="15" customHeight="1">
       <c r="A2" s="1" t="s">
         <v>17</v>
       </c>
@@ -5637,7 +4941,7 @@
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
     </row>
-    <row r="3" ht="15" customHeight="1" spans="1:5">
+    <row r="3" spans="1:6" ht="15" customHeight="1">
       <c r="A3" s="1" t="s">
         <v>19</v>
       </c>
@@ -5649,34 +4953,29 @@
       <c r="E3" s="2"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:E3">
-    <extLst/>
-  </autoFilter>
+  <autoFilter ref="A1:E3"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="1" orientation="portrait"/>
-  <headerFooter/>
+  <pageSetup orientation="portrait"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
-      <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
       <selection pane="bottomRight" activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="7" max="7" width="18.6666666666667" customWidth="1"/>
+    <col min="7" max="7" width="18.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15" customHeight="1" spans="1:7">
+    <row r="1" spans="1:7" ht="15" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -5699,7 +4998,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" ht="15" customHeight="1" spans="1:6">
+    <row r="2" spans="1:7" ht="15" customHeight="1">
       <c r="A2" s="1" t="s">
         <v>23</v>
       </c>
@@ -5713,7 +5012,7 @@
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
     </row>
-    <row r="3" ht="15" customHeight="1" spans="1:6">
+    <row r="3" spans="1:7" ht="15" customHeight="1">
       <c r="A3" s="1" t="s">
         <v>26</v>
       </c>
@@ -5727,7 +5026,7 @@
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
     </row>
-    <row r="4" ht="15" customHeight="1" spans="1:6">
+    <row r="4" spans="1:7" ht="15" customHeight="1">
       <c r="A4" s="1" t="s">
         <v>29</v>
       </c>
@@ -5741,7 +5040,7 @@
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
     </row>
-    <row r="5" ht="15" customHeight="1" spans="1:6">
+    <row r="5" spans="1:7" ht="15" customHeight="1">
       <c r="A5" s="1" t="s">
         <v>32</v>
       </c>
@@ -5755,7 +5054,7 @@
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
     </row>
-    <row r="6" ht="15" customHeight="1" spans="1:6">
+    <row r="6" spans="1:7" ht="15" customHeight="1">
       <c r="A6" s="1" t="s">
         <v>35</v>
       </c>
@@ -5769,7 +5068,7 @@
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
     </row>
-    <row r="7" ht="15" customHeight="1" spans="1:6">
+    <row r="7" spans="1:7" ht="15" customHeight="1">
       <c r="A7" s="1" t="s">
         <v>38</v>
       </c>
@@ -5783,7 +5082,7 @@
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
     </row>
-    <row r="8" ht="15" customHeight="1" spans="1:6">
+    <row r="8" spans="1:7" ht="15" customHeight="1">
       <c r="A8" s="1" t="s">
         <v>41</v>
       </c>
@@ -5797,7 +5096,7 @@
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
     </row>
-    <row r="9" ht="15" customHeight="1" spans="1:6">
+    <row r="9" spans="1:7" ht="15" customHeight="1">
       <c r="A9" s="1" t="s">
         <v>44</v>
       </c>
@@ -5811,7 +5110,7 @@
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
     </row>
-    <row r="10" ht="15" customHeight="1" spans="1:6">
+    <row r="10" spans="1:7" ht="15" customHeight="1">
       <c r="A10" s="1" t="s">
         <v>47</v>
       </c>
@@ -5825,7 +5124,7 @@
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
     </row>
-    <row r="11" ht="15" customHeight="1" spans="1:6">
+    <row r="11" spans="1:7" ht="15" customHeight="1">
       <c r="A11" s="1" t="s">
         <v>49</v>
       </c>
@@ -5839,7 +5138,7 @@
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
     </row>
-    <row r="12" ht="15" customHeight="1" spans="1:6">
+    <row r="12" spans="1:7" ht="15" customHeight="1">
       <c r="A12" s="1" t="s">
         <v>52</v>
       </c>
@@ -5853,7 +5152,7 @@
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
     </row>
-    <row r="13" ht="15" customHeight="1" spans="1:6">
+    <row r="13" spans="1:7" ht="15" customHeight="1">
       <c r="A13" s="1" t="s">
         <v>55</v>
       </c>
@@ -5867,7 +5166,7 @@
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
     </row>
-    <row r="14" ht="15" customHeight="1" spans="1:6">
+    <row r="14" spans="1:7" ht="15" customHeight="1">
       <c r="A14" s="1" t="s">
         <v>58</v>
       </c>
@@ -5881,7 +5180,7 @@
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
     </row>
-    <row r="15" ht="15" customHeight="1" spans="1:6">
+    <row r="15" spans="1:7" ht="15" customHeight="1">
       <c r="A15" s="1" t="s">
         <v>61</v>
       </c>
@@ -5895,7 +5194,7 @@
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
     </row>
-    <row r="16" ht="15" customHeight="1" spans="1:6">
+    <row r="16" spans="1:7" ht="15" customHeight="1">
       <c r="A16" s="1" t="s">
         <v>64</v>
       </c>
@@ -5909,7 +5208,7 @@
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
     </row>
-    <row r="17" ht="15" customHeight="1" spans="1:6">
+    <row r="17" spans="1:6" ht="15" customHeight="1">
       <c r="A17" s="1" t="s">
         <v>67</v>
       </c>
@@ -5923,7 +5222,7 @@
       <c r="E17" s="2"/>
       <c r="F17" s="2"/>
     </row>
-    <row r="18" ht="15" customHeight="1" spans="1:6">
+    <row r="18" spans="1:6" ht="15" customHeight="1">
       <c r="A18" s="1" t="s">
         <v>69</v>
       </c>
@@ -5937,7 +5236,7 @@
       <c r="E18" s="2"/>
       <c r="F18" s="2"/>
     </row>
-    <row r="19" ht="15" customHeight="1" spans="1:6">
+    <row r="19" spans="1:6" ht="15" customHeight="1">
       <c r="A19" s="1" t="s">
         <v>72</v>
       </c>
@@ -5951,7 +5250,7 @@
       <c r="E19" s="2"/>
       <c r="F19" s="2"/>
     </row>
-    <row r="20" ht="15" customHeight="1" spans="1:6">
+    <row r="20" spans="1:6" ht="15" customHeight="1">
       <c r="A20" s="1" t="s">
         <v>75</v>
       </c>
@@ -5965,7 +5264,7 @@
       <c r="E20" s="2"/>
       <c r="F20" s="2"/>
     </row>
-    <row r="21" ht="15" customHeight="1" spans="1:6">
+    <row r="21" spans="1:6" ht="15" customHeight="1">
       <c r="A21" s="1" t="s">
         <v>78</v>
       </c>
@@ -5979,7 +5278,7 @@
       <c r="E21" s="2"/>
       <c r="F21" s="2"/>
     </row>
-    <row r="22" ht="15" customHeight="1" spans="1:6">
+    <row r="22" spans="1:6" ht="15" customHeight="1">
       <c r="A22" s="1" t="s">
         <v>81</v>
       </c>
@@ -5993,7 +5292,7 @@
       <c r="E22" s="2"/>
       <c r="F22" s="2"/>
     </row>
-    <row r="23" ht="15" customHeight="1" spans="1:6">
+    <row r="23" spans="1:6" ht="15" customHeight="1">
       <c r="A23" s="1" t="s">
         <v>84</v>
       </c>
@@ -6007,7 +5306,7 @@
       <c r="E23" s="2"/>
       <c r="F23" s="2"/>
     </row>
-    <row r="24" ht="15" customHeight="1" spans="1:6">
+    <row r="24" spans="1:6" ht="15" customHeight="1">
       <c r="A24" s="1" t="s">
         <v>87</v>
       </c>
@@ -6021,7 +5320,7 @@
       <c r="E24" s="2"/>
       <c r="F24" s="2"/>
     </row>
-    <row r="25" ht="15" customHeight="1" spans="1:6">
+    <row r="25" spans="1:6" ht="15" customHeight="1">
       <c r="A25" s="1" t="s">
         <v>90</v>
       </c>
@@ -6035,7 +5334,7 @@
       <c r="E25" s="2"/>
       <c r="F25" s="2"/>
     </row>
-    <row r="26" ht="15" customHeight="1" spans="1:6">
+    <row r="26" spans="1:6" ht="15" customHeight="1">
       <c r="A26" s="1" t="s">
         <v>93</v>
       </c>
@@ -6049,7 +5348,7 @@
       <c r="E26" s="2"/>
       <c r="F26" s="2"/>
     </row>
-    <row r="27" ht="15" customHeight="1" spans="1:6">
+    <row r="27" spans="1:6" ht="15" customHeight="1">
       <c r="A27" s="1" t="s">
         <v>96</v>
       </c>
@@ -6063,7 +5362,7 @@
       <c r="E27" s="2"/>
       <c r="F27" s="2"/>
     </row>
-    <row r="28" ht="15" customHeight="1" spans="1:6">
+    <row r="28" spans="1:6" ht="15" customHeight="1">
       <c r="A28" s="1" t="s">
         <v>99</v>
       </c>
@@ -6077,7 +5376,7 @@
       <c r="E28" s="2"/>
       <c r="F28" s="2"/>
     </row>
-    <row r="29" ht="15" customHeight="1" spans="1:6">
+    <row r="29" spans="1:6" ht="15" customHeight="1">
       <c r="A29" s="1" t="s">
         <v>102</v>
       </c>
@@ -6091,7 +5390,7 @@
       <c r="E29" s="2"/>
       <c r="F29" s="2"/>
     </row>
-    <row r="30" ht="15" customHeight="1" spans="1:6">
+    <row r="30" spans="1:6" ht="15" customHeight="1">
       <c r="A30" s="1" t="s">
         <v>105</v>
       </c>
@@ -6105,7 +5404,7 @@
       <c r="E30" s="2"/>
       <c r="F30" s="2"/>
     </row>
-    <row r="31" ht="15" customHeight="1" spans="1:6">
+    <row r="31" spans="1:6" ht="15" customHeight="1">
       <c r="A31" s="1" t="s">
         <v>108</v>
       </c>
@@ -6119,7 +5418,7 @@
       <c r="E31" s="2"/>
       <c r="F31" s="2"/>
     </row>
-    <row r="32" ht="15" customHeight="1" spans="1:6">
+    <row r="32" spans="1:6" ht="15" customHeight="1">
       <c r="A32" s="1" t="s">
         <v>111</v>
       </c>
@@ -6133,7 +5432,7 @@
       <c r="E32" s="2"/>
       <c r="F32" s="2"/>
     </row>
-    <row r="33" ht="15" customHeight="1" spans="1:6">
+    <row r="33" spans="1:6" ht="15" customHeight="1">
       <c r="A33" s="1" t="s">
         <v>114</v>
       </c>
@@ -6147,7 +5446,7 @@
       <c r="E33" s="2"/>
       <c r="F33" s="2"/>
     </row>
-    <row r="34" ht="15" customHeight="1" spans="1:6">
+    <row r="34" spans="1:6" ht="15" customHeight="1">
       <c r="A34" s="1" t="s">
         <v>117</v>
       </c>
@@ -6161,7 +5460,7 @@
       <c r="E34" s="2"/>
       <c r="F34" s="2"/>
     </row>
-    <row r="35" ht="15" customHeight="1" spans="1:6">
+    <row r="35" spans="1:6" ht="15" customHeight="1">
       <c r="A35" s="1" t="s">
         <v>119</v>
       </c>
@@ -6176,30 +5475,25 @@
       <c r="F35" s="2"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:F35">
-    <extLst/>
-  </autoFilter>
+  <autoFilter ref="A1:F35"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
-      <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
       <selection pane="bottomRight" activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" ht="15" customHeight="1" spans="1:10">
+    <row r="1" spans="1:10" ht="15" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -6231,7 +5525,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" ht="15" customHeight="1" spans="1:9">
+    <row r="2" spans="1:10" ht="15" customHeight="1">
       <c r="A2" s="1" t="s">
         <v>126</v>
       </c>
@@ -6253,30 +5547,25 @@
       <c r="I2" s="2"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:I2">
-    <extLst/>
-  </autoFilter>
+  <autoFilter ref="A1:I2"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
-      <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
       <selection pane="bottomRight" activeCell="K1" sqref="K1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" ht="15" customHeight="1" spans="1:11">
+    <row r="1" spans="1:11" ht="15" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -6312,30 +5601,25 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:J1">
-    <extLst/>
-  </autoFilter>
+  <autoFilter ref="A1:J1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
-      <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
       <selection pane="bottomRight" activeCell="K1" sqref="K1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" ht="15" customHeight="1" spans="1:11">
+    <row r="1" spans="1:11" ht="15" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -6370,7 +5654,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" ht="15" customHeight="1" spans="1:10">
+    <row r="2" spans="1:11" ht="15" customHeight="1">
       <c r="A2" s="1" t="s">
         <v>136</v>
       </c>
@@ -6396,7 +5680,7 @@
       <c r="I2" s="2"/>
       <c r="J2" s="2"/>
     </row>
-    <row r="3" ht="15" customHeight="1" spans="1:10">
+    <row r="3" spans="1:11" ht="15" customHeight="1">
       <c r="A3" s="1" t="s">
         <v>140</v>
       </c>
@@ -6422,7 +5706,7 @@
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
     </row>
-    <row r="4" ht="15" customHeight="1" spans="1:10">
+    <row r="4" spans="1:11" ht="15" customHeight="1">
       <c r="A4" s="1" t="s">
         <v>143</v>
       </c>
@@ -6448,7 +5732,7 @@
       <c r="I4" s="2"/>
       <c r="J4" s="2"/>
     </row>
-    <row r="5" ht="15" customHeight="1" spans="1:10">
+    <row r="5" spans="1:11" ht="15" customHeight="1">
       <c r="A5" s="1" t="s">
         <v>146</v>
       </c>
@@ -6474,7 +5758,7 @@
       <c r="I5" s="2"/>
       <c r="J5" s="2"/>
     </row>
-    <row r="6" ht="15" customHeight="1" spans="1:10">
+    <row r="6" spans="1:11" ht="15" customHeight="1">
       <c r="A6" s="1" t="s">
         <v>149</v>
       </c>
@@ -6500,7 +5784,7 @@
       <c r="I6" s="2"/>
       <c r="J6" s="2"/>
     </row>
-    <row r="7" ht="15" customHeight="1" spans="1:10">
+    <row r="7" spans="1:11" ht="15" customHeight="1">
       <c r="A7" s="1" t="s">
         <v>152</v>
       </c>
@@ -6526,7 +5810,7 @@
       <c r="I7" s="2"/>
       <c r="J7" s="2"/>
     </row>
-    <row r="8" ht="15" customHeight="1" spans="1:10">
+    <row r="8" spans="1:11" ht="15" customHeight="1">
       <c r="A8" s="1" t="s">
         <v>155</v>
       </c>
@@ -6552,7 +5836,7 @@
       <c r="I8" s="2"/>
       <c r="J8" s="2"/>
     </row>
-    <row r="9" ht="15" customHeight="1" spans="1:10">
+    <row r="9" spans="1:11" ht="15" customHeight="1">
       <c r="A9" s="1" t="s">
         <v>158</v>
       </c>
@@ -6578,7 +5862,7 @@
       <c r="I9" s="2"/>
       <c r="J9" s="2"/>
     </row>
-    <row r="10" ht="15" customHeight="1" spans="1:10">
+    <row r="10" spans="1:11" ht="15" customHeight="1">
       <c r="A10" s="1" t="s">
         <v>161</v>
       </c>
@@ -6604,7 +5888,7 @@
       <c r="I10" s="2"/>
       <c r="J10" s="2"/>
     </row>
-    <row r="11" ht="15" customHeight="1" spans="1:10">
+    <row r="11" spans="1:11" ht="15" customHeight="1">
       <c r="A11" s="1" t="s">
         <v>164</v>
       </c>
@@ -6630,7 +5914,7 @@
       <c r="I11" s="2"/>
       <c r="J11" s="2"/>
     </row>
-    <row r="12" ht="15" customHeight="1" spans="1:10">
+    <row r="12" spans="1:11" ht="15" customHeight="1">
       <c r="A12" s="1" t="s">
         <v>167</v>
       </c>
@@ -6656,7 +5940,7 @@
       <c r="I12" s="2"/>
       <c r="J12" s="2"/>
     </row>
-    <row r="13" ht="15" customHeight="1" spans="1:10">
+    <row r="13" spans="1:11" ht="15" customHeight="1">
       <c r="A13" s="1" t="s">
         <v>170</v>
       </c>
@@ -6682,7 +5966,7 @@
       <c r="I13" s="2"/>
       <c r="J13" s="2"/>
     </row>
-    <row r="14" ht="15" customHeight="1" spans="1:10">
+    <row r="14" spans="1:11" ht="15" customHeight="1">
       <c r="A14" s="1" t="s">
         <v>173</v>
       </c>
@@ -6708,7 +5992,7 @@
       <c r="I14" s="2"/>
       <c r="J14" s="2"/>
     </row>
-    <row r="15" ht="15" customHeight="1" spans="1:10">
+    <row r="15" spans="1:11" ht="15" customHeight="1">
       <c r="A15" s="1" t="s">
         <v>176</v>
       </c>
@@ -6734,7 +6018,7 @@
       <c r="I15" s="2"/>
       <c r="J15" s="2"/>
     </row>
-    <row r="16" ht="15" customHeight="1" spans="1:10">
+    <row r="16" spans="1:11" ht="15" customHeight="1">
       <c r="A16" s="1" t="s">
         <v>179</v>
       </c>
@@ -6760,7 +6044,7 @@
       <c r="I16" s="2"/>
       <c r="J16" s="2"/>
     </row>
-    <row r="17" ht="15" customHeight="1" spans="1:10">
+    <row r="17" spans="1:10" ht="15" customHeight="1">
       <c r="A17" s="1" t="s">
         <v>182</v>
       </c>
@@ -6786,7 +6070,7 @@
       <c r="I17" s="2"/>
       <c r="J17" s="2"/>
     </row>
-    <row r="18" ht="15" customHeight="1" spans="1:10">
+    <row r="18" spans="1:10" ht="15" customHeight="1">
       <c r="A18" s="1" t="s">
         <v>185</v>
       </c>
@@ -6812,7 +6096,7 @@
       <c r="I18" s="2"/>
       <c r="J18" s="2"/>
     </row>
-    <row r="19" ht="15" customHeight="1" spans="1:10">
+    <row r="19" spans="1:10" ht="15" customHeight="1">
       <c r="A19" s="1" t="s">
         <v>188</v>
       </c>
@@ -6838,7 +6122,7 @@
       <c r="I19" s="2"/>
       <c r="J19" s="2"/>
     </row>
-    <row r="20" ht="15" customHeight="1" spans="1:10">
+    <row r="20" spans="1:10" ht="15" customHeight="1">
       <c r="A20" s="1" t="s">
         <v>191</v>
       </c>
@@ -6864,7 +6148,7 @@
       <c r="I20" s="2"/>
       <c r="J20" s="2"/>
     </row>
-    <row r="21" ht="15" customHeight="1" spans="1:10">
+    <row r="21" spans="1:10" ht="15" customHeight="1">
       <c r="A21" s="1" t="s">
         <v>194</v>
       </c>
@@ -6890,7 +6174,7 @@
       <c r="I21" s="2"/>
       <c r="J21" s="2"/>
     </row>
-    <row r="22" ht="15" customHeight="1" spans="1:10">
+    <row r="22" spans="1:10" ht="15" customHeight="1">
       <c r="A22" s="1" t="s">
         <v>197</v>
       </c>
@@ -6916,7 +6200,7 @@
       <c r="I22" s="2"/>
       <c r="J22" s="2"/>
     </row>
-    <row r="23" ht="15" customHeight="1" spans="1:10">
+    <row r="23" spans="1:10" ht="15" customHeight="1">
       <c r="A23" s="1" t="s">
         <v>200</v>
       </c>
@@ -6942,7 +6226,7 @@
       <c r="I23" s="2"/>
       <c r="J23" s="2"/>
     </row>
-    <row r="24" ht="15" customHeight="1" spans="1:10">
+    <row r="24" spans="1:10" ht="15" customHeight="1">
       <c r="A24" s="1" t="s">
         <v>203</v>
       </c>
@@ -6968,7 +6252,7 @@
       <c r="I24" s="2"/>
       <c r="J24" s="2"/>
     </row>
-    <row r="25" ht="15" customHeight="1" spans="1:10">
+    <row r="25" spans="1:10" ht="15" customHeight="1">
       <c r="A25" s="1" t="s">
         <v>206</v>
       </c>
@@ -6994,7 +6278,7 @@
       <c r="I25" s="2"/>
       <c r="J25" s="2"/>
     </row>
-    <row r="26" ht="15" customHeight="1" spans="1:10">
+    <row r="26" spans="1:10" ht="15" customHeight="1">
       <c r="A26" s="1" t="s">
         <v>209</v>
       </c>
@@ -7020,7 +6304,7 @@
       <c r="I26" s="2"/>
       <c r="J26" s="2"/>
     </row>
-    <row r="27" ht="15" customHeight="1" spans="1:10">
+    <row r="27" spans="1:10" ht="15" customHeight="1">
       <c r="A27" s="1" t="s">
         <v>212</v>
       </c>
@@ -7046,7 +6330,7 @@
       <c r="I27" s="2"/>
       <c r="J27" s="2"/>
     </row>
-    <row r="28" ht="15" customHeight="1" spans="1:10">
+    <row r="28" spans="1:10" ht="15" customHeight="1">
       <c r="A28" s="1" t="s">
         <v>215</v>
       </c>
@@ -7073,33 +6357,28 @@
       <c r="J28" s="2"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:J28">
-    <extLst/>
-  </autoFilter>
+  <autoFilter ref="A1:J28"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
-      <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
       <selection pane="bottomRight" activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="33.6666666666667" customWidth="1"/>
+    <col min="1" max="1" width="33.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15" customHeight="1" spans="1:10">
+    <row r="1" spans="1:10" ht="15" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -7131,7 +6410,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" ht="15" customHeight="1" spans="1:9">
+    <row r="2" spans="1:10" ht="15" customHeight="1">
       <c r="A2" s="1" t="s">
         <v>220</v>
       </c>
@@ -7156,7 +6435,7 @@
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
     </row>
-    <row r="3" ht="15" customHeight="1" spans="1:9">
+    <row r="3" spans="1:10" ht="15" customHeight="1">
       <c r="A3" s="1" t="s">
         <v>223</v>
       </c>
@@ -7176,12 +6455,12 @@
         <v>0</v>
       </c>
       <c r="G3" s="2">
-        <v>97.6173636751193</v>
+        <v>97.617363675119293</v>
       </c>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
     </row>
-    <row r="4" ht="15" customHeight="1" spans="1:9">
+    <row r="4" spans="1:10" ht="15" customHeight="1">
       <c r="A4" s="1" t="s">
         <v>225</v>
       </c>
@@ -7201,12 +6480,12 @@
         <v>0</v>
       </c>
       <c r="G4" s="2">
-        <v>88.8758363797053</v>
+        <v>88.875836379705305</v>
       </c>
       <c r="H4" s="2"/>
       <c r="I4" s="2"/>
     </row>
-    <row r="5" ht="15" customHeight="1" spans="1:9">
+    <row r="5" spans="1:10" ht="15" customHeight="1">
       <c r="A5" s="1" t="s">
         <v>227</v>
       </c>
@@ -7226,12 +6505,12 @@
         <v>0</v>
       </c>
       <c r="G5" s="2">
-        <v>99.1733418135472</v>
+        <v>99.173341813547196</v>
       </c>
       <c r="H5" s="2"/>
       <c r="I5" s="2"/>
     </row>
-    <row r="6" ht="15" customHeight="1" spans="1:9">
+    <row r="6" spans="1:10" ht="15" customHeight="1">
       <c r="A6" s="1" t="s">
         <v>230</v>
       </c>
@@ -7251,12 +6530,12 @@
         <v>0</v>
       </c>
       <c r="G6" s="2">
-        <v>87.1968417651673</v>
+        <v>87.196841765167306</v>
       </c>
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
     </row>
-    <row r="7" ht="15" customHeight="1" spans="1:9">
+    <row r="7" spans="1:10" ht="15" customHeight="1">
       <c r="A7" s="1" t="s">
         <v>232</v>
       </c>
@@ -7276,12 +6555,12 @@
         <v>0</v>
       </c>
       <c r="G7" s="2">
-        <v>87.6965145675301</v>
+        <v>87.696514567530102</v>
       </c>
       <c r="H7" s="2"/>
       <c r="I7" s="2"/>
     </row>
-    <row r="8" ht="15" customHeight="1" spans="1:9">
+    <row r="8" spans="1:10" ht="15" customHeight="1">
       <c r="A8" s="1" t="s">
         <v>234</v>
       </c>
@@ -7301,12 +6580,12 @@
         <v>0</v>
       </c>
       <c r="G8" s="2">
-        <v>90.4135108367332</v>
+        <v>90.413510836733195</v>
       </c>
       <c r="H8" s="2"/>
       <c r="I8" s="2"/>
     </row>
-    <row r="9" ht="15" customHeight="1" spans="1:9">
+    <row r="9" spans="1:10" ht="15" customHeight="1">
       <c r="A9" s="1" t="s">
         <v>236</v>
       </c>
@@ -7331,7 +6610,7 @@
       <c r="H9" s="2"/>
       <c r="I9" s="2"/>
     </row>
-    <row r="10" ht="15" customHeight="1" spans="1:9">
+    <row r="10" spans="1:10" ht="15" customHeight="1">
       <c r="A10" s="1" t="s">
         <v>238</v>
       </c>
@@ -7351,12 +6630,12 @@
         <v>0</v>
       </c>
       <c r="G10" s="2">
-        <v>111.955325883845</v>
+        <v>111.95532588384501</v>
       </c>
       <c r="H10" s="2"/>
       <c r="I10" s="2"/>
     </row>
-    <row r="11" ht="15" customHeight="1" spans="1:9">
+    <row r="11" spans="1:10" ht="15" customHeight="1">
       <c r="A11" s="1" t="s">
         <v>240</v>
       </c>
@@ -7379,7 +6658,7 @@
       <c r="H11" s="2"/>
       <c r="I11" s="2"/>
     </row>
-    <row r="12" ht="15" customHeight="1" spans="1:9">
+    <row r="12" spans="1:10" ht="15" customHeight="1">
       <c r="A12" s="1" t="s">
         <v>242</v>
       </c>
@@ -7404,7 +6683,7 @@
       <c r="H12" s="2"/>
       <c r="I12" s="2"/>
     </row>
-    <row r="13" ht="15" customHeight="1" spans="1:9">
+    <row r="13" spans="1:10" ht="15" customHeight="1">
       <c r="A13" s="1" t="s">
         <v>244</v>
       </c>
@@ -7424,12 +6703,12 @@
         <v>0</v>
       </c>
       <c r="G13" s="2">
-        <v>95.4554810413432</v>
+        <v>95.455481041343205</v>
       </c>
       <c r="H13" s="2"/>
       <c r="I13" s="2"/>
     </row>
-    <row r="14" ht="15" customHeight="1" spans="1:9">
+    <row r="14" spans="1:10" ht="15" customHeight="1">
       <c r="A14" s="1" t="s">
         <v>246</v>
       </c>
@@ -7454,7 +6733,7 @@
       <c r="H14" s="2"/>
       <c r="I14" s="2"/>
     </row>
-    <row r="15" ht="15" customHeight="1" spans="1:9">
+    <row r="15" spans="1:10" ht="15" customHeight="1">
       <c r="A15" s="1" t="s">
         <v>248</v>
       </c>
@@ -7474,12 +6753,12 @@
         <v>0</v>
       </c>
       <c r="G15" s="2">
-        <v>87.1896851927718</v>
+        <v>87.189685192771805</v>
       </c>
       <c r="H15" s="2"/>
       <c r="I15" s="2"/>
     </row>
-    <row r="16" ht="15" customHeight="1" spans="1:9">
+    <row r="16" spans="1:10" ht="15" customHeight="1">
       <c r="A16" s="1" t="s">
         <v>250</v>
       </c>
@@ -7499,12 +6778,12 @@
         <v>0</v>
       </c>
       <c r="G16" s="2">
-        <v>88.5590327673033</v>
+        <v>88.559032767303293</v>
       </c>
       <c r="H16" s="2"/>
       <c r="I16" s="2"/>
     </row>
-    <row r="17" ht="15" customHeight="1" spans="1:9">
+    <row r="17" spans="1:9" ht="15" customHeight="1">
       <c r="A17" s="1" t="s">
         <v>252</v>
       </c>
@@ -7524,12 +6803,12 @@
         <v>0</v>
       </c>
       <c r="G17" s="2">
-        <v>95.2120699798529</v>
+        <v>95.212069979852899</v>
       </c>
       <c r="H17" s="2"/>
       <c r="I17" s="2"/>
     </row>
-    <row r="18" ht="15" customHeight="1" spans="1:9">
+    <row r="18" spans="1:9" ht="15" customHeight="1">
       <c r="A18" s="1" t="s">
         <v>254</v>
       </c>
@@ -7554,7 +6833,7 @@
       <c r="H18" s="2"/>
       <c r="I18" s="2"/>
     </row>
-    <row r="19" ht="15" customHeight="1" spans="1:9">
+    <row r="19" spans="1:9" ht="15" customHeight="1">
       <c r="A19" s="1" t="s">
         <v>256</v>
       </c>
@@ -7574,12 +6853,12 @@
         <v>0</v>
       </c>
       <c r="G19" s="2">
-        <v>91.8165271411026</v>
+        <v>91.816527141102597</v>
       </c>
       <c r="H19" s="2"/>
       <c r="I19" s="2"/>
     </row>
-    <row r="20" ht="15" customHeight="1" spans="1:9">
+    <row r="20" spans="1:9" ht="15" customHeight="1">
       <c r="A20" s="1" t="s">
         <v>258</v>
       </c>
@@ -7599,12 +6878,12 @@
         <v>0</v>
       </c>
       <c r="G20" s="2">
-        <v>101.536870009489</v>
+        <v>101.53687000948899</v>
       </c>
       <c r="H20" s="2"/>
       <c r="I20" s="2"/>
     </row>
-    <row r="21" ht="15" customHeight="1" spans="1:9">
+    <row r="21" spans="1:9" ht="15" customHeight="1">
       <c r="A21" s="1" t="s">
         <v>260</v>
       </c>
@@ -7624,12 +6903,12 @@
         <v>0</v>
       </c>
       <c r="G21" s="2">
-        <v>96.27832887727</v>
+        <v>96.278328877269999</v>
       </c>
       <c r="H21" s="2"/>
       <c r="I21" s="2"/>
     </row>
-    <row r="22" ht="15" customHeight="1" spans="1:9">
+    <row r="22" spans="1:9" ht="15" customHeight="1">
       <c r="A22" s="1" t="s">
         <v>262</v>
       </c>
@@ -7649,12 +6928,12 @@
         <v>0</v>
       </c>
       <c r="G22" s="2">
-        <v>99.9750137817431</v>
+        <v>99.975013781743101</v>
       </c>
       <c r="H22" s="2"/>
       <c r="I22" s="2"/>
     </row>
-    <row r="23" ht="15" customHeight="1" spans="1:9">
+    <row r="23" spans="1:9" ht="15" customHeight="1">
       <c r="A23" s="1" t="s">
         <v>264</v>
       </c>
@@ -7679,7 +6958,7 @@
       <c r="H23" s="2"/>
       <c r="I23" s="2"/>
     </row>
-    <row r="24" ht="15" customHeight="1" spans="1:9">
+    <row r="24" spans="1:9" ht="15" customHeight="1">
       <c r="A24" s="1" t="s">
         <v>266</v>
       </c>
@@ -7699,12 +6978,12 @@
         <v>0</v>
       </c>
       <c r="G24" s="2">
-        <v>101.990990138023</v>
+        <v>101.99099013802299</v>
       </c>
       <c r="H24" s="2"/>
       <c r="I24" s="2"/>
     </row>
-    <row r="25" ht="15" customHeight="1" spans="1:9">
+    <row r="25" spans="1:9" ht="15" customHeight="1">
       <c r="A25" s="1" t="s">
         <v>268</v>
       </c>
@@ -7724,12 +7003,12 @@
         <v>0</v>
       </c>
       <c r="G25" s="2">
-        <v>99.092334678967</v>
+        <v>99.092334678967006</v>
       </c>
       <c r="H25" s="2"/>
       <c r="I25" s="2"/>
     </row>
-    <row r="26" ht="15" customHeight="1" spans="1:9">
+    <row r="26" spans="1:9" ht="15" customHeight="1">
       <c r="A26" s="1" t="s">
         <v>270</v>
       </c>
@@ -7749,12 +7028,12 @@
         <v>0</v>
       </c>
       <c r="G26" s="2">
-        <v>93.134445499371</v>
+        <v>93.134445499370997</v>
       </c>
       <c r="H26" s="2"/>
       <c r="I26" s="2"/>
     </row>
-    <row r="27" ht="15" customHeight="1" spans="1:9">
+    <row r="27" spans="1:9" ht="15" customHeight="1">
       <c r="A27" s="1" t="s">
         <v>272</v>
       </c>
@@ -7779,7 +7058,7 @@
       <c r="H27" s="2"/>
       <c r="I27" s="2"/>
     </row>
-    <row r="28" ht="15" customHeight="1" spans="1:9">
+    <row r="28" spans="1:9" ht="15" customHeight="1">
       <c r="A28" s="1" t="s">
         <v>274</v>
       </c>
@@ -7805,30 +7084,25 @@
       <c r="I28" s="2"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:I28">
-    <extLst/>
-  </autoFilter>
+  <autoFilter ref="A1:I28"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
-      <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
       <selection pane="bottomRight" activeCell="K1" sqref="K1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" ht="15" customHeight="1" spans="1:11">
+    <row r="1" spans="1:11" ht="15" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -7863,7 +7137,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" ht="15" customHeight="1" spans="1:10">
+    <row r="2" spans="1:11" ht="15" customHeight="1">
       <c r="A2" s="1" t="s">
         <v>139</v>
       </c>
@@ -7889,7 +7163,7 @@
       <c r="I2" s="2"/>
       <c r="J2" s="2"/>
     </row>
-    <row r="3" ht="15" customHeight="1" spans="1:10">
+    <row r="3" spans="1:11" ht="15" customHeight="1">
       <c r="A3" s="1" t="s">
         <v>278</v>
       </c>
@@ -7915,7 +7189,7 @@
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
     </row>
-    <row r="4" ht="15" customHeight="1" spans="1:10">
+    <row r="4" spans="1:11" ht="15" customHeight="1">
       <c r="A4" s="1" t="s">
         <v>280</v>
       </c>
@@ -7941,7 +7215,7 @@
       <c r="I4" s="2"/>
       <c r="J4" s="2"/>
     </row>
-    <row r="5" ht="15" customHeight="1" spans="1:10">
+    <row r="5" spans="1:11" ht="15" customHeight="1">
       <c r="A5" s="1" t="s">
         <v>282</v>
       </c>
@@ -7967,7 +7241,7 @@
       <c r="I5" s="2"/>
       <c r="J5" s="2"/>
     </row>
-    <row r="6" ht="15" customHeight="1" spans="1:10">
+    <row r="6" spans="1:11" ht="15" customHeight="1">
       <c r="A6" s="1" t="s">
         <v>284</v>
       </c>
@@ -7993,7 +7267,7 @@
       <c r="I6" s="2"/>
       <c r="J6" s="2"/>
     </row>
-    <row r="7" ht="15" customHeight="1" spans="1:10">
+    <row r="7" spans="1:11" ht="15" customHeight="1">
       <c r="A7" s="1" t="s">
         <v>286</v>
       </c>
@@ -8019,7 +7293,7 @@
       <c r="I7" s="2"/>
       <c r="J7" s="2"/>
     </row>
-    <row r="8" ht="15" customHeight="1" spans="1:10">
+    <row r="8" spans="1:11" ht="15" customHeight="1">
       <c r="A8" s="1" t="s">
         <v>148</v>
       </c>
@@ -8045,7 +7319,7 @@
       <c r="I8" s="2"/>
       <c r="J8" s="2"/>
     </row>
-    <row r="9" ht="15" customHeight="1" spans="1:10">
+    <row r="9" spans="1:11" ht="15" customHeight="1">
       <c r="A9" s="1" t="s">
         <v>151</v>
       </c>
@@ -8071,7 +7345,7 @@
       <c r="I9" s="2"/>
       <c r="J9" s="2"/>
     </row>
-    <row r="10" ht="15" customHeight="1" spans="1:10">
+    <row r="10" spans="1:11" ht="15" customHeight="1">
       <c r="A10" s="1" t="s">
         <v>154</v>
       </c>
@@ -8097,7 +7371,7 @@
       <c r="I10" s="2"/>
       <c r="J10" s="2"/>
     </row>
-    <row r="11" ht="15" customHeight="1" spans="1:10">
+    <row r="11" spans="1:11" ht="15" customHeight="1">
       <c r="A11" s="1" t="s">
         <v>157</v>
       </c>
@@ -8123,7 +7397,7 @@
       <c r="I11" s="2"/>
       <c r="J11" s="2"/>
     </row>
-    <row r="12" ht="15" customHeight="1" spans="1:10">
+    <row r="12" spans="1:11" ht="15" customHeight="1">
       <c r="A12" s="1" t="s">
         <v>160</v>
       </c>
@@ -8149,7 +7423,7 @@
       <c r="I12" s="2"/>
       <c r="J12" s="2"/>
     </row>
-    <row r="13" ht="15" customHeight="1" spans="1:10">
+    <row r="13" spans="1:11" ht="15" customHeight="1">
       <c r="A13" s="1" t="s">
         <v>163</v>
       </c>
@@ -8175,7 +7449,7 @@
       <c r="I13" s="2"/>
       <c r="J13" s="2"/>
     </row>
-    <row r="14" ht="15" customHeight="1" spans="1:10">
+    <row r="14" spans="1:11" ht="15" customHeight="1">
       <c r="A14" s="1" t="s">
         <v>294</v>
       </c>
@@ -8201,7 +7475,7 @@
       <c r="I14" s="2"/>
       <c r="J14" s="2"/>
     </row>
-    <row r="15" ht="15" customHeight="1" spans="1:10">
+    <row r="15" spans="1:11" ht="15" customHeight="1">
       <c r="A15" s="1" t="s">
         <v>296</v>
       </c>
@@ -8227,7 +7501,7 @@
       <c r="I15" s="2"/>
       <c r="J15" s="2"/>
     </row>
-    <row r="16" ht="15" customHeight="1" spans="1:10">
+    <row r="16" spans="1:11" ht="15" customHeight="1">
       <c r="A16" s="1" t="s">
         <v>298</v>
       </c>
@@ -8253,7 +7527,7 @@
       <c r="I16" s="2"/>
       <c r="J16" s="2"/>
     </row>
-    <row r="17" ht="15" customHeight="1" spans="1:10">
+    <row r="17" spans="1:10" ht="15" customHeight="1">
       <c r="A17" s="1" t="s">
         <v>169</v>
       </c>
@@ -8279,7 +7553,7 @@
       <c r="I17" s="2"/>
       <c r="J17" s="2"/>
     </row>
-    <row r="18" ht="15" customHeight="1" spans="1:10">
+    <row r="18" spans="1:10" ht="15" customHeight="1">
       <c r="A18" s="1" t="s">
         <v>172</v>
       </c>
@@ -8305,7 +7579,7 @@
       <c r="I18" s="2"/>
       <c r="J18" s="2"/>
     </row>
-    <row r="19" ht="15" customHeight="1" spans="1:10">
+    <row r="19" spans="1:10" ht="15" customHeight="1">
       <c r="A19" s="1" t="s">
         <v>302</v>
       </c>
@@ -8331,7 +7605,7 @@
       <c r="I19" s="2"/>
       <c r="J19" s="2"/>
     </row>
-    <row r="20" ht="15" customHeight="1" spans="1:10">
+    <row r="20" spans="1:10" ht="15" customHeight="1">
       <c r="A20" s="1" t="s">
         <v>304</v>
       </c>
@@ -8357,7 +7631,7 @@
       <c r="I20" s="2"/>
       <c r="J20" s="2"/>
     </row>
-    <row r="21" ht="15" customHeight="1" spans="1:10">
+    <row r="21" spans="1:10" ht="15" customHeight="1">
       <c r="A21" s="1" t="s">
         <v>306</v>
       </c>
@@ -8383,7 +7657,7 @@
       <c r="I21" s="2"/>
       <c r="J21" s="2"/>
     </row>
-    <row r="22" ht="15" customHeight="1" spans="1:10">
+    <row r="22" spans="1:10" ht="15" customHeight="1">
       <c r="A22" s="1" t="s">
         <v>178</v>
       </c>
@@ -8409,7 +7683,7 @@
       <c r="I22" s="2"/>
       <c r="J22" s="2"/>
     </row>
-    <row r="23" ht="15" customHeight="1" spans="1:10">
+    <row r="23" spans="1:10" ht="15" customHeight="1">
       <c r="A23" s="1" t="s">
         <v>181</v>
       </c>
@@ -8435,7 +7709,7 @@
       <c r="I23" s="2"/>
       <c r="J23" s="2"/>
     </row>
-    <row r="24" ht="15" customHeight="1" spans="1:10">
+    <row r="24" spans="1:10" ht="15" customHeight="1">
       <c r="A24" s="1" t="s">
         <v>184</v>
       </c>
@@ -8461,7 +7735,7 @@
       <c r="I24" s="2"/>
       <c r="J24" s="2"/>
     </row>
-    <row r="25" ht="15" customHeight="1" spans="1:10">
+    <row r="25" spans="1:10" ht="15" customHeight="1">
       <c r="A25" s="1" t="s">
         <v>187</v>
       </c>
@@ -8487,7 +7761,7 @@
       <c r="I25" s="2"/>
       <c r="J25" s="2"/>
     </row>
-    <row r="26" ht="15" customHeight="1" spans="1:10">
+    <row r="26" spans="1:10" ht="15" customHeight="1">
       <c r="A26" s="1" t="s">
         <v>190</v>
       </c>
@@ -8513,7 +7787,7 @@
       <c r="I26" s="2"/>
       <c r="J26" s="2"/>
     </row>
-    <row r="27" ht="15" customHeight="1" spans="1:10">
+    <row r="27" spans="1:10" ht="15" customHeight="1">
       <c r="A27" s="1" t="s">
         <v>193</v>
       </c>
@@ -8539,7 +7813,7 @@
       <c r="I27" s="2"/>
       <c r="J27" s="2"/>
     </row>
-    <row r="28" ht="15" customHeight="1" spans="1:10">
+    <row r="28" spans="1:10" ht="15" customHeight="1">
       <c r="A28" s="1" t="s">
         <v>196</v>
       </c>
@@ -8565,7 +7839,7 @@
       <c r="I28" s="2"/>
       <c r="J28" s="2"/>
     </row>
-    <row r="29" ht="15" customHeight="1" spans="1:10">
+    <row r="29" spans="1:10" ht="15" customHeight="1">
       <c r="A29" s="1" t="s">
         <v>199</v>
       </c>
@@ -8591,7 +7865,7 @@
       <c r="I29" s="2"/>
       <c r="J29" s="2"/>
     </row>
-    <row r="30" ht="15" customHeight="1" spans="1:10">
+    <row r="30" spans="1:10" ht="15" customHeight="1">
       <c r="A30" s="1" t="s">
         <v>202</v>
       </c>
@@ -8617,7 +7891,7 @@
       <c r="I30" s="2"/>
       <c r="J30" s="2"/>
     </row>
-    <row r="31" ht="15" customHeight="1" spans="1:10">
+    <row r="31" spans="1:10" ht="15" customHeight="1">
       <c r="A31" s="1" t="s">
         <v>205</v>
       </c>
@@ -8643,7 +7917,7 @@
       <c r="I31" s="2"/>
       <c r="J31" s="2"/>
     </row>
-    <row r="32" ht="15" customHeight="1" spans="1:10">
+    <row r="32" spans="1:10" ht="15" customHeight="1">
       <c r="A32" s="1" t="s">
         <v>208</v>
       </c>
@@ -8669,7 +7943,7 @@
       <c r="I32" s="2"/>
       <c r="J32" s="2"/>
     </row>
-    <row r="33" ht="15" customHeight="1" spans="1:10">
+    <row r="33" spans="1:10" ht="15" customHeight="1">
       <c r="A33" s="1" t="s">
         <v>211</v>
       </c>
@@ -8695,7 +7969,7 @@
       <c r="I33" s="2"/>
       <c r="J33" s="2"/>
     </row>
-    <row r="34" ht="15" customHeight="1" spans="1:10">
+    <row r="34" spans="1:10" ht="15" customHeight="1">
       <c r="A34" s="1" t="s">
         <v>214</v>
       </c>
@@ -8721,7 +7995,7 @@
       <c r="I34" s="2"/>
       <c r="J34" s="2"/>
     </row>
-    <row r="35" ht="15" customHeight="1" spans="1:10">
+    <row r="35" spans="1:10" ht="15" customHeight="1">
       <c r="A35" s="1" t="s">
         <v>321</v>
       </c>
@@ -8747,7 +8021,7 @@
       <c r="I35" s="2"/>
       <c r="J35" s="2"/>
     </row>
-    <row r="36" ht="15" customHeight="1" spans="1:10">
+    <row r="36" spans="1:10" ht="15" customHeight="1">
       <c r="A36" s="1" t="s">
         <v>323</v>
       </c>
@@ -8773,7 +8047,7 @@
       <c r="I36" s="2"/>
       <c r="J36" s="2"/>
     </row>
-    <row r="37" ht="15" customHeight="1" spans="1:10">
+    <row r="37" spans="1:10" ht="15" customHeight="1">
       <c r="A37" s="1" t="s">
         <v>325</v>
       </c>
@@ -8800,10 +8074,7 @@
       <c r="J37" s="2"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:J37">
-    <extLst/>
-  </autoFilter>
+  <autoFilter ref="A1:J37"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
--- a/tests/fixtures/test_broken_kb.xlsx
+++ b/tests/fixtures/test_broken_kb.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19800" windowHeight="6840" firstSheet="12" activeTab="16"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19800" windowHeight="6840" firstSheet="12" activeTab="13"/>
   </bookViews>
   <sheets>
     <sheet name="Knowledge base" sheetId="1" r:id="rId1"/>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1058" uniqueCount="517">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1062" uniqueCount="519">
   <si>
     <t>Id</t>
   </si>
@@ -1483,15 +1483,6 @@
     <t>Direction</t>
   </si>
   <si>
-    <t>Equation</t>
-  </si>
-  <si>
-    <t>K cat</t>
-  </si>
-  <si>
-    <t>K m</t>
-  </si>
-  <si>
     <t>forward</t>
   </si>
   <si>
@@ -1601,18 +1592,40 @@
   </si>
   <si>
     <t>Expression</t>
+  </si>
+  <si>
+    <t>k_cat</t>
+  </si>
+  <si>
+    <t>k_m</t>
+  </si>
+  <si>
+    <t>mock_conversion_2amp_2atp_forward</t>
+  </si>
+  <si>
+    <t>mock_transfer_2amp_forward</t>
+  </si>
+  <si>
+    <t>ID</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1635,6 +1648,17 @@
       <color rgb="FF000000"/>
       <name val="arial"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="6">
@@ -1681,20 +1705,27 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -4282,7 +4313,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="D10" sqref="D10"/>
+      <selection pane="bottomRight" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -4367,37 +4398,37 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="44.28515625" customWidth="1"/>
-    <col min="3" max="3" width="67.140625" customWidth="1"/>
+    <col min="1" max="2" width="44.28515625" customWidth="1"/>
+    <col min="4" max="4" width="67.140625" customWidth="1"/>
     <col min="8" max="8" width="18.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="15" customHeight="1">
       <c r="A1" s="1" t="s">
+        <v>518</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>475</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>476</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>477</v>
-      </c>
       <c r="D1" s="1" t="s">
-        <v>478</v>
+        <v>513</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>479</v>
+        <v>371</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>11</v>
@@ -4410,45 +4441,55 @@
       </c>
     </row>
     <row r="2" spans="1:8">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="8" t="s">
+        <v>516</v>
+      </c>
+      <c r="B2" s="6" t="s">
         <v>470</v>
       </c>
-      <c r="B2" t="s">
-        <v>480</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>481</v>
+      <c r="C2" t="s">
+        <v>477</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>478</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:8">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="8" t="s">
+        <v>517</v>
+      </c>
+      <c r="B3" s="6" t="s">
         <v>473</v>
       </c>
-      <c r="B3" t="s">
-        <v>480</v>
-      </c>
       <c r="C3" t="s">
-        <v>482</v>
-      </c>
-      <c r="D3">
-        <v>0.05</v>
+        <v>477</v>
+      </c>
+      <c r="D3" t="s">
+        <v>479</v>
       </c>
       <c r="E3">
-        <v>7.4999999999999997E-2</v>
-      </c>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="B4" s="7"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:G3"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H1"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K10" sqref="K10"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -4464,7 +4505,7 @@
         <v>370</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="E1" s="4" t="s">
         <v>371</v>
@@ -4477,6 +4518,22 @@
       </c>
       <c r="H1" s="4" t="s">
         <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" t="s">
+        <v>514</v>
+      </c>
+      <c r="C2">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" t="s">
+        <v>515</v>
+      </c>
+      <c r="C3">
+        <v>7.4999999999999997E-2</v>
       </c>
     </row>
   </sheetData>
@@ -4525,56 +4582,56 @@
     </row>
     <row r="2" spans="1:7" ht="15" customHeight="1">
       <c r="A2" s="1" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" s="2">
         <v>100</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
     </row>
     <row r="3" spans="1:7" ht="15" customHeight="1">
       <c r="A3" s="1" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" s="2">
         <v>1000000</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
     </row>
     <row r="4" spans="1:7" ht="15" customHeight="1">
       <c r="A4" s="1" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" s="2">
         <v>0.3</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
     </row>
     <row r="5" spans="1:7" ht="15" customHeight="1">
       <c r="A5" s="1" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" s="2">
         <v>1.0000000000000001E-15</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
@@ -4589,7 +4646,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
@@ -4609,7 +4666,7 @@
         <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>371</v>
@@ -4626,10 +4683,10 @@
     </row>
     <row r="2" spans="1:7" ht="15" customHeight="1">
       <c r="A2" s="1" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>423</v>
@@ -4642,10 +4699,10 @@
     </row>
     <row r="3" spans="1:7" ht="15" customHeight="1">
       <c r="A3" s="1" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>429</v>
@@ -4658,10 +4715,10 @@
     </row>
     <row r="4" spans="1:7" ht="15" customHeight="1">
       <c r="A4" s="1" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>409</v>
@@ -4674,7 +4731,7 @@
     </row>
     <row r="5" spans="1:7" ht="15" customHeight="1">
       <c r="A5" s="1" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>367</v>
@@ -4690,10 +4747,10 @@
     </row>
     <row r="6" spans="1:7" ht="15" customHeight="1">
       <c r="A6" s="1" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>427</v>
@@ -4706,10 +4763,10 @@
     </row>
     <row r="7" spans="1:7" ht="15" customHeight="1">
       <c r="A7" s="1" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>411</v>
@@ -4722,10 +4779,10 @@
     </row>
     <row r="8" spans="1:7" ht="15" customHeight="1">
       <c r="A8" s="1" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>425</v>
@@ -4738,10 +4795,10 @@
     </row>
     <row r="9" spans="1:7" ht="15" customHeight="1">
       <c r="A9" s="1" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>408</v>
@@ -4754,10 +4811,10 @@
     </row>
     <row r="10" spans="1:7" ht="15" customHeight="1">
       <c r="A10" s="1" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>458</v>
@@ -4770,10 +4827,10 @@
     </row>
     <row r="11" spans="1:7" ht="15" customHeight="1">
       <c r="A11" s="1" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>453</v>
@@ -4786,10 +4843,10 @@
     </row>
     <row r="12" spans="1:7" ht="15" customHeight="1">
       <c r="A12" s="1" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>449</v>
@@ -4802,10 +4859,10 @@
     </row>
     <row r="13" spans="1:7" ht="15" customHeight="1">
       <c r="A13" s="1" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>436</v>
@@ -4840,7 +4897,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
     </row>
   </sheetData>

--- a/tests/fixtures/test_broken_kb.xlsx
+++ b/tests/fixtures/test_broken_kb.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19800" windowHeight="6840" firstSheet="12" activeTab="13"/>
+    <workbookView windowWidth="28695" windowHeight="13965" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Knowledge base" sheetId="1" r:id="rId1"/>
@@ -27,30 +27,30 @@
     <sheet name="References" sheetId="17" r:id="rId18"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Knowledge base'!$A$1:$B$9</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Cell!$A$1:$B$4</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Compartments!$A$1:$E$3</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'Metabolite species types'!$A$1:$F$37</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'DNA species types'!$A$1:$I$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'Promoter loci'!$A$1:$J$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">'Transcription unit loci'!$A$1:$J$28</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">'Rna species types'!$A$1:$I$28</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">'Gene loci'!$A$1:$J$37</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="9" hidden="1">'Protein species types'!$A$1:$I$33</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="10" hidden="1">'Complex species types'!$A$1:$K$2</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="11" hidden="1">Concentrations!$A$1:$E$95</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'DNA species types'!$A$1:$I$2</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">'Gene loci'!$A$1:$J$37</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Knowledge base'!$A$1:$B$9</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'Metabolite species types'!$A$1:$F$35</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="12" hidden="1">Reactions!$A$1:$G$3</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="13" hidden="1">'Rate laws'!$A$1:$G$3</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="15" hidden="1">Properties!$A$1:$F$5</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="16" hidden="1">Observables!$A$1:$F$13</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'Promoter loci'!$A$1:$J$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="15" hidden="1">Properties!$A$1:$F$5</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="9" hidden="1">'Protein species types'!$A$1:$I$33</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="13" hidden="1">'Rate laws'!$A$1:$G$3</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="12" hidden="1">Reactions!$A$1:$G$3</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="17" hidden="1">References!$A$1:$B$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">'Rna species types'!$A$1:$I$28</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">'Transcription unit loci'!$A$1:$J$28</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1062" uniqueCount="519">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1068" uniqueCount="528">
   <si>
     <t>Id</t>
   </si>
@@ -187,15 +187,27 @@
     <t>cmp</t>
   </si>
   <si>
+    <t>cytidine 5'-monophosphate</t>
+  </si>
+  <si>
+    <t>InChI=1S/C9H14N3O8P/c10-5-1-2-12(9(15)11-5)8-7(14)6(13)4(20-8)3-19-21(16,17)18/h1-2,4,6-8,13-14H,3H2,(H2,10,11,15)(H2,16,17,18)/p-2/t4-,6-,7-,8-/m1/s1</t>
+  </si>
+  <si>
+    <t>cdp</t>
+  </si>
+  <si>
+    <t>cytidine 5'-diphosphate</t>
+  </si>
+  <si>
+    <t>InChI=1S/C9H15N3O11P2/c10-5-1-2-12(9(15)11-5)8-7(14)6(13)4(22-8)3-21-25(19,20)23-24(16,17)18/h1-2,4,6-8,13-14H,3H2,(H,19,20)(H2,10,11,15)(H2,16,17,18)/p-3/t4-,6-,7-,8-/m1/s1</t>
+  </si>
+  <si>
+    <t>ctp</t>
+  </si>
+  <si>
     <t>cytidine 5'-triphosphate</t>
   </si>
   <si>
-    <t>InChI=1S/C9H14N3O8P/c10-5-1-2-12(9(15)11-5)8-7(14)6(13)4(20-8)3-19-21(16,17)18/h1-2,4,6-8,13-14H,3H2,(H2,10,11,15)(H2,16,17,18)/p-2/t4-,6-,7-,8-/m1/s1</t>
-  </si>
-  <si>
-    <t>ctp</t>
-  </si>
-  <si>
     <t>InChI=1S/C9H16N3O14P3/c10-5-1-2-12(9(15)11-5)8-7(14)6(13)4(24-8)3-23-28(19,20)26-29(21,22)25-27(16,17)18/h1-2,4,6-8,13-14H,3H2,(H,19,20)(H,21,22)(H2,10,11,15)(H2,16,17,18)/p-4/t4-,6-,7-,8-/m1/s1</t>
   </si>
   <si>
@@ -247,15 +259,18 @@
     <t>gmp</t>
   </si>
   <si>
+    <t>guanosine 5'-monophosphate</t>
+  </si>
+  <si>
+    <t>InChI=1S/C10H14N5O8P/c11-10-13-7-4(8(18)14-10)12-2-15(7)9-6(17)5(16)3(23-9)1-22-24(19,20)21/h2-3,5-6,9,16-17H,1H2,(H2,19,20,21)(H3,11,13,14,18)/p-2/t3-,5-,6-,9-/m1/s1</t>
+  </si>
+  <si>
+    <t>gtp</t>
+  </si>
+  <si>
     <t>guanosine 5'-triphosphate</t>
   </si>
   <si>
-    <t>InChI=1S/C10H14N5O8P/c11-10-13-7-4(8(18)14-10)12-2-15(7)9-6(17)5(16)3(23-9)1-22-24(19,20)21/h2-3,5-6,9,16-17H,1H2,(H2,19,20,21)(H3,11,13,14,18)/p-2/t3-,5-,6-,9-/m1/s1</t>
-  </si>
-  <si>
-    <t>gtp</t>
-  </si>
-  <si>
     <t>InChI=1S/C10H16N5O14P3/c11-10-13-7-4(8(18)14-10)12-2-15(7)9-6(17)5(16)3(27-9)1-26-31(22,23)29-32(24,25)28-30(19,20)21/h2-3,5-6,9,16-17H,1H2,(H,22,23)(H,24,25)(H2,19,20,21)(H3,11,13,14,18)/p-4/t3-,5-,6-,9-/m1/s1</t>
   </si>
   <si>
@@ -397,15 +412,27 @@
     <t>ump</t>
   </si>
   <si>
+    <t>uridine 5'-monophosphate</t>
+  </si>
+  <si>
+    <t>InChI=1S/C9H13N2O9P/c12-5-1-2-11(9(15)10-5)8-7(14)6(13)4(20-8)3-19-21(16,17)18/h1-2,4,6-8,13-14H,3H2,(H,10,12,15)(H2,16,17,18)/p-2/t4-,6-,7-,8-/m1/s1</t>
+  </si>
+  <si>
+    <t>udp</t>
+  </si>
+  <si>
+    <t>uridine 5'-diphosphate</t>
+  </si>
+  <si>
+    <t>InChI=1S/C9H14N2O12P2/c12-5-1-2-11(9(15)10-5)8-7(14)6(13)4(22-8)3-21-25(19,20)23-24(16,17)18/h1-2,4,6-8,13-14H,3H2,(H,19,20)(H,10,12,15)(H2,16,17,18)/p-3/t4-,6-,7-,8-/m1/s1</t>
+  </si>
+  <si>
+    <t>utp</t>
+  </si>
+  <si>
     <t>uridine 5'-triphosphate</t>
   </si>
   <si>
-    <t>InChI=1S/C9H13N2O9P/c12-5-1-2-11(9(15)10-5)8-7(14)6(13)4(20-8)3-19-21(16,17)18/h1-2,4,6-8,13-14H,3H2,(H,10,12,15)(H2,16,17,18)/p-2/t4-,6-,7-,8-/m1/s1</t>
-  </si>
-  <si>
-    <t>utp</t>
-  </si>
-  <si>
     <t>InChI=1S/C9H15N2O15P3/c12-5-1-2-11(9(15)10-5)8-7(14)6(13)4(24-8)3-23-28(19,20)26-29(21,22)25-27(16,17)18/h1-2,4,6-8,13-14H,3H2,(H,19,20)(H,21,22)(H,10,12,15)(H2,16,17,18)/p-4/t4-,6-,7-,8-/m1/s1</t>
   </si>
   <si>
@@ -1477,24 +1504,42 @@
     <t>(2) amp[e] ==&gt; (2) amp[c]</t>
   </si>
   <si>
+    <t>ID</t>
+  </si>
+  <si>
     <t>Reaction</t>
   </si>
   <si>
     <t>Direction</t>
   </si>
   <si>
+    <t>Expression</t>
+  </si>
+  <si>
+    <t>mock_conversion_2amp_2atp_forward</t>
+  </si>
+  <si>
     <t>forward</t>
   </si>
   <si>
     <t>0.000000007312742167607660744</t>
   </si>
   <si>
+    <t>mock_transfer_2amp_forward</t>
+  </si>
+  <si>
     <t>0.001*k_cat+k_m</t>
   </si>
   <si>
     <t>Error</t>
   </si>
   <si>
+    <t>k_cat</t>
+  </si>
+  <si>
+    <t>k_m</t>
+  </si>
+  <si>
     <t>mean_doubling_time</t>
   </si>
   <si>
@@ -1589,43 +1634,24 @@
   </si>
   <si>
     <t>Standard id</t>
-  </si>
-  <si>
-    <t>Expression</t>
-  </si>
-  <si>
-    <t>k_cat</t>
-  </si>
-  <si>
-    <t>k_m</t>
-  </si>
-  <si>
-    <t>mock_conversion_2amp_2atp_forward</t>
-  </si>
-  <si>
-    <t>mock_transfer_2amp_forward</t>
-  </si>
-  <si>
-    <t>ID</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="26">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1650,18 +1676,169 @@
       <charset val="1"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="37">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1676,7 +1853,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.14996795556505021"/>
+        <fgColor theme="0" tint="-0.14996795556505"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1692,8 +1869,194 @@
         <bgColor rgb="FFCCCCCC"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -1701,37 +2064,326 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="60% - Accent6" xfId="1" builtinId="52"/>
+    <cellStyle name="40% - Accent6" xfId="2" builtinId="51"/>
+    <cellStyle name="60% - Accent5" xfId="3" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="4" builtinId="49"/>
+    <cellStyle name="40% - Accent5" xfId="5" builtinId="47"/>
+    <cellStyle name="20% - Accent5" xfId="6" builtinId="46"/>
+    <cellStyle name="60% - Accent4" xfId="7" builtinId="44"/>
+    <cellStyle name="Accent5" xfId="8" builtinId="45"/>
+    <cellStyle name="40% - Accent4" xfId="9" builtinId="43"/>
+    <cellStyle name="Accent4" xfId="10" builtinId="41"/>
+    <cellStyle name="Linked Cell" xfId="11" builtinId="24"/>
+    <cellStyle name="40% - Accent3" xfId="12" builtinId="39"/>
+    <cellStyle name="60% - Accent2" xfId="13" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="14" builtinId="37"/>
+    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
+    <cellStyle name="20% - Accent2" xfId="16" builtinId="34"/>
+    <cellStyle name="Accent2" xfId="17" builtinId="33"/>
+    <cellStyle name="40% - Accent1" xfId="18" builtinId="31"/>
+    <cellStyle name="20% - Accent1" xfId="19" builtinId="30"/>
+    <cellStyle name="Accent1" xfId="20" builtinId="29"/>
+    <cellStyle name="Neutral" xfId="21" builtinId="28"/>
+    <cellStyle name="60% - Accent1" xfId="22" builtinId="32"/>
+    <cellStyle name="Bad" xfId="23" builtinId="27"/>
+    <cellStyle name="20% - Accent4" xfId="24" builtinId="42"/>
+    <cellStyle name="Total" xfId="25" builtinId="25"/>
+    <cellStyle name="Output" xfId="26" builtinId="21"/>
+    <cellStyle name="Currency" xfId="27" builtinId="4"/>
+    <cellStyle name="20% - Accent3" xfId="28" builtinId="38"/>
+    <cellStyle name="Note" xfId="29" builtinId="10"/>
+    <cellStyle name="Input" xfId="30" builtinId="20"/>
+    <cellStyle name="Heading 4" xfId="31" builtinId="19"/>
+    <cellStyle name="Calculation" xfId="32" builtinId="22"/>
+    <cellStyle name="Good" xfId="33" builtinId="26"/>
+    <cellStyle name="Heading 3" xfId="34" builtinId="18"/>
+    <cellStyle name="CExplanatory Text" xfId="35" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="36" builtinId="16"/>
+    <cellStyle name="Comma [0]" xfId="37" builtinId="6"/>
+    <cellStyle name="20% - Accent6" xfId="38" builtinId="50"/>
+    <cellStyle name="Title" xfId="39" builtinId="15"/>
+    <cellStyle name="Currency [0]" xfId="40" builtinId="7"/>
+    <cellStyle name="Warning Text" xfId="41" builtinId="11"/>
+    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9"/>
+    <cellStyle name="Heading 2" xfId="43" builtinId="17"/>
+    <cellStyle name="Comma" xfId="44" builtinId="3"/>
+    <cellStyle name="Check Cell" xfId="45" builtinId="23"/>
+    <cellStyle name="60% - Accent3" xfId="46" builtinId="40"/>
+    <cellStyle name="Percent" xfId="47" builtinId="5"/>
+    <cellStyle name="Hyperlink" xfId="48" builtinId="8"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1746,10 +2398,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr val="windowText" lastClr="212121"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr val="window" lastClr="F3F3F3"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -2020,24 +2672,25 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="1"/>
   <sheetData>
-    <row r="1" spans="1:2" ht="15" customHeight="1">
+    <row r="1" ht="15" customHeight="1" spans="1:2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2045,7 +2698,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="15" customHeight="1">
+    <row r="2" ht="15" customHeight="1" spans="1:2">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -2053,7 +2706,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="15" customHeight="1">
+    <row r="3" ht="15" customHeight="1" spans="1:2">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -2061,7 +2714,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="15" customHeight="1">
+    <row r="4" ht="15" customHeight="1" spans="1:2">
       <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
@@ -2069,25 +2722,25 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="15" customHeight="1">
+    <row r="5" ht="15" customHeight="1" spans="1:2">
       <c r="A5" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B5" s="2"/>
     </row>
-    <row r="6" spans="1:2" ht="15" customHeight="1">
+    <row r="6" ht="15" customHeight="1" spans="1:2">
       <c r="A6" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B6" s="2"/>
     </row>
-    <row r="7" spans="1:2" ht="15" customHeight="1">
+    <row r="7" ht="15" customHeight="1" spans="1:2">
       <c r="A7" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B7" s="2"/>
     </row>
-    <row r="8" spans="1:2" ht="15" customHeight="1">
+    <row r="8" ht="15" customHeight="1" spans="1:2">
       <c r="A8" s="1" t="s">
         <v>10</v>
       </c>
@@ -2095,38 +2748,43 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="15" customHeight="1">
+    <row r="9" ht="15" customHeight="1" spans="1:2">
       <c r="A9" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B9" s="2"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:B9"/>
+  <autoFilter ref="A1:B9">
+    <extLst/>
+  </autoFilter>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:J33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
       <selection pane="bottomRight" activeCell="K29" sqref="K29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="2" max="2" width="20.28515625" customWidth="1"/>
-    <col min="4" max="4" width="16.85546875" customWidth="1"/>
-    <col min="7" max="7" width="16.5703125" customWidth="1"/>
-    <col min="10" max="10" width="18.7109375" customWidth="1"/>
+    <col min="2" max="2" width="20.2833333333333" customWidth="1"/>
+    <col min="4" max="4" width="16.8583333333333" customWidth="1"/>
+    <col min="7" max="7" width="16.5666666666667" customWidth="1"/>
+    <col min="10" max="10" width="18.7083333333333" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15" customHeight="1">
+    <row r="1" ht="15" customHeight="1" spans="1:10">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2134,16 +2792,16 @@
         <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>327</v>
+        <v>336</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>328</v>
+        <v>337</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>123</v>
+        <v>132</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>124</v>
+        <v>133</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>22</v>
@@ -2158,18 +2816,18 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="15" customHeight="1">
+    <row r="2" ht="15" customHeight="1" spans="1:9">
       <c r="A2" s="1" t="s">
-        <v>329</v>
+        <v>338</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>329</v>
+        <v>338</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>139</v>
+        <v>148</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>220</v>
+        <v>229</v>
       </c>
       <c r="E2" s="2" t="b">
         <v>0</v>
@@ -2183,18 +2841,18 @@
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
     </row>
-    <row r="3" spans="1:10" ht="15" customHeight="1">
+    <row r="3" ht="15" customHeight="1" spans="1:9">
       <c r="A3" s="1" t="s">
-        <v>330</v>
+        <v>339</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>330</v>
+        <v>339</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>278</v>
+        <v>287</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>223</v>
+        <v>232</v>
       </c>
       <c r="E3" s="2" t="b">
         <v>0</v>
@@ -2208,18 +2866,18 @@
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
     </row>
-    <row r="4" spans="1:10" ht="15" customHeight="1">
+    <row r="4" ht="15" customHeight="1" spans="1:9">
       <c r="A4" s="1" t="s">
-        <v>331</v>
+        <v>340</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>331</v>
+        <v>340</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>280</v>
+        <v>289</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>223</v>
+        <v>232</v>
       </c>
       <c r="E4" s="2" t="b">
         <v>0</v>
@@ -2233,18 +2891,18 @@
       <c r="H4" s="2"/>
       <c r="I4" s="2"/>
     </row>
-    <row r="5" spans="1:10" ht="15" customHeight="1">
+    <row r="5" ht="15" customHeight="1" spans="1:9">
       <c r="A5" s="1" t="s">
-        <v>332</v>
+        <v>341</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>332</v>
+        <v>341</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>282</v>
+        <v>291</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>225</v>
+        <v>234</v>
       </c>
       <c r="E5" s="2" t="b">
         <v>0</v>
@@ -2258,18 +2916,18 @@
       <c r="H5" s="2"/>
       <c r="I5" s="2"/>
     </row>
-    <row r="6" spans="1:10" ht="15" customHeight="1">
+    <row r="6" ht="15" customHeight="1" spans="1:9">
       <c r="A6" s="1" t="s">
-        <v>333</v>
+        <v>342</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>333</v>
+        <v>342</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>284</v>
+        <v>293</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>225</v>
+        <v>234</v>
       </c>
       <c r="E6" s="2" t="b">
         <v>0</v>
@@ -2283,18 +2941,18 @@
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
     </row>
-    <row r="7" spans="1:10" ht="15" customHeight="1">
+    <row r="7" ht="15" customHeight="1" spans="1:9">
       <c r="A7" s="1" t="s">
-        <v>334</v>
+        <v>343</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>334</v>
+        <v>343</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>286</v>
+        <v>295</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>225</v>
+        <v>234</v>
       </c>
       <c r="E7" s="2" t="b">
         <v>0</v>
@@ -2308,18 +2966,18 @@
       <c r="H7" s="2"/>
       <c r="I7" s="2"/>
     </row>
-    <row r="8" spans="1:10" ht="15" customHeight="1">
+    <row r="8" ht="15" customHeight="1" spans="1:9">
       <c r="A8" s="1" t="s">
-        <v>335</v>
+        <v>344</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>335</v>
+        <v>344</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>151</v>
+        <v>160</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>230</v>
+        <v>239</v>
       </c>
       <c r="E8" s="2" t="b">
         <v>0</v>
@@ -2333,18 +2991,18 @@
       <c r="H8" s="2"/>
       <c r="I8" s="2"/>
     </row>
-    <row r="9" spans="1:10" ht="15" customHeight="1">
+    <row r="9" ht="15" customHeight="1" spans="1:9">
       <c r="A9" s="1" t="s">
-        <v>336</v>
+        <v>345</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>336</v>
+        <v>345</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>154</v>
+        <v>163</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>232</v>
+        <v>241</v>
       </c>
       <c r="E9" s="2" t="b">
         <v>0</v>
@@ -2358,18 +3016,18 @@
       <c r="H9" s="2"/>
       <c r="I9" s="2"/>
     </row>
-    <row r="10" spans="1:10" ht="15" customHeight="1">
+    <row r="10" ht="15" customHeight="1" spans="1:9">
       <c r="A10" s="1" t="s">
-        <v>337</v>
+        <v>346</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>337</v>
+        <v>346</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>157</v>
+        <v>166</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>234</v>
+        <v>243</v>
       </c>
       <c r="E10" s="2" t="b">
         <v>0</v>
@@ -2383,18 +3041,18 @@
       <c r="H10" s="2"/>
       <c r="I10" s="2"/>
     </row>
-    <row r="11" spans="1:10" ht="15" customHeight="1">
+    <row r="11" ht="15" customHeight="1" spans="1:9">
       <c r="A11" s="1" t="s">
-        <v>338</v>
+        <v>347</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>338</v>
+        <v>347</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>160</v>
+        <v>169</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>236</v>
+        <v>245</v>
       </c>
       <c r="E11" s="2" t="b">
         <v>0</v>
@@ -2408,18 +3066,18 @@
       <c r="H11" s="2"/>
       <c r="I11" s="2"/>
     </row>
-    <row r="12" spans="1:10" ht="15" customHeight="1">
+    <row r="12" ht="15" customHeight="1" spans="1:9">
       <c r="A12" s="1" t="s">
-        <v>339</v>
+        <v>348</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>339</v>
+        <v>348</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>163</v>
+        <v>172</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>238</v>
+        <v>247</v>
       </c>
       <c r="E12" s="2" t="b">
         <v>0</v>
@@ -2433,18 +3091,18 @@
       <c r="H12" s="2"/>
       <c r="I12" s="2"/>
     </row>
-    <row r="13" spans="1:10" ht="15" customHeight="1">
+    <row r="13" ht="15" customHeight="1" spans="1:9">
       <c r="A13" s="1" t="s">
-        <v>340</v>
+        <v>349</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>340</v>
+        <v>349</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>294</v>
+        <v>303</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>240</v>
+        <v>249</v>
       </c>
       <c r="E13" s="2" t="b">
         <v>0</v>
@@ -2456,18 +3114,18 @@
       <c r="H13" s="2"/>
       <c r="I13" s="2"/>
     </row>
-    <row r="14" spans="1:10" ht="15" customHeight="1">
+    <row r="14" ht="15" customHeight="1" spans="1:9">
       <c r="A14" s="1" t="s">
-        <v>341</v>
+        <v>350</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>341</v>
+        <v>350</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>296</v>
+        <v>305</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>240</v>
+        <v>249</v>
       </c>
       <c r="E14" s="2" t="b">
         <v>0</v>
@@ -2481,18 +3139,18 @@
       <c r="H14" s="2"/>
       <c r="I14" s="2"/>
     </row>
-    <row r="15" spans="1:10" ht="15" customHeight="1">
+    <row r="15" ht="15" customHeight="1" spans="1:9">
       <c r="A15" s="1" t="s">
-        <v>342</v>
+        <v>351</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>342</v>
+        <v>351</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>298</v>
+        <v>307</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>240</v>
+        <v>249</v>
       </c>
       <c r="E15" s="2" t="b">
         <v>0</v>
@@ -2506,18 +3164,18 @@
       <c r="H15" s="2"/>
       <c r="I15" s="2"/>
     </row>
-    <row r="16" spans="1:10" ht="15" customHeight="1">
+    <row r="16" ht="15" customHeight="1" spans="1:9">
       <c r="A16" s="1" t="s">
-        <v>343</v>
+        <v>352</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>343</v>
+        <v>352</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>169</v>
+        <v>178</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>242</v>
+        <v>251</v>
       </c>
       <c r="E16" s="2" t="b">
         <v>0</v>
@@ -2531,18 +3189,18 @@
       <c r="H16" s="2"/>
       <c r="I16" s="2"/>
     </row>
-    <row r="17" spans="1:9" ht="15" customHeight="1">
+    <row r="17" ht="15" customHeight="1" spans="1:9">
       <c r="A17" s="1" t="s">
-        <v>344</v>
+        <v>353</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>344</v>
+        <v>353</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>172</v>
+        <v>181</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>244</v>
+        <v>253</v>
       </c>
       <c r="E17" s="2" t="b">
         <v>0</v>
@@ -2556,18 +3214,18 @@
       <c r="H17" s="2"/>
       <c r="I17" s="2"/>
     </row>
-    <row r="18" spans="1:9" ht="15" customHeight="1">
+    <row r="18" ht="15" customHeight="1" spans="1:9">
       <c r="A18" s="1" t="s">
-        <v>345</v>
+        <v>354</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>345</v>
+        <v>354</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>302</v>
+        <v>311</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>246</v>
+        <v>255</v>
       </c>
       <c r="E18" s="2" t="b">
         <v>0</v>
@@ -2581,18 +3239,18 @@
       <c r="H18" s="2"/>
       <c r="I18" s="2"/>
     </row>
-    <row r="19" spans="1:9" ht="15" customHeight="1">
+    <row r="19" ht="15" customHeight="1" spans="1:9">
       <c r="A19" s="1" t="s">
-        <v>346</v>
+        <v>355</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>346</v>
+        <v>355</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>304</v>
+        <v>313</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>246</v>
+        <v>255</v>
       </c>
       <c r="E19" s="2" t="b">
         <v>0</v>
@@ -2606,18 +3264,18 @@
       <c r="H19" s="2"/>
       <c r="I19" s="2"/>
     </row>
-    <row r="20" spans="1:9" ht="15" customHeight="1">
+    <row r="20" ht="15" customHeight="1" spans="1:9">
       <c r="A20" s="1" t="s">
-        <v>347</v>
+        <v>356</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>347</v>
+        <v>356</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>306</v>
+        <v>315</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>246</v>
+        <v>255</v>
       </c>
       <c r="E20" s="2" t="b">
         <v>0</v>
@@ -2631,18 +3289,18 @@
       <c r="H20" s="2"/>
       <c r="I20" s="2"/>
     </row>
-    <row r="21" spans="1:9" ht="15" customHeight="1">
+    <row r="21" ht="15" customHeight="1" spans="1:9">
       <c r="A21" s="1" t="s">
-        <v>348</v>
+        <v>357</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>348</v>
+        <v>357</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>178</v>
+        <v>187</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>248</v>
+        <v>257</v>
       </c>
       <c r="E21" s="2" t="b">
         <v>0</v>
@@ -2656,18 +3314,18 @@
       <c r="H21" s="2"/>
       <c r="I21" s="2"/>
     </row>
-    <row r="22" spans="1:9" ht="15" customHeight="1">
+    <row r="22" ht="15" customHeight="1" spans="1:9">
       <c r="A22" s="1" t="s">
-        <v>349</v>
+        <v>358</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>349</v>
+        <v>358</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>181</v>
+        <v>190</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>250</v>
+        <v>259</v>
       </c>
       <c r="E22" s="2" t="b">
         <v>0</v>
@@ -2681,18 +3339,18 @@
       <c r="H22" s="2"/>
       <c r="I22" s="2"/>
     </row>
-    <row r="23" spans="1:9" ht="15" customHeight="1">
+    <row r="23" ht="15" customHeight="1" spans="1:9">
       <c r="A23" s="1" t="s">
-        <v>350</v>
+        <v>359</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>350</v>
+        <v>359</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>184</v>
+        <v>193</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>252</v>
+        <v>261</v>
       </c>
       <c r="E23" s="2" t="b">
         <v>0</v>
@@ -2706,18 +3364,18 @@
       <c r="H23" s="2"/>
       <c r="I23" s="2"/>
     </row>
-    <row r="24" spans="1:9" ht="15" customHeight="1">
+    <row r="24" ht="15" customHeight="1" spans="1:9">
       <c r="A24" s="1" t="s">
-        <v>351</v>
+        <v>360</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>351</v>
+        <v>360</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>190</v>
+        <v>199</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>256</v>
+        <v>265</v>
       </c>
       <c r="E24" s="2" t="b">
         <v>0</v>
@@ -2731,18 +3389,18 @@
       <c r="H24" s="2"/>
       <c r="I24" s="2"/>
     </row>
-    <row r="25" spans="1:9" ht="15" customHeight="1">
+    <row r="25" ht="15" customHeight="1" spans="1:9">
       <c r="A25" s="1" t="s">
-        <v>352</v>
+        <v>361</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>352</v>
+        <v>361</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>193</v>
+        <v>202</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>258</v>
+        <v>267</v>
       </c>
       <c r="E25" s="2" t="b">
         <v>0</v>
@@ -2756,18 +3414,18 @@
       <c r="H25" s="2"/>
       <c r="I25" s="2"/>
     </row>
-    <row r="26" spans="1:9" ht="15" customHeight="1">
+    <row r="26" ht="15" customHeight="1" spans="1:9">
       <c r="A26" s="1" t="s">
-        <v>353</v>
+        <v>362</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>353</v>
+        <v>362</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>196</v>
+        <v>205</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>260</v>
+        <v>269</v>
       </c>
       <c r="E26" s="2" t="b">
         <v>0</v>
@@ -2781,18 +3439,18 @@
       <c r="H26" s="2"/>
       <c r="I26" s="2"/>
     </row>
-    <row r="27" spans="1:9" ht="15" customHeight="1">
+    <row r="27" ht="15" customHeight="1" spans="1:9">
       <c r="A27" s="1" t="s">
-        <v>354</v>
+        <v>363</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>354</v>
+        <v>363</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>202</v>
+        <v>211</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>264</v>
+        <v>273</v>
       </c>
       <c r="E27" s="2" t="b">
         <v>0</v>
@@ -2806,18 +3464,18 @@
       <c r="H27" s="2"/>
       <c r="I27" s="2"/>
     </row>
-    <row r="28" spans="1:9" ht="15" customHeight="1">
+    <row r="28" ht="15" customHeight="1" spans="1:9">
       <c r="A28" s="1" t="s">
-        <v>355</v>
+        <v>364</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>355</v>
+        <v>364</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>205</v>
+        <v>214</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>266</v>
+        <v>275</v>
       </c>
       <c r="E28" s="2" t="b">
         <v>0</v>
@@ -2831,18 +3489,18 @@
       <c r="H28" s="2"/>
       <c r="I28" s="2"/>
     </row>
-    <row r="29" spans="1:9" ht="15" customHeight="1">
+    <row r="29" ht="15" customHeight="1" spans="1:9">
       <c r="A29" s="1" t="s">
-        <v>356</v>
+        <v>365</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>356</v>
+        <v>365</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>208</v>
+        <v>217</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>268</v>
+        <v>277</v>
       </c>
       <c r="E29" s="2" t="b">
         <v>0</v>
@@ -2856,18 +3514,18 @@
       <c r="H29" s="2"/>
       <c r="I29" s="2"/>
     </row>
-    <row r="30" spans="1:9" ht="15" customHeight="1">
+    <row r="30" ht="15" customHeight="1" spans="1:9">
       <c r="A30" s="1" t="s">
-        <v>357</v>
+        <v>366</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>357</v>
+        <v>366</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>211</v>
+        <v>220</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>270</v>
+        <v>279</v>
       </c>
       <c r="E30" s="2" t="b">
         <v>0</v>
@@ -2881,18 +3539,18 @@
       <c r="H30" s="2"/>
       <c r="I30" s="2"/>
     </row>
-    <row r="31" spans="1:9" ht="15" customHeight="1">
+    <row r="31" ht="15" customHeight="1" spans="1:9">
       <c r="A31" s="1" t="s">
-        <v>358</v>
+        <v>367</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>358</v>
+        <v>367</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>321</v>
+        <v>330</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>274</v>
+        <v>283</v>
       </c>
       <c r="E31" s="2" t="b">
         <v>0</v>
@@ -2906,18 +3564,18 @@
       <c r="H31" s="2"/>
       <c r="I31" s="2"/>
     </row>
-    <row r="32" spans="1:9" ht="15" customHeight="1">
+    <row r="32" ht="15" customHeight="1" spans="1:9">
       <c r="A32" s="1" t="s">
-        <v>359</v>
+        <v>368</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>359</v>
+        <v>368</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>323</v>
+        <v>332</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>274</v>
+        <v>283</v>
       </c>
       <c r="E32" s="2" t="b">
         <v>0</v>
@@ -2931,18 +3589,18 @@
       <c r="H32" s="2"/>
       <c r="I32" s="2"/>
     </row>
-    <row r="33" spans="1:9" ht="15" customHeight="1">
+    <row r="33" ht="15" customHeight="1" spans="1:9">
       <c r="A33" s="1" t="s">
-        <v>360</v>
+        <v>369</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>360</v>
+        <v>369</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>325</v>
+        <v>334</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>274</v>
+        <v>283</v>
       </c>
       <c r="E33" s="2" t="b">
         <v>0</v>
@@ -2957,28 +3615,33 @@
       <c r="I33" s="2"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:I33"/>
+  <autoFilter ref="A1:I33">
+    <extLst/>
+  </autoFilter>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:L2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
       <selection pane="bottomRight" activeCell="L13" sqref="L13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1"/>
   <cols>
-    <col min="12" max="12" width="18.7109375" customWidth="1"/>
+    <col min="12" max="12" width="18.7083333333333" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15" customHeight="1">
+    <row r="1" ht="15" customHeight="1" spans="1:12">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2986,22 +3649,22 @@
         <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>361</v>
+        <v>370</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>362</v>
+        <v>371</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>363</v>
+        <v>372</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>364</v>
+        <v>373</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>365</v>
+        <v>374</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>366</v>
+        <v>375</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>22</v>
@@ -3016,16 +3679,16 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="15" customHeight="1">
+    <row r="2" ht="15" customHeight="1" spans="1:11">
       <c r="A2" s="1" t="s">
-        <v>367</v>
+        <v>376</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" s="2" t="s">
-        <v>368</v>
+        <v>377</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>329</v>
+        <v>338</v>
       </c>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
@@ -3036,36 +3699,41 @@
       <c r="K2" s="2"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:K2"/>
+  <autoFilter ref="A1:K2">
+    <extLst/>
+  </autoFilter>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:F95"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
       <selection pane="bottomRight" activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
   <cols>
-    <col min="6" max="6" width="18.7109375" customWidth="1"/>
+    <col min="6" max="6" width="18.7083333333333" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15" customHeight="1">
+    <row r="1" ht="15" customHeight="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>369</v>
+        <v>378</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>370</v>
+        <v>379</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>371</v>
+        <v>380</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>11</v>
@@ -3077,1256 +3745,1261 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15" customHeight="1">
+    <row r="2" ht="15" customHeight="1" spans="1:5">
       <c r="A2" s="1" t="s">
-        <v>372</v>
+        <v>381</v>
       </c>
       <c r="B2" s="2">
-        <v>8.2299999999999995E-4</v>
+        <v>0.000823</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>373</v>
+        <v>382</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
     </row>
-    <row r="3" spans="1:6" ht="15" customHeight="1">
+    <row r="3" ht="15" customHeight="1" spans="1:5">
       <c r="A3" s="1" t="s">
-        <v>374</v>
+        <v>383</v>
       </c>
       <c r="B3" s="2">
-        <v>2.5999999999999999E-3</v>
+        <v>0.0026</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>373</v>
+        <v>382</v>
       </c>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
     </row>
-    <row r="4" spans="1:6" ht="15" customHeight="1">
+    <row r="4" ht="15" customHeight="1" spans="1:5">
       <c r="A4" s="1" t="s">
-        <v>375</v>
+        <v>384</v>
       </c>
       <c r="B4" s="2">
-        <v>1.5100000000000001E-4</v>
+        <v>0.000151</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>373</v>
+        <v>382</v>
       </c>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
     </row>
-    <row r="5" spans="1:6" ht="15" customHeight="1">
+    <row r="5" ht="15" customHeight="1" spans="1:5">
       <c r="A5" s="1" t="s">
-        <v>376</v>
+        <v>385</v>
       </c>
       <c r="B5" s="2">
-        <v>5.6999999999999998E-4</v>
+        <v>0.00057</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>373</v>
+        <v>382</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
     </row>
-    <row r="6" spans="1:6" ht="15" customHeight="1">
+    <row r="6" ht="15" customHeight="1" spans="1:5">
       <c r="A6" s="1" t="s">
-        <v>377</v>
+        <v>386</v>
       </c>
       <c r="B6" s="2">
-        <v>5.1000000000000004E-4</v>
+        <v>0.00051</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>373</v>
+        <v>382</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
     </row>
-    <row r="7" spans="1:6" ht="15" customHeight="1">
+    <row r="7" ht="15" customHeight="1" spans="1:5">
       <c r="A7" s="1" t="s">
-        <v>378</v>
+        <v>387</v>
       </c>
       <c r="B7" s="2">
-        <v>4.1999999999999997E-3</v>
+        <v>0.0042</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>373</v>
+        <v>382</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
     </row>
-    <row r="8" spans="1:6" ht="15" customHeight="1">
+    <row r="8" ht="15" customHeight="1" spans="1:5">
       <c r="A8" s="1" t="s">
-        <v>379</v>
+        <v>388</v>
       </c>
       <c r="B8" s="2">
-        <v>3.5000000000000001E-3</v>
+        <v>0.0035</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>373</v>
+        <v>382</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
     </row>
-    <row r="9" spans="1:6" ht="15" customHeight="1">
+    <row r="9" ht="15" customHeight="1" spans="1:5">
       <c r="A9" s="1" t="s">
-        <v>380</v>
+        <v>389</v>
       </c>
       <c r="B9" s="2">
-        <v>3.6000000000000002E-4</v>
+        <v>0.00036</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>373</v>
+        <v>382</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
     </row>
-    <row r="10" spans="1:6" ht="15" customHeight="1">
+    <row r="10" ht="15" customHeight="1" spans="1:5">
       <c r="A10" s="1" t="s">
-        <v>381</v>
+        <v>390</v>
       </c>
       <c r="B10" s="2">
-        <v>1.1999999999999999E-3</v>
+        <v>0.0012</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>373</v>
+        <v>382</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
     </row>
-    <row r="11" spans="1:6" ht="15" customHeight="1">
+    <row r="11" ht="15" customHeight="1" spans="1:5">
       <c r="A11" s="1" t="s">
-        <v>382</v>
+        <v>391</v>
       </c>
       <c r="B11" s="2">
-        <v>3.6999999999999999E-4</v>
+        <v>0.00037</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>373</v>
+        <v>382</v>
       </c>
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
     </row>
-    <row r="12" spans="1:6" ht="15" customHeight="1">
+    <row r="12" ht="15" customHeight="1" spans="1:5">
       <c r="A12" s="1" t="s">
-        <v>383</v>
+        <v>392</v>
       </c>
       <c r="B12" s="2">
-        <v>5.0000000000000001E-3</v>
+        <v>0.005</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>373</v>
+        <v>382</v>
       </c>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
     </row>
-    <row r="13" spans="1:6" ht="15" customHeight="1">
+    <row r="13" ht="15" customHeight="1" spans="1:5">
       <c r="A13" s="1" t="s">
-        <v>384</v>
+        <v>393</v>
       </c>
       <c r="B13" s="2">
-        <v>3.8E-3</v>
+        <v>0.0038</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>373</v>
+        <v>382</v>
       </c>
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
     </row>
-    <row r="14" spans="1:6" ht="15" customHeight="1">
+    <row r="14" ht="15" customHeight="1" spans="1:5">
       <c r="A14" s="1" t="s">
-        <v>385</v>
+        <v>394</v>
       </c>
       <c r="B14" s="2">
-        <v>9.6000000000000002E-2</v>
+        <v>0.096</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>373</v>
+        <v>382</v>
       </c>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
     </row>
-    <row r="15" spans="1:6" ht="15" customHeight="1">
+    <row r="15" ht="15" customHeight="1" spans="1:5">
       <c r="A15" s="1" t="s">
-        <v>386</v>
+        <v>395</v>
       </c>
       <c r="B15" s="2">
-        <v>3.0999999999999999E-3</v>
+        <v>0.0031</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>373</v>
+        <v>382</v>
       </c>
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
     </row>
-    <row r="16" spans="1:6" ht="15" customHeight="1">
+    <row r="16" ht="15" customHeight="1" spans="1:5">
       <c r="A16" s="1" t="s">
-        <v>387</v>
+        <v>396</v>
       </c>
       <c r="B16" s="2">
-        <v>2.4000000000000001E-5</v>
+        <v>2.4e-5</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>373</v>
+        <v>382</v>
       </c>
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
     </row>
-    <row r="17" spans="1:5" ht="15" customHeight="1">
+    <row r="17" ht="15" customHeight="1" spans="1:5">
       <c r="A17" s="1" t="s">
-        <v>388</v>
+        <v>397</v>
       </c>
       <c r="B17" s="2">
-        <v>1.9E-3</v>
+        <v>0.0019</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>373</v>
+        <v>382</v>
       </c>
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
     </row>
-    <row r="18" spans="1:5" ht="15" customHeight="1">
+    <row r="18" ht="15" customHeight="1" spans="1:5">
       <c r="A18" s="1" t="s">
-        <v>389</v>
+        <v>398</v>
       </c>
       <c r="B18" s="2">
         <v>55.5</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>373</v>
+        <v>382</v>
       </c>
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
     </row>
-    <row r="19" spans="1:5" ht="15" customHeight="1">
+    <row r="19" ht="15" customHeight="1" spans="1:5">
       <c r="A19" s="1" t="s">
-        <v>390</v>
+        <v>399</v>
       </c>
       <c r="B19" s="2">
-        <v>2.8200000000000001E-8</v>
+        <v>2.82e-8</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>373</v>
+        <v>382</v>
       </c>
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
     </row>
-    <row r="20" spans="1:5" ht="15" customHeight="1">
+    <row r="20" ht="15" customHeight="1" spans="1:5">
       <c r="A20" s="1" t="s">
-        <v>391</v>
+        <v>400</v>
       </c>
       <c r="B20" s="2">
-        <v>6.7999999999999999E-5</v>
+        <v>6.8e-5</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>373</v>
+        <v>382</v>
       </c>
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
     </row>
-    <row r="21" spans="1:5" ht="15" customHeight="1">
+    <row r="21" ht="15" customHeight="1" spans="1:5">
       <c r="A21" s="1" t="s">
-        <v>392</v>
+        <v>401</v>
       </c>
       <c r="B21" s="2">
-        <v>2.9999999999999997E-4</v>
+        <v>0.0003</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>373</v>
+        <v>382</v>
       </c>
       <c r="D21" s="2"/>
       <c r="E21" s="2"/>
     </row>
-    <row r="22" spans="1:5" ht="15" customHeight="1">
+    <row r="22" ht="15" customHeight="1" spans="1:5">
       <c r="A22" s="1" t="s">
-        <v>393</v>
+        <v>402</v>
       </c>
       <c r="B22" s="2">
-        <v>2.9999999999999997E-4</v>
+        <v>0.0003</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>373</v>
+        <v>382</v>
       </c>
       <c r="D22" s="2"/>
       <c r="E22" s="2"/>
     </row>
-    <row r="23" spans="1:5" ht="15" customHeight="1">
+    <row r="23" ht="15" customHeight="1" spans="1:5">
       <c r="A23" s="1" t="s">
-        <v>394</v>
+        <v>403</v>
       </c>
       <c r="B23" s="2">
-        <v>4.0999999999999999E-4</v>
+        <v>0.00041</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>373</v>
+        <v>382</v>
       </c>
       <c r="D23" s="2"/>
       <c r="E23" s="2"/>
     </row>
-    <row r="24" spans="1:5" ht="15" customHeight="1">
+    <row r="24" ht="15" customHeight="1" spans="1:5">
       <c r="A24" s="1" t="s">
-        <v>395</v>
+        <v>404</v>
       </c>
       <c r="B24" s="2">
-        <v>1.4999999999999999E-4</v>
+        <v>0.00015</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>373</v>
+        <v>382</v>
       </c>
       <c r="D24" s="2"/>
       <c r="E24" s="2"/>
     </row>
-    <row r="25" spans="1:5" ht="15" customHeight="1">
+    <row r="25" ht="15" customHeight="1" spans="1:5">
       <c r="A25" s="1" t="s">
-        <v>396</v>
+        <v>405</v>
       </c>
       <c r="B25" s="2">
-        <v>1.8E-5</v>
+        <v>1.8e-5</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>373</v>
+        <v>382</v>
       </c>
       <c r="D25" s="2"/>
       <c r="E25" s="2"/>
     </row>
-    <row r="26" spans="1:5" ht="15" customHeight="1">
+    <row r="26" ht="15" customHeight="1" spans="1:5">
       <c r="A26" s="1" t="s">
-        <v>397</v>
+        <v>406</v>
       </c>
       <c r="B26" s="2">
-        <v>5.0000000000000001E-3</v>
+        <v>0.005</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>373</v>
+        <v>382</v>
       </c>
       <c r="D26" s="2"/>
       <c r="E26" s="2"/>
     </row>
-    <row r="27" spans="1:5" ht="15" customHeight="1">
+    <row r="27" ht="15" customHeight="1" spans="1:5">
       <c r="A27" s="1" t="s">
-        <v>398</v>
+        <v>407</v>
       </c>
       <c r="B27" s="2">
-        <v>5.0000000000000001E-4</v>
+        <v>0.0005</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>373</v>
+        <v>382</v>
       </c>
       <c r="D27" s="2"/>
       <c r="E27" s="2"/>
     </row>
-    <row r="28" spans="1:5" ht="15" customHeight="1">
+    <row r="28" ht="15" customHeight="1" spans="1:5">
       <c r="A28" s="1" t="s">
-        <v>399</v>
+        <v>408</v>
       </c>
       <c r="B28" s="2">
-        <v>3.8999999999999999E-4</v>
+        <v>0.00039</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>373</v>
+        <v>382</v>
       </c>
       <c r="D28" s="2"/>
       <c r="E28" s="2"/>
     </row>
-    <row r="29" spans="1:5" ht="15" customHeight="1">
+    <row r="29" ht="15" customHeight="1" spans="1:5">
       <c r="A29" s="1" t="s">
-        <v>400</v>
+        <v>409</v>
       </c>
       <c r="B29" s="2">
-        <v>1.69042874315485E-6</v>
+        <v>1.69042874315485e-6</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>373</v>
+        <v>382</v>
       </c>
       <c r="D29" s="2"/>
       <c r="E29" s="2"/>
     </row>
-    <row r="30" spans="1:5" ht="15" customHeight="1">
+    <row r="30" ht="15" customHeight="1" spans="1:5">
       <c r="A30" s="1" t="s">
-        <v>401</v>
+        <v>410</v>
       </c>
       <c r="B30" s="2">
-        <v>1.67050227466973E-6</v>
+        <v>1.67050227466973e-6</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>373</v>
+        <v>382</v>
       </c>
       <c r="D30" s="2"/>
       <c r="E30" s="2"/>
     </row>
-    <row r="31" spans="1:5" ht="15" customHeight="1">
+    <row r="31" ht="15" customHeight="1" spans="1:5">
       <c r="A31" s="1" t="s">
-        <v>402</v>
+        <v>411</v>
       </c>
       <c r="B31" s="2">
-        <v>1.6821260479527201E-6</v>
+        <v>1.68212604795272e-6</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>373</v>
+        <v>382</v>
       </c>
       <c r="D31" s="2"/>
       <c r="E31" s="2"/>
     </row>
-    <row r="32" spans="1:5" ht="15" customHeight="1">
+    <row r="32" ht="15" customHeight="1" spans="1:5">
       <c r="A32" s="1" t="s">
-        <v>403</v>
+        <v>412</v>
       </c>
       <c r="B32" s="2">
-        <v>1.71035521163998E-6</v>
+        <v>1.71035521163998e-6</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>373</v>
+        <v>382</v>
       </c>
       <c r="D32" s="2"/>
       <c r="E32" s="2"/>
     </row>
-    <row r="33" spans="1:5" ht="15" customHeight="1">
+    <row r="33" ht="15" customHeight="1" spans="1:5">
       <c r="A33" s="1" t="s">
-        <v>404</v>
+        <v>413</v>
       </c>
       <c r="B33" s="2">
-        <v>1.67050227466973E-6</v>
+        <v>1.67050227466973e-6</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>373</v>
+        <v>382</v>
       </c>
       <c r="D33" s="2"/>
       <c r="E33" s="2"/>
     </row>
-    <row r="34" spans="1:5" ht="15" customHeight="1">
+    <row r="34" ht="15" customHeight="1" spans="1:5">
       <c r="A34" s="1" t="s">
-        <v>405</v>
+        <v>414</v>
       </c>
       <c r="B34" s="2">
-        <v>1.6489152671441701E-6</v>
+        <v>1.64891526714417e-6</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>373</v>
+        <v>382</v>
       </c>
       <c r="D34" s="2"/>
       <c r="E34" s="2"/>
     </row>
-    <row r="35" spans="1:5" ht="15" customHeight="1">
+    <row r="35" ht="15" customHeight="1" spans="1:5">
       <c r="A35" s="1" t="s">
-        <v>406</v>
+        <v>415</v>
       </c>
       <c r="B35" s="2">
-        <v>1.67880496987186E-6</v>
+        <v>1.67880496987186e-6</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>373</v>
+        <v>382</v>
       </c>
       <c r="D35" s="2"/>
       <c r="E35" s="2"/>
     </row>
-    <row r="36" spans="1:5" ht="15" customHeight="1">
+    <row r="36" ht="15" customHeight="1" spans="1:5">
       <c r="A36" s="1" t="s">
-        <v>407</v>
+        <v>416</v>
       </c>
       <c r="B36" s="2">
-        <v>1.6821260479527201E-6</v>
+        <v>1.68212604795272e-6</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>373</v>
+        <v>382</v>
       </c>
       <c r="D36" s="2"/>
       <c r="E36" s="2"/>
     </row>
-    <row r="37" spans="1:5" ht="15" customHeight="1">
+    <row r="37" ht="15" customHeight="1" spans="1:5">
       <c r="A37" s="1" t="s">
-        <v>408</v>
+        <v>417</v>
       </c>
       <c r="B37" s="2">
-        <v>1.67050227466973E-6</v>
+        <v>1.67050227466973e-6</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>373</v>
+        <v>382</v>
       </c>
       <c r="D37" s="2"/>
       <c r="E37" s="2"/>
     </row>
-    <row r="38" spans="1:5" ht="15" customHeight="1">
+    <row r="38" ht="15" customHeight="1" spans="1:5">
       <c r="A38" s="1" t="s">
-        <v>409</v>
+        <v>418</v>
       </c>
       <c r="B38" s="2">
-        <v>1.63895203290161E-6</v>
+        <v>1.63895203290161e-6</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>373</v>
+        <v>382</v>
       </c>
       <c r="D38" s="2"/>
       <c r="E38" s="2"/>
     </row>
-    <row r="39" spans="1:5" ht="15" customHeight="1">
+    <row r="39" ht="15" customHeight="1" spans="1:5">
       <c r="A39" s="1" t="s">
-        <v>410</v>
+        <v>419</v>
       </c>
       <c r="B39" s="2">
-        <v>1.6688417356293001E-6</v>
+        <v>1.6688417356293e-6</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>373</v>
+        <v>382</v>
       </c>
       <c r="D39" s="2"/>
       <c r="E39" s="2"/>
     </row>
-    <row r="40" spans="1:5" ht="15" customHeight="1">
+    <row r="40" ht="15" customHeight="1" spans="1:5">
       <c r="A40" s="1" t="s">
-        <v>411</v>
+        <v>420</v>
       </c>
       <c r="B40" s="2">
-        <v>1.6621995794675899E-6</v>
+        <v>1.66219957946759e-6</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>373</v>
+        <v>382</v>
       </c>
       <c r="D40" s="2"/>
       <c r="E40" s="2"/>
     </row>
-    <row r="41" spans="1:5" ht="15" customHeight="1">
+    <row r="41" ht="15" customHeight="1" spans="1:5">
       <c r="A41" s="1" t="s">
-        <v>412</v>
+        <v>421</v>
       </c>
       <c r="B41" s="2">
-        <v>1.6621995794675899E-6</v>
+        <v>1.66219957946759e-6</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>373</v>
+        <v>382</v>
       </c>
       <c r="D41" s="2"/>
       <c r="E41" s="2"/>
     </row>
-    <row r="42" spans="1:5" ht="15" customHeight="1">
+    <row r="42" ht="15" customHeight="1" spans="1:5">
       <c r="A42" s="1" t="s">
-        <v>413</v>
+        <v>422</v>
       </c>
       <c r="B42" s="2">
-        <v>1.65721796234631E-6</v>
+        <v>1.65721796234631e-6</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>373</v>
+        <v>382</v>
       </c>
       <c r="D42" s="2"/>
       <c r="E42" s="2"/>
     </row>
-    <row r="43" spans="1:5" ht="15" customHeight="1">
+    <row r="43" ht="15" customHeight="1" spans="1:5">
       <c r="A43" s="1" t="s">
-        <v>414</v>
+        <v>423</v>
       </c>
       <c r="B43" s="2">
-        <v>1.73194221916553E-6</v>
+        <v>1.73194221916553e-6</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>373</v>
+        <v>382</v>
       </c>
       <c r="D43" s="2"/>
       <c r="E43" s="2"/>
     </row>
-    <row r="44" spans="1:5" ht="15" customHeight="1">
+    <row r="44" ht="15" customHeight="1" spans="1:5">
       <c r="A44" s="1" t="s">
-        <v>415</v>
+        <v>424</v>
       </c>
       <c r="B44" s="2">
-        <v>1.66053904042716E-6</v>
+        <v>1.66053904042716e-6</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>373</v>
+        <v>382</v>
       </c>
       <c r="D44" s="2"/>
       <c r="E44" s="2"/>
     </row>
-    <row r="45" spans="1:5" ht="15" customHeight="1">
+    <row r="45" ht="15" customHeight="1" spans="1:5">
       <c r="A45" s="1" t="s">
-        <v>416</v>
+        <v>425</v>
       </c>
       <c r="B45" s="2">
-        <v>1.65389688426545E-6</v>
+        <v>1.65389688426545e-6</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>373</v>
+        <v>382</v>
       </c>
       <c r="D45" s="2"/>
       <c r="E45" s="2"/>
     </row>
-    <row r="46" spans="1:5" ht="15" customHeight="1">
+    <row r="46" ht="15" customHeight="1" spans="1:5">
       <c r="A46" s="1" t="s">
-        <v>417</v>
+        <v>426</v>
       </c>
       <c r="B46" s="2">
-        <v>1.6273282596186199E-6</v>
+        <v>1.62732825961862e-6</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>373</v>
+        <v>382</v>
       </c>
       <c r="D46" s="2"/>
       <c r="E46" s="2"/>
     </row>
-    <row r="47" spans="1:5" ht="15" customHeight="1">
+    <row r="47" ht="15" customHeight="1" spans="1:5">
       <c r="A47" s="1" t="s">
-        <v>418</v>
+        <v>427</v>
       </c>
       <c r="B47" s="2">
-        <v>1.65223634522503E-6</v>
+        <v>1.65223634522503e-6</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>373</v>
+        <v>382</v>
       </c>
       <c r="D47" s="2"/>
       <c r="E47" s="2"/>
     </row>
-    <row r="48" spans="1:5" ht="15" customHeight="1">
+    <row r="48" ht="15" customHeight="1" spans="1:5">
       <c r="A48" s="1" t="s">
-        <v>419</v>
+        <v>428</v>
       </c>
       <c r="B48" s="2">
-        <v>1.65721796234631E-6</v>
+        <v>1.65721796234631e-6</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>373</v>
+        <v>382</v>
       </c>
       <c r="D48" s="2"/>
       <c r="E48" s="2"/>
     </row>
-    <row r="49" spans="1:5" ht="15" customHeight="1">
+    <row r="49" ht="15" customHeight="1" spans="1:5">
       <c r="A49" s="1" t="s">
-        <v>420</v>
+        <v>429</v>
       </c>
       <c r="B49" s="2">
-        <v>1.69208928219528E-6</v>
+        <v>1.69208928219528e-6</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>373</v>
+        <v>382</v>
       </c>
       <c r="D49" s="2"/>
       <c r="E49" s="2"/>
     </row>
-    <row r="50" spans="1:5" ht="15" customHeight="1">
+    <row r="50" ht="15" customHeight="1" spans="1:5">
       <c r="A50" s="1" t="s">
-        <v>421</v>
+        <v>430</v>
       </c>
       <c r="B50" s="2">
-        <v>1.6140439472952001E-6</v>
+        <v>1.6140439472952e-6</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>373</v>
+        <v>382</v>
       </c>
       <c r="D50" s="2"/>
       <c r="E50" s="2"/>
     </row>
-    <row r="51" spans="1:5" ht="15" customHeight="1">
+    <row r="51" ht="15" customHeight="1" spans="1:5">
       <c r="A51" s="1" t="s">
-        <v>422</v>
+        <v>431</v>
       </c>
       <c r="B51" s="2">
-        <v>1.69541036027613E-6</v>
+        <v>1.69541036027613e-6</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>373</v>
+        <v>382</v>
       </c>
       <c r="D51" s="2"/>
       <c r="E51" s="2"/>
     </row>
-    <row r="52" spans="1:5" ht="15" customHeight="1">
+    <row r="52" ht="15" customHeight="1" spans="1:5">
       <c r="A52" s="1" t="s">
-        <v>423</v>
+        <v>432</v>
       </c>
       <c r="B52" s="2">
-        <v>1.6455941890633199E-6</v>
+        <v>1.64559418906332e-6</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>373</v>
+        <v>382</v>
       </c>
       <c r="D52" s="2"/>
       <c r="E52" s="2"/>
     </row>
-    <row r="53" spans="1:5" ht="15" customHeight="1">
+    <row r="53" ht="15" customHeight="1" spans="1:5">
       <c r="A53" s="1" t="s">
-        <v>424</v>
+        <v>433</v>
       </c>
       <c r="B53" s="2">
-        <v>1.7020525164378399E-6</v>
+        <v>1.70205251643784e-6</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>373</v>
+        <v>382</v>
       </c>
       <c r="D53" s="2"/>
       <c r="E53" s="2"/>
     </row>
-    <row r="54" spans="1:5" ht="15" customHeight="1">
+    <row r="54" ht="15" customHeight="1" spans="1:5">
       <c r="A54" s="1" t="s">
-        <v>425</v>
+        <v>434</v>
       </c>
       <c r="B54" s="2">
-        <v>1.65721796234631E-6</v>
+        <v>1.65721796234631e-6</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>373</v>
+        <v>382</v>
       </c>
       <c r="D54" s="2"/>
       <c r="E54" s="2"/>
     </row>
-    <row r="55" spans="1:5" ht="15" customHeight="1">
+    <row r="55" ht="15" customHeight="1" spans="1:5">
       <c r="A55" s="1" t="s">
-        <v>426</v>
+        <v>435</v>
       </c>
       <c r="B55" s="2">
-        <v>1.6306493376994701E-6</v>
+        <v>1.63064933769947e-6</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>373</v>
+        <v>382</v>
       </c>
       <c r="D55" s="2"/>
       <c r="E55" s="2"/>
     </row>
-    <row r="56" spans="1:5" ht="15" customHeight="1">
+    <row r="56" ht="15" customHeight="1" spans="1:5">
       <c r="A56" s="1" t="s">
-        <v>427</v>
+        <v>436</v>
       </c>
       <c r="B56" s="2">
-        <v>1.6455941890633199E-6</v>
+        <v>1.64559418906332e-6</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>373</v>
+        <v>382</v>
       </c>
       <c r="D56" s="2"/>
       <c r="E56" s="2"/>
     </row>
-    <row r="57" spans="1:5" ht="15" customHeight="1">
+    <row r="57" ht="15" customHeight="1" spans="1:5">
       <c r="A57" s="1" t="s">
-        <v>428</v>
+        <v>437</v>
       </c>
       <c r="B57" s="2">
-        <v>1.66053904042716E-6</v>
+        <v>1.66053904042716e-6</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>373</v>
+        <v>382</v>
       </c>
       <c r="D57" s="2"/>
       <c r="E57" s="2"/>
     </row>
-    <row r="58" spans="1:5" ht="15" customHeight="1">
+    <row r="58" ht="15" customHeight="1" spans="1:5">
       <c r="A58" s="1" t="s">
-        <v>429</v>
+        <v>438</v>
       </c>
       <c r="B58" s="2">
-        <v>1.6671811965888701E-6</v>
+        <v>1.66718119658887e-6</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>373</v>
+        <v>382</v>
       </c>
       <c r="D58" s="2"/>
       <c r="E58" s="2"/>
     </row>
-    <row r="59" spans="1:5" ht="15" customHeight="1">
+    <row r="59" ht="15" customHeight="1" spans="1:5">
       <c r="A59" s="1" t="s">
-        <v>430</v>
+        <v>439</v>
       </c>
       <c r="B59" s="2">
-        <v>1.6854471260335701E-6</v>
+        <v>1.68544712603357e-6</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>373</v>
+        <v>382</v>
       </c>
       <c r="D59" s="2"/>
       <c r="E59" s="2"/>
     </row>
-    <row r="60" spans="1:5" ht="15" customHeight="1">
+    <row r="60" ht="15" customHeight="1" spans="1:5">
       <c r="A60" s="1" t="s">
-        <v>431</v>
+        <v>440</v>
       </c>
       <c r="B60" s="2">
-        <v>1.67880496987186E-6</v>
+        <v>1.67880496987186e-6</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>373</v>
+        <v>382</v>
       </c>
       <c r="D60" s="2"/>
       <c r="E60" s="2"/>
     </row>
-    <row r="61" spans="1:5" ht="15" customHeight="1">
+    <row r="61" ht="15" customHeight="1" spans="1:5">
       <c r="A61" s="1" t="s">
-        <v>432</v>
+        <v>441</v>
       </c>
       <c r="B61" s="2">
-        <v>1.6605390404271601E-7</v>
+        <v>1.66053904042716e-7</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>373</v>
+        <v>382</v>
       </c>
       <c r="D61" s="2"/>
       <c r="E61" s="2"/>
     </row>
-    <row r="62" spans="1:5" ht="15" customHeight="1">
+    <row r="62" ht="15" customHeight="1" spans="1:5">
       <c r="A62" s="1" t="s">
-        <v>433</v>
+        <v>442</v>
       </c>
       <c r="B62" s="2">
-        <v>1.8930145060869699E-7</v>
+        <v>1.89301450608697e-7</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>373</v>
+        <v>382</v>
       </c>
       <c r="D62" s="2"/>
       <c r="E62" s="2"/>
     </row>
-    <row r="63" spans="1:5" ht="15" customHeight="1">
+    <row r="63" ht="15" customHeight="1" spans="1:5">
       <c r="A63" s="1" t="s">
-        <v>434</v>
+        <v>443</v>
       </c>
       <c r="B63" s="2">
-        <v>1.4114581843630899E-7</v>
+        <v>1.41145818436309e-7</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>373</v>
+        <v>382</v>
       </c>
       <c r="D63" s="2"/>
       <c r="E63" s="2"/>
     </row>
-    <row r="64" spans="1:5" ht="15" customHeight="1">
+    <row r="64" ht="15" customHeight="1" spans="1:5">
       <c r="A64" s="1" t="s">
-        <v>435</v>
+        <v>444</v>
       </c>
       <c r="B64" s="2">
-        <v>1.9262252868955099E-7</v>
+        <v>1.92622528689551e-7</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>373</v>
+        <v>382</v>
       </c>
       <c r="D64" s="2"/>
       <c r="E64" s="2"/>
     </row>
-    <row r="65" spans="1:5" ht="15" customHeight="1">
+    <row r="65" ht="15" customHeight="1" spans="1:5">
       <c r="A65" s="1" t="s">
-        <v>436</v>
+        <v>445</v>
       </c>
       <c r="B65" s="2">
-        <v>1.85980372527842E-7</v>
+        <v>1.85980372527842e-7</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>373</v>
+        <v>382</v>
       </c>
       <c r="D65" s="2"/>
       <c r="E65" s="2"/>
     </row>
-    <row r="66" spans="1:5" ht="15" customHeight="1">
+    <row r="66" ht="15" customHeight="1" spans="1:5">
       <c r="A66" s="1" t="s">
-        <v>437</v>
+        <v>446</v>
       </c>
       <c r="B66" s="2">
-        <v>1.3118258419374599E-7</v>
+        <v>1.31182584193746e-7</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>373</v>
+        <v>382</v>
       </c>
       <c r="D66" s="2"/>
       <c r="E66" s="2"/>
     </row>
-    <row r="67" spans="1:5" ht="15" customHeight="1">
+    <row r="67" ht="15" customHeight="1" spans="1:5">
       <c r="A67" s="1" t="s">
-        <v>438</v>
+        <v>447</v>
       </c>
       <c r="B67" s="2">
-        <v>1.6273282596186201E-7</v>
+        <v>1.62732825961862e-7</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>373</v>
+        <v>382</v>
       </c>
       <c r="D67" s="2"/>
       <c r="E67" s="2"/>
     </row>
-    <row r="68" spans="1:5" ht="15" customHeight="1">
+    <row r="68" ht="15" customHeight="1" spans="1:5">
       <c r="A68" s="1" t="s">
-        <v>439</v>
+        <v>448</v>
       </c>
       <c r="B68" s="2">
-        <v>2.09227919093823E-7</v>
+        <v>2.09227919093823e-7</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>373</v>
+        <v>382</v>
       </c>
       <c r="D68" s="2"/>
       <c r="E68" s="2"/>
     </row>
-    <row r="69" spans="1:5" ht="15" customHeight="1">
+    <row r="69" ht="15" customHeight="1" spans="1:5">
       <c r="A69" s="1" t="s">
-        <v>440</v>
+        <v>449</v>
       </c>
       <c r="B69" s="2">
-        <v>1.71035521163998E-7</v>
+        <v>1.71035521163998e-7</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>373</v>
+        <v>382</v>
       </c>
       <c r="D69" s="2"/>
       <c r="E69" s="2"/>
     </row>
-    <row r="70" spans="1:5" ht="15" customHeight="1">
+    <row r="70" ht="15" customHeight="1" spans="1:5">
       <c r="A70" s="1" t="s">
-        <v>441</v>
+        <v>450</v>
       </c>
       <c r="B70" s="2">
-        <v>1.5276959171929901E-7</v>
+        <v>1.52769591719299e-7</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>373</v>
+        <v>382</v>
       </c>
       <c r="D70" s="2"/>
       <c r="E70" s="2"/>
     </row>
-    <row r="71" spans="1:5" ht="15" customHeight="1">
+    <row r="71" ht="15" customHeight="1" spans="1:5">
       <c r="A71" s="1" t="s">
-        <v>442</v>
+        <v>451</v>
       </c>
       <c r="B71" s="2">
-        <v>1.5443013075972599E-7</v>
+        <v>1.54430130759726e-7</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>373</v>
+        <v>382</v>
       </c>
       <c r="D71" s="2"/>
       <c r="E71" s="2"/>
     </row>
-    <row r="72" spans="1:5" ht="15" customHeight="1">
+    <row r="72" ht="15" customHeight="1" spans="1:5">
       <c r="A72" s="1" t="s">
-        <v>443</v>
+        <v>452</v>
       </c>
       <c r="B72" s="2">
-        <v>1.59411747881008E-7</v>
+        <v>1.59411747881008e-7</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>373</v>
+        <v>382</v>
       </c>
       <c r="D72" s="2"/>
       <c r="E72" s="2"/>
     </row>
-    <row r="73" spans="1:5" ht="15" customHeight="1">
+    <row r="73" ht="15" customHeight="1" spans="1:5">
       <c r="A73" s="1" t="s">
-        <v>444</v>
+        <v>453</v>
       </c>
       <c r="B73" s="2">
-        <v>1.85980372527842E-7</v>
+        <v>1.85980372527842e-7</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>373</v>
+        <v>382</v>
       </c>
       <c r="D73" s="2"/>
       <c r="E73" s="2"/>
     </row>
-    <row r="74" spans="1:5" ht="15" customHeight="1">
+    <row r="74" ht="15" customHeight="1" spans="1:5">
       <c r="A74" s="1" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
       <c r="B74" s="2">
-        <v>1.71035521163998E-7</v>
+        <v>1.71035521163998e-7</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>373</v>
+        <v>382</v>
       </c>
       <c r="D74" s="2"/>
       <c r="E74" s="2"/>
     </row>
-    <row r="75" spans="1:5" ht="15" customHeight="1">
+    <row r="75" ht="15" customHeight="1" spans="1:5">
       <c r="A75" s="1" t="s">
-        <v>446</v>
+        <v>455</v>
       </c>
       <c r="B75" s="2">
-        <v>1.8099875540656099E-7</v>
+        <v>1.80998755406561e-7</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>373</v>
+        <v>382</v>
       </c>
       <c r="D75" s="2"/>
       <c r="E75" s="2"/>
     </row>
-    <row r="76" spans="1:5" ht="15" customHeight="1">
+    <row r="76" ht="15" customHeight="1" spans="1:5">
       <c r="A76" s="1" t="s">
-        <v>447</v>
+        <v>456</v>
       </c>
       <c r="B76" s="2">
-        <v>1.9926468485126001E-7</v>
+        <v>1.9926468485126e-7</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>373</v>
+        <v>382</v>
       </c>
       <c r="D76" s="2"/>
       <c r="E76" s="2"/>
     </row>
-    <row r="77" spans="1:5" ht="15" customHeight="1">
+    <row r="77" ht="15" customHeight="1" spans="1:5">
       <c r="A77" s="1" t="s">
-        <v>448</v>
+        <v>457</v>
       </c>
       <c r="B77" s="2">
-        <v>1.4280635747673599E-7</v>
+        <v>1.42806357476736e-7</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>373</v>
+        <v>382</v>
       </c>
       <c r="D77" s="2"/>
       <c r="E77" s="2"/>
     </row>
-    <row r="78" spans="1:5" ht="15" customHeight="1">
+    <row r="78" ht="15" customHeight="1" spans="1:5">
       <c r="A78" s="1" t="s">
-        <v>449</v>
+        <v>458</v>
       </c>
       <c r="B78" s="2">
-        <v>1.7601713828527901E-7</v>
+        <v>1.76017138285279e-7</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>373</v>
+        <v>382</v>
       </c>
       <c r="D78" s="2"/>
       <c r="E78" s="2"/>
     </row>
-    <row r="79" spans="1:5" ht="15" customHeight="1">
+    <row r="79" ht="15" customHeight="1" spans="1:5">
       <c r="A79" s="1" t="s">
-        <v>450</v>
+        <v>459</v>
       </c>
       <c r="B79" s="2">
-        <v>1.82659294446988E-7</v>
+        <v>1.82659294446988e-7</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>373</v>
+        <v>382</v>
       </c>
       <c r="D79" s="2"/>
       <c r="E79" s="2"/>
     </row>
-    <row r="80" spans="1:5" ht="15" customHeight="1">
+    <row r="80" ht="15" customHeight="1" spans="1:5">
       <c r="A80" s="1" t="s">
-        <v>451</v>
+        <v>460</v>
       </c>
       <c r="B80" s="2">
-        <v>1.9096198964912399E-7</v>
+        <v>1.90961989649124e-7</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>373</v>
+        <v>382</v>
       </c>
       <c r="D80" s="2"/>
       <c r="E80" s="2"/>
     </row>
-    <row r="81" spans="1:5" ht="15" customHeight="1">
+    <row r="81" ht="15" customHeight="1" spans="1:5">
       <c r="A81" s="1" t="s">
-        <v>452</v>
+        <v>461</v>
       </c>
       <c r="B81" s="2">
-        <v>1.69374982123571E-7</v>
+        <v>1.69374982123571e-7</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>373</v>
+        <v>382</v>
       </c>
       <c r="D81" s="2"/>
       <c r="E81" s="2"/>
     </row>
-    <row r="82" spans="1:5" ht="15" customHeight="1">
+    <row r="82" ht="15" customHeight="1" spans="1:5">
       <c r="A82" s="1" t="s">
-        <v>453</v>
+        <v>462</v>
       </c>
       <c r="B82" s="2">
-        <v>1.5443013075972599E-7</v>
+        <v>1.54430130759726e-7</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>373</v>
+        <v>382</v>
       </c>
       <c r="D82" s="2"/>
       <c r="E82" s="2"/>
     </row>
-    <row r="83" spans="1:5" ht="15" customHeight="1">
+    <row r="83" ht="15" customHeight="1" spans="1:5">
       <c r="A83" s="1" t="s">
-        <v>454</v>
+        <v>463</v>
       </c>
       <c r="B83" s="2">
-        <v>1.72696060204425E-7</v>
+        <v>1.72696060204425e-7</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>373</v>
+        <v>382</v>
       </c>
       <c r="D83" s="2"/>
       <c r="E83" s="2"/>
     </row>
-    <row r="84" spans="1:5" ht="15" customHeight="1">
+    <row r="84" ht="15" customHeight="1" spans="1:5">
       <c r="A84" s="1" t="s">
-        <v>455</v>
+        <v>464</v>
       </c>
       <c r="B84" s="2">
-        <v>1.71035521163998E-7</v>
+        <v>1.71035521163998e-7</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>373</v>
+        <v>382</v>
       </c>
       <c r="D84" s="2"/>
       <c r="E84" s="2"/>
     </row>
-    <row r="85" spans="1:5" ht="15" customHeight="1">
+    <row r="85" ht="15" customHeight="1" spans="1:5">
       <c r="A85" s="1" t="s">
-        <v>456</v>
+        <v>465</v>
       </c>
       <c r="B85" s="2">
-        <v>1.5276959171929901E-7</v>
+        <v>1.52769591719299e-7</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>373</v>
+        <v>382</v>
       </c>
       <c r="D85" s="2"/>
       <c r="E85" s="2"/>
     </row>
-    <row r="86" spans="1:5" ht="15" customHeight="1">
+    <row r="86" ht="15" customHeight="1" spans="1:5">
       <c r="A86" s="1" t="s">
-        <v>457</v>
+        <v>466</v>
       </c>
       <c r="B86" s="2">
-        <v>1.7767767732570699E-7</v>
+        <v>1.77677677325707e-7</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>373</v>
+        <v>382</v>
       </c>
       <c r="D86" s="2"/>
       <c r="E86" s="2"/>
     </row>
-    <row r="87" spans="1:5" ht="15" customHeight="1">
+    <row r="87" ht="15" customHeight="1" spans="1:5">
       <c r="A87" s="1" t="s">
-        <v>458</v>
+        <v>467</v>
       </c>
       <c r="B87" s="2">
-        <v>1.69374982123571E-7</v>
+        <v>1.69374982123571e-7</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>373</v>
+        <v>382</v>
       </c>
       <c r="D87" s="2"/>
       <c r="E87" s="2"/>
     </row>
-    <row r="88" spans="1:5" ht="15" customHeight="1">
+    <row r="88" ht="15" customHeight="1" spans="1:5">
       <c r="A88" s="1" t="s">
-        <v>459</v>
+        <v>468</v>
       </c>
       <c r="B88" s="2">
-        <v>1.5443013075972599E-7</v>
+        <v>1.54430130759726e-7</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>373</v>
+        <v>382</v>
       </c>
       <c r="D88" s="2"/>
       <c r="E88" s="2"/>
     </row>
-    <row r="89" spans="1:5" ht="15" customHeight="1">
+    <row r="89" ht="15" customHeight="1" spans="1:5">
       <c r="A89" s="1" t="s">
-        <v>460</v>
+        <v>469</v>
       </c>
       <c r="B89" s="2">
-        <v>6.7999999999999999E-5</v>
+        <v>6.8e-5</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>373</v>
+        <v>382</v>
       </c>
       <c r="D89" s="2"/>
       <c r="E89" s="2"/>
     </row>
-    <row r="90" spans="1:5" ht="15" customHeight="1">
+    <row r="90" ht="15" customHeight="1" spans="1:5">
       <c r="A90" s="1" t="s">
-        <v>461</v>
+        <v>470</v>
       </c>
       <c r="B90" s="2">
-        <v>1.8000000000000001E-4</v>
+        <v>0.00018</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>373</v>
+        <v>382</v>
       </c>
       <c r="D90" s="2"/>
       <c r="E90" s="2"/>
     </row>
-    <row r="91" spans="1:5" ht="15" customHeight="1">
+    <row r="91" ht="15" customHeight="1" spans="1:5">
       <c r="A91" s="1" t="s">
-        <v>462</v>
+        <v>471</v>
       </c>
       <c r="B91" s="2">
-        <v>1.2E-5</v>
+        <v>1.2e-5</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>373</v>
+        <v>382</v>
       </c>
       <c r="D91" s="2"/>
       <c r="E91" s="2"/>
     </row>
-    <row r="92" spans="1:5" ht="15" customHeight="1">
+    <row r="92" ht="15" customHeight="1" spans="1:5">
       <c r="A92" s="1" t="s">
-        <v>463</v>
+        <v>472</v>
       </c>
       <c r="B92" s="2">
-        <v>2.9E-5</v>
+        <v>2.9e-5</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>373</v>
+        <v>382</v>
       </c>
       <c r="D92" s="2"/>
       <c r="E92" s="2"/>
     </row>
-    <row r="93" spans="1:5" ht="15" customHeight="1">
+    <row r="93" ht="15" customHeight="1" spans="1:5">
       <c r="A93" s="1" t="s">
-        <v>464</v>
+        <v>473</v>
       </c>
       <c r="B93" s="2">
-        <v>1.84E-4</v>
+        <v>0.000184</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>373</v>
+        <v>382</v>
       </c>
       <c r="D93" s="2"/>
       <c r="E93" s="2"/>
     </row>
-    <row r="94" spans="1:5" ht="15" customHeight="1">
+    <row r="94" ht="15" customHeight="1" spans="1:5">
       <c r="A94" s="1" t="s">
-        <v>465</v>
+        <v>474</v>
       </c>
       <c r="B94" s="2">
-        <v>2E-3</v>
+        <v>0.002</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>373</v>
+        <v>382</v>
       </c>
       <c r="D94" s="2"/>
       <c r="E94" s="2"/>
     </row>
-    <row r="95" spans="1:5" ht="15" customHeight="1">
+    <row r="95" ht="15" customHeight="1" spans="1:5">
       <c r="A95" s="1" t="s">
-        <v>466</v>
+        <v>475</v>
       </c>
       <c r="B95" s="2">
-        <v>4.0000000000000001E-3</v>
+        <v>0.004</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>373</v>
+        <v>382</v>
       </c>
       <c r="D95" s="2"/>
       <c r="E95" s="2"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:E95"/>
+  <autoFilter ref="A1:E95">
+    <extLst/>
+  </autoFilter>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
       <selection pane="bottomRight" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2"/>
   <cols>
-    <col min="1" max="1" width="21.85546875" customWidth="1"/>
-    <col min="3" max="3" width="19.7109375" customWidth="1"/>
+    <col min="1" max="1" width="21.8583333333333" customWidth="1"/>
+    <col min="3" max="3" width="19.7083333333333" customWidth="1"/>
     <col min="4" max="4" width="32" customWidth="1"/>
-    <col min="5" max="5" width="15.5703125" customWidth="1"/>
-    <col min="7" max="7" width="12.7109375" customWidth="1"/>
-    <col min="8" max="8" width="27.28515625" customWidth="1"/>
+    <col min="5" max="5" width="15.5666666666667" customWidth="1"/>
+    <col min="7" max="7" width="12.7083333333333" customWidth="1"/>
+    <col min="8" max="8" width="27.2833333333333" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15" customHeight="1">
+    <row r="1" ht="15" customHeight="1" spans="1:8">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4334,13 +5007,13 @@
         <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>467</v>
+        <v>476</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>468</v>
+        <v>477</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>469</v>
+        <v>478</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>11</v>
@@ -4352,16 +5025,16 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="15" customHeight="1">
+    <row r="2" ht="15" customHeight="1" spans="1:9">
       <c r="A2" s="1" t="s">
-        <v>470</v>
+        <v>479</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" s="2" t="s">
-        <v>471</v>
+        <v>480</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>472</v>
+        <v>481</v>
       </c>
       <c r="E2" s="2" t="b">
         <v>0</v>
@@ -4371,16 +5044,16 @@
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
     </row>
-    <row r="3" spans="1:9" ht="15" customHeight="1">
+    <row r="3" ht="15" customHeight="1" spans="1:9">
       <c r="A3" s="1" t="s">
-        <v>473</v>
+        <v>482</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" s="2" t="s">
-        <v>471</v>
+        <v>480</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>474</v>
+        <v>483</v>
       </c>
       <c r="E3" s="2" t="b">
         <v>0</v>
@@ -4391,44 +5064,49 @@
       <c r="I3" s="2"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:G3"/>
+  <autoFilter ref="A1:G3">
+    <extLst/>
+  </autoFilter>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:H4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="A5" sqref="A5"/>
+      <selection pane="bottomRight" activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="2" width="44.28515625" customWidth="1"/>
-    <col min="4" max="4" width="67.140625" customWidth="1"/>
-    <col min="8" max="8" width="18.7109375" customWidth="1"/>
+    <col min="1" max="2" width="44.2833333333333" customWidth="1"/>
+    <col min="4" max="4" width="67.1416666666667" customWidth="1"/>
+    <col min="8" max="8" width="18.7083333333333" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15" customHeight="1">
+    <row r="1" ht="15" customHeight="1" spans="1:8">
       <c r="A1" s="1" t="s">
-        <v>518</v>
+        <v>484</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>475</v>
+        <v>485</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>476</v>
+        <v>486</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>513</v>
+        <v>487</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>371</v>
+        <v>380</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>11</v>
@@ -4440,59 +5118,63 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
-      <c r="A2" s="8" t="s">
-        <v>516</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>470</v>
+    <row r="2" spans="1:5">
+      <c r="A2" s="6" t="s">
+        <v>488</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>479</v>
       </c>
       <c r="C2" t="s">
-        <v>477</v>
+        <v>489</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>478</v>
+        <v>490</v>
       </c>
       <c r="E2">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
-      <c r="A3" s="8" t="s">
-        <v>517</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>473</v>
+    <row r="3" spans="1:5">
+      <c r="A3" s="6" t="s">
+        <v>491</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>482</v>
       </c>
       <c r="C3" t="s">
-        <v>477</v>
+        <v>489</v>
       </c>
       <c r="D3" t="s">
-        <v>479</v>
+        <v>492</v>
       </c>
       <c r="E3">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
-      <c r="B4" s="7"/>
+    <row r="4" spans="2:2">
+      <c r="B4" s="8"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:G3"/>
+  <autoFilter ref="A1:G3">
+    <extLst/>
+  </autoFilter>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="1" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2" outlineLevelCol="7"/>
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" s="4" t="s">
@@ -4502,13 +5184,13 @@
         <v>2</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>370</v>
+        <v>379</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>480</v>
+        <v>493</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>371</v>
+        <v>380</v>
       </c>
       <c r="F1" s="5" t="s">
         <v>11</v>
@@ -4520,44 +5202,47 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>514</v>
+        <v>494</v>
       </c>
       <c r="C2">
         <v>0.05</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>515</v>
+        <v>495</v>
       </c>
       <c r="C3">
-        <v>7.4999999999999997E-2</v>
+        <v>0.075</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
       <selection pane="bottomRight" activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4" outlineLevelCol="6"/>
   <cols>
-    <col min="7" max="7" width="18.7109375" customWidth="1"/>
+    <col min="7" max="7" width="18.7083333333333" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15" customHeight="1">
+    <row r="1" ht="15" customHeight="1" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4565,10 +5250,10 @@
         <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>370</v>
+        <v>379</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>371</v>
+        <v>380</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>11</v>
@@ -4580,85 +5265,90 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="15" customHeight="1">
+    <row r="2" ht="15" customHeight="1" spans="1:6">
       <c r="A2" s="1" t="s">
-        <v>481</v>
+        <v>496</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" s="2">
         <v>100</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>482</v>
+        <v>497</v>
       </c>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
     </row>
-    <row r="3" spans="1:7" ht="15" customHeight="1">
+    <row r="3" ht="15" customHeight="1" spans="1:6">
       <c r="A3" s="1" t="s">
-        <v>483</v>
+        <v>498</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" s="2">
         <v>1000000</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>484</v>
+        <v>499</v>
       </c>
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
     </row>
-    <row r="4" spans="1:7" ht="15" customHeight="1">
+    <row r="4" ht="15" customHeight="1" spans="1:6">
       <c r="A4" s="1" t="s">
-        <v>485</v>
+        <v>500</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" s="2">
         <v>0.3</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>486</v>
+        <v>501</v>
       </c>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
     </row>
-    <row r="5" spans="1:7" ht="15" customHeight="1">
+    <row r="5" ht="15" customHeight="1" spans="1:6">
       <c r="A5" s="1" t="s">
-        <v>487</v>
+        <v>502</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" s="2">
-        <v>1.0000000000000001E-15</v>
+        <v>1e-15</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>488</v>
+        <v>503</v>
       </c>
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:F5"/>
+  <autoFilter ref="A1:F5">
+    <extLst/>
+  </autoFilter>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
       <selection pane="bottomRight" activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
   <cols>
-    <col min="7" max="7" width="18.7109375" customWidth="1"/>
+    <col min="7" max="7" width="18.7083333333333" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15" customHeight="1">
+    <row r="1" ht="15" customHeight="1" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4666,10 +5356,10 @@
         <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>513</v>
+        <v>487</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>371</v>
+        <v>380</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>11</v>
@@ -4681,15 +5371,15 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="15" customHeight="1">
+    <row r="2" ht="15" customHeight="1" spans="1:6">
       <c r="A2" s="1" t="s">
-        <v>489</v>
+        <v>504</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>490</v>
+        <v>505</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>423</v>
+        <v>432</v>
       </c>
       <c r="D2" s="2">
         <v>1</v>
@@ -4697,15 +5387,15 @@
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
     </row>
-    <row r="3" spans="1:7" ht="15" customHeight="1">
+    <row r="3" ht="15" customHeight="1" spans="1:6">
       <c r="A3" s="1" t="s">
-        <v>491</v>
+        <v>506</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>492</v>
+        <v>507</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>429</v>
+        <v>438</v>
       </c>
       <c r="D3" s="2">
         <v>1</v>
@@ -4713,15 +5403,15 @@
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
     </row>
-    <row r="4" spans="1:7" ht="15" customHeight="1">
+    <row r="4" ht="15" customHeight="1" spans="1:6">
       <c r="A4" s="1" t="s">
-        <v>493</v>
+        <v>508</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>494</v>
+        <v>509</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>409</v>
+        <v>418</v>
       </c>
       <c r="D4" s="2">
         <v>1</v>
@@ -4729,15 +5419,15 @@
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
     </row>
-    <row r="5" spans="1:7" ht="15" customHeight="1">
+    <row r="5" ht="15" customHeight="1" spans="1:6">
       <c r="A5" s="1" t="s">
-        <v>495</v>
+        <v>510</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>367</v>
+        <v>376</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>432</v>
+        <v>441</v>
       </c>
       <c r="D5" s="2">
         <v>1</v>
@@ -4745,15 +5435,15 @@
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
     </row>
-    <row r="6" spans="1:7" ht="15" customHeight="1">
+    <row r="6" ht="15" customHeight="1" spans="1:6">
       <c r="A6" s="1" t="s">
-        <v>496</v>
+        <v>511</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>497</v>
+        <v>512</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>427</v>
+        <v>436</v>
       </c>
       <c r="D6" s="2">
         <v>1</v>
@@ -4761,15 +5451,15 @@
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
     </row>
-    <row r="7" spans="1:7" ht="15" customHeight="1">
+    <row r="7" ht="15" customHeight="1" spans="1:6">
       <c r="A7" s="1" t="s">
-        <v>498</v>
+        <v>513</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>499</v>
+        <v>514</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>411</v>
+        <v>420</v>
       </c>
       <c r="D7" s="2">
         <v>1</v>
@@ -4777,15 +5467,15 @@
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
     </row>
-    <row r="8" spans="1:7" ht="15" customHeight="1">
+    <row r="8" ht="15" customHeight="1" spans="1:6">
       <c r="A8" s="1" t="s">
-        <v>500</v>
+        <v>515</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>501</v>
+        <v>516</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>425</v>
+        <v>434</v>
       </c>
       <c r="D8" s="2">
         <v>1</v>
@@ -4793,15 +5483,15 @@
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
     </row>
-    <row r="9" spans="1:7" ht="15" customHeight="1">
+    <row r="9" ht="15" customHeight="1" spans="1:6">
       <c r="A9" s="1" t="s">
-        <v>502</v>
+        <v>517</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>503</v>
+        <v>518</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>408</v>
+        <v>417</v>
       </c>
       <c r="D9" s="2">
         <v>1</v>
@@ -4809,15 +5499,15 @@
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
     </row>
-    <row r="10" spans="1:7" ht="15" customHeight="1">
+    <row r="10" ht="15" customHeight="1" spans="1:6">
       <c r="A10" s="1" t="s">
-        <v>504</v>
+        <v>519</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>505</v>
+        <v>520</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>458</v>
+        <v>467</v>
       </c>
       <c r="D10" s="2">
         <v>1</v>
@@ -4825,15 +5515,15 @@
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
     </row>
-    <row r="11" spans="1:7" ht="15" customHeight="1">
+    <row r="11" ht="15" customHeight="1" spans="1:6">
       <c r="A11" s="1" t="s">
-        <v>506</v>
+        <v>521</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>507</v>
+        <v>522</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>453</v>
+        <v>462</v>
       </c>
       <c r="D11" s="2">
         <v>1</v>
@@ -4841,15 +5531,15 @@
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
     </row>
-    <row r="12" spans="1:7" ht="15" customHeight="1">
+    <row r="12" ht="15" customHeight="1" spans="1:6">
       <c r="A12" s="1" t="s">
-        <v>508</v>
+        <v>523</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>509</v>
+        <v>524</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>449</v>
+        <v>458</v>
       </c>
       <c r="D12" s="2">
         <v>1</v>
@@ -4857,15 +5547,15 @@
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
     </row>
-    <row r="13" spans="1:7" ht="15" customHeight="1">
+    <row r="13" ht="15" customHeight="1" spans="1:6">
       <c r="A13" s="1" t="s">
-        <v>510</v>
+        <v>525</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>511</v>
+        <v>526</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>436</v>
+        <v>445</v>
       </c>
       <c r="D13" s="2">
         <v>1</v>
@@ -4874,52 +5564,62 @@
       <c r="F13" s="2"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:F13"/>
+  <autoFilter ref="A1:F13">
+    <extLst/>
+  </autoFilter>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:B1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="1"/>
   <sheetData>
-    <row r="1" spans="1:2" ht="15" customHeight="1">
+    <row r="1" ht="15" customHeight="1" spans="1:2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>512</v>
+        <v>527</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:B1"/>
+  <autoFilter ref="A1:B1">
+    <extLst/>
+  </autoFilter>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="1"/>
   <sheetData>
-    <row r="1" spans="1:2" ht="15" customHeight="1">
+    <row r="1" ht="15" customHeight="1" spans="1:2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4927,47 +5627,52 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="15" customHeight="1">
+    <row r="2" ht="15" customHeight="1" spans="1:2">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="2"/>
     </row>
-    <row r="3" spans="1:2" ht="15" customHeight="1">
+    <row r="3" ht="15" customHeight="1" spans="1:2">
       <c r="A3" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B3" s="2"/>
     </row>
-    <row r="4" spans="1:2" ht="15" customHeight="1">
+    <row r="4" ht="15" customHeight="1" spans="1:2">
       <c r="A4" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B4" s="2"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:B4"/>
+  <autoFilter ref="A1:B4">
+    <extLst/>
+  </autoFilter>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
       <selection pane="bottomRight" activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2" outlineLevelCol="5"/>
   <cols>
-    <col min="6" max="6" width="18.7109375" customWidth="1"/>
+    <col min="6" max="6" width="18.7083333333333" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15" customHeight="1">
+    <row r="1" ht="15" customHeight="1" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4987,7 +5692,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15" customHeight="1">
+    <row r="2" ht="15" customHeight="1" spans="1:5">
       <c r="A2" s="1" t="s">
         <v>17</v>
       </c>
@@ -4998,7 +5703,7 @@
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
     </row>
-    <row r="3" spans="1:6" ht="15" customHeight="1">
+    <row r="3" ht="15" customHeight="1" spans="1:5">
       <c r="A3" s="1" t="s">
         <v>19</v>
       </c>
@@ -5010,29 +5715,34 @@
       <c r="E3" s="2"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:E3"/>
+  <autoFilter ref="A1:E3">
+    <extLst/>
+  </autoFilter>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait"/>
+  <pageSetup paperSize="1" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G35"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:G37"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="G7" sqref="G7"/>
+      <selection pane="bottomRight" activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
   <cols>
-    <col min="7" max="7" width="18.7109375" customWidth="1"/>
+    <col min="7" max="7" width="18.7083333333333" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15" customHeight="1">
+    <row r="1" ht="15" customHeight="1" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -5055,7 +5765,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="15" customHeight="1">
+    <row r="2" ht="15" customHeight="1" spans="1:6">
       <c r="A2" s="1" t="s">
         <v>23</v>
       </c>
@@ -5069,7 +5779,7 @@
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
     </row>
-    <row r="3" spans="1:7" ht="15" customHeight="1">
+    <row r="3" ht="15" customHeight="1" spans="1:6">
       <c r="A3" s="1" t="s">
         <v>26</v>
       </c>
@@ -5083,7 +5793,7 @@
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
     </row>
-    <row r="4" spans="1:7" ht="15" customHeight="1">
+    <row r="4" ht="15" customHeight="1" spans="1:6">
       <c r="A4" s="1" t="s">
         <v>29</v>
       </c>
@@ -5097,7 +5807,7 @@
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
     </row>
-    <row r="5" spans="1:7" ht="15" customHeight="1">
+    <row r="5" ht="15" customHeight="1" spans="1:6">
       <c r="A5" s="1" t="s">
         <v>32</v>
       </c>
@@ -5111,7 +5821,7 @@
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
     </row>
-    <row r="6" spans="1:7" ht="15" customHeight="1">
+    <row r="6" ht="15" customHeight="1" spans="1:6">
       <c r="A6" s="1" t="s">
         <v>35</v>
       </c>
@@ -5125,7 +5835,7 @@
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
     </row>
-    <row r="7" spans="1:7" ht="15" customHeight="1">
+    <row r="7" ht="15" customHeight="1" spans="1:6">
       <c r="A7" s="1" t="s">
         <v>38</v>
       </c>
@@ -5139,7 +5849,7 @@
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
     </row>
-    <row r="8" spans="1:7" ht="15" customHeight="1">
+    <row r="8" ht="15" customHeight="1" spans="1:6">
       <c r="A8" s="1" t="s">
         <v>41</v>
       </c>
@@ -5153,7 +5863,7 @@
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
     </row>
-    <row r="9" spans="1:7" ht="15" customHeight="1">
+    <row r="9" ht="15" customHeight="1" spans="1:6">
       <c r="A9" s="1" t="s">
         <v>44</v>
       </c>
@@ -5167,390 +5877,423 @@
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
     </row>
-    <row r="10" spans="1:7" ht="15" customHeight="1">
+    <row r="10" ht="15" customHeight="1" spans="1:6">
       <c r="A10" s="1" t="s">
         <v>47</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
     </row>
-    <row r="11" spans="1:7" ht="15" customHeight="1">
+    <row r="11" ht="15" customHeight="1" spans="1:6">
       <c r="A11" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
     </row>
-    <row r="12" spans="1:7" ht="15" customHeight="1">
+    <row r="12" ht="15" customHeight="1" spans="1:6">
       <c r="A12" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
     </row>
-    <row r="13" spans="1:7" ht="15" customHeight="1">
+    <row r="13" ht="15" customHeight="1" spans="1:6">
       <c r="A13" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
     </row>
-    <row r="14" spans="1:7" ht="15" customHeight="1">
+    <row r="14" ht="15" customHeight="1" spans="1:6">
       <c r="A14" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
     </row>
-    <row r="15" spans="1:7" ht="15" customHeight="1">
+    <row r="15" ht="15" customHeight="1" spans="1:6">
       <c r="A15" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
     </row>
-    <row r="16" spans="1:7" ht="15" customHeight="1">
+    <row r="16" ht="15" customHeight="1" spans="1:6">
       <c r="A16" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
     </row>
-    <row r="17" spans="1:6" ht="15" customHeight="1">
+    <row r="17" ht="15" customHeight="1" spans="1:6">
       <c r="A17" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
       <c r="F17" s="2"/>
     </row>
-    <row r="18" spans="1:6" ht="15" customHeight="1">
+    <row r="18" ht="15" customHeight="1" spans="1:6">
       <c r="A18" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
       <c r="F18" s="2"/>
     </row>
-    <row r="19" spans="1:6" ht="15" customHeight="1">
+    <row r="19" ht="15" customHeight="1" spans="1:6">
       <c r="A19" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
       <c r="F19" s="2"/>
     </row>
-    <row r="20" spans="1:6" ht="15" customHeight="1">
+    <row r="20" ht="15" customHeight="1" spans="1:6">
       <c r="A20" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
       <c r="F20" s="2"/>
     </row>
-    <row r="21" spans="1:6" ht="15" customHeight="1">
+    <row r="21" ht="15" customHeight="1" spans="1:6">
       <c r="A21" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="D21" s="2"/>
       <c r="E21" s="2"/>
       <c r="F21" s="2"/>
     </row>
-    <row r="22" spans="1:6" ht="15" customHeight="1">
+    <row r="22" ht="15" customHeight="1" spans="1:6">
       <c r="A22" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="D22" s="2"/>
       <c r="E22" s="2"/>
       <c r="F22" s="2"/>
     </row>
-    <row r="23" spans="1:6" ht="15" customHeight="1">
+    <row r="23" ht="15" customHeight="1" spans="1:6">
       <c r="A23" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D23" s="2"/>
       <c r="E23" s="2"/>
       <c r="F23" s="2"/>
     </row>
-    <row r="24" spans="1:6" ht="15" customHeight="1">
+    <row r="24" ht="15" customHeight="1" spans="1:6">
       <c r="A24" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D24" s="2"/>
       <c r="E24" s="2"/>
       <c r="F24" s="2"/>
     </row>
-    <row r="25" spans="1:6" ht="15" customHeight="1">
+    <row r="25" ht="15" customHeight="1" spans="1:6">
       <c r="A25" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="D25" s="2"/>
       <c r="E25" s="2"/>
       <c r="F25" s="2"/>
     </row>
-    <row r="26" spans="1:6" ht="15" customHeight="1">
+    <row r="26" ht="15" customHeight="1" spans="1:6">
       <c r="A26" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="D26" s="2"/>
       <c r="E26" s="2"/>
       <c r="F26" s="2"/>
     </row>
-    <row r="27" spans="1:6" ht="15" customHeight="1">
+    <row r="27" ht="15" customHeight="1" spans="1:6">
       <c r="A27" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="D27" s="2"/>
       <c r="E27" s="2"/>
       <c r="F27" s="2"/>
     </row>
-    <row r="28" spans="1:6" ht="15" customHeight="1">
+    <row r="28" ht="15" customHeight="1" spans="1:6">
       <c r="A28" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="D28" s="2"/>
       <c r="E28" s="2"/>
       <c r="F28" s="2"/>
     </row>
-    <row r="29" spans="1:6" ht="15" customHeight="1">
+    <row r="29" ht="15" customHeight="1" spans="1:6">
       <c r="A29" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="D29" s="2"/>
       <c r="E29" s="2"/>
       <c r="F29" s="2"/>
     </row>
-    <row r="30" spans="1:6" ht="15" customHeight="1">
+    <row r="30" ht="15" customHeight="1" spans="1:6">
       <c r="A30" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="D30" s="2"/>
       <c r="E30" s="2"/>
       <c r="F30" s="2"/>
     </row>
-    <row r="31" spans="1:6" ht="15" customHeight="1">
+    <row r="31" ht="15" customHeight="1" spans="1:6">
       <c r="A31" s="1" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="D31" s="2"/>
       <c r="E31" s="2"/>
       <c r="F31" s="2"/>
     </row>
-    <row r="32" spans="1:6" ht="15" customHeight="1">
+    <row r="32" ht="15" customHeight="1" spans="1:6">
       <c r="A32" s="1" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="D32" s="2"/>
       <c r="E32" s="2"/>
       <c r="F32" s="2"/>
     </row>
-    <row r="33" spans="1:6" ht="15" customHeight="1">
+    <row r="33" ht="15" customHeight="1" spans="1:6">
       <c r="A33" s="1" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="D33" s="2"/>
       <c r="E33" s="2"/>
       <c r="F33" s="2"/>
     </row>
-    <row r="34" spans="1:6" ht="15" customHeight="1">
+    <row r="34" ht="15" customHeight="1" spans="1:6">
       <c r="A34" s="1" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="D34" s="2"/>
       <c r="E34" s="2"/>
       <c r="F34" s="2"/>
     </row>
-    <row r="35" spans="1:6" ht="15" customHeight="1">
+    <row r="35" ht="15" customHeight="1" spans="1:6">
       <c r="A35" s="1" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="D35" s="2"/>
       <c r="E35" s="2"/>
       <c r="F35" s="2"/>
     </row>
+    <row r="36" ht="15" customHeight="1" spans="1:6">
+      <c r="A36" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="D36" s="2"/>
+      <c r="E36" s="2"/>
+      <c r="F36" s="2"/>
+    </row>
+    <row r="37" ht="15" customHeight="1" spans="1:6">
+      <c r="A37" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="D37" s="2"/>
+      <c r="E37" s="2"/>
+      <c r="F37" s="2"/>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:F35"/>
+  <autoFilter ref="A1:F37">
+    <extLst/>
+  </autoFilter>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
       <selection pane="bottomRight" activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1"/>
   <sheetData>
-    <row r="1" spans="1:10" ht="15" customHeight="1">
+    <row r="1" ht="15" customHeight="1" spans="1:10">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -5558,16 +6301,16 @@
         <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>122</v>
+        <v>131</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>123</v>
+        <v>132</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>124</v>
+        <v>133</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>125</v>
+        <v>134</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>22</v>
@@ -5582,12 +6325,12 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="15" customHeight="1">
+    <row r="2" ht="15" customHeight="1" spans="1:9">
       <c r="A2" s="1" t="s">
-        <v>126</v>
+        <v>135</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>127</v>
+        <v>136</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="2" t="b">
@@ -5604,48 +6347,53 @@
       <c r="I2" s="2"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:I2"/>
+  <autoFilter ref="A1:I2">
+    <extLst/>
+  </autoFilter>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:K1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
       <selection pane="bottomRight" activeCell="K1" sqref="K1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData>
-    <row r="1" spans="1:11" ht="15" customHeight="1">
+    <row r="1" ht="15" customHeight="1" spans="1:11">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>128</v>
+        <v>137</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>129</v>
+        <v>138</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>130</v>
+        <v>139</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>131</v>
+        <v>140</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>132</v>
+        <v>141</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>133</v>
+        <v>142</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>11</v>
@@ -5658,48 +6406,53 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:J1"/>
+  <autoFilter ref="A1:J1">
+    <extLst/>
+  </autoFilter>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:K28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
       <selection pane="bottomRight" activeCell="K1" sqref="K1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData>
-    <row r="1" spans="1:11" ht="15" customHeight="1">
+    <row r="1" ht="15" customHeight="1" spans="1:11">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>128</v>
+        <v>137</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>131</v>
+        <v>140</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>134</v>
+        <v>143</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>132</v>
+        <v>141</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>133</v>
+        <v>142</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>135</v>
+        <v>144</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>11</v>
@@ -5711,18 +6464,18 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="15" customHeight="1">
+    <row r="2" ht="15" customHeight="1" spans="1:10">
       <c r="A2" s="1" t="s">
-        <v>136</v>
+        <v>145</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>126</v>
+        <v>135</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>137</v>
+        <v>146</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>138</v>
+        <v>147</v>
       </c>
       <c r="E2" s="2"/>
       <c r="F2" s="2">
@@ -5732,23 +6485,23 @@
         <v>175</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>139</v>
+        <v>148</v>
       </c>
       <c r="I2" s="2"/>
       <c r="J2" s="2"/>
     </row>
-    <row r="3" spans="1:11" ht="15" customHeight="1">
+    <row r="3" ht="15" customHeight="1" spans="1:10">
       <c r="A3" s="1" t="s">
-        <v>140</v>
+        <v>149</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>126</v>
+        <v>135</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>141</v>
+        <v>150</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>138</v>
+        <v>147</v>
       </c>
       <c r="E3" s="2"/>
       <c r="F3" s="2">
@@ -5758,23 +6511,23 @@
         <v>872</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>142</v>
+        <v>151</v>
       </c>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
     </row>
-    <row r="4" spans="1:11" ht="15" customHeight="1">
+    <row r="4" ht="15" customHeight="1" spans="1:10">
       <c r="A4" s="1" t="s">
-        <v>143</v>
+        <v>152</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>126</v>
+        <v>135</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>144</v>
+        <v>153</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>138</v>
+        <v>147</v>
       </c>
       <c r="E4" s="2"/>
       <c r="F4" s="2">
@@ -5784,23 +6537,23 @@
         <v>1366</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>145</v>
+        <v>154</v>
       </c>
       <c r="I4" s="2"/>
       <c r="J4" s="2"/>
     </row>
-    <row r="5" spans="1:11" ht="15" customHeight="1">
+    <row r="5" ht="15" customHeight="1" spans="1:10">
       <c r="A5" s="1" t="s">
-        <v>146</v>
+        <v>155</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>126</v>
+        <v>135</v>
       </c>
       <c r="C5" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="D5" s="2" t="s">
         <v>147</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>138</v>
       </c>
       <c r="E5" s="2"/>
       <c r="F5" s="2">
@@ -5810,23 +6563,23 @@
         <v>1611</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>148</v>
+        <v>157</v>
       </c>
       <c r="I5" s="2"/>
       <c r="J5" s="2"/>
     </row>
-    <row r="6" spans="1:11" ht="15" customHeight="1">
+    <row r="6" ht="15" customHeight="1" spans="1:10">
       <c r="A6" s="1" t="s">
-        <v>149</v>
+        <v>158</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>126</v>
+        <v>135</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>150</v>
+        <v>159</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>138</v>
+        <v>147</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" s="2">
@@ -5836,23 +6589,23 @@
         <v>1854</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>151</v>
+        <v>160</v>
       </c>
       <c r="I6" s="2"/>
       <c r="J6" s="2"/>
     </row>
-    <row r="7" spans="1:11" ht="15" customHeight="1">
+    <row r="7" ht="15" customHeight="1" spans="1:10">
       <c r="A7" s="1" t="s">
-        <v>152</v>
+        <v>161</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>126</v>
+        <v>135</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>153</v>
+        <v>162</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>138</v>
+        <v>147</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" s="2">
@@ -5862,23 +6615,23 @@
         <v>2127</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>154</v>
+        <v>163</v>
       </c>
       <c r="I7" s="2"/>
       <c r="J7" s="2"/>
     </row>
-    <row r="8" spans="1:11" ht="15" customHeight="1">
+    <row r="8" ht="15" customHeight="1" spans="1:10">
       <c r="A8" s="1" t="s">
-        <v>155</v>
+        <v>164</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>126</v>
+        <v>135</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>156</v>
+        <v>165</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>138</v>
+        <v>147</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" s="2">
@@ -5888,23 +6641,23 @@
         <v>2383</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>157</v>
+        <v>166</v>
       </c>
       <c r="I8" s="2"/>
       <c r="J8" s="2"/>
     </row>
-    <row r="9" spans="1:11" ht="15" customHeight="1">
+    <row r="9" ht="15" customHeight="1" spans="1:10">
       <c r="A9" s="1" t="s">
-        <v>158</v>
+        <v>167</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>126</v>
+        <v>135</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>159</v>
+        <v>168</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>138</v>
+        <v>147</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" s="2">
@@ -5914,23 +6667,23 @@
         <v>2626</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>160</v>
+        <v>169</v>
       </c>
       <c r="I9" s="2"/>
       <c r="J9" s="2"/>
     </row>
-    <row r="10" spans="1:11" ht="15" customHeight="1">
+    <row r="10" ht="15" customHeight="1" spans="1:10">
       <c r="A10" s="1" t="s">
-        <v>161</v>
+        <v>170</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>126</v>
+        <v>135</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>162</v>
+        <v>171</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>138</v>
+        <v>147</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" s="2">
@@ -5940,23 +6693,23 @@
         <v>2875</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>163</v>
+        <v>172</v>
       </c>
       <c r="I10" s="2"/>
       <c r="J10" s="2"/>
     </row>
-    <row r="11" spans="1:11" ht="15" customHeight="1">
+    <row r="11" ht="15" customHeight="1" spans="1:10">
       <c r="A11" s="1" t="s">
-        <v>164</v>
+        <v>173</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>126</v>
+        <v>135</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>165</v>
+        <v>174</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>138</v>
+        <v>147</v>
       </c>
       <c r="E11" s="2"/>
       <c r="F11" s="2">
@@ -5966,23 +6719,23 @@
         <v>3859</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>166</v>
+        <v>175</v>
       </c>
       <c r="I11" s="2"/>
       <c r="J11" s="2"/>
     </row>
-    <row r="12" spans="1:11" ht="15" customHeight="1">
+    <row r="12" ht="15" customHeight="1" spans="1:10">
       <c r="A12" s="1" t="s">
-        <v>167</v>
+        <v>176</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>126</v>
+        <v>135</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>168</v>
+        <v>177</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>138</v>
+        <v>147</v>
       </c>
       <c r="E12" s="2"/>
       <c r="F12" s="2">
@@ -5992,23 +6745,23 @@
         <v>3859</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>169</v>
+        <v>178</v>
       </c>
       <c r="I12" s="2"/>
       <c r="J12" s="2"/>
     </row>
-    <row r="13" spans="1:11" ht="15" customHeight="1">
+    <row r="13" ht="15" customHeight="1" spans="1:10">
       <c r="A13" s="1" t="s">
-        <v>170</v>
+        <v>179</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>126</v>
+        <v>135</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>171</v>
+        <v>180</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>138</v>
+        <v>147</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13" s="2">
@@ -6018,23 +6771,23 @@
         <v>4091</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>172</v>
+        <v>181</v>
       </c>
       <c r="I13" s="2"/>
       <c r="J13" s="2"/>
     </row>
-    <row r="14" spans="1:11" ht="15" customHeight="1">
+    <row r="14" ht="15" customHeight="1" spans="1:10">
       <c r="A14" s="1" t="s">
-        <v>173</v>
+        <v>182</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>126</v>
+        <v>135</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>174</v>
+        <v>183</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>138</v>
+        <v>147</v>
       </c>
       <c r="E14" s="2"/>
       <c r="F14" s="2">
@@ -6044,23 +6797,23 @@
         <v>5039</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>175</v>
+        <v>184</v>
       </c>
       <c r="I14" s="2"/>
       <c r="J14" s="2"/>
     </row>
-    <row r="15" spans="1:11" ht="15" customHeight="1">
+    <row r="15" ht="15" customHeight="1" spans="1:10">
       <c r="A15" s="1" t="s">
-        <v>176</v>
+        <v>185</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>126</v>
+        <v>135</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>177</v>
+        <v>186</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>138</v>
+        <v>147</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" s="2">
@@ -6070,23 +6823,23 @@
         <v>5039</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>178</v>
+        <v>187</v>
       </c>
       <c r="I15" s="2"/>
       <c r="J15" s="2"/>
     </row>
-    <row r="16" spans="1:11" ht="15" customHeight="1">
+    <row r="16" ht="15" customHeight="1" spans="1:10">
       <c r="A16" s="1" t="s">
-        <v>179</v>
+        <v>188</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>126</v>
+        <v>135</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>180</v>
+        <v>189</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>138</v>
+        <v>147</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" s="2">
@@ -6096,23 +6849,23 @@
         <v>5254</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>181</v>
+        <v>190</v>
       </c>
       <c r="I16" s="2"/>
       <c r="J16" s="2"/>
     </row>
-    <row r="17" spans="1:10" ht="15" customHeight="1">
+    <row r="17" ht="15" customHeight="1" spans="1:10">
       <c r="A17" s="1" t="s">
-        <v>182</v>
+        <v>191</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>126</v>
+        <v>135</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>183</v>
+        <v>192</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>138</v>
+        <v>147</v>
       </c>
       <c r="E17" s="2"/>
       <c r="F17" s="2">
@@ -6122,23 +6875,23 @@
         <v>5481</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>184</v>
+        <v>193</v>
       </c>
       <c r="I17" s="2"/>
       <c r="J17" s="2"/>
     </row>
-    <row r="18" spans="1:10" ht="15" customHeight="1">
+    <row r="18" ht="15" customHeight="1" spans="1:10">
       <c r="A18" s="1" t="s">
-        <v>185</v>
+        <v>194</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>126</v>
+        <v>135</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>186</v>
+        <v>195</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>138</v>
+        <v>147</v>
       </c>
       <c r="E18" s="2"/>
       <c r="F18" s="2">
@@ -6148,23 +6901,23 @@
         <v>5736</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>187</v>
+        <v>196</v>
       </c>
       <c r="I18" s="2"/>
       <c r="J18" s="2"/>
     </row>
-    <row r="19" spans="1:10" ht="15" customHeight="1">
+    <row r="19" ht="15" customHeight="1" spans="1:10">
       <c r="A19" s="1" t="s">
-        <v>188</v>
+        <v>197</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>126</v>
+        <v>135</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>189</v>
+        <v>198</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>138</v>
+        <v>147</v>
       </c>
       <c r="E19" s="2"/>
       <c r="F19" s="2">
@@ -6174,23 +6927,23 @@
         <v>5920</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>190</v>
+        <v>199</v>
       </c>
       <c r="I19" s="2"/>
       <c r="J19" s="2"/>
     </row>
-    <row r="20" spans="1:10" ht="15" customHeight="1">
+    <row r="20" ht="15" customHeight="1" spans="1:10">
       <c r="A20" s="1" t="s">
-        <v>191</v>
+        <v>200</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>126</v>
+        <v>135</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>192</v>
+        <v>201</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>138</v>
+        <v>147</v>
       </c>
       <c r="E20" s="2"/>
       <c r="F20" s="2">
@@ -6200,23 +6953,23 @@
         <v>6156</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>193</v>
+        <v>202</v>
       </c>
       <c r="I20" s="2"/>
       <c r="J20" s="2"/>
     </row>
-    <row r="21" spans="1:10" ht="15" customHeight="1">
+    <row r="21" ht="15" customHeight="1" spans="1:10">
       <c r="A21" s="1" t="s">
-        <v>194</v>
+        <v>203</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>126</v>
+        <v>135</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>195</v>
+        <v>204</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>138</v>
+        <v>147</v>
       </c>
       <c r="E21" s="2"/>
       <c r="F21" s="2">
@@ -6226,23 +6979,23 @@
         <v>6411</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>196</v>
+        <v>205</v>
       </c>
       <c r="I21" s="2"/>
       <c r="J21" s="2"/>
     </row>
-    <row r="22" spans="1:10" ht="15" customHeight="1">
+    <row r="22" ht="15" customHeight="1" spans="1:10">
       <c r="A22" s="1" t="s">
-        <v>197</v>
+        <v>206</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>126</v>
+        <v>135</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>198</v>
+        <v>207</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>138</v>
+        <v>147</v>
       </c>
       <c r="E22" s="2"/>
       <c r="F22" s="2">
@@ -6252,23 +7005,23 @@
         <v>6642</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>199</v>
+        <v>208</v>
       </c>
       <c r="I22" s="2"/>
       <c r="J22" s="2"/>
     </row>
-    <row r="23" spans="1:10" ht="15" customHeight="1">
+    <row r="23" ht="15" customHeight="1" spans="1:10">
       <c r="A23" s="1" t="s">
-        <v>200</v>
+        <v>209</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>126</v>
+        <v>135</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>201</v>
+        <v>210</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>138</v>
+        <v>147</v>
       </c>
       <c r="E23" s="2"/>
       <c r="F23" s="2">
@@ -6278,23 +7031,23 @@
         <v>6877</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>202</v>
+        <v>211</v>
       </c>
       <c r="I23" s="2"/>
       <c r="J23" s="2"/>
     </row>
-    <row r="24" spans="1:10" ht="15" customHeight="1">
+    <row r="24" ht="15" customHeight="1" spans="1:10">
       <c r="A24" s="1" t="s">
-        <v>203</v>
+        <v>212</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>126</v>
+        <v>135</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>204</v>
+        <v>213</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>138</v>
+        <v>147</v>
       </c>
       <c r="E24" s="2"/>
       <c r="F24" s="2">
@@ -6304,23 +7057,23 @@
         <v>7094</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>205</v>
+        <v>214</v>
       </c>
       <c r="I24" s="2"/>
       <c r="J24" s="2"/>
     </row>
-    <row r="25" spans="1:10" ht="15" customHeight="1">
+    <row r="25" ht="15" customHeight="1" spans="1:10">
       <c r="A25" s="1" t="s">
-        <v>206</v>
+        <v>215</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>126</v>
+        <v>135</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>207</v>
+        <v>216</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>138</v>
+        <v>147</v>
       </c>
       <c r="E25" s="2"/>
       <c r="F25" s="2">
@@ -6330,23 +7083,23 @@
         <v>7317</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>208</v>
+        <v>217</v>
       </c>
       <c r="I25" s="2"/>
       <c r="J25" s="2"/>
     </row>
-    <row r="26" spans="1:10" ht="15" customHeight="1">
+    <row r="26" ht="15" customHeight="1" spans="1:10">
       <c r="A26" s="1" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>126</v>
+        <v>135</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>210</v>
+        <v>219</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>138</v>
+        <v>147</v>
       </c>
       <c r="E26" s="2"/>
       <c r="F26" s="2">
@@ -6356,23 +7109,23 @@
         <v>7571</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>211</v>
+        <v>220</v>
       </c>
       <c r="I26" s="2"/>
       <c r="J26" s="2"/>
     </row>
-    <row r="27" spans="1:10" ht="15" customHeight="1">
+    <row r="27" ht="15" customHeight="1" spans="1:10">
       <c r="A27" s="1" t="s">
-        <v>212</v>
+        <v>221</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>126</v>
+        <v>135</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>213</v>
+        <v>222</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>138</v>
+        <v>147</v>
       </c>
       <c r="E27" s="2"/>
       <c r="F27" s="2">
@@ -6382,23 +7135,23 @@
         <v>7773</v>
       </c>
       <c r="H27" s="2" t="s">
-        <v>214</v>
+        <v>223</v>
       </c>
       <c r="I27" s="2"/>
       <c r="J27" s="2"/>
     </row>
-    <row r="28" spans="1:10" ht="15" customHeight="1">
+    <row r="28" ht="15" customHeight="1" spans="1:10">
       <c r="A28" s="1" t="s">
-        <v>215</v>
+        <v>224</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>126</v>
+        <v>135</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>216</v>
+        <v>225</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>138</v>
+        <v>147</v>
       </c>
       <c r="E28" s="2"/>
       <c r="F28" s="2">
@@ -6408,34 +7161,39 @@
         <v>8382</v>
       </c>
       <c r="H28" s="2" t="s">
-        <v>217</v>
+        <v>226</v>
       </c>
       <c r="I28" s="2"/>
       <c r="J28" s="2"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:J28"/>
+  <autoFilter ref="A1:J28">
+    <extLst/>
+  </autoFilter>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:J28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
       <selection pane="bottomRight" activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="33.7109375" customWidth="1"/>
+    <col min="1" max="1" width="33.7083333333333" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15" customHeight="1">
+    <row r="1" ht="15" customHeight="1" spans="1:10">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -6443,16 +7201,16 @@
         <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>218</v>
+        <v>227</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>219</v>
+        <v>228</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>123</v>
+        <v>132</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>124</v>
+        <v>133</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>22</v>
@@ -6467,18 +7225,18 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="15" customHeight="1">
+    <row r="2" ht="15" customHeight="1" spans="1:9">
       <c r="A2" s="1" t="s">
-        <v>220</v>
+        <v>229</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>221</v>
+        <v>230</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>222</v>
+        <v>231</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>136</v>
+        <v>145</v>
       </c>
       <c r="E2" s="2" t="b">
         <v>0</v>
@@ -6492,18 +7250,18 @@
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
     </row>
-    <row r="3" spans="1:10" ht="15" customHeight="1">
+    <row r="3" ht="15" customHeight="1" spans="1:9">
       <c r="A3" s="1" t="s">
-        <v>223</v>
+        <v>232</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>224</v>
+        <v>233</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>222</v>
+        <v>231</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>140</v>
+        <v>149</v>
       </c>
       <c r="E3" s="2" t="b">
         <v>0</v>
@@ -6512,23 +7270,23 @@
         <v>0</v>
       </c>
       <c r="G3" s="2">
-        <v>97.617363675119293</v>
+        <v>97.6173636751193</v>
       </c>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
     </row>
-    <row r="4" spans="1:10" ht="15" customHeight="1">
+    <row r="4" ht="15" customHeight="1" spans="1:9">
       <c r="A4" s="1" t="s">
-        <v>225</v>
+        <v>234</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>226</v>
+        <v>235</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>222</v>
+        <v>231</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>143</v>
+        <v>152</v>
       </c>
       <c r="E4" s="2" t="b">
         <v>0</v>
@@ -6537,23 +7295,23 @@
         <v>0</v>
       </c>
       <c r="G4" s="2">
-        <v>88.875836379705305</v>
+        <v>88.8758363797053</v>
       </c>
       <c r="H4" s="2"/>
       <c r="I4" s="2"/>
     </row>
-    <row r="5" spans="1:10" ht="15" customHeight="1">
+    <row r="5" ht="15" customHeight="1" spans="1:9">
       <c r="A5" s="1" t="s">
-        <v>227</v>
+        <v>236</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>228</v>
+        <v>237</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>229</v>
+        <v>238</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>146</v>
+        <v>155</v>
       </c>
       <c r="E5" s="2" t="b">
         <v>0</v>
@@ -6562,23 +7320,23 @@
         <v>0</v>
       </c>
       <c r="G5" s="2">
-        <v>99.173341813547196</v>
+        <v>99.1733418135472</v>
       </c>
       <c r="H5" s="2"/>
       <c r="I5" s="2"/>
     </row>
-    <row r="6" spans="1:10" ht="15" customHeight="1">
+    <row r="6" ht="15" customHeight="1" spans="1:9">
       <c r="A6" s="1" t="s">
-        <v>230</v>
+        <v>239</v>
       </c>
       <c r="B6" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="C6" s="2" t="s">
         <v>231</v>
       </c>
-      <c r="C6" s="2" t="s">
-        <v>222</v>
-      </c>
       <c r="D6" s="2" t="s">
-        <v>149</v>
+        <v>158</v>
       </c>
       <c r="E6" s="2" t="b">
         <v>0</v>
@@ -6587,23 +7345,23 @@
         <v>0</v>
       </c>
       <c r="G6" s="2">
-        <v>87.196841765167306</v>
+        <v>87.1968417651673</v>
       </c>
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
     </row>
-    <row r="7" spans="1:10" ht="15" customHeight="1">
+    <row r="7" ht="15" customHeight="1" spans="1:9">
       <c r="A7" s="1" t="s">
-        <v>232</v>
+        <v>241</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>233</v>
+        <v>242</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>222</v>
+        <v>231</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>152</v>
+        <v>161</v>
       </c>
       <c r="E7" s="2" t="b">
         <v>0</v>
@@ -6612,23 +7370,23 @@
         <v>0</v>
       </c>
       <c r="G7" s="2">
-        <v>87.696514567530102</v>
+        <v>87.6965145675301</v>
       </c>
       <c r="H7" s="2"/>
       <c r="I7" s="2"/>
     </row>
-    <row r="8" spans="1:10" ht="15" customHeight="1">
+    <row r="8" ht="15" customHeight="1" spans="1:9">
       <c r="A8" s="1" t="s">
-        <v>234</v>
+        <v>243</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>235</v>
+        <v>244</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>222</v>
+        <v>231</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>155</v>
+        <v>164</v>
       </c>
       <c r="E8" s="2" t="b">
         <v>0</v>
@@ -6637,23 +7395,23 @@
         <v>0</v>
       </c>
       <c r="G8" s="2">
-        <v>90.413510836733195</v>
+        <v>90.4135108367332</v>
       </c>
       <c r="H8" s="2"/>
       <c r="I8" s="2"/>
     </row>
-    <row r="9" spans="1:10" ht="15" customHeight="1">
+    <row r="9" ht="15" customHeight="1" spans="1:9">
       <c r="A9" s="1" t="s">
-        <v>236</v>
+        <v>245</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>237</v>
+        <v>246</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>222</v>
+        <v>231</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>158</v>
+        <v>167</v>
       </c>
       <c r="E9" s="2" t="b">
         <v>0</v>
@@ -6667,18 +7425,18 @@
       <c r="H9" s="2"/>
       <c r="I9" s="2"/>
     </row>
-    <row r="10" spans="1:10" ht="15" customHeight="1">
+    <row r="10" ht="15" customHeight="1" spans="1:9">
       <c r="A10" s="1" t="s">
-        <v>238</v>
+        <v>247</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>239</v>
+        <v>248</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>222</v>
+        <v>231</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>161</v>
+        <v>170</v>
       </c>
       <c r="E10" s="2" t="b">
         <v>0</v>
@@ -6687,23 +7445,23 @@
         <v>0</v>
       </c>
       <c r="G10" s="2">
-        <v>111.95532588384501</v>
+        <v>111.955325883845</v>
       </c>
       <c r="H10" s="2"/>
       <c r="I10" s="2"/>
     </row>
-    <row r="11" spans="1:10" ht="15" customHeight="1">
+    <row r="11" ht="15" customHeight="1" spans="1:9">
       <c r="A11" s="1" t="s">
-        <v>240</v>
+        <v>249</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>241</v>
+        <v>250</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>222</v>
+        <v>231</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>164</v>
+        <v>173</v>
       </c>
       <c r="E11" s="2" t="b">
         <v>0</v>
@@ -6715,18 +7473,18 @@
       <c r="H11" s="2"/>
       <c r="I11" s="2"/>
     </row>
-    <row r="12" spans="1:10" ht="15" customHeight="1">
+    <row r="12" ht="15" customHeight="1" spans="1:9">
       <c r="A12" s="1" t="s">
-        <v>242</v>
+        <v>251</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>243</v>
+        <v>252</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>222</v>
+        <v>231</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>167</v>
+        <v>176</v>
       </c>
       <c r="E12" s="2" t="b">
         <v>0</v>
@@ -6740,18 +7498,18 @@
       <c r="H12" s="2"/>
       <c r="I12" s="2"/>
     </row>
-    <row r="13" spans="1:10" ht="15" customHeight="1">
+    <row r="13" ht="15" customHeight="1" spans="1:9">
       <c r="A13" s="1" t="s">
-        <v>244</v>
+        <v>253</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>245</v>
+        <v>254</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>222</v>
+        <v>231</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>170</v>
+        <v>179</v>
       </c>
       <c r="E13" s="2" t="b">
         <v>0</v>
@@ -6760,23 +7518,23 @@
         <v>0</v>
       </c>
       <c r="G13" s="2">
-        <v>95.455481041343205</v>
+        <v>95.4554810413432</v>
       </c>
       <c r="H13" s="2"/>
       <c r="I13" s="2"/>
     </row>
-    <row r="14" spans="1:10" ht="15" customHeight="1">
+    <row r="14" ht="15" customHeight="1" spans="1:9">
       <c r="A14" s="1" t="s">
-        <v>246</v>
+        <v>255</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>247</v>
+        <v>256</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>222</v>
+        <v>231</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>173</v>
+        <v>182</v>
       </c>
       <c r="E14" s="2" t="b">
         <v>0</v>
@@ -6790,18 +7548,18 @@
       <c r="H14" s="2"/>
       <c r="I14" s="2"/>
     </row>
-    <row r="15" spans="1:10" ht="15" customHeight="1">
+    <row r="15" ht="15" customHeight="1" spans="1:9">
       <c r="A15" s="1" t="s">
-        <v>248</v>
+        <v>257</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>249</v>
+        <v>258</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>222</v>
+        <v>231</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>176</v>
+        <v>185</v>
       </c>
       <c r="E15" s="2" t="b">
         <v>0</v>
@@ -6810,23 +7568,23 @@
         <v>0</v>
       </c>
       <c r="G15" s="2">
-        <v>87.189685192771805</v>
+        <v>87.1896851927718</v>
       </c>
       <c r="H15" s="2"/>
       <c r="I15" s="2"/>
     </row>
-    <row r="16" spans="1:10" ht="15" customHeight="1">
+    <row r="16" ht="15" customHeight="1" spans="1:9">
       <c r="A16" s="1" t="s">
-        <v>250</v>
+        <v>259</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>251</v>
+        <v>260</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>222</v>
+        <v>231</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>179</v>
+        <v>188</v>
       </c>
       <c r="E16" s="2" t="b">
         <v>0</v>
@@ -6835,23 +7593,23 @@
         <v>0</v>
       </c>
       <c r="G16" s="2">
-        <v>88.559032767303293</v>
+        <v>88.5590327673033</v>
       </c>
       <c r="H16" s="2"/>
       <c r="I16" s="2"/>
     </row>
-    <row r="17" spans="1:9" ht="15" customHeight="1">
+    <row r="17" ht="15" customHeight="1" spans="1:9">
       <c r="A17" s="1" t="s">
-        <v>252</v>
+        <v>261</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>253</v>
+        <v>262</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>222</v>
+        <v>231</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>182</v>
+        <v>191</v>
       </c>
       <c r="E17" s="2" t="b">
         <v>0</v>
@@ -6860,23 +7618,23 @@
         <v>0</v>
       </c>
       <c r="G17" s="2">
-        <v>95.212069979852899</v>
+        <v>95.2120699798529</v>
       </c>
       <c r="H17" s="2"/>
       <c r="I17" s="2"/>
     </row>
-    <row r="18" spans="1:9" ht="15" customHeight="1">
+    <row r="18" ht="15" customHeight="1" spans="1:9">
       <c r="A18" s="1" t="s">
-        <v>254</v>
+        <v>263</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>255</v>
+        <v>264</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>229</v>
+        <v>238</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>185</v>
+        <v>194</v>
       </c>
       <c r="E18" s="2" t="b">
         <v>0</v>
@@ -6890,18 +7648,18 @@
       <c r="H18" s="2"/>
       <c r="I18" s="2"/>
     </row>
-    <row r="19" spans="1:9" ht="15" customHeight="1">
+    <row r="19" ht="15" customHeight="1" spans="1:9">
       <c r="A19" s="1" t="s">
-        <v>256</v>
+        <v>265</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>257</v>
+        <v>266</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>222</v>
+        <v>231</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>188</v>
+        <v>197</v>
       </c>
       <c r="E19" s="2" t="b">
         <v>0</v>
@@ -6910,23 +7668,23 @@
         <v>0</v>
       </c>
       <c r="G19" s="2">
-        <v>91.816527141102597</v>
+        <v>91.8165271411026</v>
       </c>
       <c r="H19" s="2"/>
       <c r="I19" s="2"/>
     </row>
-    <row r="20" spans="1:9" ht="15" customHeight="1">
+    <row r="20" ht="15" customHeight="1" spans="1:9">
       <c r="A20" s="1" t="s">
-        <v>258</v>
+        <v>267</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>259</v>
+        <v>268</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>222</v>
+        <v>231</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>191</v>
+        <v>200</v>
       </c>
       <c r="E20" s="2" t="b">
         <v>0</v>
@@ -6935,23 +7693,23 @@
         <v>0</v>
       </c>
       <c r="G20" s="2">
-        <v>101.53687000948899</v>
+        <v>101.536870009489</v>
       </c>
       <c r="H20" s="2"/>
       <c r="I20" s="2"/>
     </row>
-    <row r="21" spans="1:9" ht="15" customHeight="1">
+    <row r="21" ht="15" customHeight="1" spans="1:9">
       <c r="A21" s="1" t="s">
-        <v>260</v>
+        <v>269</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>261</v>
+        <v>270</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>222</v>
+        <v>231</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>194</v>
+        <v>203</v>
       </c>
       <c r="E21" s="2" t="b">
         <v>0</v>
@@ -6960,23 +7718,23 @@
         <v>0</v>
       </c>
       <c r="G21" s="2">
-        <v>96.278328877269999</v>
+        <v>96.27832887727</v>
       </c>
       <c r="H21" s="2"/>
       <c r="I21" s="2"/>
     </row>
-    <row r="22" spans="1:9" ht="15" customHeight="1">
+    <row r="22" ht="15" customHeight="1" spans="1:9">
       <c r="A22" s="1" t="s">
-        <v>262</v>
+        <v>271</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>263</v>
+        <v>272</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>229</v>
+        <v>238</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>197</v>
+        <v>206</v>
       </c>
       <c r="E22" s="2" t="b">
         <v>0</v>
@@ -6985,23 +7743,23 @@
         <v>0</v>
       </c>
       <c r="G22" s="2">
-        <v>99.975013781743101</v>
+        <v>99.9750137817431</v>
       </c>
       <c r="H22" s="2"/>
       <c r="I22" s="2"/>
     </row>
-    <row r="23" spans="1:9" ht="15" customHeight="1">
+    <row r="23" ht="15" customHeight="1" spans="1:9">
       <c r="A23" s="1" t="s">
-        <v>264</v>
+        <v>273</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>265</v>
+        <v>274</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>222</v>
+        <v>231</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>200</v>
+        <v>209</v>
       </c>
       <c r="E23" s="2" t="b">
         <v>0</v>
@@ -7015,18 +7773,18 @@
       <c r="H23" s="2"/>
       <c r="I23" s="2"/>
     </row>
-    <row r="24" spans="1:9" ht="15" customHeight="1">
+    <row r="24" ht="15" customHeight="1" spans="1:9">
       <c r="A24" s="1" t="s">
-        <v>266</v>
+        <v>275</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>267</v>
+        <v>276</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>222</v>
+        <v>231</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>203</v>
+        <v>212</v>
       </c>
       <c r="E24" s="2" t="b">
         <v>0</v>
@@ -7035,23 +7793,23 @@
         <v>0</v>
       </c>
       <c r="G24" s="2">
-        <v>101.99099013802299</v>
+        <v>101.990990138023</v>
       </c>
       <c r="H24" s="2"/>
       <c r="I24" s="2"/>
     </row>
-    <row r="25" spans="1:9" ht="15" customHeight="1">
+    <row r="25" ht="15" customHeight="1" spans="1:9">
       <c r="A25" s="1" t="s">
-        <v>268</v>
+        <v>277</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>269</v>
+        <v>278</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>222</v>
+        <v>231</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>206</v>
+        <v>215</v>
       </c>
       <c r="E25" s="2" t="b">
         <v>0</v>
@@ -7060,23 +7818,23 @@
         <v>0</v>
       </c>
       <c r="G25" s="2">
-        <v>99.092334678967006</v>
+        <v>99.092334678967</v>
       </c>
       <c r="H25" s="2"/>
       <c r="I25" s="2"/>
     </row>
-    <row r="26" spans="1:9" ht="15" customHeight="1">
+    <row r="26" ht="15" customHeight="1" spans="1:9">
       <c r="A26" s="1" t="s">
-        <v>270</v>
+        <v>279</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>271</v>
+        <v>280</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>222</v>
+        <v>231</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="E26" s="2" t="b">
         <v>0</v>
@@ -7085,23 +7843,23 @@
         <v>0</v>
       </c>
       <c r="G26" s="2">
-        <v>93.134445499370997</v>
+        <v>93.134445499371</v>
       </c>
       <c r="H26" s="2"/>
       <c r="I26" s="2"/>
     </row>
-    <row r="27" spans="1:9" ht="15" customHeight="1">
+    <row r="27" ht="15" customHeight="1" spans="1:9">
       <c r="A27" s="1" t="s">
-        <v>272</v>
+        <v>281</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>273</v>
+        <v>282</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>229</v>
+        <v>238</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>212</v>
+        <v>221</v>
       </c>
       <c r="E27" s="2" t="b">
         <v>0</v>
@@ -7115,18 +7873,18 @@
       <c r="H27" s="2"/>
       <c r="I27" s="2"/>
     </row>
-    <row r="28" spans="1:9" ht="15" customHeight="1">
+    <row r="28" ht="15" customHeight="1" spans="1:9">
       <c r="A28" s="1" t="s">
-        <v>274</v>
+        <v>283</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>275</v>
+        <v>284</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>222</v>
+        <v>231</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>215</v>
+        <v>224</v>
       </c>
       <c r="E28" s="2" t="b">
         <v>0</v>
@@ -7141,48 +7899,53 @@
       <c r="I28" s="2"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:I28"/>
+  <autoFilter ref="A1:I28">
+    <extLst/>
+  </autoFilter>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:K37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
       <selection pane="bottomRight" activeCell="K1" sqref="K1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData>
-    <row r="1" spans="1:11" ht="15" customHeight="1">
+    <row r="1" ht="15" customHeight="1" spans="1:11">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>128</v>
+        <v>137</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>276</v>
+        <v>285</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>218</v>
+        <v>227</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>131</v>
+        <v>140</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>132</v>
+        <v>141</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>133</v>
+        <v>142</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>11</v>
@@ -7194,22 +7957,22 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="15" customHeight="1">
+    <row r="2" ht="15" customHeight="1" spans="1:10">
       <c r="A2" s="1" t="s">
-        <v>139</v>
+        <v>148</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>126</v>
+        <v>135</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>277</v>
+        <v>286</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" s="2" t="s">
-        <v>222</v>
+        <v>231</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>138</v>
+        <v>147</v>
       </c>
       <c r="G2" s="2">
         <v>19</v>
@@ -7220,22 +7983,22 @@
       <c r="I2" s="2"/>
       <c r="J2" s="2"/>
     </row>
-    <row r="3" spans="1:11" ht="15" customHeight="1">
+    <row r="3" ht="15" customHeight="1" spans="1:10">
       <c r="A3" s="1" t="s">
-        <v>278</v>
+        <v>287</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>126</v>
+        <v>135</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>279</v>
+        <v>288</v>
       </c>
       <c r="D3" s="2"/>
       <c r="E3" s="2" t="s">
-        <v>222</v>
+        <v>231</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>138</v>
+        <v>147</v>
       </c>
       <c r="G3" s="2">
         <v>190</v>
@@ -7246,22 +8009,22 @@
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
     </row>
-    <row r="4" spans="1:11" ht="15" customHeight="1">
+    <row r="4" ht="15" customHeight="1" spans="1:10">
       <c r="A4" s="1" t="s">
-        <v>280</v>
+        <v>289</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>126</v>
+        <v>135</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>281</v>
+        <v>290</v>
       </c>
       <c r="D4" s="2"/>
       <c r="E4" s="2" t="s">
-        <v>222</v>
+        <v>231</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>138</v>
+        <v>147</v>
       </c>
       <c r="G4" s="2">
         <v>430</v>
@@ -7272,22 +8035,22 @@
       <c r="I4" s="2"/>
       <c r="J4" s="2"/>
     </row>
-    <row r="5" spans="1:11" ht="15" customHeight="1">
+    <row r="5" ht="15" customHeight="1" spans="1:10">
       <c r="A5" s="1" t="s">
-        <v>282</v>
+        <v>291</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>126</v>
+        <v>135</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>283</v>
+        <v>292</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" s="2" t="s">
-        <v>222</v>
+        <v>231</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>138</v>
+        <v>147</v>
       </c>
       <c r="G5" s="2">
         <v>703</v>
@@ -7298,22 +8061,22 @@
       <c r="I5" s="2"/>
       <c r="J5" s="2"/>
     </row>
-    <row r="6" spans="1:11" ht="15" customHeight="1">
+    <row r="6" ht="15" customHeight="1" spans="1:10">
       <c r="A6" s="1" t="s">
-        <v>284</v>
+        <v>293</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>126</v>
+        <v>135</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>285</v>
+        <v>294</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2" t="s">
-        <v>222</v>
+        <v>231</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>138</v>
+        <v>147</v>
       </c>
       <c r="G6" s="2">
         <v>907</v>
@@ -7324,22 +8087,22 @@
       <c r="I6" s="2"/>
       <c r="J6" s="2"/>
     </row>
-    <row r="7" spans="1:11" ht="15" customHeight="1">
+    <row r="7" ht="15" customHeight="1" spans="1:10">
       <c r="A7" s="1" t="s">
-        <v>286</v>
+        <v>295</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>126</v>
+        <v>135</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>287</v>
+        <v>296</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" s="2" t="s">
-        <v>222</v>
+        <v>231</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>138</v>
+        <v>147</v>
       </c>
       <c r="G7" s="2">
         <v>1093</v>
@@ -7350,22 +8113,22 @@
       <c r="I7" s="2"/>
       <c r="J7" s="2"/>
     </row>
-    <row r="8" spans="1:11" ht="15" customHeight="1">
+    <row r="8" ht="15" customHeight="1" spans="1:10">
       <c r="A8" s="1" t="s">
-        <v>148</v>
+        <v>157</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>126</v>
+        <v>135</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>288</v>
+        <v>297</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" s="2" t="s">
-        <v>229</v>
+        <v>238</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>138</v>
+        <v>147</v>
       </c>
       <c r="G8" s="2">
         <v>1381</v>
@@ -7376,22 +8139,22 @@
       <c r="I8" s="2"/>
       <c r="J8" s="2"/>
     </row>
-    <row r="9" spans="1:11" ht="15" customHeight="1">
+    <row r="9" ht="15" customHeight="1" spans="1:10">
       <c r="A9" s="1" t="s">
-        <v>151</v>
+        <v>160</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>126</v>
+        <v>135</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>289</v>
+        <v>298</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" s="2" t="s">
-        <v>222</v>
+        <v>231</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>138</v>
+        <v>147</v>
       </c>
       <c r="G9" s="2">
         <v>1651</v>
@@ -7402,22 +8165,22 @@
       <c r="I9" s="2"/>
       <c r="J9" s="2"/>
     </row>
-    <row r="10" spans="1:11" ht="15" customHeight="1">
+    <row r="10" ht="15" customHeight="1" spans="1:10">
       <c r="A10" s="1" t="s">
-        <v>154</v>
+        <v>163</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>126</v>
+        <v>135</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>290</v>
+        <v>299</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2" t="s">
-        <v>222</v>
+        <v>231</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>138</v>
+        <v>147</v>
       </c>
       <c r="G10" s="2">
         <v>1885</v>
@@ -7428,22 +8191,22 @@
       <c r="I10" s="2"/>
       <c r="J10" s="2"/>
     </row>
-    <row r="11" spans="1:11" ht="15" customHeight="1">
+    <row r="11" ht="15" customHeight="1" spans="1:10">
       <c r="A11" s="1" t="s">
-        <v>157</v>
+        <v>166</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>126</v>
+        <v>135</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>291</v>
+        <v>300</v>
       </c>
       <c r="D11" s="2"/>
       <c r="E11" s="2" t="s">
-        <v>222</v>
+        <v>231</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>138</v>
+        <v>147</v>
       </c>
       <c r="G11" s="2">
         <v>2134</v>
@@ -7454,22 +8217,22 @@
       <c r="I11" s="2"/>
       <c r="J11" s="2"/>
     </row>
-    <row r="12" spans="1:11" ht="15" customHeight="1">
+    <row r="12" ht="15" customHeight="1" spans="1:10">
       <c r="A12" s="1" t="s">
-        <v>160</v>
+        <v>169</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>126</v>
+        <v>135</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>292</v>
+        <v>301</v>
       </c>
       <c r="D12" s="2"/>
       <c r="E12" s="2" t="s">
-        <v>222</v>
+        <v>231</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>138</v>
+        <v>147</v>
       </c>
       <c r="G12" s="2">
         <v>2395</v>
@@ -7480,22 +8243,22 @@
       <c r="I12" s="2"/>
       <c r="J12" s="2"/>
     </row>
-    <row r="13" spans="1:11" ht="15" customHeight="1">
+    <row r="13" ht="15" customHeight="1" spans="1:10">
       <c r="A13" s="1" t="s">
-        <v>163</v>
+        <v>172</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>126</v>
+        <v>135</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>293</v>
+        <v>302</v>
       </c>
       <c r="D13" s="2"/>
       <c r="E13" s="2" t="s">
-        <v>222</v>
+        <v>231</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>138</v>
+        <v>147</v>
       </c>
       <c r="G13" s="2">
         <v>2638</v>
@@ -7506,22 +8269,22 @@
       <c r="I13" s="2"/>
       <c r="J13" s="2"/>
     </row>
-    <row r="14" spans="1:11" ht="15" customHeight="1">
+    <row r="14" ht="15" customHeight="1" spans="1:10">
       <c r="A14" s="1" t="s">
-        <v>294</v>
+        <v>303</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>126</v>
+        <v>135</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>295</v>
+        <v>304</v>
       </c>
       <c r="D14" s="2"/>
       <c r="E14" s="2" t="s">
-        <v>222</v>
+        <v>231</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>138</v>
+        <v>147</v>
       </c>
       <c r="G14" s="2">
         <v>2890</v>
@@ -7532,22 +8295,22 @@
       <c r="I14" s="2"/>
       <c r="J14" s="2"/>
     </row>
-    <row r="15" spans="1:11" ht="15" customHeight="1">
+    <row r="15" ht="15" customHeight="1" spans="1:10">
       <c r="A15" s="1" t="s">
-        <v>296</v>
+        <v>305</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>126</v>
+        <v>135</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>297</v>
+        <v>306</v>
       </c>
       <c r="D15" s="2"/>
       <c r="E15" s="2" t="s">
-        <v>222</v>
+        <v>231</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>138</v>
+        <v>147</v>
       </c>
       <c r="G15" s="2">
         <v>3130</v>
@@ -7558,22 +8321,22 @@
       <c r="I15" s="2"/>
       <c r="J15" s="2"/>
     </row>
-    <row r="16" spans="1:11" ht="15" customHeight="1">
+    <row r="16" ht="15" customHeight="1" spans="1:10">
       <c r="A16" s="1" t="s">
-        <v>298</v>
+        <v>307</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>126</v>
+        <v>135</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>299</v>
+        <v>308</v>
       </c>
       <c r="D16" s="2"/>
       <c r="E16" s="2" t="s">
-        <v>222</v>
+        <v>231</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>138</v>
+        <v>147</v>
       </c>
       <c r="G16" s="2">
         <v>3433</v>
@@ -7584,22 +8347,22 @@
       <c r="I16" s="2"/>
       <c r="J16" s="2"/>
     </row>
-    <row r="17" spans="1:10" ht="15" customHeight="1">
+    <row r="17" ht="15" customHeight="1" spans="1:10">
       <c r="A17" s="1" t="s">
-        <v>169</v>
+        <v>178</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>126</v>
+        <v>135</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>300</v>
+        <v>309</v>
       </c>
       <c r="D17" s="2"/>
       <c r="E17" s="2" t="s">
-        <v>222</v>
+        <v>231</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>138</v>
+        <v>147</v>
       </c>
       <c r="G17" s="2">
         <v>3652</v>
@@ -7610,22 +8373,22 @@
       <c r="I17" s="2"/>
       <c r="J17" s="2"/>
     </row>
-    <row r="18" spans="1:10" ht="15" customHeight="1">
+    <row r="18" ht="15" customHeight="1" spans="1:10">
       <c r="A18" s="1" t="s">
-        <v>172</v>
+        <v>181</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>126</v>
+        <v>135</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>301</v>
+        <v>310</v>
       </c>
       <c r="D18" s="2"/>
       <c r="E18" s="2" t="s">
-        <v>222</v>
+        <v>231</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>138</v>
+        <v>147</v>
       </c>
       <c r="G18" s="2">
         <v>3895</v>
@@ -7636,22 +8399,22 @@
       <c r="I18" s="2"/>
       <c r="J18" s="2"/>
     </row>
-    <row r="19" spans="1:10" ht="15" customHeight="1">
+    <row r="19" ht="15" customHeight="1" spans="1:10">
       <c r="A19" s="1" t="s">
-        <v>302</v>
+        <v>311</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>126</v>
+        <v>135</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>303</v>
+        <v>312</v>
       </c>
       <c r="D19" s="2"/>
       <c r="E19" s="2" t="s">
-        <v>222</v>
+        <v>231</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>138</v>
+        <v>147</v>
       </c>
       <c r="G19" s="2">
         <v>4129</v>
@@ -7662,22 +8425,22 @@
       <c r="I19" s="2"/>
       <c r="J19" s="2"/>
     </row>
-    <row r="20" spans="1:10" ht="15" customHeight="1">
+    <row r="20" ht="15" customHeight="1" spans="1:10">
       <c r="A20" s="1" t="s">
-        <v>304</v>
+        <v>313</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>126</v>
+        <v>135</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>305</v>
+        <v>314</v>
       </c>
       <c r="D20" s="2"/>
       <c r="E20" s="2" t="s">
-        <v>222</v>
+        <v>231</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>138</v>
+        <v>147</v>
       </c>
       <c r="G20" s="2">
         <v>4351</v>
@@ -7688,22 +8451,22 @@
       <c r="I20" s="2"/>
       <c r="J20" s="2"/>
     </row>
-    <row r="21" spans="1:10" ht="15" customHeight="1">
+    <row r="21" ht="15" customHeight="1" spans="1:10">
       <c r="A21" s="1" t="s">
-        <v>306</v>
+        <v>315</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>126</v>
+        <v>135</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>307</v>
+        <v>316</v>
       </c>
       <c r="D21" s="2"/>
       <c r="E21" s="2" t="s">
-        <v>222</v>
+        <v>231</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>138</v>
+        <v>147</v>
       </c>
       <c r="G21" s="2">
         <v>4570</v>
@@ -7714,22 +8477,22 @@
       <c r="I21" s="2"/>
       <c r="J21" s="2"/>
     </row>
-    <row r="22" spans="1:10" ht="15" customHeight="1">
+    <row r="22" ht="15" customHeight="1" spans="1:10">
       <c r="A22" s="1" t="s">
-        <v>178</v>
+        <v>187</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>126</v>
+        <v>135</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>308</v>
+        <v>317</v>
       </c>
       <c r="D22" s="2"/>
       <c r="E22" s="2" t="s">
-        <v>222</v>
+        <v>231</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>138</v>
+        <v>147</v>
       </c>
       <c r="G22" s="2">
         <v>4819</v>
@@ -7740,22 +8503,22 @@
       <c r="I22" s="2"/>
       <c r="J22" s="2"/>
     </row>
-    <row r="23" spans="1:10" ht="15" customHeight="1">
+    <row r="23" ht="15" customHeight="1" spans="1:10">
       <c r="A23" s="1" t="s">
-        <v>181</v>
+        <v>190</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>126</v>
+        <v>135</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>309</v>
+        <v>318</v>
       </c>
       <c r="D23" s="2"/>
       <c r="E23" s="2" t="s">
-        <v>222</v>
+        <v>231</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>138</v>
+        <v>147</v>
       </c>
       <c r="G23" s="2">
         <v>5056</v>
@@ -7766,22 +8529,22 @@
       <c r="I23" s="2"/>
       <c r="J23" s="2"/>
     </row>
-    <row r="24" spans="1:10" ht="15" customHeight="1">
+    <row r="24" ht="15" customHeight="1" spans="1:10">
       <c r="A24" s="1" t="s">
-        <v>184</v>
+        <v>193</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>126</v>
+        <v>135</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>310</v>
+        <v>319</v>
       </c>
       <c r="D24" s="2"/>
       <c r="E24" s="2" t="s">
-        <v>222</v>
+        <v>231</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>138</v>
+        <v>147</v>
       </c>
       <c r="G24" s="2">
         <v>5266</v>
@@ -7792,22 +8555,22 @@
       <c r="I24" s="2"/>
       <c r="J24" s="2"/>
     </row>
-    <row r="25" spans="1:10" ht="15" customHeight="1">
+    <row r="25" ht="15" customHeight="1" spans="1:10">
       <c r="A25" s="1" t="s">
-        <v>187</v>
+        <v>196</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>126</v>
+        <v>135</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>311</v>
+        <v>320</v>
       </c>
       <c r="D25" s="2"/>
       <c r="E25" s="2" t="s">
-        <v>229</v>
+        <v>238</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>138</v>
+        <v>147</v>
       </c>
       <c r="G25" s="2">
         <v>5506</v>
@@ -7818,22 +8581,22 @@
       <c r="I25" s="2"/>
       <c r="J25" s="2"/>
     </row>
-    <row r="26" spans="1:10" ht="15" customHeight="1">
+    <row r="26" ht="15" customHeight="1" spans="1:10">
       <c r="A26" s="1" t="s">
-        <v>190</v>
+        <v>199</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>126</v>
+        <v>135</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>312</v>
+        <v>321</v>
       </c>
       <c r="D26" s="2"/>
       <c r="E26" s="2" t="s">
-        <v>222</v>
+        <v>231</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>138</v>
+        <v>147</v>
       </c>
       <c r="G26" s="2">
         <v>5758</v>
@@ -7844,22 +8607,22 @@
       <c r="I26" s="2"/>
       <c r="J26" s="2"/>
     </row>
-    <row r="27" spans="1:10" ht="15" customHeight="1">
+    <row r="27" ht="15" customHeight="1" spans="1:10">
       <c r="A27" s="1" t="s">
-        <v>193</v>
+        <v>202</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>126</v>
+        <v>135</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>313</v>
+        <v>322</v>
       </c>
       <c r="D27" s="2"/>
       <c r="E27" s="2" t="s">
-        <v>222</v>
+        <v>231</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>138</v>
+        <v>147</v>
       </c>
       <c r="G27" s="2">
         <v>5953</v>
@@ -7870,22 +8633,22 @@
       <c r="I27" s="2"/>
       <c r="J27" s="2"/>
     </row>
-    <row r="28" spans="1:10" ht="15" customHeight="1">
+    <row r="28" ht="15" customHeight="1" spans="1:10">
       <c r="A28" s="1" t="s">
-        <v>196</v>
+        <v>205</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>126</v>
+        <v>135</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>314</v>
+        <v>323</v>
       </c>
       <c r="D28" s="2"/>
       <c r="E28" s="2" t="s">
-        <v>222</v>
+        <v>231</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>138</v>
+        <v>147</v>
       </c>
       <c r="G28" s="2">
         <v>6184</v>
@@ -7896,22 +8659,22 @@
       <c r="I28" s="2"/>
       <c r="J28" s="2"/>
     </row>
-    <row r="29" spans="1:10" ht="15" customHeight="1">
+    <row r="29" ht="15" customHeight="1" spans="1:10">
       <c r="A29" s="1" t="s">
-        <v>199</v>
+        <v>208</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>126</v>
+        <v>135</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>315</v>
+        <v>324</v>
       </c>
       <c r="D29" s="2"/>
       <c r="E29" s="2" t="s">
-        <v>229</v>
+        <v>238</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>138</v>
+        <v>147</v>
       </c>
       <c r="G29" s="2">
         <v>6424</v>
@@ -7922,22 +8685,22 @@
       <c r="I29" s="2"/>
       <c r="J29" s="2"/>
     </row>
-    <row r="30" spans="1:10" ht="15" customHeight="1">
+    <row r="30" ht="15" customHeight="1" spans="1:10">
       <c r="A30" s="1" t="s">
-        <v>202</v>
+        <v>211</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>126</v>
+        <v>135</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>316</v>
+        <v>325</v>
       </c>
       <c r="D30" s="2"/>
       <c r="E30" s="2" t="s">
-        <v>222</v>
+        <v>231</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>138</v>
+        <v>147</v>
       </c>
       <c r="G30" s="2">
         <v>6679</v>
@@ -7948,22 +8711,22 @@
       <c r="I30" s="2"/>
       <c r="J30" s="2"/>
     </row>
-    <row r="31" spans="1:10" ht="15" customHeight="1">
+    <row r="31" ht="15" customHeight="1" spans="1:10">
       <c r="A31" s="1" t="s">
-        <v>205</v>
+        <v>214</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>126</v>
+        <v>135</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>317</v>
+        <v>326</v>
       </c>
       <c r="D31" s="2"/>
       <c r="E31" s="2" t="s">
-        <v>222</v>
+        <v>231</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>138</v>
+        <v>147</v>
       </c>
       <c r="G31" s="2">
         <v>6892</v>
@@ -7974,22 +8737,22 @@
       <c r="I31" s="2"/>
       <c r="J31" s="2"/>
     </row>
-    <row r="32" spans="1:10" ht="15" customHeight="1">
+    <row r="32" ht="15" customHeight="1" spans="1:10">
       <c r="A32" s="1" t="s">
-        <v>208</v>
+        <v>217</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>126</v>
+        <v>135</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>318</v>
+        <v>327</v>
       </c>
       <c r="D32" s="2"/>
       <c r="E32" s="2" t="s">
-        <v>222</v>
+        <v>231</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>138</v>
+        <v>147</v>
       </c>
       <c r="G32" s="2">
         <v>7114</v>
@@ -8000,22 +8763,22 @@
       <c r="I32" s="2"/>
       <c r="J32" s="2"/>
     </row>
-    <row r="33" spans="1:10" ht="15" customHeight="1">
+    <row r="33" ht="15" customHeight="1" spans="1:10">
       <c r="A33" s="1" t="s">
-        <v>211</v>
+        <v>220</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>126</v>
+        <v>135</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>319</v>
+        <v>328</v>
       </c>
       <c r="D33" s="2"/>
       <c r="E33" s="2" t="s">
-        <v>222</v>
+        <v>231</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>138</v>
+        <v>147</v>
       </c>
       <c r="G33" s="2">
         <v>7348</v>
@@ -8026,22 +8789,22 @@
       <c r="I33" s="2"/>
       <c r="J33" s="2"/>
     </row>
-    <row r="34" spans="1:10" ht="15" customHeight="1">
+    <row r="34" ht="15" customHeight="1" spans="1:10">
       <c r="A34" s="1" t="s">
-        <v>214</v>
+        <v>223</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>126</v>
+        <v>135</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>320</v>
+        <v>329</v>
       </c>
       <c r="D34" s="2"/>
       <c r="E34" s="2" t="s">
-        <v>229</v>
+        <v>238</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>138</v>
+        <v>147</v>
       </c>
       <c r="G34" s="2">
         <v>7594</v>
@@ -8052,22 +8815,22 @@
       <c r="I34" s="2"/>
       <c r="J34" s="2"/>
     </row>
-    <row r="35" spans="1:10" ht="15" customHeight="1">
+    <row r="35" ht="15" customHeight="1" spans="1:10">
       <c r="A35" s="1" t="s">
-        <v>321</v>
+        <v>330</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>126</v>
+        <v>135</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>322</v>
+        <v>331</v>
       </c>
       <c r="D35" s="2"/>
       <c r="E35" s="2" t="s">
-        <v>222</v>
+        <v>231</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>138</v>
+        <v>147</v>
       </c>
       <c r="G35" s="2">
         <v>7804</v>
@@ -8078,22 +8841,22 @@
       <c r="I35" s="2"/>
       <c r="J35" s="2"/>
     </row>
-    <row r="36" spans="1:10" ht="15" customHeight="1">
+    <row r="36" ht="15" customHeight="1" spans="1:10">
       <c r="A36" s="1" t="s">
-        <v>323</v>
+        <v>332</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>126</v>
+        <v>135</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>324</v>
+        <v>333</v>
       </c>
       <c r="D36" s="2"/>
       <c r="E36" s="2" t="s">
-        <v>222</v>
+        <v>231</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>138</v>
+        <v>147</v>
       </c>
       <c r="G36" s="2">
         <v>7981</v>
@@ -8104,22 +8867,22 @@
       <c r="I36" s="2"/>
       <c r="J36" s="2"/>
     </row>
-    <row r="37" spans="1:10" ht="15" customHeight="1">
+    <row r="37" ht="15" customHeight="1" spans="1:10">
       <c r="A37" s="1" t="s">
-        <v>325</v>
+        <v>334</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>126</v>
+        <v>135</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>326</v>
+        <v>335</v>
       </c>
       <c r="D37" s="2"/>
       <c r="E37" s="2" t="s">
-        <v>222</v>
+        <v>231</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>138</v>
+        <v>147</v>
       </c>
       <c r="G37" s="2">
         <v>8185</v>
@@ -8131,7 +8894,10 @@
       <c r="J37" s="2"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:J37"/>
+  <autoFilter ref="A1:J37">
+    <extLst/>
+  </autoFilter>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/tests/fixtures/test_broken_kb.xlsx
+++ b/tests/fixtures/test_broken_kb.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="13965" activeTab="3"/>
+    <workbookView windowWidth="28695" windowHeight="13965" firstSheet="9" activeTab="11"/>
   </bookViews>
   <sheets>
     <sheet name="Knowledge base" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">'Gene loci'!$A$1:$J$37</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="9" hidden="1">'Protein species types'!$A$1:$I$33</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="10" hidden="1">'Complex species types'!$A$1:$K$2</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="11" hidden="1">Concentrations!$A$1:$E$95</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="11" hidden="1">Concentrations!$A$1:$E$97</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="12" hidden="1">Reactions!$A$1:$G$3</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="13" hidden="1">'Rate laws'!$A$1:$G$3</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="15" hidden="1">Properties!$A$1:$F$5</definedName>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1068" uniqueCount="528">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1076" uniqueCount="530">
   <si>
     <t>Id</t>
   </si>
@@ -1222,6 +1222,9 @@
     <t>cmp[c]</t>
   </si>
   <si>
+    <t>cdp[c]</t>
+  </si>
+  <si>
     <t>ctp[c]</t>
   </si>
   <si>
@@ -1474,6 +1477,9 @@
     <t>ump[c]</t>
   </si>
   <si>
+    <t>udp[c]</t>
+  </si>
+  <si>
     <t>utp[c]</t>
   </si>
   <si>
@@ -1522,22 +1528,22 @@
     <t>forward</t>
   </si>
   <si>
-    <t>0.000000007312742167607660744</t>
+    <t>k_cat_conv</t>
   </si>
   <si>
     <t>mock_transfer_2amp_forward</t>
   </si>
   <si>
-    <t>0.001*k_cat+k_m</t>
+    <t>k_cat_transfer</t>
   </si>
   <si>
     <t>Error</t>
   </si>
   <si>
-    <t>k_cat</t>
-  </si>
-  <si>
-    <t>k_m</t>
+    <t>s^-1</t>
+  </si>
+  <si>
+    <t>K_m</t>
   </si>
   <si>
     <t>mean_doubling_time</t>
@@ -1838,7 +1844,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="37">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1861,12 +1867,6 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFCCCCCC"/>
         <bgColor rgb="FFD9D9D9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFD9D9D9"/>
-        <bgColor rgb="FFCCCCCC"/>
       </patternFill>
     </fill>
     <fill>
@@ -2165,103 +2165,103 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -2276,7 +2276,7 @@
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2297,10 +2297,10 @@
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2310,7 +2310,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -2320,9 +2320,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -3710,18 +3707,19 @@
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F95"/>
+  <dimension ref="A1:F97"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B68" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="F1" sqref="F1"/>
+      <selection pane="bottomRight" activeCell="B95" sqref="B95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
   <cols>
+    <col min="2" max="2" width="9.375"/>
     <col min="6" max="6" width="18.7083333333333" customWidth="1"/>
   </cols>
   <sheetData>
@@ -3854,7 +3852,7 @@
         <v>390</v>
       </c>
       <c r="B10" s="2">
-        <v>0.0012</v>
+        <v>0.001</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>382</v>
@@ -3867,7 +3865,7 @@
         <v>391</v>
       </c>
       <c r="B11" s="2">
-        <v>0.00037</v>
+        <v>0.0012</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>382</v>
@@ -3880,7 +3878,7 @@
         <v>392</v>
       </c>
       <c r="B12" s="2">
-        <v>0.005</v>
+        <v>0.00037</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>382</v>
@@ -3893,7 +3891,7 @@
         <v>393</v>
       </c>
       <c r="B13" s="2">
-        <v>0.0038</v>
+        <v>0.005</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>382</v>
@@ -3906,7 +3904,7 @@
         <v>394</v>
       </c>
       <c r="B14" s="2">
-        <v>0.096</v>
+        <v>0.0038</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>382</v>
@@ -3919,7 +3917,7 @@
         <v>395</v>
       </c>
       <c r="B15" s="2">
-        <v>0.0031</v>
+        <v>0.096</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>382</v>
@@ -3932,7 +3930,7 @@
         <v>396</v>
       </c>
       <c r="B16" s="2">
-        <v>2.4e-5</v>
+        <v>0.0031</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>382</v>
@@ -3945,7 +3943,7 @@
         <v>397</v>
       </c>
       <c r="B17" s="2">
-        <v>0.0019</v>
+        <v>2.4e-5</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>382</v>
@@ -3958,7 +3956,7 @@
         <v>398</v>
       </c>
       <c r="B18" s="2">
-        <v>55.5</v>
+        <v>0.0019</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>382</v>
@@ -3971,7 +3969,7 @@
         <v>399</v>
       </c>
       <c r="B19" s="2">
-        <v>2.82e-8</v>
+        <v>55.5</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>382</v>
@@ -3984,7 +3982,7 @@
         <v>400</v>
       </c>
       <c r="B20" s="2">
-        <v>6.8e-5</v>
+        <v>2.82e-8</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>382</v>
@@ -3997,7 +3995,7 @@
         <v>401</v>
       </c>
       <c r="B21" s="2">
-        <v>0.0003</v>
+        <v>6.8e-5</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>382</v>
@@ -4023,7 +4021,7 @@
         <v>403</v>
       </c>
       <c r="B23" s="2">
-        <v>0.00041</v>
+        <v>0.0003</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>382</v>
@@ -4036,7 +4034,7 @@
         <v>404</v>
       </c>
       <c r="B24" s="2">
-        <v>0.00015</v>
+        <v>0.00041</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>382</v>
@@ -4049,7 +4047,7 @@
         <v>405</v>
       </c>
       <c r="B25" s="2">
-        <v>1.8e-5</v>
+        <v>0.00015</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>382</v>
@@ -4062,7 +4060,7 @@
         <v>406</v>
       </c>
       <c r="B26" s="2">
-        <v>0.005</v>
+        <v>1.8e-5</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>382</v>
@@ -4075,7 +4073,7 @@
         <v>407</v>
       </c>
       <c r="B27" s="2">
-        <v>0.0005</v>
+        <v>0.005</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>382</v>
@@ -4088,7 +4086,7 @@
         <v>408</v>
       </c>
       <c r="B28" s="2">
-        <v>0.00039</v>
+        <v>0.0005</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>382</v>
@@ -4101,7 +4099,7 @@
         <v>409</v>
       </c>
       <c r="B29" s="2">
-        <v>1.69042874315485e-6</v>
+        <v>0.00039</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>382</v>
@@ -4114,7 +4112,7 @@
         <v>410</v>
       </c>
       <c r="B30" s="2">
-        <v>1.67050227466973e-6</v>
+        <v>1.69042874315485e-6</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>382</v>
@@ -4127,7 +4125,7 @@
         <v>411</v>
       </c>
       <c r="B31" s="2">
-        <v>1.68212604795272e-6</v>
+        <v>1.67050227466973e-6</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>382</v>
@@ -4140,7 +4138,7 @@
         <v>412</v>
       </c>
       <c r="B32" s="2">
-        <v>1.71035521163998e-6</v>
+        <v>1.68212604795272e-6</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>382</v>
@@ -4153,7 +4151,7 @@
         <v>413</v>
       </c>
       <c r="B33" s="2">
-        <v>1.67050227466973e-6</v>
+        <v>1.71035521163998e-6</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>382</v>
@@ -4166,7 +4164,7 @@
         <v>414</v>
       </c>
       <c r="B34" s="2">
-        <v>1.64891526714417e-6</v>
+        <v>1.67050227466973e-6</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>382</v>
@@ -4179,7 +4177,7 @@
         <v>415</v>
       </c>
       <c r="B35" s="2">
-        <v>1.67880496987186e-6</v>
+        <v>1.64891526714417e-6</v>
       </c>
       <c r="C35" s="2" t="s">
         <v>382</v>
@@ -4192,7 +4190,7 @@
         <v>416</v>
       </c>
       <c r="B36" s="2">
-        <v>1.68212604795272e-6</v>
+        <v>1.67880496987186e-6</v>
       </c>
       <c r="C36" s="2" t="s">
         <v>382</v>
@@ -4205,7 +4203,7 @@
         <v>417</v>
       </c>
       <c r="B37" s="2">
-        <v>1.67050227466973e-6</v>
+        <v>1.68212604795272e-6</v>
       </c>
       <c r="C37" s="2" t="s">
         <v>382</v>
@@ -4218,7 +4216,7 @@
         <v>418</v>
       </c>
       <c r="B38" s="2">
-        <v>1.63895203290161e-6</v>
+        <v>1.67050227466973e-6</v>
       </c>
       <c r="C38" s="2" t="s">
         <v>382</v>
@@ -4231,7 +4229,7 @@
         <v>419</v>
       </c>
       <c r="B39" s="2">
-        <v>1.6688417356293e-6</v>
+        <v>1.63895203290161e-6</v>
       </c>
       <c r="C39" s="2" t="s">
         <v>382</v>
@@ -4244,7 +4242,7 @@
         <v>420</v>
       </c>
       <c r="B40" s="2">
-        <v>1.66219957946759e-6</v>
+        <v>1.6688417356293e-6</v>
       </c>
       <c r="C40" s="2" t="s">
         <v>382</v>
@@ -4270,7 +4268,7 @@
         <v>422</v>
       </c>
       <c r="B42" s="2">
-        <v>1.65721796234631e-6</v>
+        <v>1.66219957946759e-6</v>
       </c>
       <c r="C42" s="2" t="s">
         <v>382</v>
@@ -4283,7 +4281,7 @@
         <v>423</v>
       </c>
       <c r="B43" s="2">
-        <v>1.73194221916553e-6</v>
+        <v>1.65721796234631e-6</v>
       </c>
       <c r="C43" s="2" t="s">
         <v>382</v>
@@ -4296,7 +4294,7 @@
         <v>424</v>
       </c>
       <c r="B44" s="2">
-        <v>1.66053904042716e-6</v>
+        <v>1.73194221916553e-6</v>
       </c>
       <c r="C44" s="2" t="s">
         <v>382</v>
@@ -4309,7 +4307,7 @@
         <v>425</v>
       </c>
       <c r="B45" s="2">
-        <v>1.65389688426545e-6</v>
+        <v>1.66053904042716e-6</v>
       </c>
       <c r="C45" s="2" t="s">
         <v>382</v>
@@ -4322,7 +4320,7 @@
         <v>426</v>
       </c>
       <c r="B46" s="2">
-        <v>1.62732825961862e-6</v>
+        <v>1.65389688426545e-6</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>382</v>
@@ -4335,7 +4333,7 @@
         <v>427</v>
       </c>
       <c r="B47" s="2">
-        <v>1.65223634522503e-6</v>
+        <v>1.62732825961862e-6</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>382</v>
@@ -4348,7 +4346,7 @@
         <v>428</v>
       </c>
       <c r="B48" s="2">
-        <v>1.65721796234631e-6</v>
+        <v>1.65223634522503e-6</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>382</v>
@@ -4361,7 +4359,7 @@
         <v>429</v>
       </c>
       <c r="B49" s="2">
-        <v>1.69208928219528e-6</v>
+        <v>1.65721796234631e-6</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>382</v>
@@ -4374,7 +4372,7 @@
         <v>430</v>
       </c>
       <c r="B50" s="2">
-        <v>1.6140439472952e-6</v>
+        <v>1.69208928219528e-6</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>382</v>
@@ -4387,7 +4385,7 @@
         <v>431</v>
       </c>
       <c r="B51" s="2">
-        <v>1.69541036027613e-6</v>
+        <v>1.6140439472952e-6</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>382</v>
@@ -4400,7 +4398,7 @@
         <v>432</v>
       </c>
       <c r="B52" s="2">
-        <v>1.64559418906332e-6</v>
+        <v>1.69541036027613e-6</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>382</v>
@@ -4413,7 +4411,7 @@
         <v>433</v>
       </c>
       <c r="B53" s="2">
-        <v>1.70205251643784e-6</v>
+        <v>1.64559418906332e-6</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>382</v>
@@ -4426,7 +4424,7 @@
         <v>434</v>
       </c>
       <c r="B54" s="2">
-        <v>1.65721796234631e-6</v>
+        <v>1.70205251643784e-6</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>382</v>
@@ -4439,7 +4437,7 @@
         <v>435</v>
       </c>
       <c r="B55" s="2">
-        <v>1.63064933769947e-6</v>
+        <v>1.65721796234631e-6</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>382</v>
@@ -4452,7 +4450,7 @@
         <v>436</v>
       </c>
       <c r="B56" s="2">
-        <v>1.64559418906332e-6</v>
+        <v>1.63064933769947e-6</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>382</v>
@@ -4465,7 +4463,7 @@
         <v>437</v>
       </c>
       <c r="B57" s="2">
-        <v>1.66053904042716e-6</v>
+        <v>1.64559418906332e-6</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>382</v>
@@ -4478,7 +4476,7 @@
         <v>438</v>
       </c>
       <c r="B58" s="2">
-        <v>1.66718119658887e-6</v>
+        <v>1.66053904042716e-6</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>382</v>
@@ -4491,7 +4489,7 @@
         <v>439</v>
       </c>
       <c r="B59" s="2">
-        <v>1.68544712603357e-6</v>
+        <v>1.66718119658887e-6</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>382</v>
@@ -4504,7 +4502,7 @@
         <v>440</v>
       </c>
       <c r="B60" s="2">
-        <v>1.67880496987186e-6</v>
+        <v>1.68544712603357e-6</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>382</v>
@@ -4517,7 +4515,7 @@
         <v>441</v>
       </c>
       <c r="B61" s="2">
-        <v>1.66053904042716e-7</v>
+        <v>1.67880496987186e-6</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>382</v>
@@ -4530,7 +4528,7 @@
         <v>442</v>
       </c>
       <c r="B62" s="2">
-        <v>1.89301450608697e-7</v>
+        <v>1.66053904042716e-7</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>382</v>
@@ -4543,7 +4541,7 @@
         <v>443</v>
       </c>
       <c r="B63" s="2">
-        <v>1.41145818436309e-7</v>
+        <v>1.89301450608697e-7</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>382</v>
@@ -4556,7 +4554,7 @@
         <v>444</v>
       </c>
       <c r="B64" s="2">
-        <v>1.92622528689551e-7</v>
+        <v>1.41145818436309e-7</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>382</v>
@@ -4569,7 +4567,7 @@
         <v>445</v>
       </c>
       <c r="B65" s="2">
-        <v>1.85980372527842e-7</v>
+        <v>1.92622528689551e-7</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>382</v>
@@ -4582,7 +4580,7 @@
         <v>446</v>
       </c>
       <c r="B66" s="2">
-        <v>1.31182584193746e-7</v>
+        <v>1.85980372527842e-7</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>382</v>
@@ -4595,7 +4593,7 @@
         <v>447</v>
       </c>
       <c r="B67" s="2">
-        <v>1.62732825961862e-7</v>
+        <v>1.31182584193746e-7</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>382</v>
@@ -4608,7 +4606,7 @@
         <v>448</v>
       </c>
       <c r="B68" s="2">
-        <v>2.09227919093823e-7</v>
+        <v>1.62732825961862e-7</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>382</v>
@@ -4621,7 +4619,7 @@
         <v>449</v>
       </c>
       <c r="B69" s="2">
-        <v>1.71035521163998e-7</v>
+        <v>2.09227919093823e-7</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>382</v>
@@ -4634,7 +4632,7 @@
         <v>450</v>
       </c>
       <c r="B70" s="2">
-        <v>1.52769591719299e-7</v>
+        <v>1.71035521163998e-7</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>382</v>
@@ -4647,7 +4645,7 @@
         <v>451</v>
       </c>
       <c r="B71" s="2">
-        <v>1.54430130759726e-7</v>
+        <v>1.52769591719299e-7</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>382</v>
@@ -4660,7 +4658,7 @@
         <v>452</v>
       </c>
       <c r="B72" s="2">
-        <v>1.59411747881008e-7</v>
+        <v>1.54430130759726e-7</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>382</v>
@@ -4673,7 +4671,7 @@
         <v>453</v>
       </c>
       <c r="B73" s="2">
-        <v>1.85980372527842e-7</v>
+        <v>1.59411747881008e-7</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>382</v>
@@ -4686,7 +4684,7 @@
         <v>454</v>
       </c>
       <c r="B74" s="2">
-        <v>1.71035521163998e-7</v>
+        <v>1.85980372527842e-7</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>382</v>
@@ -4699,7 +4697,7 @@
         <v>455</v>
       </c>
       <c r="B75" s="2">
-        <v>1.80998755406561e-7</v>
+        <v>1.71035521163998e-7</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>382</v>
@@ -4712,7 +4710,7 @@
         <v>456</v>
       </c>
       <c r="B76" s="2">
-        <v>1.9926468485126e-7</v>
+        <v>1.80998755406561e-7</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>382</v>
@@ -4725,7 +4723,7 @@
         <v>457</v>
       </c>
       <c r="B77" s="2">
-        <v>1.42806357476736e-7</v>
+        <v>1.9926468485126e-7</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>382</v>
@@ -4738,7 +4736,7 @@
         <v>458</v>
       </c>
       <c r="B78" s="2">
-        <v>1.76017138285279e-7</v>
+        <v>1.42806357476736e-7</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>382</v>
@@ -4751,7 +4749,7 @@
         <v>459</v>
       </c>
       <c r="B79" s="2">
-        <v>1.82659294446988e-7</v>
+        <v>1.76017138285279e-7</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>382</v>
@@ -4764,7 +4762,7 @@
         <v>460</v>
       </c>
       <c r="B80" s="2">
-        <v>1.90961989649124e-7</v>
+        <v>1.82659294446988e-7</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>382</v>
@@ -4777,7 +4775,7 @@
         <v>461</v>
       </c>
       <c r="B81" s="2">
-        <v>1.69374982123571e-7</v>
+        <v>1.90961989649124e-7</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>382</v>
@@ -4790,7 +4788,7 @@
         <v>462</v>
       </c>
       <c r="B82" s="2">
-        <v>1.54430130759726e-7</v>
+        <v>1.69374982123571e-7</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>382</v>
@@ -4803,7 +4801,7 @@
         <v>463</v>
       </c>
       <c r="B83" s="2">
-        <v>1.72696060204425e-7</v>
+        <v>1.54430130759726e-7</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>382</v>
@@ -4816,7 +4814,7 @@
         <v>464</v>
       </c>
       <c r="B84" s="2">
-        <v>1.71035521163998e-7</v>
+        <v>1.72696060204425e-7</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>382</v>
@@ -4829,7 +4827,7 @@
         <v>465</v>
       </c>
       <c r="B85" s="2">
-        <v>1.52769591719299e-7</v>
+        <v>1.71035521163998e-7</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>382</v>
@@ -4842,7 +4840,7 @@
         <v>466</v>
       </c>
       <c r="B86" s="2">
-        <v>1.77677677325707e-7</v>
+        <v>1.52769591719299e-7</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>382</v>
@@ -4855,7 +4853,7 @@
         <v>467</v>
       </c>
       <c r="B87" s="2">
-        <v>1.69374982123571e-7</v>
+        <v>1.77677677325707e-7</v>
       </c>
       <c r="C87" s="2" t="s">
         <v>382</v>
@@ -4868,7 +4866,7 @@
         <v>468</v>
       </c>
       <c r="B88" s="2">
-        <v>1.54430130759726e-7</v>
+        <v>1.69374982123571e-7</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>382</v>
@@ -4881,7 +4879,7 @@
         <v>469</v>
       </c>
       <c r="B89" s="2">
-        <v>6.8e-5</v>
+        <v>1.54430130759726e-7</v>
       </c>
       <c r="C89" s="2" t="s">
         <v>382</v>
@@ -4894,7 +4892,7 @@
         <v>470</v>
       </c>
       <c r="B90" s="2">
-        <v>0.00018</v>
+        <v>6.8e-5</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>382</v>
@@ -4907,7 +4905,7 @@
         <v>471</v>
       </c>
       <c r="B91" s="2">
-        <v>1.2e-5</v>
+        <v>0.00018</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>382</v>
@@ -4920,7 +4918,7 @@
         <v>472</v>
       </c>
       <c r="B92" s="2">
-        <v>2.9e-5</v>
+        <v>1.2e-5</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>382</v>
@@ -4933,7 +4931,7 @@
         <v>473</v>
       </c>
       <c r="B93" s="2">
-        <v>0.000184</v>
+        <v>2.9e-5</v>
       </c>
       <c r="C93" s="2" t="s">
         <v>382</v>
@@ -4946,7 +4944,7 @@
         <v>474</v>
       </c>
       <c r="B94" s="2">
-        <v>0.002</v>
+        <v>0.000184</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>382</v>
@@ -4959,7 +4957,7 @@
         <v>475</v>
       </c>
       <c r="B95" s="2">
-        <v>0.004</v>
+        <v>0.001</v>
       </c>
       <c r="C95" s="2" t="s">
         <v>382</v>
@@ -4967,8 +4965,34 @@
       <c r="D95" s="2"/>
       <c r="E95" s="2"/>
     </row>
+    <row r="96" ht="15" customHeight="1" spans="1:5">
+      <c r="A96" s="1" t="s">
+        <v>476</v>
+      </c>
+      <c r="B96" s="2">
+        <v>0.002</v>
+      </c>
+      <c r="C96" s="2" t="s">
+        <v>382</v>
+      </c>
+      <c r="D96" s="2"/>
+      <c r="E96" s="2"/>
+    </row>
+    <row r="97" ht="15" customHeight="1" spans="1:5">
+      <c r="A97" s="1" t="s">
+        <v>477</v>
+      </c>
+      <c r="B97" s="2">
+        <v>0.004</v>
+      </c>
+      <c r="C97" s="2" t="s">
+        <v>382</v>
+      </c>
+      <c r="D97" s="2"/>
+      <c r="E97" s="2"/>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:E95">
+  <autoFilter ref="A1:E97">
     <extLst/>
   </autoFilter>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -4986,7 +5010,7 @@
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2"/>
@@ -5007,13 +5031,13 @@
         <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>477</v>
+        <v>479</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>11</v>
@@ -5027,14 +5051,14 @@
     </row>
     <row r="2" ht="15" customHeight="1" spans="1:9">
       <c r="A2" s="1" t="s">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" s="2" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>481</v>
+        <v>483</v>
       </c>
       <c r="E2" s="2" t="b">
         <v>0</v>
@@ -5046,14 +5070,14 @@
     </row>
     <row r="3" ht="15" customHeight="1" spans="1:9">
       <c r="A3" s="1" t="s">
-        <v>482</v>
+        <v>484</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" s="2" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>483</v>
+        <v>485</v>
       </c>
       <c r="E3" s="2" t="b">
         <v>0</v>
@@ -5082,7 +5106,7 @@
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="D20" sqref="D20"/>
+      <selection pane="bottomRight" activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="7"/>
@@ -5094,16 +5118,16 @@
   <sheetData>
     <row r="1" ht="15" customHeight="1" spans="1:8">
       <c r="A1" s="1" t="s">
-        <v>484</v>
+        <v>486</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>486</v>
+        <v>488</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>487</v>
+        <v>489</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>380</v>
@@ -5119,41 +5143,41 @@
       </c>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="6" t="s">
-        <v>488</v>
-      </c>
-      <c r="B2" s="7" t="s">
-        <v>479</v>
+      <c r="A2" s="5" t="s">
+        <v>490</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>481</v>
       </c>
       <c r="C2" t="s">
-        <v>489</v>
+        <v>491</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>490</v>
+        <v>492</v>
       </c>
       <c r="E2">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="5" t="s">
+        <v>493</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>484</v>
+      </c>
+      <c r="C3" t="s">
         <v>491</v>
       </c>
-      <c r="B3" s="7" t="s">
-        <v>482</v>
-      </c>
-      <c r="C3" t="s">
-        <v>489</v>
-      </c>
       <c r="D3" t="s">
-        <v>492</v>
+        <v>494</v>
       </c>
       <c r="E3">
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="2:2">
-      <c r="B4" s="8"/>
+      <c r="B4" s="7"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:G3">
@@ -5168,13 +5192,18 @@
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="7"/>
+  <cols>
+    <col min="1" max="1" width="13.5" customWidth="1"/>
+    <col min="7" max="7" width="9.875" customWidth="1"/>
+    <col min="8" max="8" width="18.25" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" s="4" t="s">
@@ -5186,13 +5215,13 @@
       <c r="C1" s="4" t="s">
         <v>379</v>
       </c>
-      <c r="D1" s="5" t="s">
-        <v>493</v>
+      <c r="D1" s="4" t="s">
+        <v>495</v>
       </c>
       <c r="E1" s="4" t="s">
         <v>380</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="4" t="s">
         <v>11</v>
       </c>
       <c r="G1" s="4" t="s">
@@ -5202,20 +5231,37 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
         <v>494</v>
       </c>
       <c r="C2">
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
+        <v>5e-5</v>
+      </c>
+      <c r="E2" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="C3">
+        <v>7.31274216760766e-9</v>
+      </c>
+      <c r="E3" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" t="s">
+        <v>497</v>
+      </c>
+      <c r="C4">
         <v>0.075</v>
+      </c>
+      <c r="E4" t="s">
+        <v>382</v>
       </c>
     </row>
   </sheetData>
@@ -5267,56 +5313,56 @@
     </row>
     <row r="2" ht="15" customHeight="1" spans="1:6">
       <c r="A2" s="1" t="s">
-        <v>496</v>
+        <v>498</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" s="2">
         <v>100</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>497</v>
+        <v>499</v>
       </c>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
     </row>
     <row r="3" ht="15" customHeight="1" spans="1:6">
       <c r="A3" s="1" t="s">
-        <v>498</v>
+        <v>500</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" s="2">
         <v>1000000</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>499</v>
+        <v>501</v>
       </c>
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
     </row>
     <row r="4" ht="15" customHeight="1" spans="1:6">
       <c r="A4" s="1" t="s">
-        <v>500</v>
+        <v>502</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" s="2">
         <v>0.3</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>501</v>
+        <v>503</v>
       </c>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
     </row>
     <row r="5" ht="15" customHeight="1" spans="1:6">
       <c r="A5" s="1" t="s">
-        <v>502</v>
+        <v>504</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" s="2">
         <v>1e-15</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>503</v>
+        <v>505</v>
       </c>
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
@@ -5356,7 +5402,7 @@
         <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>487</v>
+        <v>489</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>380</v>
@@ -5373,13 +5419,13 @@
     </row>
     <row r="2" ht="15" customHeight="1" spans="1:6">
       <c r="A2" s="1" t="s">
-        <v>504</v>
+        <v>506</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>505</v>
+        <v>507</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="D2" s="2">
         <v>1</v>
@@ -5389,13 +5435,13 @@
     </row>
     <row r="3" ht="15" customHeight="1" spans="1:6">
       <c r="A3" s="1" t="s">
-        <v>506</v>
+        <v>508</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>507</v>
+        <v>509</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="D3" s="2">
         <v>1</v>
@@ -5405,13 +5451,13 @@
     </row>
     <row r="4" ht="15" customHeight="1" spans="1:6">
       <c r="A4" s="1" t="s">
-        <v>508</v>
+        <v>510</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>509</v>
+        <v>511</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="D4" s="2">
         <v>1</v>
@@ -5421,13 +5467,13 @@
     </row>
     <row r="5" ht="15" customHeight="1" spans="1:6">
       <c r="A5" s="1" t="s">
-        <v>510</v>
+        <v>512</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>376</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="D5" s="2">
         <v>1</v>
@@ -5437,13 +5483,13 @@
     </row>
     <row r="6" ht="15" customHeight="1" spans="1:6">
       <c r="A6" s="1" t="s">
-        <v>511</v>
+        <v>513</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>512</v>
+        <v>514</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="D6" s="2">
         <v>1</v>
@@ -5453,13 +5499,13 @@
     </row>
     <row r="7" ht="15" customHeight="1" spans="1:6">
       <c r="A7" s="1" t="s">
-        <v>513</v>
+        <v>515</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>514</v>
+        <v>516</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="D7" s="2">
         <v>1</v>
@@ -5469,13 +5515,13 @@
     </row>
     <row r="8" ht="15" customHeight="1" spans="1:6">
       <c r="A8" s="1" t="s">
-        <v>515</v>
+        <v>517</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>516</v>
+        <v>518</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="D8" s="2">
         <v>1</v>
@@ -5485,13 +5531,13 @@
     </row>
     <row r="9" ht="15" customHeight="1" spans="1:6">
       <c r="A9" s="1" t="s">
-        <v>517</v>
+        <v>519</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>518</v>
+        <v>520</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="D9" s="2">
         <v>1</v>
@@ -5501,13 +5547,13 @@
     </row>
     <row r="10" ht="15" customHeight="1" spans="1:6">
       <c r="A10" s="1" t="s">
-        <v>519</v>
+        <v>521</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>520</v>
+        <v>522</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="D10" s="2">
         <v>1</v>
@@ -5517,13 +5563,13 @@
     </row>
     <row r="11" ht="15" customHeight="1" spans="1:6">
       <c r="A11" s="1" t="s">
-        <v>521</v>
+        <v>523</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>522</v>
+        <v>524</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="D11" s="2">
         <v>1</v>
@@ -5533,13 +5579,13 @@
     </row>
     <row r="12" ht="15" customHeight="1" spans="1:6">
       <c r="A12" s="1" t="s">
-        <v>523</v>
+        <v>525</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>524</v>
+        <v>526</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="D12" s="2">
         <v>1</v>
@@ -5549,13 +5595,13 @@
     </row>
     <row r="13" ht="15" customHeight="1" spans="1:6">
       <c r="A13" s="1" t="s">
-        <v>525</v>
+        <v>527</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>526</v>
+        <v>528</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="D13" s="2">
         <v>1</v>
@@ -5592,7 +5638,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>527</v>
+        <v>529</v>
       </c>
     </row>
   </sheetData>
@@ -5729,7 +5775,7 @@
   <sheetPr/>
   <dimension ref="A1:G37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
@@ -7185,7 +7231,7 @@
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="G18" sqref="G18"/>
+      <selection pane="bottomRight" activeCell="H43" sqref="H43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>

--- a/tests/fixtures/test_broken_kb.xlsx
+++ b/tests/fixtures/test_broken_kb.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="13965" firstSheet="9" activeTab="11"/>
+    <workbookView windowWidth="20295" windowHeight="6840" firstSheet="9" activeTab="11"/>
   </bookViews>
   <sheets>
     <sheet name="Knowledge base" sheetId="1" r:id="rId1"/>
@@ -100,7 +100,7 @@
     <t>References</t>
   </si>
   <si>
-    <t>Database References</t>
+    <t>Identifiers</t>
   </si>
   <si>
     <t>c</t>
@@ -1647,12 +1647,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="26">
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1682,26 +1682,45 @@
       <charset val="1"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <name val="Calibri"/>
       <charset val="134"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1723,37 +1742,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -1761,7 +1749,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1772,14 +1760,6 @@
       <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1799,15 +1779,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1822,6 +1794,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -1830,9 +1809,17 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1871,7 +1858,133 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1889,114 +2002,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -2009,13 +2014,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2027,31 +2038,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2065,26 +2052,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2119,6 +2097,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -2128,17 +2121,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2146,8 +2133,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2165,130 +2152,109 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -2297,20 +2263,41 @@
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -2322,13 +2309,10 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3714,7 +3698,7 @@
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="B95" sqref="B95"/>
+      <selection pane="bottomRight" activeCell="F71" sqref="F71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -5143,10 +5127,10 @@
       </c>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="1" t="s">
         <v>490</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="5" t="s">
         <v>481</v>
       </c>
       <c r="C2" t="s">
@@ -5160,10 +5144,10 @@
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="1" t="s">
         <v>493</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="5" t="s">
         <v>484</v>
       </c>
       <c r="C3" t="s">
@@ -5177,7 +5161,7 @@
       </c>
     </row>
     <row r="4" spans="2:2">
-      <c r="B4" s="7"/>
+      <c r="B4" s="6"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:G3">

--- a/tests/fixtures/test_broken_kb.xlsx
+++ b/tests/fixtures/test_broken_kb.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="60" windowWidth="28695" windowHeight="13905" tabRatio="886" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="60" windowWidth="28695" windowHeight="13905" tabRatio="886" activeTab="12"/>
   </bookViews>
   <sheets>
     <sheet name="KB" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Chromosomes!$A$1:$I$2</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Compartments!$A$1:$E$3</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="9" hidden="1">Complexes!$A$1:$F$2</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="12" hidden="1">Concentrations!$B$1:$F$97</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="12" hidden="1">Concentrations!$B$1:$F$101</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">Genes!$A$1:$I$37</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">KB!$A$1:$B$6</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="10" hidden="1">Metabolites!$A$1:$G$37</definedName>
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1640" uniqueCount="766">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1652" uniqueCount="774">
   <si>
     <t>Id</t>
   </si>
@@ -2349,6 +2349,30 @@
   </si>
   <si>
     <t>PROP(prot_gene_1_33:half_life)</t>
+  </si>
+  <si>
+    <t>CONC(prot_gene_1_7[c])</t>
+  </si>
+  <si>
+    <t>prot_gene_1_7[c]</t>
+  </si>
+  <si>
+    <t>CONC(prot_gene_1_24[c])</t>
+  </si>
+  <si>
+    <t>prot_gene_1_24[c]</t>
+  </si>
+  <si>
+    <t>CONC(prot_gene_1_28[c])</t>
+  </si>
+  <si>
+    <t>prot_gene_1_28[c]</t>
+  </si>
+  <si>
+    <t>CONC(prot_gene_1_33[c])</t>
+  </si>
+  <si>
+    <t>prot_gene_1_33[c]</t>
   </si>
 </sst>
 </file>
@@ -2660,7 +2684,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="100">
+  <cellXfs count="101">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -2942,6 +2966,9 @@
     </xf>
     <xf numFmtId="0" fontId="12" fillId="7" borderId="0" xfId="20" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="11" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="78">
@@ -6295,18 +6322,19 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H97"/>
+  <dimension ref="A1:H101"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C23" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C32" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="G67" sqref="G67"/>
+      <selection pane="bottomRight" activeCell="F46" sqref="F46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="2" width="20.7109375" style="3" customWidth="1"/>
+    <col min="1" max="1" width="37.42578125" style="3" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" style="3" customWidth="1"/>
     <col min="3" max="4" width="15.7109375" style="31" customWidth="1"/>
     <col min="5" max="8" width="15.7109375" style="3" customWidth="1"/>
     <col min="9" max="16384" width="9" style="3"/>
@@ -6884,13 +6912,13 @@
     </row>
     <row r="36" spans="1:6" ht="15" customHeight="1">
       <c r="A36" s="3" t="s">
-        <v>569</v>
+        <v>766</v>
       </c>
       <c r="B36" s="50" t="s">
-        <v>398</v>
-      </c>
-      <c r="C36" s="30">
-        <v>1.67880496987186E-6</v>
+        <v>767</v>
+      </c>
+      <c r="C36" s="100">
+        <v>1.7899152671441701E-6</v>
       </c>
       <c r="D36" s="30" t="s">
         <v>364</v>
@@ -6900,13 +6928,13 @@
     </row>
     <row r="37" spans="1:6" ht="15" customHeight="1">
       <c r="A37" s="3" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="B37" s="50" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="C37" s="30">
-        <v>1.6821260479527201E-6</v>
+        <v>1.67880496987186E-6</v>
       </c>
       <c r="D37" s="30" t="s">
         <v>364</v>
@@ -6916,13 +6944,13 @@
     </row>
     <row r="38" spans="1:6" ht="15" customHeight="1">
       <c r="A38" s="3" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="B38" s="50" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="C38" s="30">
-        <v>1.67050227466973E-6</v>
+        <v>1.6821260479527201E-6</v>
       </c>
       <c r="D38" s="30" t="s">
         <v>364</v>
@@ -6932,13 +6960,13 @@
     </row>
     <row r="39" spans="1:6" ht="15" customHeight="1">
       <c r="A39" s="3" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="B39" s="50" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="C39" s="30">
-        <v>1.63895203290161E-6</v>
+        <v>1.67050227466973E-6</v>
       </c>
       <c r="D39" s="30" t="s">
         <v>364</v>
@@ -6948,13 +6976,13 @@
     </row>
     <row r="40" spans="1:6" ht="15" customHeight="1">
       <c r="A40" s="3" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="B40" s="50" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="C40" s="30">
-        <v>1.6688417356293001E-6</v>
+        <v>1.63895203290161E-6</v>
       </c>
       <c r="D40" s="30" t="s">
         <v>364</v>
@@ -6964,13 +6992,13 @@
     </row>
     <row r="41" spans="1:6" ht="15" customHeight="1">
       <c r="A41" s="3" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="B41" s="50" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="C41" s="30">
-        <v>1.6621995794675899E-6</v>
+        <v>1.6688417356293001E-6</v>
       </c>
       <c r="D41" s="30" t="s">
         <v>364</v>
@@ -6980,10 +7008,10 @@
     </row>
     <row r="42" spans="1:6" ht="15" customHeight="1">
       <c r="A42" s="3" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="B42" s="50" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="C42" s="30">
         <v>1.6621995794675899E-6</v>
@@ -6996,13 +7024,13 @@
     </row>
     <row r="43" spans="1:6" ht="15" customHeight="1">
       <c r="A43" s="3" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="B43" s="50" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="C43" s="30">
-        <v>1.65721796234631E-6</v>
+        <v>1.6621995794675899E-6</v>
       </c>
       <c r="D43" s="30" t="s">
         <v>364</v>
@@ -7012,13 +7040,13 @@
     </row>
     <row r="44" spans="1:6" ht="15" customHeight="1">
       <c r="A44" s="3" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="B44" s="50" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="C44" s="30">
-        <v>1.73194221916553E-6</v>
+        <v>1.65721796234631E-6</v>
       </c>
       <c r="D44" s="30" t="s">
         <v>364</v>
@@ -7028,13 +7056,13 @@
     </row>
     <row r="45" spans="1:6" ht="15" customHeight="1">
       <c r="A45" s="3" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="B45" s="50" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="C45" s="30">
-        <v>1.66053904042716E-6</v>
+        <v>1.73194221916553E-6</v>
       </c>
       <c r="D45" s="30" t="s">
         <v>364</v>
@@ -7044,13 +7072,13 @@
     </row>
     <row r="46" spans="1:6" ht="15" customHeight="1">
       <c r="A46" s="3" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="B46" s="50" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="C46" s="30">
-        <v>1.65389688426545E-6</v>
+        <v>1.66053904042716E-6</v>
       </c>
       <c r="D46" s="30" t="s">
         <v>364</v>
@@ -7060,13 +7088,13 @@
     </row>
     <row r="47" spans="1:6" ht="15" customHeight="1">
       <c r="A47" s="3" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="B47" s="50" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="C47" s="30">
-        <v>1.6273282596186199E-6</v>
+        <v>1.65389688426545E-6</v>
       </c>
       <c r="D47" s="30" t="s">
         <v>364</v>
@@ -7076,13 +7104,13 @@
     </row>
     <row r="48" spans="1:6" ht="15" customHeight="1">
       <c r="A48" s="3" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="B48" s="50" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="C48" s="30">
-        <v>1.65223634522503E-6</v>
+        <v>1.6273282596186199E-6</v>
       </c>
       <c r="D48" s="30" t="s">
         <v>364</v>
@@ -7092,13 +7120,13 @@
     </row>
     <row r="49" spans="1:6" ht="15" customHeight="1">
       <c r="A49" s="3" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="B49" s="50" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="C49" s="30">
-        <v>1.65721796234631E-6</v>
+        <v>1.65223634522503E-6</v>
       </c>
       <c r="D49" s="30" t="s">
         <v>364</v>
@@ -7108,13 +7136,13 @@
     </row>
     <row r="50" spans="1:6" ht="15" customHeight="1">
       <c r="A50" s="3" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="B50" s="50" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="C50" s="30">
-        <v>1.69208928219528E-6</v>
+        <v>1.65721796234631E-6</v>
       </c>
       <c r="D50" s="30" t="s">
         <v>364</v>
@@ -7124,13 +7152,13 @@
     </row>
     <row r="51" spans="1:6" ht="15" customHeight="1">
       <c r="A51" s="3" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="B51" s="50" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="C51" s="30">
-        <v>1.6140439472952001E-6</v>
+        <v>1.69208928219528E-6</v>
       </c>
       <c r="D51" s="30" t="s">
         <v>364</v>
@@ -7140,13 +7168,13 @@
     </row>
     <row r="52" spans="1:6" ht="15" customHeight="1">
       <c r="A52" s="3" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="B52" s="50" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C52" s="30">
-        <v>1.69541036027613E-6</v>
+        <v>1.6140439472952001E-6</v>
       </c>
       <c r="D52" s="30" t="s">
         <v>364</v>
@@ -7156,13 +7184,13 @@
     </row>
     <row r="53" spans="1:6" ht="15" customHeight="1">
       <c r="A53" s="3" t="s">
-        <v>586</v>
+        <v>768</v>
       </c>
       <c r="B53" s="50" t="s">
-        <v>415</v>
+        <v>769</v>
       </c>
       <c r="C53" s="30">
-        <v>1.6455941890633199E-6</v>
+        <v>1.698439472952E-6</v>
       </c>
       <c r="D53" s="30" t="s">
         <v>364</v>
@@ -7172,13 +7200,13 @@
     </row>
     <row r="54" spans="1:6" ht="15" customHeight="1">
       <c r="A54" s="3" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="B54" s="50" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="C54" s="30">
-        <v>1.7020525164378399E-6</v>
+        <v>1.69541036027613E-6</v>
       </c>
       <c r="D54" s="30" t="s">
         <v>364</v>
@@ -7188,13 +7216,13 @@
     </row>
     <row r="55" spans="1:6" ht="15" customHeight="1">
       <c r="A55" s="3" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="B55" s="50" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="C55" s="30">
-        <v>1.65721796234631E-6</v>
+        <v>1.6455941890633199E-6</v>
       </c>
       <c r="D55" s="30" t="s">
         <v>364</v>
@@ -7204,13 +7232,13 @@
     </row>
     <row r="56" spans="1:6" ht="15" customHeight="1">
       <c r="A56" s="3" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="B56" s="50" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="C56" s="30">
-        <v>1.6306493376994701E-6</v>
+        <v>1.7020525164378399E-6</v>
       </c>
       <c r="D56" s="30" t="s">
         <v>364</v>
@@ -7220,13 +7248,13 @@
     </row>
     <row r="57" spans="1:6" ht="15" customHeight="1">
       <c r="A57" s="3" t="s">
-        <v>590</v>
+        <v>770</v>
       </c>
       <c r="B57" s="50" t="s">
-        <v>419</v>
-      </c>
-      <c r="C57" s="30">
-        <v>1.6455941890633199E-6</v>
+        <v>771</v>
+      </c>
+      <c r="C57" s="100">
+        <v>1.87876234631E-6</v>
       </c>
       <c r="D57" s="30" t="s">
         <v>364</v>
@@ -7236,13 +7264,13 @@
     </row>
     <row r="58" spans="1:6" ht="15" customHeight="1">
       <c r="A58" s="3" t="s">
-        <v>591</v>
+        <v>588</v>
       </c>
       <c r="B58" s="50" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="C58" s="30">
-        <v>1.66053904042716E-6</v>
+        <v>1.65721796234631E-6</v>
       </c>
       <c r="D58" s="30" t="s">
         <v>364</v>
@@ -7252,13 +7280,13 @@
     </row>
     <row r="59" spans="1:6" ht="15" customHeight="1">
       <c r="A59" s="3" t="s">
-        <v>592</v>
+        <v>589</v>
       </c>
       <c r="B59" s="50" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="C59" s="30">
-        <v>1.6671811965888701E-6</v>
+        <v>1.6306493376994701E-6</v>
       </c>
       <c r="D59" s="30" t="s">
         <v>364</v>
@@ -7268,13 +7296,13 @@
     </row>
     <row r="60" spans="1:6" ht="15" customHeight="1">
       <c r="A60" s="3" t="s">
-        <v>593</v>
+        <v>590</v>
       </c>
       <c r="B60" s="50" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="C60" s="30">
-        <v>1.6854471260335701E-6</v>
+        <v>1.6455941890633199E-6</v>
       </c>
       <c r="D60" s="30" t="s">
         <v>364</v>
@@ -7284,13 +7312,13 @@
     </row>
     <row r="61" spans="1:6" ht="15" customHeight="1">
       <c r="A61" s="3" t="s">
-        <v>594</v>
+        <v>591</v>
       </c>
       <c r="B61" s="50" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="C61" s="30">
-        <v>1.67880496987186E-6</v>
+        <v>1.66053904042716E-6</v>
       </c>
       <c r="D61" s="30" t="s">
         <v>364</v>
@@ -7300,13 +7328,13 @@
     </row>
     <row r="62" spans="1:6" ht="15" customHeight="1">
       <c r="A62" s="3" t="s">
-        <v>595</v>
+        <v>772</v>
       </c>
       <c r="B62" s="50" t="s">
-        <v>424</v>
-      </c>
-      <c r="C62" s="30">
-        <v>1.6605390404271601E-7</v>
+        <v>773</v>
+      </c>
+      <c r="C62" s="100">
+        <v>1.9875390404271602E-6</v>
       </c>
       <c r="D62" s="30" t="s">
         <v>364</v>
@@ -7316,13 +7344,13 @@
     </row>
     <row r="63" spans="1:6" ht="15" customHeight="1">
       <c r="A63" s="3" t="s">
-        <v>596</v>
+        <v>592</v>
       </c>
       <c r="B63" s="50" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="C63" s="30">
-        <v>1.8930145060869699E-7</v>
+        <v>1.6671811965888701E-6</v>
       </c>
       <c r="D63" s="30" t="s">
         <v>364</v>
@@ -7332,13 +7360,13 @@
     </row>
     <row r="64" spans="1:6" ht="15" customHeight="1">
       <c r="A64" s="3" t="s">
-        <v>597</v>
+        <v>593</v>
       </c>
       <c r="B64" s="50" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="C64" s="30">
-        <v>1.4114581843630899E-7</v>
+        <v>1.6854471260335701E-6</v>
       </c>
       <c r="D64" s="30" t="s">
         <v>364</v>
@@ -7348,13 +7376,13 @@
     </row>
     <row r="65" spans="1:6" ht="15" customHeight="1">
       <c r="A65" s="3" t="s">
-        <v>598</v>
+        <v>594</v>
       </c>
       <c r="B65" s="50" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="C65" s="30">
-        <v>1.9262252868955099E-7</v>
+        <v>1.67880496987186E-6</v>
       </c>
       <c r="D65" s="30" t="s">
         <v>364</v>
@@ -7364,13 +7392,13 @@
     </row>
     <row r="66" spans="1:6" ht="15" customHeight="1">
       <c r="A66" s="3" t="s">
-        <v>599</v>
+        <v>595</v>
       </c>
       <c r="B66" s="50" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="C66" s="30">
-        <v>1.85980372527842E-7</v>
+        <v>1.6605390404271601E-7</v>
       </c>
       <c r="D66" s="30" t="s">
         <v>364</v>
@@ -7380,13 +7408,13 @@
     </row>
     <row r="67" spans="1:6" ht="15" customHeight="1">
       <c r="A67" s="3" t="s">
-        <v>600</v>
+        <v>596</v>
       </c>
       <c r="B67" s="50" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
       <c r="C67" s="30">
-        <v>1.3118258419374599E-7</v>
+        <v>1.8930145060869699E-7</v>
       </c>
       <c r="D67" s="30" t="s">
         <v>364</v>
@@ -7396,13 +7424,13 @@
     </row>
     <row r="68" spans="1:6" ht="15" customHeight="1">
       <c r="A68" s="3" t="s">
-        <v>601</v>
+        <v>597</v>
       </c>
       <c r="B68" s="50" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="C68" s="30">
-        <v>1.6273282596186201E-7</v>
+        <v>1.4114581843630899E-7</v>
       </c>
       <c r="D68" s="30" t="s">
         <v>364</v>
@@ -7412,13 +7440,13 @@
     </row>
     <row r="69" spans="1:6" ht="15" customHeight="1">
       <c r="A69" s="3" t="s">
-        <v>602</v>
+        <v>598</v>
       </c>
       <c r="B69" s="50" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
       <c r="C69" s="30">
-        <v>2.09227919093823E-7</v>
+        <v>1.9262252868955099E-7</v>
       </c>
       <c r="D69" s="30" t="s">
         <v>364</v>
@@ -7428,13 +7456,13 @@
     </row>
     <row r="70" spans="1:6" ht="15" customHeight="1">
       <c r="A70" s="3" t="s">
-        <v>603</v>
+        <v>599</v>
       </c>
       <c r="B70" s="50" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="C70" s="30">
-        <v>1.71035521163998E-7</v>
+        <v>1.85980372527842E-7</v>
       </c>
       <c r="D70" s="30" t="s">
         <v>364</v>
@@ -7444,13 +7472,13 @@
     </row>
     <row r="71" spans="1:6" ht="15" customHeight="1">
       <c r="A71" s="3" t="s">
-        <v>604</v>
+        <v>600</v>
       </c>
       <c r="B71" s="50" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="C71" s="30">
-        <v>1.5276959171929901E-7</v>
+        <v>1.3118258419374599E-7</v>
       </c>
       <c r="D71" s="30" t="s">
         <v>364</v>
@@ -7460,13 +7488,13 @@
     </row>
     <row r="72" spans="1:6" ht="15" customHeight="1">
       <c r="A72" s="3" t="s">
-        <v>605</v>
+        <v>601</v>
       </c>
       <c r="B72" s="50" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="C72" s="30">
-        <v>1.5443013075972599E-7</v>
+        <v>1.6273282596186201E-7</v>
       </c>
       <c r="D72" s="30" t="s">
         <v>364</v>
@@ -7476,13 +7504,13 @@
     </row>
     <row r="73" spans="1:6" ht="15" customHeight="1">
       <c r="A73" s="3" t="s">
-        <v>606</v>
+        <v>602</v>
       </c>
       <c r="B73" s="50" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="C73" s="30">
-        <v>1.59411747881008E-7</v>
+        <v>2.09227919093823E-7</v>
       </c>
       <c r="D73" s="30" t="s">
         <v>364</v>
@@ -7492,13 +7520,13 @@
     </row>
     <row r="74" spans="1:6" ht="15" customHeight="1">
       <c r="A74" s="3" t="s">
-        <v>607</v>
+        <v>603</v>
       </c>
       <c r="B74" s="50" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="C74" s="30">
-        <v>1.85980372527842E-7</v>
+        <v>1.71035521163998E-7</v>
       </c>
       <c r="D74" s="30" t="s">
         <v>364</v>
@@ -7508,13 +7536,13 @@
     </row>
     <row r="75" spans="1:6" ht="15" customHeight="1">
       <c r="A75" s="3" t="s">
-        <v>608</v>
+        <v>604</v>
       </c>
       <c r="B75" s="50" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="C75" s="30">
-        <v>1.71035521163998E-7</v>
+        <v>1.5276959171929901E-7</v>
       </c>
       <c r="D75" s="30" t="s">
         <v>364</v>
@@ -7524,13 +7552,13 @@
     </row>
     <row r="76" spans="1:6" ht="15" customHeight="1">
       <c r="A76" s="3" t="s">
-        <v>609</v>
+        <v>605</v>
       </c>
       <c r="B76" s="50" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="C76" s="30">
-        <v>1.8099875540656099E-7</v>
+        <v>1.5443013075972599E-7</v>
       </c>
       <c r="D76" s="30" t="s">
         <v>364</v>
@@ -7540,13 +7568,13 @@
     </row>
     <row r="77" spans="1:6" ht="15" customHeight="1">
       <c r="A77" s="3" t="s">
-        <v>610</v>
+        <v>606</v>
       </c>
       <c r="B77" s="50" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="C77" s="30">
-        <v>1.9926468485126001E-7</v>
+        <v>1.59411747881008E-7</v>
       </c>
       <c r="D77" s="30" t="s">
         <v>364</v>
@@ -7556,13 +7584,13 @@
     </row>
     <row r="78" spans="1:6" ht="15" customHeight="1">
       <c r="A78" s="3" t="s">
-        <v>611</v>
+        <v>607</v>
       </c>
       <c r="B78" s="50" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="C78" s="30">
-        <v>1.4280635747673599E-7</v>
+        <v>1.85980372527842E-7</v>
       </c>
       <c r="D78" s="30" t="s">
         <v>364</v>
@@ -7572,13 +7600,13 @@
     </row>
     <row r="79" spans="1:6" ht="15" customHeight="1">
       <c r="A79" s="3" t="s">
-        <v>612</v>
+        <v>608</v>
       </c>
       <c r="B79" s="50" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="C79" s="30">
-        <v>1.7601713828527901E-7</v>
+        <v>1.71035521163998E-7</v>
       </c>
       <c r="D79" s="30" t="s">
         <v>364</v>
@@ -7588,13 +7616,13 @@
     </row>
     <row r="80" spans="1:6" ht="15" customHeight="1">
       <c r="A80" s="3" t="s">
-        <v>613</v>
+        <v>609</v>
       </c>
       <c r="B80" s="50" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="C80" s="30">
-        <v>1.82659294446988E-7</v>
+        <v>1.8099875540656099E-7</v>
       </c>
       <c r="D80" s="30" t="s">
         <v>364</v>
@@ -7604,13 +7632,13 @@
     </row>
     <row r="81" spans="1:6" ht="15" customHeight="1">
       <c r="A81" s="3" t="s">
-        <v>614</v>
+        <v>610</v>
       </c>
       <c r="B81" s="50" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="C81" s="30">
-        <v>1.9096198964912399E-7</v>
+        <v>1.9926468485126001E-7</v>
       </c>
       <c r="D81" s="30" t="s">
         <v>364</v>
@@ -7620,13 +7648,13 @@
     </row>
     <row r="82" spans="1:6" ht="15" customHeight="1">
       <c r="A82" s="3" t="s">
-        <v>615</v>
+        <v>611</v>
       </c>
       <c r="B82" s="50" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="C82" s="30">
-        <v>1.69374982123571E-7</v>
+        <v>1.4280635747673599E-7</v>
       </c>
       <c r="D82" s="30" t="s">
         <v>364</v>
@@ -7636,13 +7664,13 @@
     </row>
     <row r="83" spans="1:6" ht="15" customHeight="1">
       <c r="A83" s="3" t="s">
-        <v>616</v>
+        <v>612</v>
       </c>
       <c r="B83" s="50" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="C83" s="30">
-        <v>1.5443013075972599E-7</v>
+        <v>1.7601713828527901E-7</v>
       </c>
       <c r="D83" s="30" t="s">
         <v>364</v>
@@ -7652,13 +7680,13 @@
     </row>
     <row r="84" spans="1:6" ht="15" customHeight="1">
       <c r="A84" s="3" t="s">
-        <v>617</v>
+        <v>613</v>
       </c>
       <c r="B84" s="50" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="C84" s="30">
-        <v>1.72696060204425E-7</v>
+        <v>1.82659294446988E-7</v>
       </c>
       <c r="D84" s="30" t="s">
         <v>364</v>
@@ -7668,13 +7696,13 @@
     </row>
     <row r="85" spans="1:6" ht="15" customHeight="1">
       <c r="A85" s="3" t="s">
-        <v>618</v>
+        <v>614</v>
       </c>
       <c r="B85" s="50" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
       <c r="C85" s="30">
-        <v>1.71035521163998E-7</v>
+        <v>1.9096198964912399E-7</v>
       </c>
       <c r="D85" s="30" t="s">
         <v>364</v>
@@ -7684,13 +7712,13 @@
     </row>
     <row r="86" spans="1:6" ht="15" customHeight="1">
       <c r="A86" s="3" t="s">
-        <v>619</v>
+        <v>615</v>
       </c>
       <c r="B86" s="50" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
       <c r="C86" s="30">
-        <v>1.5276959171929901E-7</v>
+        <v>1.69374982123571E-7</v>
       </c>
       <c r="D86" s="30" t="s">
         <v>364</v>
@@ -7700,13 +7728,13 @@
     </row>
     <row r="87" spans="1:6" ht="15" customHeight="1">
       <c r="A87" s="3" t="s">
-        <v>620</v>
+        <v>616</v>
       </c>
       <c r="B87" s="50" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="C87" s="30">
-        <v>1.7767767732570699E-7</v>
+        <v>1.5443013075972599E-7</v>
       </c>
       <c r="D87" s="30" t="s">
         <v>364</v>
@@ -7716,13 +7744,13 @@
     </row>
     <row r="88" spans="1:6" ht="15" customHeight="1">
       <c r="A88" s="3" t="s">
-        <v>621</v>
+        <v>617</v>
       </c>
       <c r="B88" s="50" t="s">
-        <v>450</v>
+        <v>446</v>
       </c>
       <c r="C88" s="30">
-        <v>1.69374982123571E-7</v>
+        <v>1.72696060204425E-7</v>
       </c>
       <c r="D88" s="30" t="s">
         <v>364</v>
@@ -7732,13 +7760,13 @@
     </row>
     <row r="89" spans="1:6" ht="15" customHeight="1">
       <c r="A89" s="3" t="s">
-        <v>622</v>
+        <v>618</v>
       </c>
       <c r="B89" s="50" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
       <c r="C89" s="30">
-        <v>1.5443013075972599E-7</v>
+        <v>1.71035521163998E-7</v>
       </c>
       <c r="D89" s="30" t="s">
         <v>364</v>
@@ -7748,13 +7776,13 @@
     </row>
     <row r="90" spans="1:6" ht="15" customHeight="1">
       <c r="A90" s="3" t="s">
-        <v>623</v>
+        <v>619</v>
       </c>
       <c r="B90" s="50" t="s">
-        <v>452</v>
+        <v>448</v>
       </c>
       <c r="C90" s="30">
-        <v>6.7999999999999999E-5</v>
+        <v>1.5276959171929901E-7</v>
       </c>
       <c r="D90" s="30" t="s">
         <v>364</v>
@@ -7764,13 +7792,13 @@
     </row>
     <row r="91" spans="1:6" ht="15" customHeight="1">
       <c r="A91" s="3" t="s">
-        <v>624</v>
+        <v>620</v>
       </c>
       <c r="B91" s="50" t="s">
-        <v>453</v>
+        <v>449</v>
       </c>
       <c r="C91" s="30">
-        <v>1.8000000000000001E-4</v>
+        <v>1.7767767732570699E-7</v>
       </c>
       <c r="D91" s="30" t="s">
         <v>364</v>
@@ -7780,13 +7808,13 @@
     </row>
     <row r="92" spans="1:6" ht="15" customHeight="1">
       <c r="A92" s="3" t="s">
-        <v>625</v>
+        <v>621</v>
       </c>
       <c r="B92" s="50" t="s">
-        <v>454</v>
+        <v>450</v>
       </c>
       <c r="C92" s="30">
-        <v>1.2E-5</v>
+        <v>1.69374982123571E-7</v>
       </c>
       <c r="D92" s="30" t="s">
         <v>364</v>
@@ -7796,13 +7824,13 @@
     </row>
     <row r="93" spans="1:6" ht="15" customHeight="1">
       <c r="A93" s="3" t="s">
-        <v>626</v>
+        <v>622</v>
       </c>
       <c r="B93" s="50" t="s">
-        <v>455</v>
+        <v>451</v>
       </c>
       <c r="C93" s="30">
-        <v>2.9E-5</v>
+        <v>1.5443013075972599E-7</v>
       </c>
       <c r="D93" s="30" t="s">
         <v>364</v>
@@ -7812,13 +7840,13 @@
     </row>
     <row r="94" spans="1:6" ht="15" customHeight="1">
       <c r="A94" s="3" t="s">
-        <v>627</v>
+        <v>623</v>
       </c>
       <c r="B94" s="50" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
       <c r="C94" s="30">
-        <v>1.84E-4</v>
+        <v>6.7999999999999999E-5</v>
       </c>
       <c r="D94" s="30" t="s">
         <v>364</v>
@@ -7828,13 +7856,13 @@
     </row>
     <row r="95" spans="1:6" ht="15" customHeight="1">
       <c r="A95" s="3" t="s">
-        <v>628</v>
+        <v>624</v>
       </c>
       <c r="B95" s="50" t="s">
-        <v>457</v>
+        <v>453</v>
       </c>
       <c r="C95" s="30">
-        <v>1E-3</v>
+        <v>1.8000000000000001E-4</v>
       </c>
       <c r="D95" s="30" t="s">
         <v>364</v>
@@ -7844,13 +7872,13 @@
     </row>
     <row r="96" spans="1:6" ht="15" customHeight="1">
       <c r="A96" s="3" t="s">
-        <v>629</v>
+        <v>625</v>
       </c>
       <c r="B96" s="50" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="C96" s="30">
-        <v>2E-3</v>
+        <v>1.2E-5</v>
       </c>
       <c r="D96" s="30" t="s">
         <v>364</v>
@@ -7860,13 +7888,13 @@
     </row>
     <row r="97" spans="1:6" ht="15" customHeight="1">
       <c r="A97" s="3" t="s">
-        <v>630</v>
+        <v>626</v>
       </c>
       <c r="B97" s="50" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="C97" s="30">
-        <v>4.0000000000000001E-3</v>
+        <v>2.9E-5</v>
       </c>
       <c r="D97" s="30" t="s">
         <v>364</v>
@@ -7874,8 +7902,72 @@
       <c r="E97" s="2"/>
       <c r="F97" s="2"/>
     </row>
+    <row r="98" spans="1:6" ht="15" customHeight="1">
+      <c r="A98" s="3" t="s">
+        <v>627</v>
+      </c>
+      <c r="B98" s="50" t="s">
+        <v>456</v>
+      </c>
+      <c r="C98" s="30">
+        <v>1.84E-4</v>
+      </c>
+      <c r="D98" s="30" t="s">
+        <v>364</v>
+      </c>
+      <c r="E98" s="2"/>
+      <c r="F98" s="2"/>
+    </row>
+    <row r="99" spans="1:6" ht="15" customHeight="1">
+      <c r="A99" s="3" t="s">
+        <v>628</v>
+      </c>
+      <c r="B99" s="50" t="s">
+        <v>457</v>
+      </c>
+      <c r="C99" s="30">
+        <v>1E-3</v>
+      </c>
+      <c r="D99" s="30" t="s">
+        <v>364</v>
+      </c>
+      <c r="E99" s="2"/>
+      <c r="F99" s="2"/>
+    </row>
+    <row r="100" spans="1:6" ht="15" customHeight="1">
+      <c r="A100" s="3" t="s">
+        <v>629</v>
+      </c>
+      <c r="B100" s="50" t="s">
+        <v>458</v>
+      </c>
+      <c r="C100" s="30">
+        <v>2E-3</v>
+      </c>
+      <c r="D100" s="30" t="s">
+        <v>364</v>
+      </c>
+      <c r="E100" s="2"/>
+      <c r="F100" s="2"/>
+    </row>
+    <row r="101" spans="1:6" ht="15" customHeight="1">
+      <c r="A101" s="3" t="s">
+        <v>630</v>
+      </c>
+      <c r="B101" s="50" t="s">
+        <v>459</v>
+      </c>
+      <c r="C101" s="30">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="D101" s="30" t="s">
+        <v>364</v>
+      </c>
+      <c r="E101" s="2"/>
+      <c r="F101" s="2"/>
+    </row>
   </sheetData>
-  <autoFilter ref="B1:F97"/>
+  <autoFilter ref="B1:F101"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
@@ -10078,7 +10170,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
